--- a/Översikt BOLLNÄS.xlsx
+++ b/Översikt BOLLNÄS.xlsx
@@ -572,7 +572,7 @@
         <v>44109</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -675,7 +675,7 @@
         <v>44095</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -776,7 +776,7 @@
         <v>44382</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -868,7 +868,7 @@
         <v>44729</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -960,7 +960,7 @@
         <v>43783</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1055,7 +1055,7 @@
         <v>43783</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1150,7 +1150,7 @@
         <v>43783</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1245,7 +1245,7 @@
         <v>43993</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1331,7 +1331,7 @@
         <v>43999</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1422,7 +1422,7 @@
         <v>44432</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1512,7 +1512,7 @@
         <v>45092</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         <v>43600</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1688,7 +1688,7 @@
         <v>43619</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1777,7 +1777,7 @@
         <v>43794</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1862,7 +1862,7 @@
         <v>43864</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1947,7 +1947,7 @@
         <v>44081</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2037,7 +2037,7 @@
         <v>44515</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2127,7 +2127,7 @@
         <v>44813</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2212,7 +2212,7 @@
         <v>44901</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2297,7 +2297,7 @@
         <v>45058</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         <v>45090</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2471,7 +2471,7 @@
         <v>43360</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2528,7 +2528,7 @@
         <v>43375</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2585,7 +2585,7 @@
         <v>43382</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2642,7 +2642,7 @@
         <v>43389</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2699,7 +2699,7 @@
         <v>43392</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2756,7 +2756,7 @@
         <v>43410</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2813,7 +2813,7 @@
         <v>43413</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2875,7 +2875,7 @@
         <v>43416</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2932,7 +2932,7 @@
         <v>43417</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2989,7 +2989,7 @@
         <v>43417</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3046,7 +3046,7 @@
         <v>43418</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3103,7 +3103,7 @@
         <v>43418</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3160,7 +3160,7 @@
         <v>43418</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3217,7 +3217,7 @@
         <v>43419</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3274,7 +3274,7 @@
         <v>43420</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3331,7 +3331,7 @@
         <v>43424</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3388,7 +3388,7 @@
         <v>43424</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3445,7 +3445,7 @@
         <v>43424</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3502,7 +3502,7 @@
         <v>43424</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3559,7 +3559,7 @@
         <v>43424</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3616,7 +3616,7 @@
         <v>43424</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3673,7 +3673,7 @@
         <v>43424</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3730,7 +3730,7 @@
         <v>43427</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3787,7 +3787,7 @@
         <v>43427</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3844,7 +3844,7 @@
         <v>43427</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3901,7 +3901,7 @@
         <v>43427</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3958,7 +3958,7 @@
         <v>43427</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4015,7 +4015,7 @@
         <v>43430</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4072,7 +4072,7 @@
         <v>43431</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4129,7 +4129,7 @@
         <v>43431</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4186,7 +4186,7 @@
         <v>43434</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4243,7 +4243,7 @@
         <v>43434</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4300,7 +4300,7 @@
         <v>43437</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4357,7 +4357,7 @@
         <v>43441</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4414,7 +4414,7 @@
         <v>43444</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4471,7 +4471,7 @@
         <v>43445</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4533,7 +4533,7 @@
         <v>43445</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4590,7 +4590,7 @@
         <v>43446</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4647,7 +4647,7 @@
         <v>43446</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4704,7 +4704,7 @@
         <v>43447</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4761,7 +4761,7 @@
         <v>43448</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4818,7 +4818,7 @@
         <v>43452</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4875,7 +4875,7 @@
         <v>43452</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4932,7 +4932,7 @@
         <v>43454</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4989,7 +4989,7 @@
         <v>43455</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5046,7 +5046,7 @@
         <v>43455</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5103,7 +5103,7 @@
         <v>43467</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5160,7 +5160,7 @@
         <v>43472</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5217,7 +5217,7 @@
         <v>43472</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5274,7 +5274,7 @@
         <v>43472</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5331,7 +5331,7 @@
         <v>43476</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5388,7 +5388,7 @@
         <v>43476</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5445,7 +5445,7 @@
         <v>43476</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5502,7 +5502,7 @@
         <v>43480</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5559,7 +5559,7 @@
         <v>43482</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5616,7 +5616,7 @@
         <v>43482</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5673,7 +5673,7 @@
         <v>43497</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5730,7 +5730,7 @@
         <v>43509</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5787,7 +5787,7 @@
         <v>43515</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5844,7 +5844,7 @@
         <v>43517</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5901,7 +5901,7 @@
         <v>43518</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5958,7 +5958,7 @@
         <v>43522</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6015,7 +6015,7 @@
         <v>43523</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6072,7 +6072,7 @@
         <v>43528</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6129,7 +6129,7 @@
         <v>43528</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6186,7 +6186,7 @@
         <v>43529</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6243,7 +6243,7 @@
         <v>43532</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6300,7 +6300,7 @@
         <v>43532</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6357,7 +6357,7 @@
         <v>43536</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6414,7 +6414,7 @@
         <v>43537</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6471,7 +6471,7 @@
         <v>43559</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6528,7 +6528,7 @@
         <v>43560</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6585,7 +6585,7 @@
         <v>43563</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6642,7 +6642,7 @@
         <v>43564</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6699,7 +6699,7 @@
         <v>43567</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6756,7 +6756,7 @@
         <v>43571</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6813,7 +6813,7 @@
         <v>43580</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6870,7 +6870,7 @@
         <v>43583</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6927,7 +6927,7 @@
         <v>43587</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6984,7 +6984,7 @@
         <v>43593</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7041,7 +7041,7 @@
         <v>43593</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7098,7 +7098,7 @@
         <v>43594</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7155,7 +7155,7 @@
         <v>43598</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7212,7 +7212,7 @@
         <v>43599</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7269,7 +7269,7 @@
         <v>43599</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7326,7 +7326,7 @@
         <v>43599</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7383,7 +7383,7 @@
         <v>43605</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7445,7 +7445,7 @@
         <v>43607</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7502,7 +7502,7 @@
         <v>43612</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7559,7 +7559,7 @@
         <v>43619</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7621,7 +7621,7 @@
         <v>43619</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7678,7 +7678,7 @@
         <v>43619</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7740,7 +7740,7 @@
         <v>43619</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7802,7 +7802,7 @@
         <v>43620</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7859,7 +7859,7 @@
         <v>43620</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7916,7 +7916,7 @@
         <v>43629</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7978,7 +7978,7 @@
         <v>43629</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8035,7 +8035,7 @@
         <v>43633</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8092,7 +8092,7 @@
         <v>43635</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8149,7 +8149,7 @@
         <v>43640</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8206,7 +8206,7 @@
         <v>43641</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8263,7 +8263,7 @@
         <v>43643</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8320,7 +8320,7 @@
         <v>43649</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8377,7 +8377,7 @@
         <v>43649</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8434,7 +8434,7 @@
         <v>43651</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8496,7 +8496,7 @@
         <v>43654</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8553,7 +8553,7 @@
         <v>43656</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8610,7 +8610,7 @@
         <v>43657</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8667,7 +8667,7 @@
         <v>43657</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8729,7 +8729,7 @@
         <v>43664</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8786,7 +8786,7 @@
         <v>43689</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8843,7 +8843,7 @@
         <v>43691</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8905,7 +8905,7 @@
         <v>43698</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8962,7 +8962,7 @@
         <v>43698</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9019,7 +9019,7 @@
         <v>43703</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9076,7 +9076,7 @@
         <v>43704</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9133,7 +9133,7 @@
         <v>43704</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9190,7 +9190,7 @@
         <v>43705</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9252,7 +9252,7 @@
         <v>43706</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9309,7 +9309,7 @@
         <v>43707</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9371,7 +9371,7 @@
         <v>43707</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9433,7 +9433,7 @@
         <v>43710</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9490,7 +9490,7 @@
         <v>43711</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9552,7 +9552,7 @@
         <v>43717</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9609,7 +9609,7 @@
         <v>43718</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9666,7 +9666,7 @@
         <v>43718</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9723,7 +9723,7 @@
         <v>43721</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9785,7 +9785,7 @@
         <v>43726</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9842,7 +9842,7 @@
         <v>43732</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9899,7 +9899,7 @@
         <v>43733</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9961,7 +9961,7 @@
         <v>43733</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10023,7 +10023,7 @@
         <v>43738</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10080,7 +10080,7 @@
         <v>43739</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10137,7 +10137,7 @@
         <v>43740</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10194,7 +10194,7 @@
         <v>43741</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10251,7 +10251,7 @@
         <v>43742</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10308,7 +10308,7 @@
         <v>43742</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10365,7 +10365,7 @@
         <v>43742</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10422,7 +10422,7 @@
         <v>43748</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10479,7 +10479,7 @@
         <v>43753</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10536,7 +10536,7 @@
         <v>43754</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10598,7 +10598,7 @@
         <v>43754</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10655,7 +10655,7 @@
         <v>43755</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10717,7 +10717,7 @@
         <v>43759</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10774,7 +10774,7 @@
         <v>43759</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10831,7 +10831,7 @@
         <v>43760</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10888,7 +10888,7 @@
         <v>43761</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10950,7 +10950,7 @@
         <v>43767</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11012,7 +11012,7 @@
         <v>43769</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11069,7 +11069,7 @@
         <v>43773</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11126,7 +11126,7 @@
         <v>43776</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11183,7 +11183,7 @@
         <v>43777</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11240,7 +11240,7 @@
         <v>43781</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11302,7 +11302,7 @@
         <v>43783</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11359,7 +11359,7 @@
         <v>43783</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11416,7 +11416,7 @@
         <v>43783</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11498,7 +11498,7 @@
         <v>43787</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11555,7 +11555,7 @@
         <v>43789</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11612,7 +11612,7 @@
         <v>43789</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11669,7 +11669,7 @@
         <v>43790</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11726,7 +11726,7 @@
         <v>43794</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11783,7 +11783,7 @@
         <v>43795</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11840,7 +11840,7 @@
         <v>43798</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11897,7 +11897,7 @@
         <v>43800</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11954,7 +11954,7 @@
         <v>43802</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12011,7 +12011,7 @@
         <v>43808</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12073,7 +12073,7 @@
         <v>43809</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12135,7 +12135,7 @@
         <v>43809</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12197,7 +12197,7 @@
         <v>43809</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12254,7 +12254,7 @@
         <v>43812</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12311,7 +12311,7 @@
         <v>43815</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12368,7 +12368,7 @@
         <v>43819</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12425,7 +12425,7 @@
         <v>43819</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12482,7 +12482,7 @@
         <v>43837</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12539,7 +12539,7 @@
         <v>43837</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12596,7 +12596,7 @@
         <v>43840</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12653,7 +12653,7 @@
         <v>43840</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12710,7 +12710,7 @@
         <v>43846</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12767,7 +12767,7 @@
         <v>43850</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12824,7 +12824,7 @@
         <v>43852</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12886,7 +12886,7 @@
         <v>43853</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12948,7 +12948,7 @@
         <v>43858</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13010,7 +13010,7 @@
         <v>43859</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13072,7 +13072,7 @@
         <v>43865</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13129,7 +13129,7 @@
         <v>43867</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13186,7 +13186,7 @@
         <v>43871</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13243,7 +13243,7 @@
         <v>43878</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13300,7 +13300,7 @@
         <v>43878</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13357,7 +13357,7 @@
         <v>43879</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13414,7 +13414,7 @@
         <v>43882</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13471,7 +13471,7 @@
         <v>43886</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13528,7 +13528,7 @@
         <v>43886</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13585,7 +13585,7 @@
         <v>43887</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13642,7 +13642,7 @@
         <v>43888</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13699,7 +13699,7 @@
         <v>43892</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13756,7 +13756,7 @@
         <v>43894</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13813,7 +13813,7 @@
         <v>43894</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13870,7 +13870,7 @@
         <v>43901</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13932,7 +13932,7 @@
         <v>43902</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13989,7 +13989,7 @@
         <v>43913</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14046,7 +14046,7 @@
         <v>43913</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14103,7 +14103,7 @@
         <v>43913</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14165,7 +14165,7 @@
         <v>43916</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14222,7 +14222,7 @@
         <v>43916</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14279,7 +14279,7 @@
         <v>43924</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14336,7 +14336,7 @@
         <v>43927</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14393,7 +14393,7 @@
         <v>43930</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14450,7 +14450,7 @@
         <v>43945</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14507,7 +14507,7 @@
         <v>43949</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14564,7 +14564,7 @@
         <v>43949</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14621,7 +14621,7 @@
         <v>43956</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14678,7 +14678,7 @@
         <v>43987</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14735,7 +14735,7 @@
         <v>43991</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14792,7 +14792,7 @@
         <v>43993</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14854,7 +14854,7 @@
         <v>43993</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14916,7 +14916,7 @@
         <v>43994</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14973,7 +14973,7 @@
         <v>43998</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15030,7 +15030,7 @@
         <v>44000</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15092,7 +15092,7 @@
         <v>44006</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15149,7 +15149,7 @@
         <v>44008</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15206,7 +15206,7 @@
         <v>44012</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15263,7 +15263,7 @@
         <v>44013</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15320,7 +15320,7 @@
         <v>44014</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15377,7 +15377,7 @@
         <v>44014</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15434,7 +15434,7 @@
         <v>44014</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15491,7 +15491,7 @@
         <v>44014</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15548,7 +15548,7 @@
         <v>44014</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15605,7 +15605,7 @@
         <v>44015</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15662,7 +15662,7 @@
         <v>44015</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15719,7 +15719,7 @@
         <v>44035</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15776,7 +15776,7 @@
         <v>44035</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15833,7 +15833,7 @@
         <v>44055</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15890,7 +15890,7 @@
         <v>44057</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15947,7 +15947,7 @@
         <v>44061</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16004,7 +16004,7 @@
         <v>44062</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16061,7 +16061,7 @@
         <v>44064</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16118,7 +16118,7 @@
         <v>44070</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16175,7 +16175,7 @@
         <v>44076</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16232,7 +16232,7 @@
         <v>44076</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16289,7 +16289,7 @@
         <v>44083</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16346,7 +16346,7 @@
         <v>44083</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16403,7 +16403,7 @@
         <v>44083</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16460,7 +16460,7 @@
         <v>44083</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16517,7 +16517,7 @@
         <v>44084</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16574,7 +16574,7 @@
         <v>44088</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16636,7 +16636,7 @@
         <v>44089</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16693,7 +16693,7 @@
         <v>44090</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16755,7 +16755,7 @@
         <v>44095</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16812,7 +16812,7 @@
         <v>44103</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16869,7 +16869,7 @@
         <v>44105</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16926,7 +16926,7 @@
         <v>44105</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16983,7 +16983,7 @@
         <v>44110</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17040,7 +17040,7 @@
         <v>44110</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17097,7 +17097,7 @@
         <v>44116</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17154,7 +17154,7 @@
         <v>44119</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17216,7 +17216,7 @@
         <v>44119</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17278,7 +17278,7 @@
         <v>44119</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17340,7 +17340,7 @@
         <v>44120</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17397,7 +17397,7 @@
         <v>44125</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17454,7 +17454,7 @@
         <v>44125</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17511,7 +17511,7 @@
         <v>44127</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17568,7 +17568,7 @@
         <v>44127</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17625,7 +17625,7 @@
         <v>44127</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17682,7 +17682,7 @@
         <v>44130</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17739,7 +17739,7 @@
         <v>44133</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17796,7 +17796,7 @@
         <v>44133</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17853,7 +17853,7 @@
         <v>44133</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17910,7 +17910,7 @@
         <v>44137</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17967,7 +17967,7 @@
         <v>44140</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18029,7 +18029,7 @@
         <v>44141</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18086,7 +18086,7 @@
         <v>44144</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18143,7 +18143,7 @@
         <v>44144</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18200,7 +18200,7 @@
         <v>44146</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18257,7 +18257,7 @@
         <v>44147</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18314,7 +18314,7 @@
         <v>44147</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18371,7 +18371,7 @@
         <v>44147</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18428,7 +18428,7 @@
         <v>44147</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18485,7 +18485,7 @@
         <v>44148</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18542,7 +18542,7 @@
         <v>44148</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18604,7 +18604,7 @@
         <v>44151</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18661,7 +18661,7 @@
         <v>44151</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18718,7 +18718,7 @@
         <v>44151</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18780,7 +18780,7 @@
         <v>44151</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18837,7 +18837,7 @@
         <v>44151</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18894,7 +18894,7 @@
         <v>44151</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18951,7 +18951,7 @@
         <v>44151</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19008,7 +19008,7 @@
         <v>44152</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19070,7 +19070,7 @@
         <v>44153</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19127,7 +19127,7 @@
         <v>44153</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19189,7 +19189,7 @@
         <v>44153</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19246,7 +19246,7 @@
         <v>44153</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19308,7 +19308,7 @@
         <v>44160</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19365,7 +19365,7 @@
         <v>44161</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19422,7 +19422,7 @@
         <v>44161</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19484,7 +19484,7 @@
         <v>44162</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19541,7 +19541,7 @@
         <v>44165</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19598,7 +19598,7 @@
         <v>44166</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19655,7 +19655,7 @@
         <v>44167</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19712,7 +19712,7 @@
         <v>44169</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19769,7 +19769,7 @@
         <v>44176</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19826,7 +19826,7 @@
         <v>44180</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19883,7 +19883,7 @@
         <v>44180</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19940,7 +19940,7 @@
         <v>44180</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19997,7 +19997,7 @@
         <v>44180</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20059,7 +20059,7 @@
         <v>44186</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20116,7 +20116,7 @@
         <v>44187</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20173,7 +20173,7 @@
         <v>44187</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20230,7 +20230,7 @@
         <v>44187</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20287,7 +20287,7 @@
         <v>44188</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20344,7 +20344,7 @@
         <v>44194</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20401,7 +20401,7 @@
         <v>44195</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20458,7 +20458,7 @@
         <v>44203</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20520,7 +20520,7 @@
         <v>44203</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20582,7 +20582,7 @@
         <v>44203</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20644,7 +20644,7 @@
         <v>44203</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20706,7 +20706,7 @@
         <v>44203</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20768,7 +20768,7 @@
         <v>44204</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20830,7 +20830,7 @@
         <v>44204</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20892,7 +20892,7 @@
         <v>44207</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20954,7 +20954,7 @@
         <v>44207</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21016,7 +21016,7 @@
         <v>44208</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21078,7 +21078,7 @@
         <v>44208</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21140,7 +21140,7 @@
         <v>44208</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21197,7 +21197,7 @@
         <v>44209</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21259,7 +21259,7 @@
         <v>44210</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21321,7 +21321,7 @@
         <v>44211</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21378,7 +21378,7 @@
         <v>44211</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21435,7 +21435,7 @@
         <v>44218</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21492,7 +21492,7 @@
         <v>44224</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21549,7 +21549,7 @@
         <v>44232</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21606,7 +21606,7 @@
         <v>44239</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21663,7 +21663,7 @@
         <v>44239</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21720,7 +21720,7 @@
         <v>44242</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21777,7 +21777,7 @@
         <v>44267</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21834,7 +21834,7 @@
         <v>44270</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21891,7 +21891,7 @@
         <v>44278</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21948,7 +21948,7 @@
         <v>44278</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22005,7 +22005,7 @@
         <v>44279</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22067,7 +22067,7 @@
         <v>44279</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22129,7 +22129,7 @@
         <v>44279</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22191,7 +22191,7 @@
         <v>44295</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22248,7 +22248,7 @@
         <v>44299</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22305,7 +22305,7 @@
         <v>44316</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22362,7 +22362,7 @@
         <v>44326</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22424,7 +22424,7 @@
         <v>44336</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22481,7 +22481,7 @@
         <v>44347</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22538,7 +22538,7 @@
         <v>44347</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22595,7 +22595,7 @@
         <v>44364</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22652,7 +22652,7 @@
         <v>44365</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22714,7 +22714,7 @@
         <v>44369</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22776,7 +22776,7 @@
         <v>44370</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22838,7 +22838,7 @@
         <v>44370</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22895,7 +22895,7 @@
         <v>44370</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22957,7 +22957,7 @@
         <v>44371</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23014,7 +23014,7 @@
         <v>44379</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23076,7 +23076,7 @@
         <v>44381</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23133,7 +23133,7 @@
         <v>44381</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23190,7 +23190,7 @@
         <v>44381</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23247,7 +23247,7 @@
         <v>44382</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23309,7 +23309,7 @@
         <v>44382</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23371,7 +23371,7 @@
         <v>44383</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23433,7 +23433,7 @@
         <v>44384</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23490,7 +23490,7 @@
         <v>44389</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23547,7 +23547,7 @@
         <v>44407</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23604,7 +23604,7 @@
         <v>44424</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23666,7 +23666,7 @@
         <v>44424</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23723,7 +23723,7 @@
         <v>44438</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23785,7 +23785,7 @@
         <v>44452</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23842,7 +23842,7 @@
         <v>44452</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23899,7 +23899,7 @@
         <v>44452</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23956,7 +23956,7 @@
         <v>44454</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24013,7 +24013,7 @@
         <v>44460</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24070,7 +24070,7 @@
         <v>44467</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24132,7 +24132,7 @@
         <v>44480</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24189,7 +24189,7 @@
         <v>44480</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24251,7 +24251,7 @@
         <v>44484</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24308,7 +24308,7 @@
         <v>44488</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24365,7 +24365,7 @@
         <v>44488</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24422,7 +24422,7 @@
         <v>44489</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24479,7 +24479,7 @@
         <v>44496</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24541,7 +24541,7 @@
         <v>44496</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24598,7 +24598,7 @@
         <v>44503</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24660,7 +24660,7 @@
         <v>44505</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24722,7 +24722,7 @@
         <v>44505</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24784,7 +24784,7 @@
         <v>44505</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24846,7 +24846,7 @@
         <v>44505</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24908,7 +24908,7 @@
         <v>44509</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24970,7 +24970,7 @@
         <v>44509</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25032,7 +25032,7 @@
         <v>44509</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25094,7 +25094,7 @@
         <v>44509</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25156,7 +25156,7 @@
         <v>44509</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25213,7 +25213,7 @@
         <v>44509</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25275,7 +25275,7 @@
         <v>44509</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25337,7 +25337,7 @@
         <v>44509</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25399,7 +25399,7 @@
         <v>44511</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25461,7 +25461,7 @@
         <v>44515</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25523,7 +25523,7 @@
         <v>44517</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25580,7 +25580,7 @@
         <v>44517</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25637,7 +25637,7 @@
         <v>44517</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25694,7 +25694,7 @@
         <v>44517</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25751,7 +25751,7 @@
         <v>44517</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25808,7 +25808,7 @@
         <v>44522</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25870,7 +25870,7 @@
         <v>44524</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25932,7 +25932,7 @@
         <v>44526</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25994,7 +25994,7 @@
         <v>44526</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26051,7 +26051,7 @@
         <v>44531</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26108,7 +26108,7 @@
         <v>44532</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26170,7 +26170,7 @@
         <v>44532</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26232,7 +26232,7 @@
         <v>44536</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26289,7 +26289,7 @@
         <v>44572</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26346,7 +26346,7 @@
         <v>44585</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26403,7 +26403,7 @@
         <v>44592</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26460,7 +26460,7 @@
         <v>44594</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26517,7 +26517,7 @@
         <v>44595</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26574,7 +26574,7 @@
         <v>44595</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26631,7 +26631,7 @@
         <v>44595</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26688,7 +26688,7 @@
         <v>44596</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26745,7 +26745,7 @@
         <v>44596</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26802,7 +26802,7 @@
         <v>44601</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26859,7 +26859,7 @@
         <v>44603</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26916,7 +26916,7 @@
         <v>44608</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26973,7 +26973,7 @@
         <v>44616</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27030,7 +27030,7 @@
         <v>44617</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27087,7 +27087,7 @@
         <v>44620</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27144,7 +27144,7 @@
         <v>44620</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27201,7 +27201,7 @@
         <v>44623</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27258,7 +27258,7 @@
         <v>44631</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27315,7 +27315,7 @@
         <v>44636</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27372,7 +27372,7 @@
         <v>44642</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27429,7 +27429,7 @@
         <v>44650</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27486,7 +27486,7 @@
         <v>44650</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27543,7 +27543,7 @@
         <v>44652</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27605,7 +27605,7 @@
         <v>44659</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27662,7 +27662,7 @@
         <v>44662</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27719,7 +27719,7 @@
         <v>44671</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27776,7 +27776,7 @@
         <v>44676</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27833,7 +27833,7 @@
         <v>44691</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27890,7 +27890,7 @@
         <v>44697</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27952,7 +27952,7 @@
         <v>44704</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28014,7 +28014,7 @@
         <v>44704</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28076,7 +28076,7 @@
         <v>44705</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28133,7 +28133,7 @@
         <v>44706</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28190,7 +28190,7 @@
         <v>44712</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28247,7 +28247,7 @@
         <v>44712</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28309,7 +28309,7 @@
         <v>44712</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28371,7 +28371,7 @@
         <v>44714</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28428,7 +28428,7 @@
         <v>44720</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28485,7 +28485,7 @@
         <v>44720</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28542,7 +28542,7 @@
         <v>44722</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28599,7 +28599,7 @@
         <v>44728</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28656,7 +28656,7 @@
         <v>44729</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28718,7 +28718,7 @@
         <v>44729</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28780,7 +28780,7 @@
         <v>44729</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28842,7 +28842,7 @@
         <v>44732</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28899,7 +28899,7 @@
         <v>44732</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28956,7 +28956,7 @@
         <v>44763</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29013,7 +29013,7 @@
         <v>44783</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29075,7 +29075,7 @@
         <v>44785</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29137,7 +29137,7 @@
         <v>44791</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29194,7 +29194,7 @@
         <v>44796</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29251,7 +29251,7 @@
         <v>44796</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29308,7 +29308,7 @@
         <v>44798</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29365,7 +29365,7 @@
         <v>44799</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29422,7 +29422,7 @@
         <v>44799</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29479,7 +29479,7 @@
         <v>44805</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29536,7 +29536,7 @@
         <v>44806</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29593,7 +29593,7 @@
         <v>44806</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29650,7 +29650,7 @@
         <v>44806</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29707,7 +29707,7 @@
         <v>44817</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29764,7 +29764,7 @@
         <v>44818</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29821,7 +29821,7 @@
         <v>44819</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29878,7 +29878,7 @@
         <v>44826</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29940,7 +29940,7 @@
         <v>44827</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30002,7 +30002,7 @@
         <v>44830</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30059,7 +30059,7 @@
         <v>44839</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30116,7 +30116,7 @@
         <v>44839</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30173,7 +30173,7 @@
         <v>44840</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30230,7 +30230,7 @@
         <v>44846</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30287,7 +30287,7 @@
         <v>44846</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30344,7 +30344,7 @@
         <v>44846</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30401,7 +30401,7 @@
         <v>44846</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30458,7 +30458,7 @@
         <v>44854</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30515,7 +30515,7 @@
         <v>44859</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30572,7 +30572,7 @@
         <v>44859</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30629,7 +30629,7 @@
         <v>44861</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30686,7 +30686,7 @@
         <v>44862</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30743,7 +30743,7 @@
         <v>44873</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30800,7 +30800,7 @@
         <v>44875</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30862,7 +30862,7 @@
         <v>44875</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30919,7 +30919,7 @@
         <v>44876</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30981,7 +30981,7 @@
         <v>44878</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31043,7 +31043,7 @@
         <v>44879</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31105,7 +31105,7 @@
         <v>44879</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31167,7 +31167,7 @@
         <v>44879</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31229,7 +31229,7 @@
         <v>44879</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31291,7 +31291,7 @@
         <v>44879</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31353,7 +31353,7 @@
         <v>44879</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31415,7 +31415,7 @@
         <v>44880</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31472,7 +31472,7 @@
         <v>44881</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31534,7 +31534,7 @@
         <v>44881</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31596,7 +31596,7 @@
         <v>44883</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31653,7 +31653,7 @@
         <v>44883</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31715,7 +31715,7 @@
         <v>44886</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31777,7 +31777,7 @@
         <v>44886</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31839,7 +31839,7 @@
         <v>44893</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31896,7 +31896,7 @@
         <v>44894</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31953,7 +31953,7 @@
         <v>44894</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32010,7 +32010,7 @@
         <v>44895</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32067,7 +32067,7 @@
         <v>44897</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32124,7 +32124,7 @@
         <v>44901</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32181,7 +32181,7 @@
         <v>44908</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32238,7 +32238,7 @@
         <v>44909</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32295,7 +32295,7 @@
         <v>44909</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32352,7 +32352,7 @@
         <v>44914</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32409,7 +32409,7 @@
         <v>44915</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32466,7 +32466,7 @@
         <v>44915</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32523,7 +32523,7 @@
         <v>44916</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32580,7 +32580,7 @@
         <v>44929</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32637,7 +32637,7 @@
         <v>44944</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32694,7 +32694,7 @@
         <v>44945</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32751,7 +32751,7 @@
         <v>44946</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32808,7 +32808,7 @@
         <v>44952</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32865,7 +32865,7 @@
         <v>44953</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32927,7 +32927,7 @@
         <v>44966</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -32984,7 +32984,7 @@
         <v>44967</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33041,7 +33041,7 @@
         <v>44967</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33098,7 +33098,7 @@
         <v>44970</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33155,7 +33155,7 @@
         <v>44971</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33212,7 +33212,7 @@
         <v>44993</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33269,7 +33269,7 @@
         <v>44993</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33326,7 +33326,7 @@
         <v>44993</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33383,7 +33383,7 @@
         <v>44993</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33440,7 +33440,7 @@
         <v>45008</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33497,7 +33497,7 @@
         <v>45009</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -33554,7 +33554,7 @@
         <v>45012</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -33611,7 +33611,7 @@
         <v>45014</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33668,7 +33668,7 @@
         <v>45016</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33725,7 +33725,7 @@
         <v>45016</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33782,7 +33782,7 @@
         <v>45016</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33839,7 +33839,7 @@
         <v>45016</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -33896,7 +33896,7 @@
         <v>45016</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -33953,7 +33953,7 @@
         <v>45016</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34010,7 +34010,7 @@
         <v>45016</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34067,7 +34067,7 @@
         <v>45030</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34124,7 +34124,7 @@
         <v>45033</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34181,7 +34181,7 @@
         <v>45033</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34238,7 +34238,7 @@
         <v>45036</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34295,7 +34295,7 @@
         <v>45037</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34357,7 +34357,7 @@
         <v>45038</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -34414,7 +34414,7 @@
         <v>45041</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34471,7 +34471,7 @@
         <v>45041</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -34533,7 +34533,7 @@
         <v>45043</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -34590,7 +34590,7 @@
         <v>45044</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34647,7 +34647,7 @@
         <v>45044</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -34704,7 +34704,7 @@
         <v>45044</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -34761,7 +34761,7 @@
         <v>45058</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -34823,7 +34823,7 @@
         <v>45061</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -34880,7 +34880,7 @@
         <v>45062</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -34942,7 +34942,7 @@
         <v>45062</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -34999,7 +34999,7 @@
         <v>45063</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35061,7 +35061,7 @@
         <v>45070</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -35118,7 +35118,7 @@
         <v>45072</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -35180,7 +35180,7 @@
         <v>45072</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -35237,7 +35237,7 @@
         <v>45076</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35299,7 +35299,7 @@
         <v>45078</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35356,7 +35356,7 @@
         <v>45078</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -35418,7 +35418,7 @@
         <v>45079</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -35475,7 +35475,7 @@
         <v>45082</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -35532,7 +35532,7 @@
         <v>45082</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -35589,7 +35589,7 @@
         <v>45084</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -35651,7 +35651,7 @@
         <v>45084</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -35708,7 +35708,7 @@
         <v>45085</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -35765,7 +35765,7 @@
         <v>45089</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -35822,7 +35822,7 @@
         <v>45090</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -35879,7 +35879,7 @@
         <v>45090</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -35936,7 +35936,7 @@
         <v>45090</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -35993,7 +35993,7 @@
         <v>45090</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -36050,7 +36050,7 @@
         <v>45091</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -36107,7 +36107,7 @@
         <v>45097</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -36164,7 +36164,7 @@
         <v>45097</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -36221,7 +36221,7 @@
         <v>45097</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -36278,7 +36278,7 @@
         <v>45097</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -36335,7 +36335,7 @@
         <v>45098</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -36397,7 +36397,7 @@
         <v>45099</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -36454,7 +36454,7 @@
         <v>45103</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -36511,7 +36511,7 @@
         <v>45104</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -36568,7 +36568,7 @@
         <v>45104</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -36625,7 +36625,7 @@
         <v>45107</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -36687,7 +36687,7 @@
         <v>45107</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -36744,7 +36744,7 @@
         <v>45107</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -36801,7 +36801,7 @@
         <v>45107</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -36858,7 +36858,7 @@
         <v>45107</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -36915,7 +36915,7 @@
         <v>45107</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -36972,7 +36972,7 @@
         <v>45107</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -37034,7 +37034,7 @@
         <v>45107</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -37096,7 +37096,7 @@
         <v>45107</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -37153,7 +37153,7 @@
         <v>45110</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -37210,7 +37210,7 @@
         <v>45110</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -37267,7 +37267,7 @@
         <v>45112</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -37329,7 +37329,7 @@
         <v>45113</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -37391,7 +37391,7 @@
         <v>45113</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -37448,7 +37448,7 @@
         <v>45114</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -37505,7 +37505,7 @@
         <v>45114</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -37562,7 +37562,7 @@
         <v>45117</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -37619,7 +37619,7 @@
         <v>45119</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -37681,7 +37681,7 @@
         <v>45120</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -37738,7 +37738,7 @@
         <v>45121</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -37795,7 +37795,7 @@
         <v>45123</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -37852,7 +37852,7 @@
         <v>45132</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -37909,7 +37909,7 @@
         <v>45138</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -37966,7 +37966,7 @@
         <v>45138</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -38023,7 +38023,7 @@
         <v>45147</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -38080,7 +38080,7 @@
         <v>45149</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -38137,7 +38137,7 @@
         <v>45149</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -38194,7 +38194,7 @@
         <v>45161</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -38256,7 +38256,7 @@
         <v>45161</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -38318,7 +38318,7 @@
         <v>45161</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -38380,7 +38380,7 @@
         <v>45169</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>

--- a/Översikt BOLLNÄS.xlsx
+++ b/Översikt BOLLNÄS.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y640"/>
+  <dimension ref="A1:Y642"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>44109</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -675,7 +675,7 @@
         <v>44095</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -776,7 +776,7 @@
         <v>44382</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -868,7 +868,7 @@
         <v>44729</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -960,7 +960,7 @@
         <v>43783</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1055,7 +1055,7 @@
         <v>43783</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1150,7 +1150,7 @@
         <v>43783</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1245,7 +1245,7 @@
         <v>43993</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1331,7 +1331,7 @@
         <v>43999</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1422,7 +1422,7 @@
         <v>44432</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1512,7 +1512,7 @@
         <v>45092</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         <v>43600</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1688,7 +1688,7 @@
         <v>43619</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1777,7 +1777,7 @@
         <v>43794</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1862,7 +1862,7 @@
         <v>43864</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1947,7 +1947,7 @@
         <v>44081</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2037,7 +2037,7 @@
         <v>44515</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2127,7 +2127,7 @@
         <v>44813</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2212,7 +2212,7 @@
         <v>44901</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2297,7 +2297,7 @@
         <v>45058</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         <v>45090</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2471,7 +2471,7 @@
         <v>43360</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2528,7 +2528,7 @@
         <v>43375</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2585,7 +2585,7 @@
         <v>43382</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2642,7 +2642,7 @@
         <v>43389</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2699,7 +2699,7 @@
         <v>43392</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2756,7 +2756,7 @@
         <v>43410</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2813,7 +2813,7 @@
         <v>43413</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2875,7 +2875,7 @@
         <v>43416</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2932,7 +2932,7 @@
         <v>43417</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2989,7 +2989,7 @@
         <v>43417</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3046,7 +3046,7 @@
         <v>43418</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3103,7 +3103,7 @@
         <v>43418</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3160,7 +3160,7 @@
         <v>43418</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3217,7 +3217,7 @@
         <v>43419</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3274,7 +3274,7 @@
         <v>43420</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3331,7 +3331,7 @@
         <v>43424</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3388,7 +3388,7 @@
         <v>43424</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3445,7 +3445,7 @@
         <v>43424</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3502,7 +3502,7 @@
         <v>43424</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3559,7 +3559,7 @@
         <v>43424</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3616,7 +3616,7 @@
         <v>43424</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3673,7 +3673,7 @@
         <v>43424</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3730,7 +3730,7 @@
         <v>43427</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3787,7 +3787,7 @@
         <v>43427</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3844,7 +3844,7 @@
         <v>43427</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3901,7 +3901,7 @@
         <v>43427</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3958,7 +3958,7 @@
         <v>43427</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4015,7 +4015,7 @@
         <v>43430</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4072,7 +4072,7 @@
         <v>43431</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4129,7 +4129,7 @@
         <v>43431</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4186,7 +4186,7 @@
         <v>43434</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4243,7 +4243,7 @@
         <v>43434</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4300,7 +4300,7 @@
         <v>43437</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4357,7 +4357,7 @@
         <v>43441</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4414,7 +4414,7 @@
         <v>43444</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4471,7 +4471,7 @@
         <v>43445</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4533,7 +4533,7 @@
         <v>43445</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4590,7 +4590,7 @@
         <v>43446</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4647,7 +4647,7 @@
         <v>43446</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4704,7 +4704,7 @@
         <v>43447</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4761,7 +4761,7 @@
         <v>43448</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4818,7 +4818,7 @@
         <v>43452</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4875,7 +4875,7 @@
         <v>43452</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4932,7 +4932,7 @@
         <v>43454</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4989,7 +4989,7 @@
         <v>43455</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5046,7 +5046,7 @@
         <v>43455</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5103,7 +5103,7 @@
         <v>43467</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5160,7 +5160,7 @@
         <v>43472</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5217,7 +5217,7 @@
         <v>43472</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5274,7 +5274,7 @@
         <v>43472</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5331,7 +5331,7 @@
         <v>43476</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5388,7 +5388,7 @@
         <v>43476</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5445,7 +5445,7 @@
         <v>43476</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5502,7 +5502,7 @@
         <v>43480</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5559,7 +5559,7 @@
         <v>43482</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5616,7 +5616,7 @@
         <v>43482</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5673,7 +5673,7 @@
         <v>43497</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5730,7 +5730,7 @@
         <v>43509</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5787,7 +5787,7 @@
         <v>43515</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5844,7 +5844,7 @@
         <v>43517</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5901,7 +5901,7 @@
         <v>43518</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5958,7 +5958,7 @@
         <v>43522</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6015,7 +6015,7 @@
         <v>43523</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6072,7 +6072,7 @@
         <v>43528</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6129,7 +6129,7 @@
         <v>43528</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6186,7 +6186,7 @@
         <v>43529</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6243,7 +6243,7 @@
         <v>43532</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6300,7 +6300,7 @@
         <v>43532</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6357,7 +6357,7 @@
         <v>43536</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6414,7 +6414,7 @@
         <v>43537</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6471,7 +6471,7 @@
         <v>43559</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6528,7 +6528,7 @@
         <v>43560</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6585,7 +6585,7 @@
         <v>43563</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6642,7 +6642,7 @@
         <v>43564</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6699,7 +6699,7 @@
         <v>43567</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6756,7 +6756,7 @@
         <v>43571</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6813,7 +6813,7 @@
         <v>43580</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6870,7 +6870,7 @@
         <v>43583</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6927,7 +6927,7 @@
         <v>43587</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6984,7 +6984,7 @@
         <v>43593</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7041,7 +7041,7 @@
         <v>43593</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7098,7 +7098,7 @@
         <v>43594</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7155,7 +7155,7 @@
         <v>43598</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7212,7 +7212,7 @@
         <v>43599</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7269,7 +7269,7 @@
         <v>43599</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7326,7 +7326,7 @@
         <v>43599</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7383,7 +7383,7 @@
         <v>43605</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7445,7 +7445,7 @@
         <v>43607</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7502,7 +7502,7 @@
         <v>43612</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7559,7 +7559,7 @@
         <v>43619</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7621,7 +7621,7 @@
         <v>43619</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7678,7 +7678,7 @@
         <v>43619</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7740,7 +7740,7 @@
         <v>43619</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7802,7 +7802,7 @@
         <v>43620</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7859,7 +7859,7 @@
         <v>43620</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7916,7 +7916,7 @@
         <v>43629</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7978,7 +7978,7 @@
         <v>43629</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8035,7 +8035,7 @@
         <v>43633</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8092,7 +8092,7 @@
         <v>43635</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8149,7 +8149,7 @@
         <v>43640</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8206,7 +8206,7 @@
         <v>43641</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8263,7 +8263,7 @@
         <v>43643</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8320,7 +8320,7 @@
         <v>43649</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8377,7 +8377,7 @@
         <v>43649</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8434,7 +8434,7 @@
         <v>43651</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8496,7 +8496,7 @@
         <v>43654</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8553,7 +8553,7 @@
         <v>43656</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8610,7 +8610,7 @@
         <v>43657</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8667,7 +8667,7 @@
         <v>43657</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8729,7 +8729,7 @@
         <v>43664</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8786,7 +8786,7 @@
         <v>43689</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8843,7 +8843,7 @@
         <v>43691</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8905,7 +8905,7 @@
         <v>43698</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8962,7 +8962,7 @@
         <v>43698</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9019,7 +9019,7 @@
         <v>43703</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9076,7 +9076,7 @@
         <v>43704</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9133,7 +9133,7 @@
         <v>43704</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9190,7 +9190,7 @@
         <v>43705</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9252,7 +9252,7 @@
         <v>43706</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9309,7 +9309,7 @@
         <v>43707</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9371,7 +9371,7 @@
         <v>43707</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9433,7 +9433,7 @@
         <v>43710</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9490,7 +9490,7 @@
         <v>43711</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9552,7 +9552,7 @@
         <v>43717</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9609,7 +9609,7 @@
         <v>43718</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9666,7 +9666,7 @@
         <v>43718</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9723,7 +9723,7 @@
         <v>43721</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9785,7 +9785,7 @@
         <v>43726</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9842,7 +9842,7 @@
         <v>43732</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9899,7 +9899,7 @@
         <v>43733</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9961,7 +9961,7 @@
         <v>43733</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10023,7 +10023,7 @@
         <v>43738</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10080,7 +10080,7 @@
         <v>43739</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10137,7 +10137,7 @@
         <v>43740</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10194,7 +10194,7 @@
         <v>43741</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10251,7 +10251,7 @@
         <v>43742</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10308,7 +10308,7 @@
         <v>43742</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10365,7 +10365,7 @@
         <v>43742</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10422,7 +10422,7 @@
         <v>43748</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10479,7 +10479,7 @@
         <v>43753</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10536,7 +10536,7 @@
         <v>43754</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10598,7 +10598,7 @@
         <v>43754</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10655,7 +10655,7 @@
         <v>43755</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10717,7 +10717,7 @@
         <v>43759</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10774,7 +10774,7 @@
         <v>43759</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10831,7 +10831,7 @@
         <v>43760</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10888,7 +10888,7 @@
         <v>43761</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10950,7 +10950,7 @@
         <v>43767</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11012,7 +11012,7 @@
         <v>43769</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11069,7 +11069,7 @@
         <v>43773</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11126,7 +11126,7 @@
         <v>43776</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11183,7 +11183,7 @@
         <v>43777</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11240,7 +11240,7 @@
         <v>43781</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11302,7 +11302,7 @@
         <v>43783</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11359,7 +11359,7 @@
         <v>43783</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11416,7 +11416,7 @@
         <v>43783</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11498,7 +11498,7 @@
         <v>43787</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11555,7 +11555,7 @@
         <v>43789</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11612,7 +11612,7 @@
         <v>43789</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11669,7 +11669,7 @@
         <v>43790</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11726,7 +11726,7 @@
         <v>43794</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11783,7 +11783,7 @@
         <v>43795</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11840,7 +11840,7 @@
         <v>43798</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11897,7 +11897,7 @@
         <v>43800</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11954,7 +11954,7 @@
         <v>43802</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12011,7 +12011,7 @@
         <v>43808</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12073,7 +12073,7 @@
         <v>43809</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12135,7 +12135,7 @@
         <v>43809</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12197,7 +12197,7 @@
         <v>43809</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12254,7 +12254,7 @@
         <v>43812</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12311,7 +12311,7 @@
         <v>43815</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12368,7 +12368,7 @@
         <v>43819</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12425,7 +12425,7 @@
         <v>43819</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12482,7 +12482,7 @@
         <v>43837</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12539,7 +12539,7 @@
         <v>43837</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12596,7 +12596,7 @@
         <v>43840</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12653,7 +12653,7 @@
         <v>43840</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12710,7 +12710,7 @@
         <v>43846</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12767,7 +12767,7 @@
         <v>43850</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12824,7 +12824,7 @@
         <v>43852</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12886,7 +12886,7 @@
         <v>43853</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12948,7 +12948,7 @@
         <v>43858</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13010,7 +13010,7 @@
         <v>43859</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13072,7 +13072,7 @@
         <v>43865</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13129,7 +13129,7 @@
         <v>43867</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13186,7 +13186,7 @@
         <v>43871</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13243,7 +13243,7 @@
         <v>43878</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13300,7 +13300,7 @@
         <v>43878</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13357,7 +13357,7 @@
         <v>43879</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13414,7 +13414,7 @@
         <v>43882</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13471,7 +13471,7 @@
         <v>43886</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13528,7 +13528,7 @@
         <v>43886</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13585,7 +13585,7 @@
         <v>43887</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13642,7 +13642,7 @@
         <v>43888</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13699,7 +13699,7 @@
         <v>43892</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13756,7 +13756,7 @@
         <v>43894</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13813,7 +13813,7 @@
         <v>43894</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13870,7 +13870,7 @@
         <v>43901</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13932,7 +13932,7 @@
         <v>43902</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13989,7 +13989,7 @@
         <v>43913</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14046,7 +14046,7 @@
         <v>43913</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14103,7 +14103,7 @@
         <v>43913</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14165,7 +14165,7 @@
         <v>43916</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14222,7 +14222,7 @@
         <v>43916</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14279,7 +14279,7 @@
         <v>43924</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14336,7 +14336,7 @@
         <v>43927</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14393,7 +14393,7 @@
         <v>43930</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14450,7 +14450,7 @@
         <v>43945</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14507,7 +14507,7 @@
         <v>43949</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14564,7 +14564,7 @@
         <v>43949</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14621,7 +14621,7 @@
         <v>43956</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14678,7 +14678,7 @@
         <v>43987</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14735,7 +14735,7 @@
         <v>43991</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14792,7 +14792,7 @@
         <v>43993</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14854,7 +14854,7 @@
         <v>43993</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14916,7 +14916,7 @@
         <v>43994</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14973,7 +14973,7 @@
         <v>43998</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15030,7 +15030,7 @@
         <v>44000</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15092,7 +15092,7 @@
         <v>44006</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15149,7 +15149,7 @@
         <v>44008</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15206,7 +15206,7 @@
         <v>44012</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15263,7 +15263,7 @@
         <v>44013</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15320,7 +15320,7 @@
         <v>44014</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15377,7 +15377,7 @@
         <v>44014</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15434,7 +15434,7 @@
         <v>44014</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15491,7 +15491,7 @@
         <v>44014</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15548,7 +15548,7 @@
         <v>44014</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15605,7 +15605,7 @@
         <v>44015</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15662,7 +15662,7 @@
         <v>44015</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15719,7 +15719,7 @@
         <v>44035</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15776,7 +15776,7 @@
         <v>44035</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15833,7 +15833,7 @@
         <v>44055</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15890,7 +15890,7 @@
         <v>44057</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15947,7 +15947,7 @@
         <v>44061</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16004,7 +16004,7 @@
         <v>44062</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16061,7 +16061,7 @@
         <v>44064</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16118,7 +16118,7 @@
         <v>44070</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16175,7 +16175,7 @@
         <v>44076</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16232,7 +16232,7 @@
         <v>44076</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16289,7 +16289,7 @@
         <v>44083</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16346,7 +16346,7 @@
         <v>44083</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16403,7 +16403,7 @@
         <v>44083</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16460,7 +16460,7 @@
         <v>44083</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16517,7 +16517,7 @@
         <v>44084</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16574,7 +16574,7 @@
         <v>44088</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16636,7 +16636,7 @@
         <v>44089</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16693,7 +16693,7 @@
         <v>44090</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16755,7 +16755,7 @@
         <v>44095</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16812,7 +16812,7 @@
         <v>44103</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16869,7 +16869,7 @@
         <v>44105</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16926,7 +16926,7 @@
         <v>44105</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16983,7 +16983,7 @@
         <v>44110</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17040,7 +17040,7 @@
         <v>44110</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17097,7 +17097,7 @@
         <v>44116</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17154,7 +17154,7 @@
         <v>44119</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17216,7 +17216,7 @@
         <v>44119</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17278,7 +17278,7 @@
         <v>44119</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17340,7 +17340,7 @@
         <v>44120</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17397,7 +17397,7 @@
         <v>44125</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17454,7 +17454,7 @@
         <v>44125</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17511,7 +17511,7 @@
         <v>44127</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17568,7 +17568,7 @@
         <v>44127</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17625,7 +17625,7 @@
         <v>44127</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17682,7 +17682,7 @@
         <v>44130</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17739,7 +17739,7 @@
         <v>44133</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17796,7 +17796,7 @@
         <v>44133</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17853,7 +17853,7 @@
         <v>44133</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17910,7 +17910,7 @@
         <v>44137</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17967,7 +17967,7 @@
         <v>44140</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18029,7 +18029,7 @@
         <v>44141</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18086,7 +18086,7 @@
         <v>44144</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18143,7 +18143,7 @@
         <v>44144</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18200,7 +18200,7 @@
         <v>44146</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18257,7 +18257,7 @@
         <v>44147</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18314,7 +18314,7 @@
         <v>44147</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18371,7 +18371,7 @@
         <v>44147</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18428,7 +18428,7 @@
         <v>44147</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18485,7 +18485,7 @@
         <v>44148</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18542,7 +18542,7 @@
         <v>44148</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18604,7 +18604,7 @@
         <v>44151</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18661,7 +18661,7 @@
         <v>44151</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18718,7 +18718,7 @@
         <v>44151</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18780,7 +18780,7 @@
         <v>44151</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18837,7 +18837,7 @@
         <v>44151</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18894,7 +18894,7 @@
         <v>44151</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18951,7 +18951,7 @@
         <v>44151</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19008,7 +19008,7 @@
         <v>44152</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19070,7 +19070,7 @@
         <v>44153</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19127,7 +19127,7 @@
         <v>44153</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19189,7 +19189,7 @@
         <v>44153</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19246,7 +19246,7 @@
         <v>44153</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19308,7 +19308,7 @@
         <v>44160</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19365,7 +19365,7 @@
         <v>44161</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19422,7 +19422,7 @@
         <v>44161</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19484,7 +19484,7 @@
         <v>44162</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19541,7 +19541,7 @@
         <v>44165</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19598,7 +19598,7 @@
         <v>44166</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19655,7 +19655,7 @@
         <v>44167</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19712,7 +19712,7 @@
         <v>44169</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19769,7 +19769,7 @@
         <v>44176</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19826,7 +19826,7 @@
         <v>44180</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19883,7 +19883,7 @@
         <v>44180</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19940,7 +19940,7 @@
         <v>44180</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19997,7 +19997,7 @@
         <v>44180</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20059,7 +20059,7 @@
         <v>44186</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20116,7 +20116,7 @@
         <v>44187</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20173,7 +20173,7 @@
         <v>44187</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20230,7 +20230,7 @@
         <v>44187</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20287,7 +20287,7 @@
         <v>44188</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20344,7 +20344,7 @@
         <v>44194</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20401,7 +20401,7 @@
         <v>44195</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20458,7 +20458,7 @@
         <v>44203</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20520,7 +20520,7 @@
         <v>44203</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20582,7 +20582,7 @@
         <v>44203</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20644,7 +20644,7 @@
         <v>44203</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20706,7 +20706,7 @@
         <v>44203</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20768,7 +20768,7 @@
         <v>44204</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20830,7 +20830,7 @@
         <v>44204</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20892,7 +20892,7 @@
         <v>44207</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20954,7 +20954,7 @@
         <v>44207</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21016,7 +21016,7 @@
         <v>44208</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21078,7 +21078,7 @@
         <v>44208</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21140,7 +21140,7 @@
         <v>44208</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21197,7 +21197,7 @@
         <v>44209</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21259,7 +21259,7 @@
         <v>44210</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21321,7 +21321,7 @@
         <v>44211</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21378,7 +21378,7 @@
         <v>44211</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21435,7 +21435,7 @@
         <v>44218</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21492,7 +21492,7 @@
         <v>44224</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21549,7 +21549,7 @@
         <v>44232</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21606,7 +21606,7 @@
         <v>44239</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21663,7 +21663,7 @@
         <v>44239</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21720,7 +21720,7 @@
         <v>44242</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21777,7 +21777,7 @@
         <v>44267</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21834,7 +21834,7 @@
         <v>44270</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21891,7 +21891,7 @@
         <v>44278</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21948,7 +21948,7 @@
         <v>44278</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22005,7 +22005,7 @@
         <v>44279</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22067,7 +22067,7 @@
         <v>44279</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22129,7 +22129,7 @@
         <v>44279</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22191,7 +22191,7 @@
         <v>44295</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22248,7 +22248,7 @@
         <v>44299</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22305,7 +22305,7 @@
         <v>44316</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22362,7 +22362,7 @@
         <v>44326</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22424,7 +22424,7 @@
         <v>44336</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22481,7 +22481,7 @@
         <v>44347</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22538,7 +22538,7 @@
         <v>44347</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22595,7 +22595,7 @@
         <v>44364</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22652,7 +22652,7 @@
         <v>44365</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22714,7 +22714,7 @@
         <v>44369</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22776,7 +22776,7 @@
         <v>44370</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22838,7 +22838,7 @@
         <v>44370</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22895,7 +22895,7 @@
         <v>44370</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22957,7 +22957,7 @@
         <v>44371</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23014,7 +23014,7 @@
         <v>44379</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23076,7 +23076,7 @@
         <v>44381</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23133,7 +23133,7 @@
         <v>44381</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23190,7 +23190,7 @@
         <v>44381</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23247,7 +23247,7 @@
         <v>44382</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23309,7 +23309,7 @@
         <v>44382</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23371,7 +23371,7 @@
         <v>44383</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23433,7 +23433,7 @@
         <v>44384</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23490,7 +23490,7 @@
         <v>44389</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23547,7 +23547,7 @@
         <v>44407</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23604,7 +23604,7 @@
         <v>44424</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23666,7 +23666,7 @@
         <v>44424</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23723,7 +23723,7 @@
         <v>44438</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23785,7 +23785,7 @@
         <v>44452</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23842,7 +23842,7 @@
         <v>44452</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23899,7 +23899,7 @@
         <v>44452</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23956,7 +23956,7 @@
         <v>44454</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24013,7 +24013,7 @@
         <v>44460</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24070,7 +24070,7 @@
         <v>44467</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24132,7 +24132,7 @@
         <v>44480</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24189,7 +24189,7 @@
         <v>44480</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24251,7 +24251,7 @@
         <v>44484</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24308,7 +24308,7 @@
         <v>44488</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24365,7 +24365,7 @@
         <v>44488</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24422,7 +24422,7 @@
         <v>44489</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24479,7 +24479,7 @@
         <v>44496</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24541,7 +24541,7 @@
         <v>44496</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24598,7 +24598,7 @@
         <v>44503</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24660,7 +24660,7 @@
         <v>44505</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24722,7 +24722,7 @@
         <v>44505</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24784,7 +24784,7 @@
         <v>44505</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24846,7 +24846,7 @@
         <v>44505</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24908,7 +24908,7 @@
         <v>44509</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24970,7 +24970,7 @@
         <v>44509</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25032,7 +25032,7 @@
         <v>44509</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25094,7 +25094,7 @@
         <v>44509</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25156,7 +25156,7 @@
         <v>44509</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25213,7 +25213,7 @@
         <v>44509</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25275,7 +25275,7 @@
         <v>44509</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25337,7 +25337,7 @@
         <v>44509</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25399,7 +25399,7 @@
         <v>44511</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25461,7 +25461,7 @@
         <v>44515</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25523,7 +25523,7 @@
         <v>44517</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25580,7 +25580,7 @@
         <v>44517</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25637,7 +25637,7 @@
         <v>44517</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25694,7 +25694,7 @@
         <v>44517</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25751,7 +25751,7 @@
         <v>44517</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25808,7 +25808,7 @@
         <v>44522</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25870,7 +25870,7 @@
         <v>44524</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25932,7 +25932,7 @@
         <v>44526</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25994,7 +25994,7 @@
         <v>44526</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26051,7 +26051,7 @@
         <v>44531</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26108,7 +26108,7 @@
         <v>44532</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26170,7 +26170,7 @@
         <v>44532</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26232,7 +26232,7 @@
         <v>44536</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26289,7 +26289,7 @@
         <v>44572</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26346,7 +26346,7 @@
         <v>44585</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26403,7 +26403,7 @@
         <v>44592</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26460,7 +26460,7 @@
         <v>44594</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26517,7 +26517,7 @@
         <v>44595</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26574,7 +26574,7 @@
         <v>44595</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26631,7 +26631,7 @@
         <v>44595</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26688,7 +26688,7 @@
         <v>44596</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26745,7 +26745,7 @@
         <v>44596</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26802,7 +26802,7 @@
         <v>44601</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26859,7 +26859,7 @@
         <v>44603</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26916,7 +26916,7 @@
         <v>44608</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26973,7 +26973,7 @@
         <v>44616</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27030,7 +27030,7 @@
         <v>44617</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27087,7 +27087,7 @@
         <v>44620</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27144,7 +27144,7 @@
         <v>44620</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27201,7 +27201,7 @@
         <v>44623</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27258,7 +27258,7 @@
         <v>44631</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27315,7 +27315,7 @@
         <v>44636</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27372,7 +27372,7 @@
         <v>44642</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27429,7 +27429,7 @@
         <v>44650</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27486,7 +27486,7 @@
         <v>44650</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27543,7 +27543,7 @@
         <v>44652</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27605,7 +27605,7 @@
         <v>44659</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27662,7 +27662,7 @@
         <v>44662</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27719,7 +27719,7 @@
         <v>44671</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27776,7 +27776,7 @@
         <v>44676</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27833,7 +27833,7 @@
         <v>44691</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27890,7 +27890,7 @@
         <v>44697</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27952,7 +27952,7 @@
         <v>44704</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28014,7 +28014,7 @@
         <v>44704</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28076,7 +28076,7 @@
         <v>44705</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28133,7 +28133,7 @@
         <v>44706</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28190,7 +28190,7 @@
         <v>44712</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28247,7 +28247,7 @@
         <v>44712</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28309,7 +28309,7 @@
         <v>44712</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28371,7 +28371,7 @@
         <v>44714</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28428,7 +28428,7 @@
         <v>44720</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28485,7 +28485,7 @@
         <v>44720</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28542,7 +28542,7 @@
         <v>44722</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28599,7 +28599,7 @@
         <v>44728</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28656,7 +28656,7 @@
         <v>44729</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28718,7 +28718,7 @@
         <v>44729</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28780,7 +28780,7 @@
         <v>44729</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28842,7 +28842,7 @@
         <v>44732</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28899,7 +28899,7 @@
         <v>44732</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28956,7 +28956,7 @@
         <v>44763</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29013,7 +29013,7 @@
         <v>44783</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29075,7 +29075,7 @@
         <v>44785</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29137,7 +29137,7 @@
         <v>44791</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29194,7 +29194,7 @@
         <v>44796</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29251,7 +29251,7 @@
         <v>44796</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29308,7 +29308,7 @@
         <v>44798</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29365,7 +29365,7 @@
         <v>44799</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29422,7 +29422,7 @@
         <v>44799</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29479,7 +29479,7 @@
         <v>44805</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29536,7 +29536,7 @@
         <v>44806</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29593,7 +29593,7 @@
         <v>44806</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29650,7 +29650,7 @@
         <v>44806</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29707,7 +29707,7 @@
         <v>44817</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29764,7 +29764,7 @@
         <v>44818</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29821,7 +29821,7 @@
         <v>44819</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29878,7 +29878,7 @@
         <v>44826</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29940,7 +29940,7 @@
         <v>44827</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30002,7 +30002,7 @@
         <v>44830</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30059,7 +30059,7 @@
         <v>44839</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30116,7 +30116,7 @@
         <v>44839</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30173,7 +30173,7 @@
         <v>44840</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30230,7 +30230,7 @@
         <v>44846</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30287,7 +30287,7 @@
         <v>44846</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30344,7 +30344,7 @@
         <v>44846</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30401,7 +30401,7 @@
         <v>44846</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30458,7 +30458,7 @@
         <v>44854</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30515,7 +30515,7 @@
         <v>44859</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30572,7 +30572,7 @@
         <v>44859</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30629,7 +30629,7 @@
         <v>44861</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30686,7 +30686,7 @@
         <v>44862</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30743,7 +30743,7 @@
         <v>44873</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30800,7 +30800,7 @@
         <v>44875</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30862,7 +30862,7 @@
         <v>44875</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30919,7 +30919,7 @@
         <v>44876</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30981,7 +30981,7 @@
         <v>44878</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31043,7 +31043,7 @@
         <v>44879</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31105,7 +31105,7 @@
         <v>44879</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31167,7 +31167,7 @@
         <v>44879</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31229,7 +31229,7 @@
         <v>44879</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31291,7 +31291,7 @@
         <v>44879</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31353,7 +31353,7 @@
         <v>44879</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31415,7 +31415,7 @@
         <v>44880</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31472,7 +31472,7 @@
         <v>44881</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31534,7 +31534,7 @@
         <v>44881</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31596,7 +31596,7 @@
         <v>44883</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31653,7 +31653,7 @@
         <v>44883</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31715,7 +31715,7 @@
         <v>44886</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31777,7 +31777,7 @@
         <v>44886</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31839,7 +31839,7 @@
         <v>44893</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31896,7 +31896,7 @@
         <v>44894</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31953,7 +31953,7 @@
         <v>44894</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32010,7 +32010,7 @@
         <v>44895</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32067,7 +32067,7 @@
         <v>44897</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32124,7 +32124,7 @@
         <v>44901</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32181,7 +32181,7 @@
         <v>44908</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32238,7 +32238,7 @@
         <v>44909</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32295,7 +32295,7 @@
         <v>44909</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32352,7 +32352,7 @@
         <v>44914</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32409,7 +32409,7 @@
         <v>44915</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32466,7 +32466,7 @@
         <v>44915</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32523,7 +32523,7 @@
         <v>44916</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32580,7 +32580,7 @@
         <v>44929</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32637,7 +32637,7 @@
         <v>44944</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32694,7 +32694,7 @@
         <v>44945</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32751,7 +32751,7 @@
         <v>44946</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32808,7 +32808,7 @@
         <v>44952</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32865,7 +32865,7 @@
         <v>44953</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32927,7 +32927,7 @@
         <v>44966</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -32984,7 +32984,7 @@
         <v>44967</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33041,7 +33041,7 @@
         <v>44967</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33098,7 +33098,7 @@
         <v>44970</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33155,7 +33155,7 @@
         <v>44971</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33212,7 +33212,7 @@
         <v>44993</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33269,7 +33269,7 @@
         <v>44993</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33326,7 +33326,7 @@
         <v>44993</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33383,7 +33383,7 @@
         <v>44993</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33440,7 +33440,7 @@
         <v>45008</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33497,7 +33497,7 @@
         <v>45009</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -33554,7 +33554,7 @@
         <v>45012</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -33611,7 +33611,7 @@
         <v>45014</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33668,7 +33668,7 @@
         <v>45016</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33725,7 +33725,7 @@
         <v>45016</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33782,7 +33782,7 @@
         <v>45016</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33839,7 +33839,7 @@
         <v>45016</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -33896,7 +33896,7 @@
         <v>45016</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -33953,7 +33953,7 @@
         <v>45016</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34010,7 +34010,7 @@
         <v>45016</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34067,7 +34067,7 @@
         <v>45030</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34124,7 +34124,7 @@
         <v>45033</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34181,7 +34181,7 @@
         <v>45033</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34238,7 +34238,7 @@
         <v>45036</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34295,7 +34295,7 @@
         <v>45037</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34357,7 +34357,7 @@
         <v>45038</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -34414,7 +34414,7 @@
         <v>45041</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34471,7 +34471,7 @@
         <v>45041</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -34533,7 +34533,7 @@
         <v>45043</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -34590,7 +34590,7 @@
         <v>45044</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34647,7 +34647,7 @@
         <v>45044</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -34704,7 +34704,7 @@
         <v>45044</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -34761,7 +34761,7 @@
         <v>45058</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -34823,7 +34823,7 @@
         <v>45061</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -34880,7 +34880,7 @@
         <v>45062</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -34942,7 +34942,7 @@
         <v>45062</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -34999,7 +34999,7 @@
         <v>45063</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35061,7 +35061,7 @@
         <v>45070</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -35118,7 +35118,7 @@
         <v>45072</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -35180,7 +35180,7 @@
         <v>45072</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -35237,7 +35237,7 @@
         <v>45076</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35299,7 +35299,7 @@
         <v>45078</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35356,7 +35356,7 @@
         <v>45078</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -35418,7 +35418,7 @@
         <v>45079</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -35475,7 +35475,7 @@
         <v>45082</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -35532,7 +35532,7 @@
         <v>45082</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -35589,7 +35589,7 @@
         <v>45084</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -35651,7 +35651,7 @@
         <v>45084</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -35708,7 +35708,7 @@
         <v>45085</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -35765,7 +35765,7 @@
         <v>45089</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -35822,7 +35822,7 @@
         <v>45090</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -35879,7 +35879,7 @@
         <v>45090</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -35936,7 +35936,7 @@
         <v>45090</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -35993,7 +35993,7 @@
         <v>45090</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -36050,7 +36050,7 @@
         <v>45091</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -36107,7 +36107,7 @@
         <v>45097</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -36164,7 +36164,7 @@
         <v>45097</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -36221,7 +36221,7 @@
         <v>45097</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -36278,7 +36278,7 @@
         <v>45097</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -36335,7 +36335,7 @@
         <v>45098</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -36397,7 +36397,7 @@
         <v>45099</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -36454,7 +36454,7 @@
         <v>45103</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -36511,7 +36511,7 @@
         <v>45104</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -36568,7 +36568,7 @@
         <v>45104</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -36625,7 +36625,7 @@
         <v>45107</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -36687,7 +36687,7 @@
         <v>45107</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -36744,7 +36744,7 @@
         <v>45107</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -36801,7 +36801,7 @@
         <v>45107</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -36858,7 +36858,7 @@
         <v>45107</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -36915,7 +36915,7 @@
         <v>45107</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -36972,7 +36972,7 @@
         <v>45107</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -37034,7 +37034,7 @@
         <v>45107</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -37096,7 +37096,7 @@
         <v>45107</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -37153,7 +37153,7 @@
         <v>45110</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -37210,7 +37210,7 @@
         <v>45110</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -37267,7 +37267,7 @@
         <v>45112</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -37329,7 +37329,7 @@
         <v>45113</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -37391,7 +37391,7 @@
         <v>45113</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -37448,7 +37448,7 @@
         <v>45114</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -37505,7 +37505,7 @@
         <v>45114</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -37562,7 +37562,7 @@
         <v>45117</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -37619,7 +37619,7 @@
         <v>45119</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -37681,7 +37681,7 @@
         <v>45120</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -37738,7 +37738,7 @@
         <v>45121</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -37795,7 +37795,7 @@
         <v>45123</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -37852,7 +37852,7 @@
         <v>45132</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -37909,7 +37909,7 @@
         <v>45138</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -37966,7 +37966,7 @@
         <v>45138</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -38023,7 +38023,7 @@
         <v>45147</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -38080,7 +38080,7 @@
         <v>45149</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -38137,7 +38137,7 @@
         <v>45149</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -38194,7 +38194,7 @@
         <v>45161</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -38256,7 +38256,7 @@
         <v>45161</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -38318,7 +38318,7 @@
         <v>45161</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -38370,7 +38370,7 @@
       </c>
       <c r="R639" s="2" t="inlineStr"/>
     </row>
-    <row r="640">
+    <row r="640" ht="15" customHeight="1">
       <c r="A640" t="inlineStr">
         <is>
           <t>A 40653-2023</t>
@@ -38380,7 +38380,7 @@
         <v>45169</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -38426,6 +38426,125 @@
         <v>0</v>
       </c>
       <c r="R640" s="2" t="inlineStr"/>
+    </row>
+    <row r="641" ht="15" customHeight="1">
+      <c r="A641" t="inlineStr">
+        <is>
+          <t>A 40933-2023</t>
+        </is>
+      </c>
+      <c r="B641" s="1" t="n">
+        <v>45173</v>
+      </c>
+      <c r="C641" s="1" t="n">
+        <v>45175</v>
+      </c>
+      <c r="D641" t="inlineStr">
+        <is>
+          <t>GÄVLEBORGS LÄN</t>
+        </is>
+      </c>
+      <c r="E641" t="inlineStr">
+        <is>
+          <t>BOLLNÄS</t>
+        </is>
+      </c>
+      <c r="F641" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
+      <c r="G641" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="H641" t="n">
+        <v>0</v>
+      </c>
+      <c r="I641" t="n">
+        <v>0</v>
+      </c>
+      <c r="J641" t="n">
+        <v>0</v>
+      </c>
+      <c r="K641" t="n">
+        <v>0</v>
+      </c>
+      <c r="L641" t="n">
+        <v>0</v>
+      </c>
+      <c r="M641" t="n">
+        <v>0</v>
+      </c>
+      <c r="N641" t="n">
+        <v>0</v>
+      </c>
+      <c r="O641" t="n">
+        <v>0</v>
+      </c>
+      <c r="P641" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q641" t="n">
+        <v>0</v>
+      </c>
+      <c r="R641" s="2" t="inlineStr"/>
+    </row>
+    <row r="642">
+      <c r="A642" t="inlineStr">
+        <is>
+          <t>A 40848-2023</t>
+        </is>
+      </c>
+      <c r="B642" s="1" t="n">
+        <v>45173</v>
+      </c>
+      <c r="C642" s="1" t="n">
+        <v>45175</v>
+      </c>
+      <c r="D642" t="inlineStr">
+        <is>
+          <t>GÄVLEBORGS LÄN</t>
+        </is>
+      </c>
+      <c r="E642" t="inlineStr">
+        <is>
+          <t>BOLLNÄS</t>
+        </is>
+      </c>
+      <c r="G642" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="H642" t="n">
+        <v>0</v>
+      </c>
+      <c r="I642" t="n">
+        <v>0</v>
+      </c>
+      <c r="J642" t="n">
+        <v>0</v>
+      </c>
+      <c r="K642" t="n">
+        <v>0</v>
+      </c>
+      <c r="L642" t="n">
+        <v>0</v>
+      </c>
+      <c r="M642" t="n">
+        <v>0</v>
+      </c>
+      <c r="N642" t="n">
+        <v>0</v>
+      </c>
+      <c r="O642" t="n">
+        <v>0</v>
+      </c>
+      <c r="P642" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q642" t="n">
+        <v>0</v>
+      </c>
+      <c r="R642" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt BOLLNÄS.xlsx
+++ b/Översikt BOLLNÄS.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y642"/>
+  <dimension ref="A1:Y644"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>44109</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -675,7 +675,7 @@
         <v>44095</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -776,7 +776,7 @@
         <v>44382</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -868,7 +868,7 @@
         <v>44729</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -960,7 +960,7 @@
         <v>43783</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1055,7 +1055,7 @@
         <v>43783</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1150,7 +1150,7 @@
         <v>43783</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1245,7 +1245,7 @@
         <v>43993</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1331,7 +1331,7 @@
         <v>43999</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1422,7 +1422,7 @@
         <v>44432</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1512,7 +1512,7 @@
         <v>45092</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         <v>43600</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1688,7 +1688,7 @@
         <v>43619</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1777,7 +1777,7 @@
         <v>43794</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1862,7 +1862,7 @@
         <v>43864</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1947,7 +1947,7 @@
         <v>44081</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2037,7 +2037,7 @@
         <v>44515</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2127,7 +2127,7 @@
         <v>44813</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2212,7 +2212,7 @@
         <v>44901</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2297,7 +2297,7 @@
         <v>45058</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         <v>45090</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2471,7 +2471,7 @@
         <v>43360</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2528,7 +2528,7 @@
         <v>43375</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2585,7 +2585,7 @@
         <v>43382</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2642,7 +2642,7 @@
         <v>43389</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2699,7 +2699,7 @@
         <v>43392</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2756,7 +2756,7 @@
         <v>43410</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2813,7 +2813,7 @@
         <v>43413</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2875,7 +2875,7 @@
         <v>43416</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2932,7 +2932,7 @@
         <v>43417</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2989,7 +2989,7 @@
         <v>43417</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3046,7 +3046,7 @@
         <v>43418</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3103,7 +3103,7 @@
         <v>43418</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3160,7 +3160,7 @@
         <v>43418</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3217,7 +3217,7 @@
         <v>43419</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3274,7 +3274,7 @@
         <v>43420</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3331,7 +3331,7 @@
         <v>43424</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3388,7 +3388,7 @@
         <v>43424</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3445,7 +3445,7 @@
         <v>43424</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3502,7 +3502,7 @@
         <v>43424</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3559,7 +3559,7 @@
         <v>43424</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3616,7 +3616,7 @@
         <v>43424</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3673,7 +3673,7 @@
         <v>43424</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3730,7 +3730,7 @@
         <v>43427</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3787,7 +3787,7 @@
         <v>43427</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3844,7 +3844,7 @@
         <v>43427</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3901,7 +3901,7 @@
         <v>43427</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3958,7 +3958,7 @@
         <v>43427</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4015,7 +4015,7 @@
         <v>43430</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4072,7 +4072,7 @@
         <v>43431</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4129,7 +4129,7 @@
         <v>43431</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4186,7 +4186,7 @@
         <v>43434</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4243,7 +4243,7 @@
         <v>43434</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4300,7 +4300,7 @@
         <v>43437</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4357,7 +4357,7 @@
         <v>43441</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4414,7 +4414,7 @@
         <v>43444</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4471,7 +4471,7 @@
         <v>43445</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4533,7 +4533,7 @@
         <v>43445</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4590,7 +4590,7 @@
         <v>43446</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4647,7 +4647,7 @@
         <v>43446</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4704,7 +4704,7 @@
         <v>43447</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4761,7 +4761,7 @@
         <v>43448</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4818,7 +4818,7 @@
         <v>43452</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4875,7 +4875,7 @@
         <v>43452</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4932,7 +4932,7 @@
         <v>43454</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4989,7 +4989,7 @@
         <v>43455</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5046,7 +5046,7 @@
         <v>43455</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5103,7 +5103,7 @@
         <v>43467</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5160,7 +5160,7 @@
         <v>43472</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5217,7 +5217,7 @@
         <v>43472</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5274,7 +5274,7 @@
         <v>43472</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5331,7 +5331,7 @@
         <v>43476</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5388,7 +5388,7 @@
         <v>43476</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5445,7 +5445,7 @@
         <v>43476</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5502,7 +5502,7 @@
         <v>43480</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5559,7 +5559,7 @@
         <v>43482</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5616,7 +5616,7 @@
         <v>43482</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5673,7 +5673,7 @@
         <v>43497</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5730,7 +5730,7 @@
         <v>43509</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5787,7 +5787,7 @@
         <v>43515</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5844,7 +5844,7 @@
         <v>43517</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5901,7 +5901,7 @@
         <v>43518</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5958,7 +5958,7 @@
         <v>43522</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6015,7 +6015,7 @@
         <v>43523</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6072,7 +6072,7 @@
         <v>43528</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6129,7 +6129,7 @@
         <v>43528</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6186,7 +6186,7 @@
         <v>43529</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6243,7 +6243,7 @@
         <v>43532</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6300,7 +6300,7 @@
         <v>43532</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6357,7 +6357,7 @@
         <v>43536</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6414,7 +6414,7 @@
         <v>43537</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6471,7 +6471,7 @@
         <v>43559</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6528,7 +6528,7 @@
         <v>43560</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6585,7 +6585,7 @@
         <v>43563</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6642,7 +6642,7 @@
         <v>43564</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6699,7 +6699,7 @@
         <v>43567</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6756,7 +6756,7 @@
         <v>43571</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6813,7 +6813,7 @@
         <v>43580</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6870,7 +6870,7 @@
         <v>43583</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6927,7 +6927,7 @@
         <v>43587</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6984,7 +6984,7 @@
         <v>43593</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7041,7 +7041,7 @@
         <v>43593</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7098,7 +7098,7 @@
         <v>43594</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7155,7 +7155,7 @@
         <v>43598</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7212,7 +7212,7 @@
         <v>43599</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7269,7 +7269,7 @@
         <v>43599</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7326,7 +7326,7 @@
         <v>43599</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7383,7 +7383,7 @@
         <v>43605</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7445,7 +7445,7 @@
         <v>43607</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7502,7 +7502,7 @@
         <v>43612</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7559,7 +7559,7 @@
         <v>43619</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7621,7 +7621,7 @@
         <v>43619</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7678,7 +7678,7 @@
         <v>43619</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7740,7 +7740,7 @@
         <v>43619</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7802,7 +7802,7 @@
         <v>43620</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7859,7 +7859,7 @@
         <v>43620</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7916,7 +7916,7 @@
         <v>43629</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7978,7 +7978,7 @@
         <v>43629</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8035,7 +8035,7 @@
         <v>43633</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8092,7 +8092,7 @@
         <v>43635</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8149,7 +8149,7 @@
         <v>43640</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8206,7 +8206,7 @@
         <v>43641</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8263,7 +8263,7 @@
         <v>43643</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8320,7 +8320,7 @@
         <v>43649</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8377,7 +8377,7 @@
         <v>43649</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8434,7 +8434,7 @@
         <v>43651</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8496,7 +8496,7 @@
         <v>43654</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8553,7 +8553,7 @@
         <v>43656</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8610,7 +8610,7 @@
         <v>43657</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8667,7 +8667,7 @@
         <v>43657</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8729,7 +8729,7 @@
         <v>43664</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8786,7 +8786,7 @@
         <v>43689</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8843,7 +8843,7 @@
         <v>43691</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8905,7 +8905,7 @@
         <v>43698</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8962,7 +8962,7 @@
         <v>43698</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9019,7 +9019,7 @@
         <v>43703</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9076,7 +9076,7 @@
         <v>43704</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9133,7 +9133,7 @@
         <v>43704</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9190,7 +9190,7 @@
         <v>43705</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9252,7 +9252,7 @@
         <v>43706</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9309,7 +9309,7 @@
         <v>43707</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9371,7 +9371,7 @@
         <v>43707</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9433,7 +9433,7 @@
         <v>43710</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9490,7 +9490,7 @@
         <v>43711</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9552,7 +9552,7 @@
         <v>43717</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9609,7 +9609,7 @@
         <v>43718</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9666,7 +9666,7 @@
         <v>43718</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9723,7 +9723,7 @@
         <v>43721</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9785,7 +9785,7 @@
         <v>43726</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9842,7 +9842,7 @@
         <v>43732</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9899,7 +9899,7 @@
         <v>43733</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9961,7 +9961,7 @@
         <v>43733</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10023,7 +10023,7 @@
         <v>43738</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10080,7 +10080,7 @@
         <v>43739</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10137,7 +10137,7 @@
         <v>43740</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10194,7 +10194,7 @@
         <v>43741</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10251,7 +10251,7 @@
         <v>43742</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10308,7 +10308,7 @@
         <v>43742</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10365,7 +10365,7 @@
         <v>43742</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10422,7 +10422,7 @@
         <v>43748</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10479,7 +10479,7 @@
         <v>43753</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10536,7 +10536,7 @@
         <v>43754</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10598,7 +10598,7 @@
         <v>43754</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10655,7 +10655,7 @@
         <v>43755</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10717,7 +10717,7 @@
         <v>43759</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10774,7 +10774,7 @@
         <v>43759</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10831,7 +10831,7 @@
         <v>43760</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10888,7 +10888,7 @@
         <v>43761</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10950,7 +10950,7 @@
         <v>43767</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11012,7 +11012,7 @@
         <v>43769</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11069,7 +11069,7 @@
         <v>43773</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11126,7 +11126,7 @@
         <v>43776</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11183,7 +11183,7 @@
         <v>43777</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11240,7 +11240,7 @@
         <v>43781</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11302,7 +11302,7 @@
         <v>43783</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11359,7 +11359,7 @@
         <v>43783</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11416,7 +11416,7 @@
         <v>43783</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11498,7 +11498,7 @@
         <v>43787</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11555,7 +11555,7 @@
         <v>43789</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11612,7 +11612,7 @@
         <v>43789</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11669,7 +11669,7 @@
         <v>43790</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11726,7 +11726,7 @@
         <v>43794</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11783,7 +11783,7 @@
         <v>43795</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11840,7 +11840,7 @@
         <v>43798</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11897,7 +11897,7 @@
         <v>43800</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11954,7 +11954,7 @@
         <v>43802</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12011,7 +12011,7 @@
         <v>43808</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12073,7 +12073,7 @@
         <v>43809</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12135,7 +12135,7 @@
         <v>43809</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12197,7 +12197,7 @@
         <v>43809</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12254,7 +12254,7 @@
         <v>43812</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12311,7 +12311,7 @@
         <v>43815</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12368,7 +12368,7 @@
         <v>43819</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12425,7 +12425,7 @@
         <v>43819</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12482,7 +12482,7 @@
         <v>43837</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12539,7 +12539,7 @@
         <v>43837</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12596,7 +12596,7 @@
         <v>43840</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12653,7 +12653,7 @@
         <v>43840</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12710,7 +12710,7 @@
         <v>43846</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12767,7 +12767,7 @@
         <v>43850</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12824,7 +12824,7 @@
         <v>43852</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12886,7 +12886,7 @@
         <v>43853</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12948,7 +12948,7 @@
         <v>43858</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13010,7 +13010,7 @@
         <v>43859</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13072,7 +13072,7 @@
         <v>43865</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13129,7 +13129,7 @@
         <v>43867</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13186,7 +13186,7 @@
         <v>43871</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13243,7 +13243,7 @@
         <v>43878</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13300,7 +13300,7 @@
         <v>43878</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13357,7 +13357,7 @@
         <v>43879</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13414,7 +13414,7 @@
         <v>43882</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13471,7 +13471,7 @@
         <v>43886</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13528,7 +13528,7 @@
         <v>43886</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13585,7 +13585,7 @@
         <v>43887</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13642,7 +13642,7 @@
         <v>43888</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13699,7 +13699,7 @@
         <v>43892</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13756,7 +13756,7 @@
         <v>43894</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13813,7 +13813,7 @@
         <v>43894</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13870,7 +13870,7 @@
         <v>43901</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13932,7 +13932,7 @@
         <v>43902</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13989,7 +13989,7 @@
         <v>43913</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14046,7 +14046,7 @@
         <v>43913</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14103,7 +14103,7 @@
         <v>43913</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14165,7 +14165,7 @@
         <v>43916</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14222,7 +14222,7 @@
         <v>43916</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14279,7 +14279,7 @@
         <v>43924</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14336,7 +14336,7 @@
         <v>43927</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14393,7 +14393,7 @@
         <v>43930</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14450,7 +14450,7 @@
         <v>43945</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14507,7 +14507,7 @@
         <v>43949</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14564,7 +14564,7 @@
         <v>43949</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14621,7 +14621,7 @@
         <v>43956</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14678,7 +14678,7 @@
         <v>43987</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14735,7 +14735,7 @@
         <v>43991</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14792,7 +14792,7 @@
         <v>43993</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14854,7 +14854,7 @@
         <v>43993</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14916,7 +14916,7 @@
         <v>43994</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14973,7 +14973,7 @@
         <v>43998</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15030,7 +15030,7 @@
         <v>44000</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15092,7 +15092,7 @@
         <v>44006</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15149,7 +15149,7 @@
         <v>44008</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15206,7 +15206,7 @@
         <v>44012</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15263,7 +15263,7 @@
         <v>44013</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15320,7 +15320,7 @@
         <v>44014</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15377,7 +15377,7 @@
         <v>44014</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15434,7 +15434,7 @@
         <v>44014</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15491,7 +15491,7 @@
         <v>44014</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15548,7 +15548,7 @@
         <v>44014</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15605,7 +15605,7 @@
         <v>44015</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15662,7 +15662,7 @@
         <v>44015</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15719,7 +15719,7 @@
         <v>44035</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15776,7 +15776,7 @@
         <v>44035</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15833,7 +15833,7 @@
         <v>44055</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15890,7 +15890,7 @@
         <v>44057</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15947,7 +15947,7 @@
         <v>44061</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16004,7 +16004,7 @@
         <v>44062</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16061,7 +16061,7 @@
         <v>44064</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16118,7 +16118,7 @@
         <v>44070</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16175,7 +16175,7 @@
         <v>44076</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16232,7 +16232,7 @@
         <v>44076</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16289,7 +16289,7 @@
         <v>44083</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16346,7 +16346,7 @@
         <v>44083</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16403,7 +16403,7 @@
         <v>44083</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16460,7 +16460,7 @@
         <v>44083</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16517,7 +16517,7 @@
         <v>44084</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16574,7 +16574,7 @@
         <v>44088</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16636,7 +16636,7 @@
         <v>44089</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16693,7 +16693,7 @@
         <v>44090</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16755,7 +16755,7 @@
         <v>44095</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16812,7 +16812,7 @@
         <v>44103</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16869,7 +16869,7 @@
         <v>44105</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16926,7 +16926,7 @@
         <v>44105</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16983,7 +16983,7 @@
         <v>44110</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17040,7 +17040,7 @@
         <v>44110</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17097,7 +17097,7 @@
         <v>44116</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17154,7 +17154,7 @@
         <v>44119</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17216,7 +17216,7 @@
         <v>44119</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17278,7 +17278,7 @@
         <v>44119</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17340,7 +17340,7 @@
         <v>44120</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17397,7 +17397,7 @@
         <v>44125</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17454,7 +17454,7 @@
         <v>44125</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17511,7 +17511,7 @@
         <v>44127</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17568,7 +17568,7 @@
         <v>44127</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17625,7 +17625,7 @@
         <v>44127</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17682,7 +17682,7 @@
         <v>44130</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17739,7 +17739,7 @@
         <v>44133</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17796,7 +17796,7 @@
         <v>44133</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17853,7 +17853,7 @@
         <v>44133</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17910,7 +17910,7 @@
         <v>44137</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17967,7 +17967,7 @@
         <v>44140</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18029,7 +18029,7 @@
         <v>44141</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18086,7 +18086,7 @@
         <v>44144</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18143,7 +18143,7 @@
         <v>44144</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18200,7 +18200,7 @@
         <v>44146</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18257,7 +18257,7 @@
         <v>44147</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18314,7 +18314,7 @@
         <v>44147</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18371,7 +18371,7 @@
         <v>44147</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18428,7 +18428,7 @@
         <v>44147</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18485,7 +18485,7 @@
         <v>44148</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18542,7 +18542,7 @@
         <v>44148</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18604,7 +18604,7 @@
         <v>44151</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18661,7 +18661,7 @@
         <v>44151</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18718,7 +18718,7 @@
         <v>44151</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18780,7 +18780,7 @@
         <v>44151</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18837,7 +18837,7 @@
         <v>44151</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18894,7 +18894,7 @@
         <v>44151</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18951,7 +18951,7 @@
         <v>44151</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19008,7 +19008,7 @@
         <v>44152</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19070,7 +19070,7 @@
         <v>44153</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19127,7 +19127,7 @@
         <v>44153</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19189,7 +19189,7 @@
         <v>44153</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19246,7 +19246,7 @@
         <v>44153</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19308,7 +19308,7 @@
         <v>44160</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19365,7 +19365,7 @@
         <v>44161</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19422,7 +19422,7 @@
         <v>44161</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19484,7 +19484,7 @@
         <v>44162</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19541,7 +19541,7 @@
         <v>44165</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19598,7 +19598,7 @@
         <v>44166</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19655,7 +19655,7 @@
         <v>44167</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19712,7 +19712,7 @@
         <v>44169</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19769,7 +19769,7 @@
         <v>44176</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19826,7 +19826,7 @@
         <v>44180</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19883,7 +19883,7 @@
         <v>44180</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19940,7 +19940,7 @@
         <v>44180</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19997,7 +19997,7 @@
         <v>44180</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20059,7 +20059,7 @@
         <v>44186</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20116,7 +20116,7 @@
         <v>44187</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20173,7 +20173,7 @@
         <v>44187</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20230,7 +20230,7 @@
         <v>44187</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20287,7 +20287,7 @@
         <v>44188</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20344,7 +20344,7 @@
         <v>44194</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20401,7 +20401,7 @@
         <v>44195</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20458,7 +20458,7 @@
         <v>44203</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20520,7 +20520,7 @@
         <v>44203</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20582,7 +20582,7 @@
         <v>44203</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20644,7 +20644,7 @@
         <v>44203</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20706,7 +20706,7 @@
         <v>44203</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20768,7 +20768,7 @@
         <v>44204</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20830,7 +20830,7 @@
         <v>44204</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20892,7 +20892,7 @@
         <v>44207</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20954,7 +20954,7 @@
         <v>44207</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21016,7 +21016,7 @@
         <v>44208</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21078,7 +21078,7 @@
         <v>44208</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21140,7 +21140,7 @@
         <v>44208</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21197,7 +21197,7 @@
         <v>44209</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21259,7 +21259,7 @@
         <v>44210</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21321,7 +21321,7 @@
         <v>44211</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21378,7 +21378,7 @@
         <v>44211</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21435,7 +21435,7 @@
         <v>44218</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21492,7 +21492,7 @@
         <v>44224</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21549,7 +21549,7 @@
         <v>44232</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21606,7 +21606,7 @@
         <v>44239</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21663,7 +21663,7 @@
         <v>44239</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21720,7 +21720,7 @@
         <v>44242</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21777,7 +21777,7 @@
         <v>44267</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21834,7 +21834,7 @@
         <v>44270</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21891,7 +21891,7 @@
         <v>44278</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21948,7 +21948,7 @@
         <v>44278</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22005,7 +22005,7 @@
         <v>44279</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22067,7 +22067,7 @@
         <v>44279</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22129,7 +22129,7 @@
         <v>44279</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22191,7 +22191,7 @@
         <v>44295</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22248,7 +22248,7 @@
         <v>44299</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22305,7 +22305,7 @@
         <v>44316</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22362,7 +22362,7 @@
         <v>44326</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22424,7 +22424,7 @@
         <v>44336</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22481,7 +22481,7 @@
         <v>44347</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22538,7 +22538,7 @@
         <v>44347</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22595,7 +22595,7 @@
         <v>44364</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22652,7 +22652,7 @@
         <v>44365</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22714,7 +22714,7 @@
         <v>44369</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22776,7 +22776,7 @@
         <v>44370</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22838,7 +22838,7 @@
         <v>44370</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22895,7 +22895,7 @@
         <v>44370</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22957,7 +22957,7 @@
         <v>44371</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23014,7 +23014,7 @@
         <v>44379</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23076,7 +23076,7 @@
         <v>44381</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23133,7 +23133,7 @@
         <v>44381</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23190,7 +23190,7 @@
         <v>44381</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23247,7 +23247,7 @@
         <v>44382</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23309,7 +23309,7 @@
         <v>44382</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23371,7 +23371,7 @@
         <v>44383</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23433,7 +23433,7 @@
         <v>44384</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23490,7 +23490,7 @@
         <v>44389</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23547,7 +23547,7 @@
         <v>44407</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23604,7 +23604,7 @@
         <v>44424</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23666,7 +23666,7 @@
         <v>44424</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23723,7 +23723,7 @@
         <v>44438</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23785,7 +23785,7 @@
         <v>44452</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23842,7 +23842,7 @@
         <v>44452</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23899,7 +23899,7 @@
         <v>44452</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23956,7 +23956,7 @@
         <v>44454</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24013,7 +24013,7 @@
         <v>44460</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24070,7 +24070,7 @@
         <v>44467</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24132,7 +24132,7 @@
         <v>44480</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24189,7 +24189,7 @@
         <v>44480</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24251,7 +24251,7 @@
         <v>44484</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24308,7 +24308,7 @@
         <v>44488</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24365,7 +24365,7 @@
         <v>44488</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24422,7 +24422,7 @@
         <v>44489</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24479,7 +24479,7 @@
         <v>44496</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24541,7 +24541,7 @@
         <v>44496</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24598,7 +24598,7 @@
         <v>44503</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24660,7 +24660,7 @@
         <v>44505</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24722,7 +24722,7 @@
         <v>44505</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24784,7 +24784,7 @@
         <v>44505</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24846,7 +24846,7 @@
         <v>44505</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24908,7 +24908,7 @@
         <v>44509</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24970,7 +24970,7 @@
         <v>44509</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25032,7 +25032,7 @@
         <v>44509</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25094,7 +25094,7 @@
         <v>44509</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25156,7 +25156,7 @@
         <v>44509</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25213,7 +25213,7 @@
         <v>44509</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25275,7 +25275,7 @@
         <v>44509</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25337,7 +25337,7 @@
         <v>44509</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25399,7 +25399,7 @@
         <v>44511</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25461,7 +25461,7 @@
         <v>44515</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25523,7 +25523,7 @@
         <v>44517</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25580,7 +25580,7 @@
         <v>44517</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25637,7 +25637,7 @@
         <v>44517</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25694,7 +25694,7 @@
         <v>44517</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25751,7 +25751,7 @@
         <v>44517</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25808,7 +25808,7 @@
         <v>44522</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25870,7 +25870,7 @@
         <v>44524</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25932,7 +25932,7 @@
         <v>44526</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25994,7 +25994,7 @@
         <v>44526</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26051,7 +26051,7 @@
         <v>44531</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26108,7 +26108,7 @@
         <v>44532</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26170,7 +26170,7 @@
         <v>44532</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26232,7 +26232,7 @@
         <v>44536</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26289,7 +26289,7 @@
         <v>44572</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26346,7 +26346,7 @@
         <v>44585</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26403,7 +26403,7 @@
         <v>44592</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26460,7 +26460,7 @@
         <v>44594</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26517,7 +26517,7 @@
         <v>44595</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26574,7 +26574,7 @@
         <v>44595</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26631,7 +26631,7 @@
         <v>44595</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26688,7 +26688,7 @@
         <v>44596</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26745,7 +26745,7 @@
         <v>44596</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26802,7 +26802,7 @@
         <v>44601</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26859,7 +26859,7 @@
         <v>44603</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26916,7 +26916,7 @@
         <v>44608</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26973,7 +26973,7 @@
         <v>44616</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27030,7 +27030,7 @@
         <v>44617</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27087,7 +27087,7 @@
         <v>44620</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27144,7 +27144,7 @@
         <v>44620</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27201,7 +27201,7 @@
         <v>44623</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27258,7 +27258,7 @@
         <v>44631</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27315,7 +27315,7 @@
         <v>44636</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27372,7 +27372,7 @@
         <v>44642</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27429,7 +27429,7 @@
         <v>44650</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27486,7 +27486,7 @@
         <v>44650</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27543,7 +27543,7 @@
         <v>44652</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27605,7 +27605,7 @@
         <v>44659</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27662,7 +27662,7 @@
         <v>44662</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27719,7 +27719,7 @@
         <v>44671</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27776,7 +27776,7 @@
         <v>44676</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27833,7 +27833,7 @@
         <v>44691</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27890,7 +27890,7 @@
         <v>44697</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27952,7 +27952,7 @@
         <v>44704</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28014,7 +28014,7 @@
         <v>44704</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28076,7 +28076,7 @@
         <v>44705</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28133,7 +28133,7 @@
         <v>44706</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28190,7 +28190,7 @@
         <v>44712</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28247,7 +28247,7 @@
         <v>44712</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28309,7 +28309,7 @@
         <v>44712</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28371,7 +28371,7 @@
         <v>44714</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28428,7 +28428,7 @@
         <v>44720</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28485,7 +28485,7 @@
         <v>44720</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28542,7 +28542,7 @@
         <v>44722</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28599,7 +28599,7 @@
         <v>44728</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28656,7 +28656,7 @@
         <v>44729</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28718,7 +28718,7 @@
         <v>44729</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28780,7 +28780,7 @@
         <v>44729</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28842,7 +28842,7 @@
         <v>44732</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28899,7 +28899,7 @@
         <v>44732</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28956,7 +28956,7 @@
         <v>44763</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29013,7 +29013,7 @@
         <v>44783</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29075,7 +29075,7 @@
         <v>44785</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29137,7 +29137,7 @@
         <v>44791</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29194,7 +29194,7 @@
         <v>44796</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29251,7 +29251,7 @@
         <v>44796</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29308,7 +29308,7 @@
         <v>44798</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29365,7 +29365,7 @@
         <v>44799</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29422,7 +29422,7 @@
         <v>44799</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29479,7 +29479,7 @@
         <v>44805</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29536,7 +29536,7 @@
         <v>44806</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29593,7 +29593,7 @@
         <v>44806</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29650,7 +29650,7 @@
         <v>44806</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29707,7 +29707,7 @@
         <v>44817</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29764,7 +29764,7 @@
         <v>44818</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29821,7 +29821,7 @@
         <v>44819</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29878,7 +29878,7 @@
         <v>44826</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29940,7 +29940,7 @@
         <v>44827</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30002,7 +30002,7 @@
         <v>44830</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30059,7 +30059,7 @@
         <v>44839</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30116,7 +30116,7 @@
         <v>44839</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30173,7 +30173,7 @@
         <v>44840</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30230,7 +30230,7 @@
         <v>44846</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30287,7 +30287,7 @@
         <v>44846</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30344,7 +30344,7 @@
         <v>44846</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30401,7 +30401,7 @@
         <v>44846</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30458,7 +30458,7 @@
         <v>44854</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30515,7 +30515,7 @@
         <v>44859</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30572,7 +30572,7 @@
         <v>44859</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30629,7 +30629,7 @@
         <v>44861</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30686,7 +30686,7 @@
         <v>44862</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30743,7 +30743,7 @@
         <v>44873</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30800,7 +30800,7 @@
         <v>44875</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30862,7 +30862,7 @@
         <v>44875</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30919,7 +30919,7 @@
         <v>44876</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30981,7 +30981,7 @@
         <v>44878</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31043,7 +31043,7 @@
         <v>44879</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31105,7 +31105,7 @@
         <v>44879</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31167,7 +31167,7 @@
         <v>44879</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31229,7 +31229,7 @@
         <v>44879</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31291,7 +31291,7 @@
         <v>44879</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31353,7 +31353,7 @@
         <v>44879</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31415,7 +31415,7 @@
         <v>44880</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31472,7 +31472,7 @@
         <v>44881</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31534,7 +31534,7 @@
         <v>44881</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31596,7 +31596,7 @@
         <v>44883</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31653,7 +31653,7 @@
         <v>44883</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31715,7 +31715,7 @@
         <v>44886</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31777,7 +31777,7 @@
         <v>44886</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31839,7 +31839,7 @@
         <v>44893</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31896,7 +31896,7 @@
         <v>44894</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31953,7 +31953,7 @@
         <v>44894</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32010,7 +32010,7 @@
         <v>44895</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32067,7 +32067,7 @@
         <v>44897</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32124,7 +32124,7 @@
         <v>44901</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32181,7 +32181,7 @@
         <v>44908</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32238,7 +32238,7 @@
         <v>44909</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32295,7 +32295,7 @@
         <v>44909</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32352,7 +32352,7 @@
         <v>44914</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32409,7 +32409,7 @@
         <v>44915</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32466,7 +32466,7 @@
         <v>44915</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32523,7 +32523,7 @@
         <v>44916</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32580,7 +32580,7 @@
         <v>44929</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32637,7 +32637,7 @@
         <v>44944</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32694,7 +32694,7 @@
         <v>44945</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32751,7 +32751,7 @@
         <v>44946</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32808,7 +32808,7 @@
         <v>44952</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32865,7 +32865,7 @@
         <v>44953</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32927,7 +32927,7 @@
         <v>44966</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -32984,7 +32984,7 @@
         <v>44967</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33041,7 +33041,7 @@
         <v>44967</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33098,7 +33098,7 @@
         <v>44970</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33155,7 +33155,7 @@
         <v>44971</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33212,7 +33212,7 @@
         <v>44993</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33269,7 +33269,7 @@
         <v>44993</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33326,7 +33326,7 @@
         <v>44993</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33383,7 +33383,7 @@
         <v>44993</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33440,7 +33440,7 @@
         <v>45008</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33497,7 +33497,7 @@
         <v>45009</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -33554,7 +33554,7 @@
         <v>45012</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -33611,7 +33611,7 @@
         <v>45014</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33668,7 +33668,7 @@
         <v>45016</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33725,7 +33725,7 @@
         <v>45016</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33782,7 +33782,7 @@
         <v>45016</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33839,7 +33839,7 @@
         <v>45016</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -33896,7 +33896,7 @@
         <v>45016</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -33953,7 +33953,7 @@
         <v>45016</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34010,7 +34010,7 @@
         <v>45016</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34067,7 +34067,7 @@
         <v>45030</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34124,7 +34124,7 @@
         <v>45033</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34181,7 +34181,7 @@
         <v>45033</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34238,7 +34238,7 @@
         <v>45036</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34295,7 +34295,7 @@
         <v>45037</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34357,7 +34357,7 @@
         <v>45038</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -34414,7 +34414,7 @@
         <v>45041</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34471,7 +34471,7 @@
         <v>45041</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -34533,7 +34533,7 @@
         <v>45043</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -34590,7 +34590,7 @@
         <v>45044</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34647,7 +34647,7 @@
         <v>45044</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -34704,7 +34704,7 @@
         <v>45044</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -34761,7 +34761,7 @@
         <v>45058</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -34823,7 +34823,7 @@
         <v>45061</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -34880,7 +34880,7 @@
         <v>45062</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -34942,7 +34942,7 @@
         <v>45062</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -34999,7 +34999,7 @@
         <v>45063</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35061,7 +35061,7 @@
         <v>45070</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -35118,7 +35118,7 @@
         <v>45072</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -35180,7 +35180,7 @@
         <v>45072</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -35237,7 +35237,7 @@
         <v>45076</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35299,7 +35299,7 @@
         <v>45078</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35356,7 +35356,7 @@
         <v>45078</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -35418,7 +35418,7 @@
         <v>45079</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -35475,7 +35475,7 @@
         <v>45082</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -35532,7 +35532,7 @@
         <v>45082</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -35589,7 +35589,7 @@
         <v>45084</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -35651,7 +35651,7 @@
         <v>45084</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -35708,7 +35708,7 @@
         <v>45085</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -35765,7 +35765,7 @@
         <v>45089</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -35822,7 +35822,7 @@
         <v>45090</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -35879,7 +35879,7 @@
         <v>45090</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -35936,7 +35936,7 @@
         <v>45090</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -35993,7 +35993,7 @@
         <v>45090</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -36050,7 +36050,7 @@
         <v>45091</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -36107,7 +36107,7 @@
         <v>45097</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -36164,7 +36164,7 @@
         <v>45097</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -36221,7 +36221,7 @@
         <v>45097</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -36278,7 +36278,7 @@
         <v>45097</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -36335,7 +36335,7 @@
         <v>45098</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -36397,7 +36397,7 @@
         <v>45099</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -36454,7 +36454,7 @@
         <v>45103</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -36511,7 +36511,7 @@
         <v>45104</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -36568,7 +36568,7 @@
         <v>45104</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -36625,7 +36625,7 @@
         <v>45107</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -36687,7 +36687,7 @@
         <v>45107</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -36744,7 +36744,7 @@
         <v>45107</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -36801,7 +36801,7 @@
         <v>45107</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -36858,7 +36858,7 @@
         <v>45107</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -36915,7 +36915,7 @@
         <v>45107</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -36972,7 +36972,7 @@
         <v>45107</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -37034,7 +37034,7 @@
         <v>45107</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -37096,7 +37096,7 @@
         <v>45107</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -37153,7 +37153,7 @@
         <v>45110</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -37210,7 +37210,7 @@
         <v>45110</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -37267,7 +37267,7 @@
         <v>45112</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -37329,7 +37329,7 @@
         <v>45113</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -37391,7 +37391,7 @@
         <v>45113</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -37448,7 +37448,7 @@
         <v>45114</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -37505,7 +37505,7 @@
         <v>45114</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -37562,7 +37562,7 @@
         <v>45117</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -37619,7 +37619,7 @@
         <v>45119</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -37681,7 +37681,7 @@
         <v>45120</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -37738,7 +37738,7 @@
         <v>45121</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -37795,7 +37795,7 @@
         <v>45123</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -37852,7 +37852,7 @@
         <v>45132</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -37909,7 +37909,7 @@
         <v>45138</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -37966,7 +37966,7 @@
         <v>45138</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -38023,7 +38023,7 @@
         <v>45147</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -38080,7 +38080,7 @@
         <v>45149</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -38137,7 +38137,7 @@
         <v>45149</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -38194,7 +38194,7 @@
         <v>45161</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -38256,7 +38256,7 @@
         <v>45161</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -38318,7 +38318,7 @@
         <v>45161</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -38380,7 +38380,7 @@
         <v>45169</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -38437,7 +38437,7 @@
         <v>45173</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -38489,7 +38489,7 @@
       </c>
       <c r="R641" s="2" t="inlineStr"/>
     </row>
-    <row r="642">
+    <row r="642" ht="15" customHeight="1">
       <c r="A642" t="inlineStr">
         <is>
           <t>A 40848-2023</t>
@@ -38499,7 +38499,7 @@
         <v>45173</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -38545,6 +38545,120 @@
         <v>0</v>
       </c>
       <c r="R642" s="2" t="inlineStr"/>
+    </row>
+    <row r="643" ht="15" customHeight="1">
+      <c r="A643" t="inlineStr">
+        <is>
+          <t>A 41571-2023</t>
+        </is>
+      </c>
+      <c r="B643" s="1" t="n">
+        <v>45175</v>
+      </c>
+      <c r="C643" s="1" t="n">
+        <v>45177</v>
+      </c>
+      <c r="D643" t="inlineStr">
+        <is>
+          <t>GÄVLEBORGS LÄN</t>
+        </is>
+      </c>
+      <c r="E643" t="inlineStr">
+        <is>
+          <t>BOLLNÄS</t>
+        </is>
+      </c>
+      <c r="G643" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="H643" t="n">
+        <v>0</v>
+      </c>
+      <c r="I643" t="n">
+        <v>0</v>
+      </c>
+      <c r="J643" t="n">
+        <v>0</v>
+      </c>
+      <c r="K643" t="n">
+        <v>0</v>
+      </c>
+      <c r="L643" t="n">
+        <v>0</v>
+      </c>
+      <c r="M643" t="n">
+        <v>0</v>
+      </c>
+      <c r="N643" t="n">
+        <v>0</v>
+      </c>
+      <c r="O643" t="n">
+        <v>0</v>
+      </c>
+      <c r="P643" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q643" t="n">
+        <v>0</v>
+      </c>
+      <c r="R643" s="2" t="inlineStr"/>
+    </row>
+    <row r="644">
+      <c r="A644" t="inlineStr">
+        <is>
+          <t>A 41730-2023</t>
+        </is>
+      </c>
+      <c r="B644" s="1" t="n">
+        <v>45176</v>
+      </c>
+      <c r="C644" s="1" t="n">
+        <v>45177</v>
+      </c>
+      <c r="D644" t="inlineStr">
+        <is>
+          <t>GÄVLEBORGS LÄN</t>
+        </is>
+      </c>
+      <c r="E644" t="inlineStr">
+        <is>
+          <t>BOLLNÄS</t>
+        </is>
+      </c>
+      <c r="G644" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="H644" t="n">
+        <v>0</v>
+      </c>
+      <c r="I644" t="n">
+        <v>0</v>
+      </c>
+      <c r="J644" t="n">
+        <v>0</v>
+      </c>
+      <c r="K644" t="n">
+        <v>0</v>
+      </c>
+      <c r="L644" t="n">
+        <v>0</v>
+      </c>
+      <c r="M644" t="n">
+        <v>0</v>
+      </c>
+      <c r="N644" t="n">
+        <v>0</v>
+      </c>
+      <c r="O644" t="n">
+        <v>0</v>
+      </c>
+      <c r="P644" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q644" t="n">
+        <v>0</v>
+      </c>
+      <c r="R644" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt BOLLNÄS.xlsx
+++ b/Översikt BOLLNÄS.xlsx
@@ -572,7 +572,7 @@
         <v>44109</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -675,7 +675,7 @@
         <v>44095</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -776,7 +776,7 @@
         <v>44382</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -868,7 +868,7 @@
         <v>44729</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -960,7 +960,7 @@
         <v>43783</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1055,7 +1055,7 @@
         <v>43783</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1150,7 +1150,7 @@
         <v>43783</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1245,7 +1245,7 @@
         <v>43993</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1331,7 +1331,7 @@
         <v>43999</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1422,7 +1422,7 @@
         <v>44432</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1512,7 +1512,7 @@
         <v>45092</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         <v>43600</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1688,7 +1688,7 @@
         <v>43619</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1777,7 +1777,7 @@
         <v>43794</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1862,7 +1862,7 @@
         <v>43864</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1947,7 +1947,7 @@
         <v>44081</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2037,7 +2037,7 @@
         <v>44515</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2127,7 +2127,7 @@
         <v>44813</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2212,7 +2212,7 @@
         <v>44901</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2297,7 +2297,7 @@
         <v>45058</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         <v>45090</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2471,7 +2471,7 @@
         <v>43360</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2528,7 +2528,7 @@
         <v>43375</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2585,7 +2585,7 @@
         <v>43382</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2642,7 +2642,7 @@
         <v>43389</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2699,7 +2699,7 @@
         <v>43392</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2756,7 +2756,7 @@
         <v>43410</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2813,7 +2813,7 @@
         <v>43413</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2875,7 +2875,7 @@
         <v>43416</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2932,7 +2932,7 @@
         <v>43417</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2989,7 +2989,7 @@
         <v>43417</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3046,7 +3046,7 @@
         <v>43418</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3103,7 +3103,7 @@
         <v>43418</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3160,7 +3160,7 @@
         <v>43418</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3217,7 +3217,7 @@
         <v>43419</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3274,7 +3274,7 @@
         <v>43420</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3331,7 +3331,7 @@
         <v>43424</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3388,7 +3388,7 @@
         <v>43424</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3445,7 +3445,7 @@
         <v>43424</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3502,7 +3502,7 @@
         <v>43424</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3559,7 +3559,7 @@
         <v>43424</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3616,7 +3616,7 @@
         <v>43424</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3673,7 +3673,7 @@
         <v>43424</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3730,7 +3730,7 @@
         <v>43427</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3787,7 +3787,7 @@
         <v>43427</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3844,7 +3844,7 @@
         <v>43427</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3901,7 +3901,7 @@
         <v>43427</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3958,7 +3958,7 @@
         <v>43427</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4015,7 +4015,7 @@
         <v>43430</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4072,7 +4072,7 @@
         <v>43431</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4129,7 +4129,7 @@
         <v>43431</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4186,7 +4186,7 @@
         <v>43434</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4243,7 +4243,7 @@
         <v>43434</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4300,7 +4300,7 @@
         <v>43437</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4357,7 +4357,7 @@
         <v>43441</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4414,7 +4414,7 @@
         <v>43444</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4471,7 +4471,7 @@
         <v>43445</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4533,7 +4533,7 @@
         <v>43445</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4590,7 +4590,7 @@
         <v>43446</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4647,7 +4647,7 @@
         <v>43446</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4704,7 +4704,7 @@
         <v>43447</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4761,7 +4761,7 @@
         <v>43448</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4818,7 +4818,7 @@
         <v>43452</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4875,7 +4875,7 @@
         <v>43452</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4932,7 +4932,7 @@
         <v>43454</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4989,7 +4989,7 @@
         <v>43455</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5046,7 +5046,7 @@
         <v>43455</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5103,7 +5103,7 @@
         <v>43467</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5160,7 +5160,7 @@
         <v>43472</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5217,7 +5217,7 @@
         <v>43472</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5274,7 +5274,7 @@
         <v>43472</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5331,7 +5331,7 @@
         <v>43476</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5388,7 +5388,7 @@
         <v>43476</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5445,7 +5445,7 @@
         <v>43476</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5502,7 +5502,7 @@
         <v>43480</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5559,7 +5559,7 @@
         <v>43482</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5616,7 +5616,7 @@
         <v>43482</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5673,7 +5673,7 @@
         <v>43497</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5730,7 +5730,7 @@
         <v>43509</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5787,7 +5787,7 @@
         <v>43515</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5844,7 +5844,7 @@
         <v>43517</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5901,7 +5901,7 @@
         <v>43518</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5958,7 +5958,7 @@
         <v>43522</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6015,7 +6015,7 @@
         <v>43523</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6072,7 +6072,7 @@
         <v>43528</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6129,7 +6129,7 @@
         <v>43528</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6186,7 +6186,7 @@
         <v>43529</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6243,7 +6243,7 @@
         <v>43532</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6300,7 +6300,7 @@
         <v>43532</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6357,7 +6357,7 @@
         <v>43536</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6414,7 +6414,7 @@
         <v>43537</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6471,7 +6471,7 @@
         <v>43559</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6528,7 +6528,7 @@
         <v>43560</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6585,7 +6585,7 @@
         <v>43563</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6642,7 +6642,7 @@
         <v>43564</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6699,7 +6699,7 @@
         <v>43567</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6756,7 +6756,7 @@
         <v>43571</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6813,7 +6813,7 @@
         <v>43580</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6870,7 +6870,7 @@
         <v>43583</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6927,7 +6927,7 @@
         <v>43587</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6984,7 +6984,7 @@
         <v>43593</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7041,7 +7041,7 @@
         <v>43593</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7098,7 +7098,7 @@
         <v>43594</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7155,7 +7155,7 @@
         <v>43598</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7212,7 +7212,7 @@
         <v>43599</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7269,7 +7269,7 @@
         <v>43599</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7326,7 +7326,7 @@
         <v>43599</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7383,7 +7383,7 @@
         <v>43605</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7445,7 +7445,7 @@
         <v>43607</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7502,7 +7502,7 @@
         <v>43612</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7559,7 +7559,7 @@
         <v>43619</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7621,7 +7621,7 @@
         <v>43619</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7678,7 +7678,7 @@
         <v>43619</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7740,7 +7740,7 @@
         <v>43619</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7802,7 +7802,7 @@
         <v>43620</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7859,7 +7859,7 @@
         <v>43620</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7916,7 +7916,7 @@
         <v>43629</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7978,7 +7978,7 @@
         <v>43629</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8035,7 +8035,7 @@
         <v>43633</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8092,7 +8092,7 @@
         <v>43635</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8149,7 +8149,7 @@
         <v>43640</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8206,7 +8206,7 @@
         <v>43641</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8263,7 +8263,7 @@
         <v>43643</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8320,7 +8320,7 @@
         <v>43649</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8377,7 +8377,7 @@
         <v>43649</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8434,7 +8434,7 @@
         <v>43651</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8496,7 +8496,7 @@
         <v>43654</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8553,7 +8553,7 @@
         <v>43656</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8610,7 +8610,7 @@
         <v>43657</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8667,7 +8667,7 @@
         <v>43657</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8729,7 +8729,7 @@
         <v>43664</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8786,7 +8786,7 @@
         <v>43689</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8843,7 +8843,7 @@
         <v>43691</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8905,7 +8905,7 @@
         <v>43698</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8962,7 +8962,7 @@
         <v>43698</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9019,7 +9019,7 @@
         <v>43703</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9076,7 +9076,7 @@
         <v>43704</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9133,7 +9133,7 @@
         <v>43704</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9190,7 +9190,7 @@
         <v>43705</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9252,7 +9252,7 @@
         <v>43706</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9309,7 +9309,7 @@
         <v>43707</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9371,7 +9371,7 @@
         <v>43707</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9433,7 +9433,7 @@
         <v>43710</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9490,7 +9490,7 @@
         <v>43711</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9552,7 +9552,7 @@
         <v>43717</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9609,7 +9609,7 @@
         <v>43718</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9666,7 +9666,7 @@
         <v>43718</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9723,7 +9723,7 @@
         <v>43721</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9785,7 +9785,7 @@
         <v>43726</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9842,7 +9842,7 @@
         <v>43732</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9899,7 +9899,7 @@
         <v>43733</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9961,7 +9961,7 @@
         <v>43733</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10023,7 +10023,7 @@
         <v>43738</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10080,7 +10080,7 @@
         <v>43739</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10137,7 +10137,7 @@
         <v>43740</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10194,7 +10194,7 @@
         <v>43741</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10251,7 +10251,7 @@
         <v>43742</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10308,7 +10308,7 @@
         <v>43742</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10365,7 +10365,7 @@
         <v>43742</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10422,7 +10422,7 @@
         <v>43748</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10479,7 +10479,7 @@
         <v>43753</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10536,7 +10536,7 @@
         <v>43754</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10598,7 +10598,7 @@
         <v>43754</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10655,7 +10655,7 @@
         <v>43755</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10717,7 +10717,7 @@
         <v>43759</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10774,7 +10774,7 @@
         <v>43759</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10831,7 +10831,7 @@
         <v>43760</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10888,7 +10888,7 @@
         <v>43761</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10950,7 +10950,7 @@
         <v>43767</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11012,7 +11012,7 @@
         <v>43769</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11069,7 +11069,7 @@
         <v>43773</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11126,7 +11126,7 @@
         <v>43776</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11183,7 +11183,7 @@
         <v>43777</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11240,7 +11240,7 @@
         <v>43781</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11302,7 +11302,7 @@
         <v>43783</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11359,7 +11359,7 @@
         <v>43783</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11416,7 +11416,7 @@
         <v>43783</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11498,7 +11498,7 @@
         <v>43787</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11555,7 +11555,7 @@
         <v>43789</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11612,7 +11612,7 @@
         <v>43789</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11669,7 +11669,7 @@
         <v>43790</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11726,7 +11726,7 @@
         <v>43794</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11783,7 +11783,7 @@
         <v>43795</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11840,7 +11840,7 @@
         <v>43798</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11897,7 +11897,7 @@
         <v>43800</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11954,7 +11954,7 @@
         <v>43802</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12011,7 +12011,7 @@
         <v>43808</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12073,7 +12073,7 @@
         <v>43809</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12135,7 +12135,7 @@
         <v>43809</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12197,7 +12197,7 @@
         <v>43809</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12254,7 +12254,7 @@
         <v>43812</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12311,7 +12311,7 @@
         <v>43815</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12368,7 +12368,7 @@
         <v>43819</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12425,7 +12425,7 @@
         <v>43819</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12482,7 +12482,7 @@
         <v>43837</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12539,7 +12539,7 @@
         <v>43837</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12596,7 +12596,7 @@
         <v>43840</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12653,7 +12653,7 @@
         <v>43840</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12710,7 +12710,7 @@
         <v>43846</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12767,7 +12767,7 @@
         <v>43850</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12824,7 +12824,7 @@
         <v>43852</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12886,7 +12886,7 @@
         <v>43853</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12948,7 +12948,7 @@
         <v>43858</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13010,7 +13010,7 @@
         <v>43859</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13072,7 +13072,7 @@
         <v>43865</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13129,7 +13129,7 @@
         <v>43867</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13186,7 +13186,7 @@
         <v>43871</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13243,7 +13243,7 @@
         <v>43878</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13300,7 +13300,7 @@
         <v>43878</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13357,7 +13357,7 @@
         <v>43879</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13414,7 +13414,7 @@
         <v>43882</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13471,7 +13471,7 @@
         <v>43886</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13528,7 +13528,7 @@
         <v>43886</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13585,7 +13585,7 @@
         <v>43887</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13642,7 +13642,7 @@
         <v>43888</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13699,7 +13699,7 @@
         <v>43892</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13756,7 +13756,7 @@
         <v>43894</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13813,7 +13813,7 @@
         <v>43894</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13870,7 +13870,7 @@
         <v>43901</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13932,7 +13932,7 @@
         <v>43902</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13989,7 +13989,7 @@
         <v>43913</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14046,7 +14046,7 @@
         <v>43913</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14103,7 +14103,7 @@
         <v>43913</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14165,7 +14165,7 @@
         <v>43916</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14222,7 +14222,7 @@
         <v>43916</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14279,7 +14279,7 @@
         <v>43924</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14336,7 +14336,7 @@
         <v>43927</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14393,7 +14393,7 @@
         <v>43930</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14450,7 +14450,7 @@
         <v>43945</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14507,7 +14507,7 @@
         <v>43949</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14564,7 +14564,7 @@
         <v>43949</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14621,7 +14621,7 @@
         <v>43956</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14678,7 +14678,7 @@
         <v>43987</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14735,7 +14735,7 @@
         <v>43991</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14792,7 +14792,7 @@
         <v>43993</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14854,7 +14854,7 @@
         <v>43993</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14916,7 +14916,7 @@
         <v>43994</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14973,7 +14973,7 @@
         <v>43998</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15030,7 +15030,7 @@
         <v>44000</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15092,7 +15092,7 @@
         <v>44006</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15149,7 +15149,7 @@
         <v>44008</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15206,7 +15206,7 @@
         <v>44012</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15263,7 +15263,7 @@
         <v>44013</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15320,7 +15320,7 @@
         <v>44014</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15377,7 +15377,7 @@
         <v>44014</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15434,7 +15434,7 @@
         <v>44014</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15491,7 +15491,7 @@
         <v>44014</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15548,7 +15548,7 @@
         <v>44014</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15605,7 +15605,7 @@
         <v>44015</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15662,7 +15662,7 @@
         <v>44015</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15719,7 +15719,7 @@
         <v>44035</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15776,7 +15776,7 @@
         <v>44035</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15833,7 +15833,7 @@
         <v>44055</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15890,7 +15890,7 @@
         <v>44057</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15947,7 +15947,7 @@
         <v>44061</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16004,7 +16004,7 @@
         <v>44062</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16061,7 +16061,7 @@
         <v>44064</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16118,7 +16118,7 @@
         <v>44070</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16175,7 +16175,7 @@
         <v>44076</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16232,7 +16232,7 @@
         <v>44076</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16289,7 +16289,7 @@
         <v>44083</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16346,7 +16346,7 @@
         <v>44083</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16403,7 +16403,7 @@
         <v>44083</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16460,7 +16460,7 @@
         <v>44083</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16517,7 +16517,7 @@
         <v>44084</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16574,7 +16574,7 @@
         <v>44088</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16636,7 +16636,7 @@
         <v>44089</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16693,7 +16693,7 @@
         <v>44090</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16755,7 +16755,7 @@
         <v>44095</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16812,7 +16812,7 @@
         <v>44103</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16869,7 +16869,7 @@
         <v>44105</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16926,7 +16926,7 @@
         <v>44105</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16983,7 +16983,7 @@
         <v>44110</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17040,7 +17040,7 @@
         <v>44110</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17097,7 +17097,7 @@
         <v>44116</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17154,7 +17154,7 @@
         <v>44119</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17216,7 +17216,7 @@
         <v>44119</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17278,7 +17278,7 @@
         <v>44119</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17340,7 +17340,7 @@
         <v>44120</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17397,7 +17397,7 @@
         <v>44125</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17454,7 +17454,7 @@
         <v>44125</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17511,7 +17511,7 @@
         <v>44127</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17568,7 +17568,7 @@
         <v>44127</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17625,7 +17625,7 @@
         <v>44127</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17682,7 +17682,7 @@
         <v>44130</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17739,7 +17739,7 @@
         <v>44133</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17796,7 +17796,7 @@
         <v>44133</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17853,7 +17853,7 @@
         <v>44133</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17910,7 +17910,7 @@
         <v>44137</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17967,7 +17967,7 @@
         <v>44140</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18029,7 +18029,7 @@
         <v>44141</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18086,7 +18086,7 @@
         <v>44144</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18143,7 +18143,7 @@
         <v>44144</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18200,7 +18200,7 @@
         <v>44146</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18257,7 +18257,7 @@
         <v>44147</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18314,7 +18314,7 @@
         <v>44147</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18371,7 +18371,7 @@
         <v>44147</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18428,7 +18428,7 @@
         <v>44147</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18485,7 +18485,7 @@
         <v>44148</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18542,7 +18542,7 @@
         <v>44148</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18604,7 +18604,7 @@
         <v>44151</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18661,7 +18661,7 @@
         <v>44151</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18718,7 +18718,7 @@
         <v>44151</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18780,7 +18780,7 @@
         <v>44151</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18837,7 +18837,7 @@
         <v>44151</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18894,7 +18894,7 @@
         <v>44151</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18951,7 +18951,7 @@
         <v>44151</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19008,7 +19008,7 @@
         <v>44152</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19070,7 +19070,7 @@
         <v>44153</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19127,7 +19127,7 @@
         <v>44153</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19189,7 +19189,7 @@
         <v>44153</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19246,7 +19246,7 @@
         <v>44153</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19308,7 +19308,7 @@
         <v>44160</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19365,7 +19365,7 @@
         <v>44161</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19422,7 +19422,7 @@
         <v>44161</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19484,7 +19484,7 @@
         <v>44162</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19541,7 +19541,7 @@
         <v>44165</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19598,7 +19598,7 @@
         <v>44166</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19655,7 +19655,7 @@
         <v>44167</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19712,7 +19712,7 @@
         <v>44169</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19769,7 +19769,7 @@
         <v>44176</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19826,7 +19826,7 @@
         <v>44180</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19883,7 +19883,7 @@
         <v>44180</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19940,7 +19940,7 @@
         <v>44180</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19997,7 +19997,7 @@
         <v>44180</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20059,7 +20059,7 @@
         <v>44186</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20116,7 +20116,7 @@
         <v>44187</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20173,7 +20173,7 @@
         <v>44187</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20230,7 +20230,7 @@
         <v>44187</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20287,7 +20287,7 @@
         <v>44188</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20344,7 +20344,7 @@
         <v>44194</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20401,7 +20401,7 @@
         <v>44195</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20458,7 +20458,7 @@
         <v>44203</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20520,7 +20520,7 @@
         <v>44203</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20582,7 +20582,7 @@
         <v>44203</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20644,7 +20644,7 @@
         <v>44203</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20706,7 +20706,7 @@
         <v>44203</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20768,7 +20768,7 @@
         <v>44204</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20830,7 +20830,7 @@
         <v>44204</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20892,7 +20892,7 @@
         <v>44207</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20954,7 +20954,7 @@
         <v>44207</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21016,7 +21016,7 @@
         <v>44208</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21078,7 +21078,7 @@
         <v>44208</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21140,7 +21140,7 @@
         <v>44208</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21197,7 +21197,7 @@
         <v>44209</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21259,7 +21259,7 @@
         <v>44210</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21321,7 +21321,7 @@
         <v>44211</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21378,7 +21378,7 @@
         <v>44211</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21435,7 +21435,7 @@
         <v>44218</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21492,7 +21492,7 @@
         <v>44224</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21549,7 +21549,7 @@
         <v>44232</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21606,7 +21606,7 @@
         <v>44239</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21663,7 +21663,7 @@
         <v>44239</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21720,7 +21720,7 @@
         <v>44242</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21777,7 +21777,7 @@
         <v>44267</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21834,7 +21834,7 @@
         <v>44270</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21891,7 +21891,7 @@
         <v>44278</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21948,7 +21948,7 @@
         <v>44278</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22005,7 +22005,7 @@
         <v>44279</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22067,7 +22067,7 @@
         <v>44279</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22129,7 +22129,7 @@
         <v>44279</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22191,7 +22191,7 @@
         <v>44295</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22248,7 +22248,7 @@
         <v>44299</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22305,7 +22305,7 @@
         <v>44316</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22362,7 +22362,7 @@
         <v>44326</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22424,7 +22424,7 @@
         <v>44336</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22481,7 +22481,7 @@
         <v>44347</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22538,7 +22538,7 @@
         <v>44347</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22595,7 +22595,7 @@
         <v>44364</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22652,7 +22652,7 @@
         <v>44365</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22714,7 +22714,7 @@
         <v>44369</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22776,7 +22776,7 @@
         <v>44370</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22838,7 +22838,7 @@
         <v>44370</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22895,7 +22895,7 @@
         <v>44370</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22957,7 +22957,7 @@
         <v>44371</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23014,7 +23014,7 @@
         <v>44379</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23076,7 +23076,7 @@
         <v>44381</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23133,7 +23133,7 @@
         <v>44381</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23190,7 +23190,7 @@
         <v>44381</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23247,7 +23247,7 @@
         <v>44382</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23309,7 +23309,7 @@
         <v>44382</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23371,7 +23371,7 @@
         <v>44383</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23433,7 +23433,7 @@
         <v>44384</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23490,7 +23490,7 @@
         <v>44389</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23547,7 +23547,7 @@
         <v>44407</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23604,7 +23604,7 @@
         <v>44424</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23666,7 +23666,7 @@
         <v>44424</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23723,7 +23723,7 @@
         <v>44438</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23785,7 +23785,7 @@
         <v>44452</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23842,7 +23842,7 @@
         <v>44452</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23899,7 +23899,7 @@
         <v>44452</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23956,7 +23956,7 @@
         <v>44454</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24013,7 +24013,7 @@
         <v>44460</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24070,7 +24070,7 @@
         <v>44467</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24132,7 +24132,7 @@
         <v>44480</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24189,7 +24189,7 @@
         <v>44480</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24251,7 +24251,7 @@
         <v>44484</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24308,7 +24308,7 @@
         <v>44488</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24365,7 +24365,7 @@
         <v>44488</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24422,7 +24422,7 @@
         <v>44489</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24479,7 +24479,7 @@
         <v>44496</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24541,7 +24541,7 @@
         <v>44496</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24598,7 +24598,7 @@
         <v>44503</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24660,7 +24660,7 @@
         <v>44505</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24722,7 +24722,7 @@
         <v>44505</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24784,7 +24784,7 @@
         <v>44505</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24846,7 +24846,7 @@
         <v>44505</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24908,7 +24908,7 @@
         <v>44509</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24970,7 +24970,7 @@
         <v>44509</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25032,7 +25032,7 @@
         <v>44509</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25094,7 +25094,7 @@
         <v>44509</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25156,7 +25156,7 @@
         <v>44509</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25213,7 +25213,7 @@
         <v>44509</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25275,7 +25275,7 @@
         <v>44509</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25337,7 +25337,7 @@
         <v>44509</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25399,7 +25399,7 @@
         <v>44511</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25461,7 +25461,7 @@
         <v>44515</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25523,7 +25523,7 @@
         <v>44517</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25580,7 +25580,7 @@
         <v>44517</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25637,7 +25637,7 @@
         <v>44517</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25694,7 +25694,7 @@
         <v>44517</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25751,7 +25751,7 @@
         <v>44517</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25808,7 +25808,7 @@
         <v>44522</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25870,7 +25870,7 @@
         <v>44524</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25932,7 +25932,7 @@
         <v>44526</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25994,7 +25994,7 @@
         <v>44526</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26051,7 +26051,7 @@
         <v>44531</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26108,7 +26108,7 @@
         <v>44532</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26170,7 +26170,7 @@
         <v>44532</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26232,7 +26232,7 @@
         <v>44536</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26289,7 +26289,7 @@
         <v>44572</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26346,7 +26346,7 @@
         <v>44585</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26403,7 +26403,7 @@
         <v>44592</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26460,7 +26460,7 @@
         <v>44594</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26517,7 +26517,7 @@
         <v>44595</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26574,7 +26574,7 @@
         <v>44595</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26631,7 +26631,7 @@
         <v>44595</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26688,7 +26688,7 @@
         <v>44596</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26745,7 +26745,7 @@
         <v>44596</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26802,7 +26802,7 @@
         <v>44601</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26859,7 +26859,7 @@
         <v>44603</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26916,7 +26916,7 @@
         <v>44608</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26973,7 +26973,7 @@
         <v>44616</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27030,7 +27030,7 @@
         <v>44617</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27087,7 +27087,7 @@
         <v>44620</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27144,7 +27144,7 @@
         <v>44620</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27201,7 +27201,7 @@
         <v>44623</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27258,7 +27258,7 @@
         <v>44631</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27315,7 +27315,7 @@
         <v>44636</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27372,7 +27372,7 @@
         <v>44642</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27429,7 +27429,7 @@
         <v>44650</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27486,7 +27486,7 @@
         <v>44650</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27543,7 +27543,7 @@
         <v>44652</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27605,7 +27605,7 @@
         <v>44659</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27662,7 +27662,7 @@
         <v>44662</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27719,7 +27719,7 @@
         <v>44671</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27776,7 +27776,7 @@
         <v>44676</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27833,7 +27833,7 @@
         <v>44691</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27890,7 +27890,7 @@
         <v>44697</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27952,7 +27952,7 @@
         <v>44704</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28014,7 +28014,7 @@
         <v>44704</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28076,7 +28076,7 @@
         <v>44705</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28133,7 +28133,7 @@
         <v>44706</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28190,7 +28190,7 @@
         <v>44712</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28247,7 +28247,7 @@
         <v>44712</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28309,7 +28309,7 @@
         <v>44712</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28371,7 +28371,7 @@
         <v>44714</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28428,7 +28428,7 @@
         <v>44720</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28485,7 +28485,7 @@
         <v>44720</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28542,7 +28542,7 @@
         <v>44722</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28599,7 +28599,7 @@
         <v>44728</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28656,7 +28656,7 @@
         <v>44729</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28718,7 +28718,7 @@
         <v>44729</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28780,7 +28780,7 @@
         <v>44729</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28842,7 +28842,7 @@
         <v>44732</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28899,7 +28899,7 @@
         <v>44732</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28956,7 +28956,7 @@
         <v>44763</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29013,7 +29013,7 @@
         <v>44783</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29075,7 +29075,7 @@
         <v>44785</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29137,7 +29137,7 @@
         <v>44791</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29194,7 +29194,7 @@
         <v>44796</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29251,7 +29251,7 @@
         <v>44796</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29308,7 +29308,7 @@
         <v>44798</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29365,7 +29365,7 @@
         <v>44799</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29422,7 +29422,7 @@
         <v>44799</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29479,7 +29479,7 @@
         <v>44805</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29536,7 +29536,7 @@
         <v>44806</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29593,7 +29593,7 @@
         <v>44806</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29650,7 +29650,7 @@
         <v>44806</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29707,7 +29707,7 @@
         <v>44817</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29764,7 +29764,7 @@
         <v>44818</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29821,7 +29821,7 @@
         <v>44819</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29878,7 +29878,7 @@
         <v>44826</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29940,7 +29940,7 @@
         <v>44827</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30002,7 +30002,7 @@
         <v>44830</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30059,7 +30059,7 @@
         <v>44839</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30116,7 +30116,7 @@
         <v>44839</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30173,7 +30173,7 @@
         <v>44840</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30230,7 +30230,7 @@
         <v>44846</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30287,7 +30287,7 @@
         <v>44846</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30344,7 +30344,7 @@
         <v>44846</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30401,7 +30401,7 @@
         <v>44846</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30458,7 +30458,7 @@
         <v>44854</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30515,7 +30515,7 @@
         <v>44859</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30572,7 +30572,7 @@
         <v>44859</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30629,7 +30629,7 @@
         <v>44861</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30686,7 +30686,7 @@
         <v>44862</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30743,7 +30743,7 @@
         <v>44873</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30800,7 +30800,7 @@
         <v>44875</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30862,7 +30862,7 @@
         <v>44875</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30919,7 +30919,7 @@
         <v>44876</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30981,7 +30981,7 @@
         <v>44878</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31043,7 +31043,7 @@
         <v>44879</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31105,7 +31105,7 @@
         <v>44879</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31167,7 +31167,7 @@
         <v>44879</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31229,7 +31229,7 @@
         <v>44879</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31291,7 +31291,7 @@
         <v>44879</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31353,7 +31353,7 @@
         <v>44879</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31415,7 +31415,7 @@
         <v>44880</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31472,7 +31472,7 @@
         <v>44881</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31534,7 +31534,7 @@
         <v>44881</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31596,7 +31596,7 @@
         <v>44883</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31653,7 +31653,7 @@
         <v>44883</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31715,7 +31715,7 @@
         <v>44886</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31777,7 +31777,7 @@
         <v>44886</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31839,7 +31839,7 @@
         <v>44893</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31896,7 +31896,7 @@
         <v>44894</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31953,7 +31953,7 @@
         <v>44894</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32010,7 +32010,7 @@
         <v>44895</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32067,7 +32067,7 @@
         <v>44897</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32124,7 +32124,7 @@
         <v>44901</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32181,7 +32181,7 @@
         <v>44908</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32238,7 +32238,7 @@
         <v>44909</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32295,7 +32295,7 @@
         <v>44909</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32352,7 +32352,7 @@
         <v>44914</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32409,7 +32409,7 @@
         <v>44915</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32466,7 +32466,7 @@
         <v>44915</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32523,7 +32523,7 @@
         <v>44916</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32580,7 +32580,7 @@
         <v>44929</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32637,7 +32637,7 @@
         <v>44944</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32694,7 +32694,7 @@
         <v>44945</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32751,7 +32751,7 @@
         <v>44946</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32808,7 +32808,7 @@
         <v>44952</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32865,7 +32865,7 @@
         <v>44953</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32927,7 +32927,7 @@
         <v>44966</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -32984,7 +32984,7 @@
         <v>44967</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33041,7 +33041,7 @@
         <v>44967</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33098,7 +33098,7 @@
         <v>44970</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33155,7 +33155,7 @@
         <v>44971</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33212,7 +33212,7 @@
         <v>44993</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33269,7 +33269,7 @@
         <v>44993</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33326,7 +33326,7 @@
         <v>44993</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33383,7 +33383,7 @@
         <v>44993</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33440,7 +33440,7 @@
         <v>45008</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33497,7 +33497,7 @@
         <v>45009</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -33554,7 +33554,7 @@
         <v>45012</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -33611,7 +33611,7 @@
         <v>45014</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33668,7 +33668,7 @@
         <v>45016</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33725,7 +33725,7 @@
         <v>45016</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33782,7 +33782,7 @@
         <v>45016</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33839,7 +33839,7 @@
         <v>45016</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -33896,7 +33896,7 @@
         <v>45016</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -33953,7 +33953,7 @@
         <v>45016</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34010,7 +34010,7 @@
         <v>45016</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34067,7 +34067,7 @@
         <v>45030</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34124,7 +34124,7 @@
         <v>45033</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34181,7 +34181,7 @@
         <v>45033</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34238,7 +34238,7 @@
         <v>45036</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34295,7 +34295,7 @@
         <v>45037</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34357,7 +34357,7 @@
         <v>45038</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -34414,7 +34414,7 @@
         <v>45041</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34471,7 +34471,7 @@
         <v>45041</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -34533,7 +34533,7 @@
         <v>45043</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -34590,7 +34590,7 @@
         <v>45044</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34647,7 +34647,7 @@
         <v>45044</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -34704,7 +34704,7 @@
         <v>45044</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -34761,7 +34761,7 @@
         <v>45058</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -34823,7 +34823,7 @@
         <v>45061</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -34880,7 +34880,7 @@
         <v>45062</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -34942,7 +34942,7 @@
         <v>45062</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -34999,7 +34999,7 @@
         <v>45063</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35061,7 +35061,7 @@
         <v>45070</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -35118,7 +35118,7 @@
         <v>45072</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -35180,7 +35180,7 @@
         <v>45072</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -35237,7 +35237,7 @@
         <v>45076</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35299,7 +35299,7 @@
         <v>45078</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35356,7 +35356,7 @@
         <v>45078</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -35418,7 +35418,7 @@
         <v>45079</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -35475,7 +35475,7 @@
         <v>45082</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -35532,7 +35532,7 @@
         <v>45082</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -35589,7 +35589,7 @@
         <v>45084</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -35651,7 +35651,7 @@
         <v>45084</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -35708,7 +35708,7 @@
         <v>45085</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -35765,7 +35765,7 @@
         <v>45089</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -35822,7 +35822,7 @@
         <v>45090</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -35879,7 +35879,7 @@
         <v>45090</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -35936,7 +35936,7 @@
         <v>45090</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -35993,7 +35993,7 @@
         <v>45090</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -36050,7 +36050,7 @@
         <v>45091</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -36107,7 +36107,7 @@
         <v>45097</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -36164,7 +36164,7 @@
         <v>45097</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -36221,7 +36221,7 @@
         <v>45097</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -36278,7 +36278,7 @@
         <v>45097</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -36335,7 +36335,7 @@
         <v>45098</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -36397,7 +36397,7 @@
         <v>45099</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -36454,7 +36454,7 @@
         <v>45103</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -36511,7 +36511,7 @@
         <v>45104</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -36568,7 +36568,7 @@
         <v>45104</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -36625,7 +36625,7 @@
         <v>45107</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -36687,7 +36687,7 @@
         <v>45107</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -36744,7 +36744,7 @@
         <v>45107</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -36801,7 +36801,7 @@
         <v>45107</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -36858,7 +36858,7 @@
         <v>45107</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -36915,7 +36915,7 @@
         <v>45107</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -36972,7 +36972,7 @@
         <v>45107</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -37034,7 +37034,7 @@
         <v>45107</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -37096,7 +37096,7 @@
         <v>45107</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -37153,7 +37153,7 @@
         <v>45110</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -37210,7 +37210,7 @@
         <v>45110</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -37267,7 +37267,7 @@
         <v>45112</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -37329,7 +37329,7 @@
         <v>45113</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -37391,7 +37391,7 @@
         <v>45113</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -37448,7 +37448,7 @@
         <v>45114</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -37505,7 +37505,7 @@
         <v>45114</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -37562,7 +37562,7 @@
         <v>45117</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -37619,7 +37619,7 @@
         <v>45119</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -37681,7 +37681,7 @@
         <v>45120</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -37738,7 +37738,7 @@
         <v>45121</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -37795,7 +37795,7 @@
         <v>45123</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -37852,7 +37852,7 @@
         <v>45132</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -37909,7 +37909,7 @@
         <v>45138</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -37966,7 +37966,7 @@
         <v>45138</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -38023,7 +38023,7 @@
         <v>45147</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -38080,7 +38080,7 @@
         <v>45149</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -38137,7 +38137,7 @@
         <v>45149</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -38194,7 +38194,7 @@
         <v>45161</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -38256,7 +38256,7 @@
         <v>45161</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -38318,7 +38318,7 @@
         <v>45161</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -38380,7 +38380,7 @@
         <v>45169</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -38437,7 +38437,7 @@
         <v>45173</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -38499,7 +38499,7 @@
         <v>45173</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -38556,7 +38556,7 @@
         <v>45175</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -38613,7 +38613,7 @@
         <v>45176</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>

--- a/Översikt BOLLNÄS.xlsx
+++ b/Översikt BOLLNÄS.xlsx
@@ -572,7 +572,7 @@
         <v>44109</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -675,7 +675,7 @@
         <v>44095</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -776,7 +776,7 @@
         <v>44382</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -868,7 +868,7 @@
         <v>44729</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -960,7 +960,7 @@
         <v>43783</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1055,7 +1055,7 @@
         <v>43783</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1150,7 +1150,7 @@
         <v>43783</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1245,7 +1245,7 @@
         <v>43993</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1331,7 +1331,7 @@
         <v>43999</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1422,7 +1422,7 @@
         <v>44432</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1512,7 +1512,7 @@
         <v>45092</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         <v>43600</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1688,7 +1688,7 @@
         <v>43619</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1777,7 +1777,7 @@
         <v>43794</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1862,7 +1862,7 @@
         <v>43864</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1947,7 +1947,7 @@
         <v>44081</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2037,7 +2037,7 @@
         <v>44515</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2127,7 +2127,7 @@
         <v>44813</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2212,7 +2212,7 @@
         <v>44901</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2297,7 +2297,7 @@
         <v>45058</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         <v>45090</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2471,7 +2471,7 @@
         <v>43360</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2528,7 +2528,7 @@
         <v>43375</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2585,7 +2585,7 @@
         <v>43382</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2642,7 +2642,7 @@
         <v>43389</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2699,7 +2699,7 @@
         <v>43392</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2756,7 +2756,7 @@
         <v>43410</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2813,7 +2813,7 @@
         <v>43413</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2875,7 +2875,7 @@
         <v>43416</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2932,7 +2932,7 @@
         <v>43417</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2989,7 +2989,7 @@
         <v>43417</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3046,7 +3046,7 @@
         <v>43418</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3103,7 +3103,7 @@
         <v>43418</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3160,7 +3160,7 @@
         <v>43418</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3217,7 +3217,7 @@
         <v>43419</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3274,7 +3274,7 @@
         <v>43420</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3331,7 +3331,7 @@
         <v>43424</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3388,7 +3388,7 @@
         <v>43424</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3445,7 +3445,7 @@
         <v>43424</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3502,7 +3502,7 @@
         <v>43424</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3559,7 +3559,7 @@
         <v>43424</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3616,7 +3616,7 @@
         <v>43424</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3673,7 +3673,7 @@
         <v>43424</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3730,7 +3730,7 @@
         <v>43427</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3787,7 +3787,7 @@
         <v>43427</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3844,7 +3844,7 @@
         <v>43427</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3901,7 +3901,7 @@
         <v>43427</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3958,7 +3958,7 @@
         <v>43427</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4015,7 +4015,7 @@
         <v>43430</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4072,7 +4072,7 @@
         <v>43431</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4129,7 +4129,7 @@
         <v>43431</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4186,7 +4186,7 @@
         <v>43434</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4243,7 +4243,7 @@
         <v>43434</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4300,7 +4300,7 @@
         <v>43437</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4357,7 +4357,7 @@
         <v>43441</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4414,7 +4414,7 @@
         <v>43444</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4471,7 +4471,7 @@
         <v>43445</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4533,7 +4533,7 @@
         <v>43445</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4590,7 +4590,7 @@
         <v>43446</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4647,7 +4647,7 @@
         <v>43446</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4704,7 +4704,7 @@
         <v>43447</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4761,7 +4761,7 @@
         <v>43448</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4818,7 +4818,7 @@
         <v>43452</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4875,7 +4875,7 @@
         <v>43452</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4932,7 +4932,7 @@
         <v>43454</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4989,7 +4989,7 @@
         <v>43455</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5046,7 +5046,7 @@
         <v>43455</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5103,7 +5103,7 @@
         <v>43467</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5160,7 +5160,7 @@
         <v>43472</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5217,7 +5217,7 @@
         <v>43472</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5274,7 +5274,7 @@
         <v>43472</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5331,7 +5331,7 @@
         <v>43476</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5388,7 +5388,7 @@
         <v>43476</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5445,7 +5445,7 @@
         <v>43476</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5502,7 +5502,7 @@
         <v>43480</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5559,7 +5559,7 @@
         <v>43482</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5616,7 +5616,7 @@
         <v>43482</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5673,7 +5673,7 @@
         <v>43497</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5730,7 +5730,7 @@
         <v>43509</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5787,7 +5787,7 @@
         <v>43515</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5844,7 +5844,7 @@
         <v>43517</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5901,7 +5901,7 @@
         <v>43518</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5958,7 +5958,7 @@
         <v>43522</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6015,7 +6015,7 @@
         <v>43523</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6072,7 +6072,7 @@
         <v>43528</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6129,7 +6129,7 @@
         <v>43528</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6186,7 +6186,7 @@
         <v>43529</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6243,7 +6243,7 @@
         <v>43532</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6300,7 +6300,7 @@
         <v>43532</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6357,7 +6357,7 @@
         <v>43536</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6414,7 +6414,7 @@
         <v>43537</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6471,7 +6471,7 @@
         <v>43559</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6528,7 +6528,7 @@
         <v>43560</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6585,7 +6585,7 @@
         <v>43563</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6642,7 +6642,7 @@
         <v>43564</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6699,7 +6699,7 @@
         <v>43567</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6756,7 +6756,7 @@
         <v>43571</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6813,7 +6813,7 @@
         <v>43580</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6870,7 +6870,7 @@
         <v>43583</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6927,7 +6927,7 @@
         <v>43587</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6984,7 +6984,7 @@
         <v>43593</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7041,7 +7041,7 @@
         <v>43593</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7098,7 +7098,7 @@
         <v>43594</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7155,7 +7155,7 @@
         <v>43598</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7212,7 +7212,7 @@
         <v>43599</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7269,7 +7269,7 @@
         <v>43599</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7326,7 +7326,7 @@
         <v>43599</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7383,7 +7383,7 @@
         <v>43605</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7445,7 +7445,7 @@
         <v>43607</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7502,7 +7502,7 @@
         <v>43612</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7559,7 +7559,7 @@
         <v>43619</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7621,7 +7621,7 @@
         <v>43619</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7678,7 +7678,7 @@
         <v>43619</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7740,7 +7740,7 @@
         <v>43619</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7802,7 +7802,7 @@
         <v>43620</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7859,7 +7859,7 @@
         <v>43620</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7916,7 +7916,7 @@
         <v>43629</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7978,7 +7978,7 @@
         <v>43629</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8035,7 +8035,7 @@
         <v>43633</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8092,7 +8092,7 @@
         <v>43635</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8149,7 +8149,7 @@
         <v>43640</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8206,7 +8206,7 @@
         <v>43641</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8263,7 +8263,7 @@
         <v>43643</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8320,7 +8320,7 @@
         <v>43649</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8377,7 +8377,7 @@
         <v>43649</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8434,7 +8434,7 @@
         <v>43651</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8496,7 +8496,7 @@
         <v>43654</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8553,7 +8553,7 @@
         <v>43656</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8610,7 +8610,7 @@
         <v>43657</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8667,7 +8667,7 @@
         <v>43657</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8729,7 +8729,7 @@
         <v>43664</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8786,7 +8786,7 @@
         <v>43689</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8843,7 +8843,7 @@
         <v>43691</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8905,7 +8905,7 @@
         <v>43698</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8962,7 +8962,7 @@
         <v>43698</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9019,7 +9019,7 @@
         <v>43703</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9076,7 +9076,7 @@
         <v>43704</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9133,7 +9133,7 @@
         <v>43704</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9190,7 +9190,7 @@
         <v>43705</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9252,7 +9252,7 @@
         <v>43706</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9309,7 +9309,7 @@
         <v>43707</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9371,7 +9371,7 @@
         <v>43707</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9433,7 +9433,7 @@
         <v>43710</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9490,7 +9490,7 @@
         <v>43711</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9552,7 +9552,7 @@
         <v>43717</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9609,7 +9609,7 @@
         <v>43718</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9666,7 +9666,7 @@
         <v>43718</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9723,7 +9723,7 @@
         <v>43721</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9785,7 +9785,7 @@
         <v>43726</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9842,7 +9842,7 @@
         <v>43732</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9899,7 +9899,7 @@
         <v>43733</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9961,7 +9961,7 @@
         <v>43733</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10023,7 +10023,7 @@
         <v>43738</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10080,7 +10080,7 @@
         <v>43739</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10137,7 +10137,7 @@
         <v>43740</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10194,7 +10194,7 @@
         <v>43741</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10251,7 +10251,7 @@
         <v>43742</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10308,7 +10308,7 @@
         <v>43742</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10365,7 +10365,7 @@
         <v>43742</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10422,7 +10422,7 @@
         <v>43748</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10479,7 +10479,7 @@
         <v>43753</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10536,7 +10536,7 @@
         <v>43754</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10598,7 +10598,7 @@
         <v>43754</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10655,7 +10655,7 @@
         <v>43755</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10717,7 +10717,7 @@
         <v>43759</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10774,7 +10774,7 @@
         <v>43759</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10831,7 +10831,7 @@
         <v>43760</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10888,7 +10888,7 @@
         <v>43761</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10950,7 +10950,7 @@
         <v>43767</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11012,7 +11012,7 @@
         <v>43769</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11069,7 +11069,7 @@
         <v>43773</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11126,7 +11126,7 @@
         <v>43776</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11183,7 +11183,7 @@
         <v>43777</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11240,7 +11240,7 @@
         <v>43781</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11302,7 +11302,7 @@
         <v>43783</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11359,7 +11359,7 @@
         <v>43783</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11416,7 +11416,7 @@
         <v>43783</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11498,7 +11498,7 @@
         <v>43787</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11555,7 +11555,7 @@
         <v>43789</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11612,7 +11612,7 @@
         <v>43789</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11669,7 +11669,7 @@
         <v>43790</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11726,7 +11726,7 @@
         <v>43794</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11783,7 +11783,7 @@
         <v>43795</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11840,7 +11840,7 @@
         <v>43798</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11897,7 +11897,7 @@
         <v>43800</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11954,7 +11954,7 @@
         <v>43802</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12011,7 +12011,7 @@
         <v>43808</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12073,7 +12073,7 @@
         <v>43809</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12135,7 +12135,7 @@
         <v>43809</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12197,7 +12197,7 @@
         <v>43809</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12254,7 +12254,7 @@
         <v>43812</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12311,7 +12311,7 @@
         <v>43815</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12368,7 +12368,7 @@
         <v>43819</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12425,7 +12425,7 @@
         <v>43819</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12482,7 +12482,7 @@
         <v>43837</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12539,7 +12539,7 @@
         <v>43837</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12596,7 +12596,7 @@
         <v>43840</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12653,7 +12653,7 @@
         <v>43840</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12710,7 +12710,7 @@
         <v>43846</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12767,7 +12767,7 @@
         <v>43850</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12824,7 +12824,7 @@
         <v>43852</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12886,7 +12886,7 @@
         <v>43853</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12948,7 +12948,7 @@
         <v>43858</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13010,7 +13010,7 @@
         <v>43859</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13072,7 +13072,7 @@
         <v>43865</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13129,7 +13129,7 @@
         <v>43867</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13186,7 +13186,7 @@
         <v>43871</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13243,7 +13243,7 @@
         <v>43878</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13300,7 +13300,7 @@
         <v>43878</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13357,7 +13357,7 @@
         <v>43879</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13414,7 +13414,7 @@
         <v>43882</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13471,7 +13471,7 @@
         <v>43886</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13528,7 +13528,7 @@
         <v>43886</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13585,7 +13585,7 @@
         <v>43887</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13642,7 +13642,7 @@
         <v>43888</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13699,7 +13699,7 @@
         <v>43892</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13756,7 +13756,7 @@
         <v>43894</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13813,7 +13813,7 @@
         <v>43894</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13870,7 +13870,7 @@
         <v>43901</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13932,7 +13932,7 @@
         <v>43902</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13989,7 +13989,7 @@
         <v>43913</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14046,7 +14046,7 @@
         <v>43913</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14103,7 +14103,7 @@
         <v>43913</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14165,7 +14165,7 @@
         <v>43916</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14222,7 +14222,7 @@
         <v>43916</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14279,7 +14279,7 @@
         <v>43924</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14336,7 +14336,7 @@
         <v>43927</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14393,7 +14393,7 @@
         <v>43930</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14450,7 +14450,7 @@
         <v>43945</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14507,7 +14507,7 @@
         <v>43949</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14564,7 +14564,7 @@
         <v>43949</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14621,7 +14621,7 @@
         <v>43956</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14678,7 +14678,7 @@
         <v>43987</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14735,7 +14735,7 @@
         <v>43991</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14792,7 +14792,7 @@
         <v>43993</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14854,7 +14854,7 @@
         <v>43993</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14916,7 +14916,7 @@
         <v>43994</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14973,7 +14973,7 @@
         <v>43998</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15030,7 +15030,7 @@
         <v>44000</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15092,7 +15092,7 @@
         <v>44006</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15149,7 +15149,7 @@
         <v>44008</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15206,7 +15206,7 @@
         <v>44012</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15263,7 +15263,7 @@
         <v>44013</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15320,7 +15320,7 @@
         <v>44014</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15377,7 +15377,7 @@
         <v>44014</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15434,7 +15434,7 @@
         <v>44014</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15491,7 +15491,7 @@
         <v>44014</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15548,7 +15548,7 @@
         <v>44014</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15605,7 +15605,7 @@
         <v>44015</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15662,7 +15662,7 @@
         <v>44015</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15719,7 +15719,7 @@
         <v>44035</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15776,7 +15776,7 @@
         <v>44035</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15833,7 +15833,7 @@
         <v>44055</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15890,7 +15890,7 @@
         <v>44057</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15947,7 +15947,7 @@
         <v>44061</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16004,7 +16004,7 @@
         <v>44062</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16061,7 +16061,7 @@
         <v>44064</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16118,7 +16118,7 @@
         <v>44070</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16175,7 +16175,7 @@
         <v>44076</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16232,7 +16232,7 @@
         <v>44076</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16289,7 +16289,7 @@
         <v>44083</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16346,7 +16346,7 @@
         <v>44083</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16403,7 +16403,7 @@
         <v>44083</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16460,7 +16460,7 @@
         <v>44083</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16517,7 +16517,7 @@
         <v>44084</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16574,7 +16574,7 @@
         <v>44088</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16636,7 +16636,7 @@
         <v>44089</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16693,7 +16693,7 @@
         <v>44090</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16755,7 +16755,7 @@
         <v>44095</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16812,7 +16812,7 @@
         <v>44103</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16869,7 +16869,7 @@
         <v>44105</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16926,7 +16926,7 @@
         <v>44105</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16983,7 +16983,7 @@
         <v>44110</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17040,7 +17040,7 @@
         <v>44110</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17097,7 +17097,7 @@
         <v>44116</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17154,7 +17154,7 @@
         <v>44119</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17216,7 +17216,7 @@
         <v>44119</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17278,7 +17278,7 @@
         <v>44119</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17340,7 +17340,7 @@
         <v>44120</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17397,7 +17397,7 @@
         <v>44125</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17454,7 +17454,7 @@
         <v>44125</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17511,7 +17511,7 @@
         <v>44127</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17568,7 +17568,7 @@
         <v>44127</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17625,7 +17625,7 @@
         <v>44127</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17682,7 +17682,7 @@
         <v>44130</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17739,7 +17739,7 @@
         <v>44133</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17796,7 +17796,7 @@
         <v>44133</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17853,7 +17853,7 @@
         <v>44133</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17910,7 +17910,7 @@
         <v>44137</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17967,7 +17967,7 @@
         <v>44140</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18029,7 +18029,7 @@
         <v>44141</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18086,7 +18086,7 @@
         <v>44144</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18143,7 +18143,7 @@
         <v>44144</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18200,7 +18200,7 @@
         <v>44146</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18257,7 +18257,7 @@
         <v>44147</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18314,7 +18314,7 @@
         <v>44147</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18371,7 +18371,7 @@
         <v>44147</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18428,7 +18428,7 @@
         <v>44147</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18485,7 +18485,7 @@
         <v>44148</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18542,7 +18542,7 @@
         <v>44148</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18604,7 +18604,7 @@
         <v>44151</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18661,7 +18661,7 @@
         <v>44151</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18718,7 +18718,7 @@
         <v>44151</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18780,7 +18780,7 @@
         <v>44151</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18837,7 +18837,7 @@
         <v>44151</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18894,7 +18894,7 @@
         <v>44151</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18951,7 +18951,7 @@
         <v>44151</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19008,7 +19008,7 @@
         <v>44152</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19070,7 +19070,7 @@
         <v>44153</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19127,7 +19127,7 @@
         <v>44153</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19189,7 +19189,7 @@
         <v>44153</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19246,7 +19246,7 @@
         <v>44153</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19308,7 +19308,7 @@
         <v>44160</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19365,7 +19365,7 @@
         <v>44161</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19422,7 +19422,7 @@
         <v>44161</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19484,7 +19484,7 @@
         <v>44162</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19541,7 +19541,7 @@
         <v>44165</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19598,7 +19598,7 @@
         <v>44166</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19655,7 +19655,7 @@
         <v>44167</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19712,7 +19712,7 @@
         <v>44169</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19769,7 +19769,7 @@
         <v>44176</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19826,7 +19826,7 @@
         <v>44180</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19883,7 +19883,7 @@
         <v>44180</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19940,7 +19940,7 @@
         <v>44180</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19997,7 +19997,7 @@
         <v>44180</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20059,7 +20059,7 @@
         <v>44186</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20116,7 +20116,7 @@
         <v>44187</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20173,7 +20173,7 @@
         <v>44187</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20230,7 +20230,7 @@
         <v>44187</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20287,7 +20287,7 @@
         <v>44188</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20344,7 +20344,7 @@
         <v>44194</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20401,7 +20401,7 @@
         <v>44195</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20458,7 +20458,7 @@
         <v>44203</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20520,7 +20520,7 @@
         <v>44203</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20582,7 +20582,7 @@
         <v>44203</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20644,7 +20644,7 @@
         <v>44203</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20706,7 +20706,7 @@
         <v>44203</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20768,7 +20768,7 @@
         <v>44204</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20830,7 +20830,7 @@
         <v>44204</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20892,7 +20892,7 @@
         <v>44207</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20954,7 +20954,7 @@
         <v>44207</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21016,7 +21016,7 @@
         <v>44208</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21078,7 +21078,7 @@
         <v>44208</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21140,7 +21140,7 @@
         <v>44208</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21197,7 +21197,7 @@
         <v>44209</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21259,7 +21259,7 @@
         <v>44210</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21321,7 +21321,7 @@
         <v>44211</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21378,7 +21378,7 @@
         <v>44211</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21435,7 +21435,7 @@
         <v>44218</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21492,7 +21492,7 @@
         <v>44224</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21549,7 +21549,7 @@
         <v>44232</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21606,7 +21606,7 @@
         <v>44239</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21663,7 +21663,7 @@
         <v>44239</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21720,7 +21720,7 @@
         <v>44242</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21777,7 +21777,7 @@
         <v>44267</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21834,7 +21834,7 @@
         <v>44270</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21891,7 +21891,7 @@
         <v>44278</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21948,7 +21948,7 @@
         <v>44278</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22005,7 +22005,7 @@
         <v>44279</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22067,7 +22067,7 @@
         <v>44279</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22129,7 +22129,7 @@
         <v>44279</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22191,7 +22191,7 @@
         <v>44295</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22248,7 +22248,7 @@
         <v>44299</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22305,7 +22305,7 @@
         <v>44316</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22362,7 +22362,7 @@
         <v>44326</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22424,7 +22424,7 @@
         <v>44336</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22481,7 +22481,7 @@
         <v>44347</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22538,7 +22538,7 @@
         <v>44347</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22595,7 +22595,7 @@
         <v>44364</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22652,7 +22652,7 @@
         <v>44365</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22714,7 +22714,7 @@
         <v>44369</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22776,7 +22776,7 @@
         <v>44370</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22838,7 +22838,7 @@
         <v>44370</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22895,7 +22895,7 @@
         <v>44370</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22957,7 +22957,7 @@
         <v>44371</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23014,7 +23014,7 @@
         <v>44379</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23076,7 +23076,7 @@
         <v>44381</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23133,7 +23133,7 @@
         <v>44381</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23190,7 +23190,7 @@
         <v>44381</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23247,7 +23247,7 @@
         <v>44382</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23309,7 +23309,7 @@
         <v>44382</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23371,7 +23371,7 @@
         <v>44383</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23433,7 +23433,7 @@
         <v>44384</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23490,7 +23490,7 @@
         <v>44389</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23547,7 +23547,7 @@
         <v>44407</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23604,7 +23604,7 @@
         <v>44424</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23666,7 +23666,7 @@
         <v>44424</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23723,7 +23723,7 @@
         <v>44438</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23785,7 +23785,7 @@
         <v>44452</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23842,7 +23842,7 @@
         <v>44452</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23899,7 +23899,7 @@
         <v>44452</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23956,7 +23956,7 @@
         <v>44454</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24013,7 +24013,7 @@
         <v>44460</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24070,7 +24070,7 @@
         <v>44467</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24132,7 +24132,7 @@
         <v>44480</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24189,7 +24189,7 @@
         <v>44480</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24251,7 +24251,7 @@
         <v>44484</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24308,7 +24308,7 @@
         <v>44488</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24365,7 +24365,7 @@
         <v>44488</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24422,7 +24422,7 @@
         <v>44489</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24479,7 +24479,7 @@
         <v>44496</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24541,7 +24541,7 @@
         <v>44496</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24598,7 +24598,7 @@
         <v>44503</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24660,7 +24660,7 @@
         <v>44505</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24722,7 +24722,7 @@
         <v>44505</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24784,7 +24784,7 @@
         <v>44505</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24846,7 +24846,7 @@
         <v>44505</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24908,7 +24908,7 @@
         <v>44509</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24970,7 +24970,7 @@
         <v>44509</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25032,7 +25032,7 @@
         <v>44509</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25094,7 +25094,7 @@
         <v>44509</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25156,7 +25156,7 @@
         <v>44509</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25213,7 +25213,7 @@
         <v>44509</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25275,7 +25275,7 @@
         <v>44509</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25337,7 +25337,7 @@
         <v>44509</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25399,7 +25399,7 @@
         <v>44511</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25461,7 +25461,7 @@
         <v>44515</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25523,7 +25523,7 @@
         <v>44517</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25580,7 +25580,7 @@
         <v>44517</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25637,7 +25637,7 @@
         <v>44517</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25694,7 +25694,7 @@
         <v>44517</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25751,7 +25751,7 @@
         <v>44517</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25808,7 +25808,7 @@
         <v>44522</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25870,7 +25870,7 @@
         <v>44524</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25932,7 +25932,7 @@
         <v>44526</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25994,7 +25994,7 @@
         <v>44526</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26051,7 +26051,7 @@
         <v>44531</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26108,7 +26108,7 @@
         <v>44532</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26170,7 +26170,7 @@
         <v>44532</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26232,7 +26232,7 @@
         <v>44536</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26289,7 +26289,7 @@
         <v>44572</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26346,7 +26346,7 @@
         <v>44585</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26403,7 +26403,7 @@
         <v>44592</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26460,7 +26460,7 @@
         <v>44594</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26517,7 +26517,7 @@
         <v>44595</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26574,7 +26574,7 @@
         <v>44595</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26631,7 +26631,7 @@
         <v>44595</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26688,7 +26688,7 @@
         <v>44596</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26745,7 +26745,7 @@
         <v>44596</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26802,7 +26802,7 @@
         <v>44601</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26859,7 +26859,7 @@
         <v>44603</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26916,7 +26916,7 @@
         <v>44608</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26973,7 +26973,7 @@
         <v>44616</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27030,7 +27030,7 @@
         <v>44617</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27087,7 +27087,7 @@
         <v>44620</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27144,7 +27144,7 @@
         <v>44620</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27201,7 +27201,7 @@
         <v>44623</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27258,7 +27258,7 @@
         <v>44631</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27315,7 +27315,7 @@
         <v>44636</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27372,7 +27372,7 @@
         <v>44642</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27429,7 +27429,7 @@
         <v>44650</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27486,7 +27486,7 @@
         <v>44650</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27543,7 +27543,7 @@
         <v>44652</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27605,7 +27605,7 @@
         <v>44659</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27662,7 +27662,7 @@
         <v>44662</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27719,7 +27719,7 @@
         <v>44671</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27776,7 +27776,7 @@
         <v>44676</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27833,7 +27833,7 @@
         <v>44691</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27890,7 +27890,7 @@
         <v>44697</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27952,7 +27952,7 @@
         <v>44704</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28014,7 +28014,7 @@
         <v>44704</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28076,7 +28076,7 @@
         <v>44705</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28133,7 +28133,7 @@
         <v>44706</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28190,7 +28190,7 @@
         <v>44712</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28247,7 +28247,7 @@
         <v>44712</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28309,7 +28309,7 @@
         <v>44712</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28371,7 +28371,7 @@
         <v>44714</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28428,7 +28428,7 @@
         <v>44720</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28485,7 +28485,7 @@
         <v>44720</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28542,7 +28542,7 @@
         <v>44722</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28599,7 +28599,7 @@
         <v>44728</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28656,7 +28656,7 @@
         <v>44729</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28718,7 +28718,7 @@
         <v>44729</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28780,7 +28780,7 @@
         <v>44729</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28842,7 +28842,7 @@
         <v>44732</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28899,7 +28899,7 @@
         <v>44732</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28956,7 +28956,7 @@
         <v>44763</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29013,7 +29013,7 @@
         <v>44783</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29075,7 +29075,7 @@
         <v>44785</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29137,7 +29137,7 @@
         <v>44791</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29194,7 +29194,7 @@
         <v>44796</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29251,7 +29251,7 @@
         <v>44796</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29308,7 +29308,7 @@
         <v>44798</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29365,7 +29365,7 @@
         <v>44799</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29422,7 +29422,7 @@
         <v>44799</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29479,7 +29479,7 @@
         <v>44805</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29536,7 +29536,7 @@
         <v>44806</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29593,7 +29593,7 @@
         <v>44806</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29650,7 +29650,7 @@
         <v>44806</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29707,7 +29707,7 @@
         <v>44817</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29764,7 +29764,7 @@
         <v>44818</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29821,7 +29821,7 @@
         <v>44819</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29878,7 +29878,7 @@
         <v>44826</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29940,7 +29940,7 @@
         <v>44827</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30002,7 +30002,7 @@
         <v>44830</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30059,7 +30059,7 @@
         <v>44839</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30116,7 +30116,7 @@
         <v>44839</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30173,7 +30173,7 @@
         <v>44840</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30230,7 +30230,7 @@
         <v>44846</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30287,7 +30287,7 @@
         <v>44846</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30344,7 +30344,7 @@
         <v>44846</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30401,7 +30401,7 @@
         <v>44846</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30458,7 +30458,7 @@
         <v>44854</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30515,7 +30515,7 @@
         <v>44859</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30572,7 +30572,7 @@
         <v>44859</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30629,7 +30629,7 @@
         <v>44861</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30686,7 +30686,7 @@
         <v>44862</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30743,7 +30743,7 @@
         <v>44873</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30800,7 +30800,7 @@
         <v>44875</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30862,7 +30862,7 @@
         <v>44875</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30919,7 +30919,7 @@
         <v>44876</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30981,7 +30981,7 @@
         <v>44878</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31043,7 +31043,7 @@
         <v>44879</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31105,7 +31105,7 @@
         <v>44879</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31167,7 +31167,7 @@
         <v>44879</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31229,7 +31229,7 @@
         <v>44879</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31291,7 +31291,7 @@
         <v>44879</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31353,7 +31353,7 @@
         <v>44879</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31415,7 +31415,7 @@
         <v>44880</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31472,7 +31472,7 @@
         <v>44881</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31534,7 +31534,7 @@
         <v>44881</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31596,7 +31596,7 @@
         <v>44883</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31653,7 +31653,7 @@
         <v>44883</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31715,7 +31715,7 @@
         <v>44886</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31777,7 +31777,7 @@
         <v>44886</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31839,7 +31839,7 @@
         <v>44893</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31896,7 +31896,7 @@
         <v>44894</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31953,7 +31953,7 @@
         <v>44894</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32010,7 +32010,7 @@
         <v>44895</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32067,7 +32067,7 @@
         <v>44897</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32124,7 +32124,7 @@
         <v>44901</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32181,7 +32181,7 @@
         <v>44908</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32238,7 +32238,7 @@
         <v>44909</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32295,7 +32295,7 @@
         <v>44909</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32352,7 +32352,7 @@
         <v>44914</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32409,7 +32409,7 @@
         <v>44915</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32466,7 +32466,7 @@
         <v>44915</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32523,7 +32523,7 @@
         <v>44916</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32580,7 +32580,7 @@
         <v>44929</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32637,7 +32637,7 @@
         <v>44944</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32694,7 +32694,7 @@
         <v>44945</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32751,7 +32751,7 @@
         <v>44946</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32808,7 +32808,7 @@
         <v>44952</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32865,7 +32865,7 @@
         <v>44953</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32927,7 +32927,7 @@
         <v>44966</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -32984,7 +32984,7 @@
         <v>44967</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33041,7 +33041,7 @@
         <v>44967</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33098,7 +33098,7 @@
         <v>44970</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33155,7 +33155,7 @@
         <v>44971</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33212,7 +33212,7 @@
         <v>44993</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33269,7 +33269,7 @@
         <v>44993</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33326,7 +33326,7 @@
         <v>44993</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33383,7 +33383,7 @@
         <v>44993</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33440,7 +33440,7 @@
         <v>45008</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33497,7 +33497,7 @@
         <v>45009</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -33554,7 +33554,7 @@
         <v>45012</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -33611,7 +33611,7 @@
         <v>45014</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33668,7 +33668,7 @@
         <v>45016</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33725,7 +33725,7 @@
         <v>45016</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33782,7 +33782,7 @@
         <v>45016</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33839,7 +33839,7 @@
         <v>45016</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -33896,7 +33896,7 @@
         <v>45016</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -33953,7 +33953,7 @@
         <v>45016</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34010,7 +34010,7 @@
         <v>45016</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34067,7 +34067,7 @@
         <v>45030</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34124,7 +34124,7 @@
         <v>45033</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34181,7 +34181,7 @@
         <v>45033</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34238,7 +34238,7 @@
         <v>45036</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34295,7 +34295,7 @@
         <v>45037</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34357,7 +34357,7 @@
         <v>45038</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -34414,7 +34414,7 @@
         <v>45041</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34471,7 +34471,7 @@
         <v>45041</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -34533,7 +34533,7 @@
         <v>45043</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -34590,7 +34590,7 @@
         <v>45044</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34647,7 +34647,7 @@
         <v>45044</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -34704,7 +34704,7 @@
         <v>45044</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -34761,7 +34761,7 @@
         <v>45058</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -34823,7 +34823,7 @@
         <v>45061</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -34880,7 +34880,7 @@
         <v>45062</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -34942,7 +34942,7 @@
         <v>45062</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -34999,7 +34999,7 @@
         <v>45063</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35061,7 +35061,7 @@
         <v>45070</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -35118,7 +35118,7 @@
         <v>45072</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -35180,7 +35180,7 @@
         <v>45072</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -35237,7 +35237,7 @@
         <v>45076</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35299,7 +35299,7 @@
         <v>45078</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35356,7 +35356,7 @@
         <v>45078</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -35418,7 +35418,7 @@
         <v>45079</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -35475,7 +35475,7 @@
         <v>45082</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -35532,7 +35532,7 @@
         <v>45082</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -35589,7 +35589,7 @@
         <v>45084</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -35651,7 +35651,7 @@
         <v>45084</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -35708,7 +35708,7 @@
         <v>45085</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -35765,7 +35765,7 @@
         <v>45089</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -35822,7 +35822,7 @@
         <v>45090</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -35879,7 +35879,7 @@
         <v>45090</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -35936,7 +35936,7 @@
         <v>45090</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -35993,7 +35993,7 @@
         <v>45090</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -36050,7 +36050,7 @@
         <v>45091</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -36107,7 +36107,7 @@
         <v>45097</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -36164,7 +36164,7 @@
         <v>45097</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -36221,7 +36221,7 @@
         <v>45097</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -36278,7 +36278,7 @@
         <v>45097</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -36335,7 +36335,7 @@
         <v>45098</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -36397,7 +36397,7 @@
         <v>45099</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -36454,7 +36454,7 @@
         <v>45103</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -36511,7 +36511,7 @@
         <v>45104</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -36568,7 +36568,7 @@
         <v>45104</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -36625,7 +36625,7 @@
         <v>45107</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -36687,7 +36687,7 @@
         <v>45107</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -36744,7 +36744,7 @@
         <v>45107</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -36801,7 +36801,7 @@
         <v>45107</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -36858,7 +36858,7 @@
         <v>45107</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -36915,7 +36915,7 @@
         <v>45107</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -36972,7 +36972,7 @@
         <v>45107</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -37034,7 +37034,7 @@
         <v>45107</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -37096,7 +37096,7 @@
         <v>45107</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -37153,7 +37153,7 @@
         <v>45110</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -37210,7 +37210,7 @@
         <v>45110</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -37267,7 +37267,7 @@
         <v>45112</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -37329,7 +37329,7 @@
         <v>45113</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -37391,7 +37391,7 @@
         <v>45113</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -37448,7 +37448,7 @@
         <v>45114</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -37505,7 +37505,7 @@
         <v>45114</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -37562,7 +37562,7 @@
         <v>45117</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -37619,7 +37619,7 @@
         <v>45119</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -37681,7 +37681,7 @@
         <v>45120</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -37738,7 +37738,7 @@
         <v>45121</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -37795,7 +37795,7 @@
         <v>45123</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -37852,7 +37852,7 @@
         <v>45132</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -37909,7 +37909,7 @@
         <v>45138</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -37966,7 +37966,7 @@
         <v>45138</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -38023,7 +38023,7 @@
         <v>45147</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -38080,7 +38080,7 @@
         <v>45149</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -38137,7 +38137,7 @@
         <v>45149</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -38194,7 +38194,7 @@
         <v>45161</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -38256,7 +38256,7 @@
         <v>45161</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -38318,7 +38318,7 @@
         <v>45161</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -38380,7 +38380,7 @@
         <v>45169</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -38437,7 +38437,7 @@
         <v>45173</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -38499,7 +38499,7 @@
         <v>45173</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -38556,7 +38556,7 @@
         <v>45175</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -38613,7 +38613,7 @@
         <v>45176</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>

--- a/Översikt BOLLNÄS.xlsx
+++ b/Översikt BOLLNÄS.xlsx
@@ -572,7 +572,7 @@
         <v>44109</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -675,7 +675,7 @@
         <v>44095</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -776,7 +776,7 @@
         <v>44382</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -868,7 +868,7 @@
         <v>44729</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -960,7 +960,7 @@
         <v>43783</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1055,7 +1055,7 @@
         <v>43783</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1150,7 +1150,7 @@
         <v>43783</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1245,7 +1245,7 @@
         <v>43993</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1331,7 +1331,7 @@
         <v>43999</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1422,7 +1422,7 @@
         <v>44432</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1512,7 +1512,7 @@
         <v>45092</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         <v>43600</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1688,7 +1688,7 @@
         <v>43619</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1777,7 +1777,7 @@
         <v>43794</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1862,7 +1862,7 @@
         <v>43864</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1947,7 +1947,7 @@
         <v>44081</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2037,7 +2037,7 @@
         <v>44515</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2127,7 +2127,7 @@
         <v>44813</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2212,7 +2212,7 @@
         <v>44901</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2297,7 +2297,7 @@
         <v>45058</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         <v>45090</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2471,7 +2471,7 @@
         <v>43360</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2528,7 +2528,7 @@
         <v>43375</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2585,7 +2585,7 @@
         <v>43382</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2642,7 +2642,7 @@
         <v>43389</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2699,7 +2699,7 @@
         <v>43392</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2756,7 +2756,7 @@
         <v>43410</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2813,7 +2813,7 @@
         <v>43413</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2875,7 +2875,7 @@
         <v>43416</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2932,7 +2932,7 @@
         <v>43417</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2989,7 +2989,7 @@
         <v>43417</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3046,7 +3046,7 @@
         <v>43418</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3103,7 +3103,7 @@
         <v>43418</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3160,7 +3160,7 @@
         <v>43418</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3217,7 +3217,7 @@
         <v>43419</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3274,7 +3274,7 @@
         <v>43420</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3331,7 +3331,7 @@
         <v>43424</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3388,7 +3388,7 @@
         <v>43424</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3445,7 +3445,7 @@
         <v>43424</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3502,7 +3502,7 @@
         <v>43424</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3559,7 +3559,7 @@
         <v>43424</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3616,7 +3616,7 @@
         <v>43424</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3673,7 +3673,7 @@
         <v>43424</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3730,7 +3730,7 @@
         <v>43427</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3787,7 +3787,7 @@
         <v>43427</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3844,7 +3844,7 @@
         <v>43427</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3901,7 +3901,7 @@
         <v>43427</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3958,7 +3958,7 @@
         <v>43427</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4015,7 +4015,7 @@
         <v>43430</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4072,7 +4072,7 @@
         <v>43431</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4129,7 +4129,7 @@
         <v>43431</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4186,7 +4186,7 @@
         <v>43434</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4243,7 +4243,7 @@
         <v>43434</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4300,7 +4300,7 @@
         <v>43437</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4357,7 +4357,7 @@
         <v>43441</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4414,7 +4414,7 @@
         <v>43444</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4471,7 +4471,7 @@
         <v>43445</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4533,7 +4533,7 @@
         <v>43445</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4590,7 +4590,7 @@
         <v>43446</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4647,7 +4647,7 @@
         <v>43446</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4704,7 +4704,7 @@
         <v>43447</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4761,7 +4761,7 @@
         <v>43448</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4818,7 +4818,7 @@
         <v>43452</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4875,7 +4875,7 @@
         <v>43452</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4932,7 +4932,7 @@
         <v>43454</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4989,7 +4989,7 @@
         <v>43455</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5046,7 +5046,7 @@
         <v>43455</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5103,7 +5103,7 @@
         <v>43467</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5160,7 +5160,7 @@
         <v>43472</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5217,7 +5217,7 @@
         <v>43472</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5274,7 +5274,7 @@
         <v>43472</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5331,7 +5331,7 @@
         <v>43476</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5388,7 +5388,7 @@
         <v>43476</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5445,7 +5445,7 @@
         <v>43476</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5502,7 +5502,7 @@
         <v>43480</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5559,7 +5559,7 @@
         <v>43482</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5616,7 +5616,7 @@
         <v>43482</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5673,7 +5673,7 @@
         <v>43497</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5730,7 +5730,7 @@
         <v>43509</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5787,7 +5787,7 @@
         <v>43515</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5844,7 +5844,7 @@
         <v>43517</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5901,7 +5901,7 @@
         <v>43518</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5958,7 +5958,7 @@
         <v>43522</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6015,7 +6015,7 @@
         <v>43523</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6072,7 +6072,7 @@
         <v>43528</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6129,7 +6129,7 @@
         <v>43528</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6186,7 +6186,7 @@
         <v>43529</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6243,7 +6243,7 @@
         <v>43532</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6300,7 +6300,7 @@
         <v>43532</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6357,7 +6357,7 @@
         <v>43536</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6414,7 +6414,7 @@
         <v>43537</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6471,7 +6471,7 @@
         <v>43559</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6528,7 +6528,7 @@
         <v>43560</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6585,7 +6585,7 @@
         <v>43563</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6642,7 +6642,7 @@
         <v>43564</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6699,7 +6699,7 @@
         <v>43567</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6756,7 +6756,7 @@
         <v>43571</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6813,7 +6813,7 @@
         <v>43580</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6870,7 +6870,7 @@
         <v>43583</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6927,7 +6927,7 @@
         <v>43587</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6984,7 +6984,7 @@
         <v>43593</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7041,7 +7041,7 @@
         <v>43593</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7098,7 +7098,7 @@
         <v>43594</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7155,7 +7155,7 @@
         <v>43598</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7212,7 +7212,7 @@
         <v>43599</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7269,7 +7269,7 @@
         <v>43599</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7326,7 +7326,7 @@
         <v>43599</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7383,7 +7383,7 @@
         <v>43605</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7445,7 +7445,7 @@
         <v>43607</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7502,7 +7502,7 @@
         <v>43612</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7559,7 +7559,7 @@
         <v>43619</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7621,7 +7621,7 @@
         <v>43619</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7678,7 +7678,7 @@
         <v>43619</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7740,7 +7740,7 @@
         <v>43619</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7802,7 +7802,7 @@
         <v>43620</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7859,7 +7859,7 @@
         <v>43620</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7916,7 +7916,7 @@
         <v>43629</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7978,7 +7978,7 @@
         <v>43629</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8035,7 +8035,7 @@
         <v>43633</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8092,7 +8092,7 @@
         <v>43635</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8149,7 +8149,7 @@
         <v>43640</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8206,7 +8206,7 @@
         <v>43641</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8263,7 +8263,7 @@
         <v>43643</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8320,7 +8320,7 @@
         <v>43649</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8377,7 +8377,7 @@
         <v>43649</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8434,7 +8434,7 @@
         <v>43651</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8496,7 +8496,7 @@
         <v>43654</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8553,7 +8553,7 @@
         <v>43656</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8610,7 +8610,7 @@
         <v>43657</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8667,7 +8667,7 @@
         <v>43657</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8729,7 +8729,7 @@
         <v>43664</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8786,7 +8786,7 @@
         <v>43689</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8843,7 +8843,7 @@
         <v>43691</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8905,7 +8905,7 @@
         <v>43698</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8962,7 +8962,7 @@
         <v>43698</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9019,7 +9019,7 @@
         <v>43703</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9076,7 +9076,7 @@
         <v>43704</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9133,7 +9133,7 @@
         <v>43704</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9190,7 +9190,7 @@
         <v>43705</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9252,7 +9252,7 @@
         <v>43706</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9309,7 +9309,7 @@
         <v>43707</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9371,7 +9371,7 @@
         <v>43707</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9433,7 +9433,7 @@
         <v>43710</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9490,7 +9490,7 @@
         <v>43711</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9552,7 +9552,7 @@
         <v>43717</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9609,7 +9609,7 @@
         <v>43718</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9666,7 +9666,7 @@
         <v>43718</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9723,7 +9723,7 @@
         <v>43721</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9785,7 +9785,7 @@
         <v>43726</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9842,7 +9842,7 @@
         <v>43732</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9899,7 +9899,7 @@
         <v>43733</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9961,7 +9961,7 @@
         <v>43733</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10023,7 +10023,7 @@
         <v>43738</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10080,7 +10080,7 @@
         <v>43739</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10137,7 +10137,7 @@
         <v>43740</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10194,7 +10194,7 @@
         <v>43741</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10251,7 +10251,7 @@
         <v>43742</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10308,7 +10308,7 @@
         <v>43742</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10365,7 +10365,7 @@
         <v>43742</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10422,7 +10422,7 @@
         <v>43748</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10479,7 +10479,7 @@
         <v>43753</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10536,7 +10536,7 @@
         <v>43754</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10598,7 +10598,7 @@
         <v>43754</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10655,7 +10655,7 @@
         <v>43755</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10717,7 +10717,7 @@
         <v>43759</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10774,7 +10774,7 @@
         <v>43759</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10831,7 +10831,7 @@
         <v>43760</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10888,7 +10888,7 @@
         <v>43761</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10950,7 +10950,7 @@
         <v>43767</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11012,7 +11012,7 @@
         <v>43769</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11069,7 +11069,7 @@
         <v>43773</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11126,7 +11126,7 @@
         <v>43776</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11183,7 +11183,7 @@
         <v>43777</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11240,7 +11240,7 @@
         <v>43781</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11302,7 +11302,7 @@
         <v>43783</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11359,7 +11359,7 @@
         <v>43783</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11416,7 +11416,7 @@
         <v>43783</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11498,7 +11498,7 @@
         <v>43787</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11555,7 +11555,7 @@
         <v>43789</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11612,7 +11612,7 @@
         <v>43789</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11669,7 +11669,7 @@
         <v>43790</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11726,7 +11726,7 @@
         <v>43794</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11783,7 +11783,7 @@
         <v>43795</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11840,7 +11840,7 @@
         <v>43798</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11897,7 +11897,7 @@
         <v>43800</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11954,7 +11954,7 @@
         <v>43802</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12011,7 +12011,7 @@
         <v>43808</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12073,7 +12073,7 @@
         <v>43809</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12135,7 +12135,7 @@
         <v>43809</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12197,7 +12197,7 @@
         <v>43809</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12254,7 +12254,7 @@
         <v>43812</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12311,7 +12311,7 @@
         <v>43815</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12368,7 +12368,7 @@
         <v>43819</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12425,7 +12425,7 @@
         <v>43819</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12482,7 +12482,7 @@
         <v>43837</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12539,7 +12539,7 @@
         <v>43837</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12596,7 +12596,7 @@
         <v>43840</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12653,7 +12653,7 @@
         <v>43840</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12710,7 +12710,7 @@
         <v>43846</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12767,7 +12767,7 @@
         <v>43850</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12824,7 +12824,7 @@
         <v>43852</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12886,7 +12886,7 @@
         <v>43853</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12948,7 +12948,7 @@
         <v>43858</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13010,7 +13010,7 @@
         <v>43859</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13072,7 +13072,7 @@
         <v>43865</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13129,7 +13129,7 @@
         <v>43867</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13186,7 +13186,7 @@
         <v>43871</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13243,7 +13243,7 @@
         <v>43878</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13300,7 +13300,7 @@
         <v>43878</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13357,7 +13357,7 @@
         <v>43879</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13414,7 +13414,7 @@
         <v>43882</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13471,7 +13471,7 @@
         <v>43886</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13528,7 +13528,7 @@
         <v>43886</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13585,7 +13585,7 @@
         <v>43887</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13642,7 +13642,7 @@
         <v>43888</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13699,7 +13699,7 @@
         <v>43892</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13756,7 +13756,7 @@
         <v>43894</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13813,7 +13813,7 @@
         <v>43894</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13870,7 +13870,7 @@
         <v>43901</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13932,7 +13932,7 @@
         <v>43902</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13989,7 +13989,7 @@
         <v>43913</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14046,7 +14046,7 @@
         <v>43913</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14103,7 +14103,7 @@
         <v>43913</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14165,7 +14165,7 @@
         <v>43916</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14222,7 +14222,7 @@
         <v>43916</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14279,7 +14279,7 @@
         <v>43924</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14336,7 +14336,7 @@
         <v>43927</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14393,7 +14393,7 @@
         <v>43930</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14450,7 +14450,7 @@
         <v>43945</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14507,7 +14507,7 @@
         <v>43949</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14564,7 +14564,7 @@
         <v>43949</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14621,7 +14621,7 @@
         <v>43956</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14678,7 +14678,7 @@
         <v>43987</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14735,7 +14735,7 @@
         <v>43991</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14792,7 +14792,7 @@
         <v>43993</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14854,7 +14854,7 @@
         <v>43993</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14916,7 +14916,7 @@
         <v>43994</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14973,7 +14973,7 @@
         <v>43998</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15030,7 +15030,7 @@
         <v>44000</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15092,7 +15092,7 @@
         <v>44006</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15149,7 +15149,7 @@
         <v>44008</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15206,7 +15206,7 @@
         <v>44012</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15263,7 +15263,7 @@
         <v>44013</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15320,7 +15320,7 @@
         <v>44014</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15377,7 +15377,7 @@
         <v>44014</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15434,7 +15434,7 @@
         <v>44014</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15491,7 +15491,7 @@
         <v>44014</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15548,7 +15548,7 @@
         <v>44014</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15605,7 +15605,7 @@
         <v>44015</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15662,7 +15662,7 @@
         <v>44015</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15719,7 +15719,7 @@
         <v>44035</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15776,7 +15776,7 @@
         <v>44035</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15833,7 +15833,7 @@
         <v>44055</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15890,7 +15890,7 @@
         <v>44057</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15947,7 +15947,7 @@
         <v>44061</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16004,7 +16004,7 @@
         <v>44062</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16061,7 +16061,7 @@
         <v>44064</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16118,7 +16118,7 @@
         <v>44070</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16175,7 +16175,7 @@
         <v>44076</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16232,7 +16232,7 @@
         <v>44076</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16289,7 +16289,7 @@
         <v>44083</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16346,7 +16346,7 @@
         <v>44083</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16403,7 +16403,7 @@
         <v>44083</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16460,7 +16460,7 @@
         <v>44083</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16517,7 +16517,7 @@
         <v>44084</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16574,7 +16574,7 @@
         <v>44088</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16636,7 +16636,7 @@
         <v>44089</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16693,7 +16693,7 @@
         <v>44090</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16755,7 +16755,7 @@
         <v>44095</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16812,7 +16812,7 @@
         <v>44103</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16869,7 +16869,7 @@
         <v>44105</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16926,7 +16926,7 @@
         <v>44105</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16983,7 +16983,7 @@
         <v>44110</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17040,7 +17040,7 @@
         <v>44110</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17097,7 +17097,7 @@
         <v>44116</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17154,7 +17154,7 @@
         <v>44119</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17216,7 +17216,7 @@
         <v>44119</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17278,7 +17278,7 @@
         <v>44119</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17340,7 +17340,7 @@
         <v>44120</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17397,7 +17397,7 @@
         <v>44125</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17454,7 +17454,7 @@
         <v>44125</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17511,7 +17511,7 @@
         <v>44127</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17568,7 +17568,7 @@
         <v>44127</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17625,7 +17625,7 @@
         <v>44127</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17682,7 +17682,7 @@
         <v>44130</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17739,7 +17739,7 @@
         <v>44133</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17796,7 +17796,7 @@
         <v>44133</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17853,7 +17853,7 @@
         <v>44133</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17910,7 +17910,7 @@
         <v>44137</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17967,7 +17967,7 @@
         <v>44140</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18029,7 +18029,7 @@
         <v>44141</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18086,7 +18086,7 @@
         <v>44144</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18143,7 +18143,7 @@
         <v>44144</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18200,7 +18200,7 @@
         <v>44146</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18257,7 +18257,7 @@
         <v>44147</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18314,7 +18314,7 @@
         <v>44147</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18371,7 +18371,7 @@
         <v>44147</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18428,7 +18428,7 @@
         <v>44147</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18485,7 +18485,7 @@
         <v>44148</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18542,7 +18542,7 @@
         <v>44148</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18604,7 +18604,7 @@
         <v>44151</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18661,7 +18661,7 @@
         <v>44151</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18718,7 +18718,7 @@
         <v>44151</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18780,7 +18780,7 @@
         <v>44151</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18837,7 +18837,7 @@
         <v>44151</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18894,7 +18894,7 @@
         <v>44151</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18951,7 +18951,7 @@
         <v>44151</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19008,7 +19008,7 @@
         <v>44152</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19070,7 +19070,7 @@
         <v>44153</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19127,7 +19127,7 @@
         <v>44153</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19189,7 +19189,7 @@
         <v>44153</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19246,7 +19246,7 @@
         <v>44153</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19308,7 +19308,7 @@
         <v>44160</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19365,7 +19365,7 @@
         <v>44161</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19422,7 +19422,7 @@
         <v>44161</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19484,7 +19484,7 @@
         <v>44162</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19541,7 +19541,7 @@
         <v>44165</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19598,7 +19598,7 @@
         <v>44166</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19655,7 +19655,7 @@
         <v>44167</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19712,7 +19712,7 @@
         <v>44169</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19769,7 +19769,7 @@
         <v>44176</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19826,7 +19826,7 @@
         <v>44180</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19883,7 +19883,7 @@
         <v>44180</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19940,7 +19940,7 @@
         <v>44180</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19997,7 +19997,7 @@
         <v>44180</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20059,7 +20059,7 @@
         <v>44186</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20116,7 +20116,7 @@
         <v>44187</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20173,7 +20173,7 @@
         <v>44187</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20230,7 +20230,7 @@
         <v>44187</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20287,7 +20287,7 @@
         <v>44188</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20344,7 +20344,7 @@
         <v>44194</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20401,7 +20401,7 @@
         <v>44195</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20458,7 +20458,7 @@
         <v>44203</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20520,7 +20520,7 @@
         <v>44203</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20582,7 +20582,7 @@
         <v>44203</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20644,7 +20644,7 @@
         <v>44203</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20706,7 +20706,7 @@
         <v>44203</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20768,7 +20768,7 @@
         <v>44204</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20830,7 +20830,7 @@
         <v>44204</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20892,7 +20892,7 @@
         <v>44207</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20954,7 +20954,7 @@
         <v>44207</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21016,7 +21016,7 @@
         <v>44208</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21078,7 +21078,7 @@
         <v>44208</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21140,7 +21140,7 @@
         <v>44208</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21197,7 +21197,7 @@
         <v>44209</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21259,7 +21259,7 @@
         <v>44210</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21321,7 +21321,7 @@
         <v>44211</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21378,7 +21378,7 @@
         <v>44211</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21435,7 +21435,7 @@
         <v>44218</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21492,7 +21492,7 @@
         <v>44224</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21549,7 +21549,7 @@
         <v>44232</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21606,7 +21606,7 @@
         <v>44239</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21663,7 +21663,7 @@
         <v>44239</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21720,7 +21720,7 @@
         <v>44242</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21777,7 +21777,7 @@
         <v>44267</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21834,7 +21834,7 @@
         <v>44270</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21891,7 +21891,7 @@
         <v>44278</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21948,7 +21948,7 @@
         <v>44278</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22005,7 +22005,7 @@
         <v>44279</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22067,7 +22067,7 @@
         <v>44279</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22129,7 +22129,7 @@
         <v>44279</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22191,7 +22191,7 @@
         <v>44295</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22248,7 +22248,7 @@
         <v>44299</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22305,7 +22305,7 @@
         <v>44316</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22362,7 +22362,7 @@
         <v>44326</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22424,7 +22424,7 @@
         <v>44336</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22481,7 +22481,7 @@
         <v>44347</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22538,7 +22538,7 @@
         <v>44347</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22595,7 +22595,7 @@
         <v>44364</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22652,7 +22652,7 @@
         <v>44365</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22714,7 +22714,7 @@
         <v>44369</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22776,7 +22776,7 @@
         <v>44370</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22838,7 +22838,7 @@
         <v>44370</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22895,7 +22895,7 @@
         <v>44370</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22957,7 +22957,7 @@
         <v>44371</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23014,7 +23014,7 @@
         <v>44379</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23076,7 +23076,7 @@
         <v>44381</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23133,7 +23133,7 @@
         <v>44381</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23190,7 +23190,7 @@
         <v>44381</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23247,7 +23247,7 @@
         <v>44382</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23309,7 +23309,7 @@
         <v>44382</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23371,7 +23371,7 @@
         <v>44383</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23433,7 +23433,7 @@
         <v>44384</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23490,7 +23490,7 @@
         <v>44389</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23547,7 +23547,7 @@
         <v>44407</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23604,7 +23604,7 @@
         <v>44424</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23666,7 +23666,7 @@
         <v>44424</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23723,7 +23723,7 @@
         <v>44438</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23785,7 +23785,7 @@
         <v>44452</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23842,7 +23842,7 @@
         <v>44452</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23899,7 +23899,7 @@
         <v>44452</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23956,7 +23956,7 @@
         <v>44454</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24013,7 +24013,7 @@
         <v>44460</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24070,7 +24070,7 @@
         <v>44467</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24132,7 +24132,7 @@
         <v>44480</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24189,7 +24189,7 @@
         <v>44480</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24251,7 +24251,7 @@
         <v>44484</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24308,7 +24308,7 @@
         <v>44488</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24365,7 +24365,7 @@
         <v>44488</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24422,7 +24422,7 @@
         <v>44489</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24479,7 +24479,7 @@
         <v>44496</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24541,7 +24541,7 @@
         <v>44496</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24598,7 +24598,7 @@
         <v>44503</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24660,7 +24660,7 @@
         <v>44505</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24722,7 +24722,7 @@
         <v>44505</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24784,7 +24784,7 @@
         <v>44505</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24846,7 +24846,7 @@
         <v>44505</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24908,7 +24908,7 @@
         <v>44509</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24970,7 +24970,7 @@
         <v>44509</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25032,7 +25032,7 @@
         <v>44509</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25094,7 +25094,7 @@
         <v>44509</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25156,7 +25156,7 @@
         <v>44509</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25213,7 +25213,7 @@
         <v>44509</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25275,7 +25275,7 @@
         <v>44509</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25337,7 +25337,7 @@
         <v>44509</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25399,7 +25399,7 @@
         <v>44511</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25461,7 +25461,7 @@
         <v>44515</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25523,7 +25523,7 @@
         <v>44517</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25580,7 +25580,7 @@
         <v>44517</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25637,7 +25637,7 @@
         <v>44517</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25694,7 +25694,7 @@
         <v>44517</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25751,7 +25751,7 @@
         <v>44517</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25808,7 +25808,7 @@
         <v>44522</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25870,7 +25870,7 @@
         <v>44524</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25932,7 +25932,7 @@
         <v>44526</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25994,7 +25994,7 @@
         <v>44526</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26051,7 +26051,7 @@
         <v>44531</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26108,7 +26108,7 @@
         <v>44532</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26170,7 +26170,7 @@
         <v>44532</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26232,7 +26232,7 @@
         <v>44536</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26289,7 +26289,7 @@
         <v>44572</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26346,7 +26346,7 @@
         <v>44585</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26403,7 +26403,7 @@
         <v>44592</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26460,7 +26460,7 @@
         <v>44594</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26517,7 +26517,7 @@
         <v>44595</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26574,7 +26574,7 @@
         <v>44595</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26631,7 +26631,7 @@
         <v>44595</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26688,7 +26688,7 @@
         <v>44596</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26745,7 +26745,7 @@
         <v>44596</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26802,7 +26802,7 @@
         <v>44601</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26859,7 +26859,7 @@
         <v>44603</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26916,7 +26916,7 @@
         <v>44608</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26973,7 +26973,7 @@
         <v>44616</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27030,7 +27030,7 @@
         <v>44617</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27087,7 +27087,7 @@
         <v>44620</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27144,7 +27144,7 @@
         <v>44620</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27201,7 +27201,7 @@
         <v>44623</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27258,7 +27258,7 @@
         <v>44631</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27315,7 +27315,7 @@
         <v>44636</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27372,7 +27372,7 @@
         <v>44642</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27429,7 +27429,7 @@
         <v>44650</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27486,7 +27486,7 @@
         <v>44650</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27543,7 +27543,7 @@
         <v>44652</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27605,7 +27605,7 @@
         <v>44659</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27662,7 +27662,7 @@
         <v>44662</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27719,7 +27719,7 @@
         <v>44671</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27776,7 +27776,7 @@
         <v>44676</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27833,7 +27833,7 @@
         <v>44691</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27890,7 +27890,7 @@
         <v>44697</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27952,7 +27952,7 @@
         <v>44704</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28014,7 +28014,7 @@
         <v>44704</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28076,7 +28076,7 @@
         <v>44705</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28133,7 +28133,7 @@
         <v>44706</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28190,7 +28190,7 @@
         <v>44712</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28247,7 +28247,7 @@
         <v>44712</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28309,7 +28309,7 @@
         <v>44712</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28371,7 +28371,7 @@
         <v>44714</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28428,7 +28428,7 @@
         <v>44720</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28485,7 +28485,7 @@
         <v>44720</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28542,7 +28542,7 @@
         <v>44722</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28599,7 +28599,7 @@
         <v>44728</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28656,7 +28656,7 @@
         <v>44729</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28718,7 +28718,7 @@
         <v>44729</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28780,7 +28780,7 @@
         <v>44729</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28842,7 +28842,7 @@
         <v>44732</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28899,7 +28899,7 @@
         <v>44732</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28956,7 +28956,7 @@
         <v>44763</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29013,7 +29013,7 @@
         <v>44783</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29075,7 +29075,7 @@
         <v>44785</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29137,7 +29137,7 @@
         <v>44791</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29194,7 +29194,7 @@
         <v>44796</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29251,7 +29251,7 @@
         <v>44796</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29308,7 +29308,7 @@
         <v>44798</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29365,7 +29365,7 @@
         <v>44799</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29422,7 +29422,7 @@
         <v>44799</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29479,7 +29479,7 @@
         <v>44805</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29536,7 +29536,7 @@
         <v>44806</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29593,7 +29593,7 @@
         <v>44806</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29650,7 +29650,7 @@
         <v>44806</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29707,7 +29707,7 @@
         <v>44817</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29764,7 +29764,7 @@
         <v>44818</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29821,7 +29821,7 @@
         <v>44819</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29878,7 +29878,7 @@
         <v>44826</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29940,7 +29940,7 @@
         <v>44827</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30002,7 +30002,7 @@
         <v>44830</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30059,7 +30059,7 @@
         <v>44839</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30116,7 +30116,7 @@
         <v>44839</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30173,7 +30173,7 @@
         <v>44840</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30230,7 +30230,7 @@
         <v>44846</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30287,7 +30287,7 @@
         <v>44846</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30344,7 +30344,7 @@
         <v>44846</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30401,7 +30401,7 @@
         <v>44846</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30458,7 +30458,7 @@
         <v>44854</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30515,7 +30515,7 @@
         <v>44859</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30572,7 +30572,7 @@
         <v>44859</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30629,7 +30629,7 @@
         <v>44861</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30686,7 +30686,7 @@
         <v>44862</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30743,7 +30743,7 @@
         <v>44873</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30800,7 +30800,7 @@
         <v>44875</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30862,7 +30862,7 @@
         <v>44875</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30919,7 +30919,7 @@
         <v>44876</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30981,7 +30981,7 @@
         <v>44878</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31043,7 +31043,7 @@
         <v>44879</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31105,7 +31105,7 @@
         <v>44879</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31167,7 +31167,7 @@
         <v>44879</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31229,7 +31229,7 @@
         <v>44879</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31291,7 +31291,7 @@
         <v>44879</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31353,7 +31353,7 @@
         <v>44879</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31415,7 +31415,7 @@
         <v>44880</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31472,7 +31472,7 @@
         <v>44881</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31534,7 +31534,7 @@
         <v>44881</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31596,7 +31596,7 @@
         <v>44883</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31653,7 +31653,7 @@
         <v>44883</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31715,7 +31715,7 @@
         <v>44886</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31777,7 +31777,7 @@
         <v>44886</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31839,7 +31839,7 @@
         <v>44893</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31896,7 +31896,7 @@
         <v>44894</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31953,7 +31953,7 @@
         <v>44894</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32010,7 +32010,7 @@
         <v>44895</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32067,7 +32067,7 @@
         <v>44897</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32124,7 +32124,7 @@
         <v>44901</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32181,7 +32181,7 @@
         <v>44908</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32238,7 +32238,7 @@
         <v>44909</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32295,7 +32295,7 @@
         <v>44909</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32352,7 +32352,7 @@
         <v>44914</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32409,7 +32409,7 @@
         <v>44915</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32466,7 +32466,7 @@
         <v>44915</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32523,7 +32523,7 @@
         <v>44916</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32580,7 +32580,7 @@
         <v>44929</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32637,7 +32637,7 @@
         <v>44944</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32694,7 +32694,7 @@
         <v>44945</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32751,7 +32751,7 @@
         <v>44946</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32808,7 +32808,7 @@
         <v>44952</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32865,7 +32865,7 @@
         <v>44953</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32927,7 +32927,7 @@
         <v>44966</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -32984,7 +32984,7 @@
         <v>44967</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33041,7 +33041,7 @@
         <v>44967</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33098,7 +33098,7 @@
         <v>44970</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33155,7 +33155,7 @@
         <v>44971</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33212,7 +33212,7 @@
         <v>44993</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33269,7 +33269,7 @@
         <v>44993</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33326,7 +33326,7 @@
         <v>44993</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33383,7 +33383,7 @@
         <v>44993</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33440,7 +33440,7 @@
         <v>45008</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33497,7 +33497,7 @@
         <v>45009</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -33554,7 +33554,7 @@
         <v>45012</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -33611,7 +33611,7 @@
         <v>45014</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33668,7 +33668,7 @@
         <v>45016</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33725,7 +33725,7 @@
         <v>45016</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33782,7 +33782,7 @@
         <v>45016</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33839,7 +33839,7 @@
         <v>45016</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -33896,7 +33896,7 @@
         <v>45016</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -33953,7 +33953,7 @@
         <v>45016</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34010,7 +34010,7 @@
         <v>45016</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34067,7 +34067,7 @@
         <v>45030</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34124,7 +34124,7 @@
         <v>45033</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34181,7 +34181,7 @@
         <v>45033</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34238,7 +34238,7 @@
         <v>45036</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34295,7 +34295,7 @@
         <v>45037</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34357,7 +34357,7 @@
         <v>45038</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -34414,7 +34414,7 @@
         <v>45041</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34471,7 +34471,7 @@
         <v>45041</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -34533,7 +34533,7 @@
         <v>45043</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -34590,7 +34590,7 @@
         <v>45044</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34647,7 +34647,7 @@
         <v>45044</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -34704,7 +34704,7 @@
         <v>45044</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -34761,7 +34761,7 @@
         <v>45058</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -34823,7 +34823,7 @@
         <v>45061</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -34880,7 +34880,7 @@
         <v>45062</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -34942,7 +34942,7 @@
         <v>45062</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -34999,7 +34999,7 @@
         <v>45063</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35061,7 +35061,7 @@
         <v>45070</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -35118,7 +35118,7 @@
         <v>45072</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -35180,7 +35180,7 @@
         <v>45072</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -35237,7 +35237,7 @@
         <v>45076</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35299,7 +35299,7 @@
         <v>45078</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35356,7 +35356,7 @@
         <v>45078</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -35418,7 +35418,7 @@
         <v>45079</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -35475,7 +35475,7 @@
         <v>45082</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -35532,7 +35532,7 @@
         <v>45082</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -35589,7 +35589,7 @@
         <v>45084</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -35651,7 +35651,7 @@
         <v>45084</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -35708,7 +35708,7 @@
         <v>45085</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -35765,7 +35765,7 @@
         <v>45089</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -35822,7 +35822,7 @@
         <v>45090</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -35879,7 +35879,7 @@
         <v>45090</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -35936,7 +35936,7 @@
         <v>45090</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -35993,7 +35993,7 @@
         <v>45090</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -36050,7 +36050,7 @@
         <v>45091</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -36107,7 +36107,7 @@
         <v>45097</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -36164,7 +36164,7 @@
         <v>45097</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -36221,7 +36221,7 @@
         <v>45097</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -36278,7 +36278,7 @@
         <v>45097</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -36335,7 +36335,7 @@
         <v>45098</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -36397,7 +36397,7 @@
         <v>45099</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -36454,7 +36454,7 @@
         <v>45103</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -36511,7 +36511,7 @@
         <v>45104</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -36568,7 +36568,7 @@
         <v>45104</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -36625,7 +36625,7 @@
         <v>45107</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -36687,7 +36687,7 @@
         <v>45107</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -36744,7 +36744,7 @@
         <v>45107</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -36801,7 +36801,7 @@
         <v>45107</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -36858,7 +36858,7 @@
         <v>45107</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -36915,7 +36915,7 @@
         <v>45107</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -36972,7 +36972,7 @@
         <v>45107</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -37034,7 +37034,7 @@
         <v>45107</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -37096,7 +37096,7 @@
         <v>45107</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -37153,7 +37153,7 @@
         <v>45110</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -37210,7 +37210,7 @@
         <v>45110</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -37267,7 +37267,7 @@
         <v>45112</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -37329,7 +37329,7 @@
         <v>45113</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -37391,7 +37391,7 @@
         <v>45113</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -37448,7 +37448,7 @@
         <v>45114</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -37505,7 +37505,7 @@
         <v>45114</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -37562,7 +37562,7 @@
         <v>45117</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -37619,7 +37619,7 @@
         <v>45119</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -37681,7 +37681,7 @@
         <v>45120</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -37738,7 +37738,7 @@
         <v>45121</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -37795,7 +37795,7 @@
         <v>45123</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -37852,7 +37852,7 @@
         <v>45132</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -37909,7 +37909,7 @@
         <v>45138</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -37966,7 +37966,7 @@
         <v>45138</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -38023,7 +38023,7 @@
         <v>45147</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -38080,7 +38080,7 @@
         <v>45149</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -38137,7 +38137,7 @@
         <v>45149</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -38194,7 +38194,7 @@
         <v>45161</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -38256,7 +38256,7 @@
         <v>45161</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -38318,7 +38318,7 @@
         <v>45161</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -38380,7 +38380,7 @@
         <v>45169</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -38437,7 +38437,7 @@
         <v>45173</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -38499,7 +38499,7 @@
         <v>45173</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -38556,7 +38556,7 @@
         <v>45175</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -38613,7 +38613,7 @@
         <v>45176</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>

--- a/Översikt BOLLNÄS.xlsx
+++ b/Översikt BOLLNÄS.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y644"/>
+  <dimension ref="A1:Y646"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>44109</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -675,7 +675,7 @@
         <v>44095</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -776,7 +776,7 @@
         <v>44382</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -868,7 +868,7 @@
         <v>44729</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -960,7 +960,7 @@
         <v>43783</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1055,7 +1055,7 @@
         <v>43783</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1150,7 +1150,7 @@
         <v>43783</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1245,7 +1245,7 @@
         <v>43993</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1331,7 +1331,7 @@
         <v>43999</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1422,7 +1422,7 @@
         <v>44432</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1512,7 +1512,7 @@
         <v>45092</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         <v>43600</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1688,7 +1688,7 @@
         <v>43619</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1777,7 +1777,7 @@
         <v>43794</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1862,7 +1862,7 @@
         <v>43864</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1947,7 +1947,7 @@
         <v>44081</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2037,7 +2037,7 @@
         <v>44515</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2127,7 +2127,7 @@
         <v>44813</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2212,7 +2212,7 @@
         <v>44901</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2297,7 +2297,7 @@
         <v>45058</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         <v>45090</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2471,7 +2471,7 @@
         <v>43360</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2528,7 +2528,7 @@
         <v>43375</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2585,7 +2585,7 @@
         <v>43382</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2642,7 +2642,7 @@
         <v>43389</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2699,7 +2699,7 @@
         <v>43392</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2756,7 +2756,7 @@
         <v>43410</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2813,7 +2813,7 @@
         <v>43413</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2875,7 +2875,7 @@
         <v>43416</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2932,7 +2932,7 @@
         <v>43417</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2989,7 +2989,7 @@
         <v>43417</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3046,7 +3046,7 @@
         <v>43418</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3103,7 +3103,7 @@
         <v>43418</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3160,7 +3160,7 @@
         <v>43418</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3217,7 +3217,7 @@
         <v>43419</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3274,7 +3274,7 @@
         <v>43420</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3331,7 +3331,7 @@
         <v>43424</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3388,7 +3388,7 @@
         <v>43424</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3445,7 +3445,7 @@
         <v>43424</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3502,7 +3502,7 @@
         <v>43424</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3559,7 +3559,7 @@
         <v>43424</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3616,7 +3616,7 @@
         <v>43424</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3673,7 +3673,7 @@
         <v>43424</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3730,7 +3730,7 @@
         <v>43427</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3787,7 +3787,7 @@
         <v>43427</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3844,7 +3844,7 @@
         <v>43427</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3901,7 +3901,7 @@
         <v>43427</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3958,7 +3958,7 @@
         <v>43427</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4015,7 +4015,7 @@
         <v>43430</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4072,7 +4072,7 @@
         <v>43431</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4129,7 +4129,7 @@
         <v>43431</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4186,7 +4186,7 @@
         <v>43434</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4243,7 +4243,7 @@
         <v>43434</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4300,7 +4300,7 @@
         <v>43437</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4357,7 +4357,7 @@
         <v>43441</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4414,7 +4414,7 @@
         <v>43444</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4471,7 +4471,7 @@
         <v>43445</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4533,7 +4533,7 @@
         <v>43445</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4590,7 +4590,7 @@
         <v>43446</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4647,7 +4647,7 @@
         <v>43446</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4704,7 +4704,7 @@
         <v>43447</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4761,7 +4761,7 @@
         <v>43448</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4818,7 +4818,7 @@
         <v>43452</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4875,7 +4875,7 @@
         <v>43452</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4932,7 +4932,7 @@
         <v>43454</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4989,7 +4989,7 @@
         <v>43455</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5046,7 +5046,7 @@
         <v>43455</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5103,7 +5103,7 @@
         <v>43467</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5160,7 +5160,7 @@
         <v>43472</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5217,7 +5217,7 @@
         <v>43472</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5274,7 +5274,7 @@
         <v>43472</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5331,7 +5331,7 @@
         <v>43476</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5388,7 +5388,7 @@
         <v>43476</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5445,7 +5445,7 @@
         <v>43476</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5502,7 +5502,7 @@
         <v>43480</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5559,7 +5559,7 @@
         <v>43482</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5616,7 +5616,7 @@
         <v>43482</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5673,7 +5673,7 @@
         <v>43497</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5730,7 +5730,7 @@
         <v>43509</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5787,7 +5787,7 @@
         <v>43515</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5844,7 +5844,7 @@
         <v>43517</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5901,7 +5901,7 @@
         <v>43518</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5958,7 +5958,7 @@
         <v>43522</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6015,7 +6015,7 @@
         <v>43523</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6072,7 +6072,7 @@
         <v>43528</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6129,7 +6129,7 @@
         <v>43528</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6186,7 +6186,7 @@
         <v>43529</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6243,7 +6243,7 @@
         <v>43532</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6300,7 +6300,7 @@
         <v>43532</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6357,7 +6357,7 @@
         <v>43536</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6414,7 +6414,7 @@
         <v>43537</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6471,7 +6471,7 @@
         <v>43559</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6528,7 +6528,7 @@
         <v>43560</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6585,7 +6585,7 @@
         <v>43563</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6642,7 +6642,7 @@
         <v>43564</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6699,7 +6699,7 @@
         <v>43567</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6756,7 +6756,7 @@
         <v>43571</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6813,7 +6813,7 @@
         <v>43580</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6870,7 +6870,7 @@
         <v>43583</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6927,7 +6927,7 @@
         <v>43587</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6984,7 +6984,7 @@
         <v>43593</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7041,7 +7041,7 @@
         <v>43593</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7098,7 +7098,7 @@
         <v>43594</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7155,7 +7155,7 @@
         <v>43598</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7212,7 +7212,7 @@
         <v>43599</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7269,7 +7269,7 @@
         <v>43599</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7326,7 +7326,7 @@
         <v>43599</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7383,7 +7383,7 @@
         <v>43605</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7445,7 +7445,7 @@
         <v>43607</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7502,7 +7502,7 @@
         <v>43612</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7559,7 +7559,7 @@
         <v>43619</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7621,7 +7621,7 @@
         <v>43619</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7678,7 +7678,7 @@
         <v>43619</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7740,7 +7740,7 @@
         <v>43619</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7802,7 +7802,7 @@
         <v>43620</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7859,7 +7859,7 @@
         <v>43620</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7916,7 +7916,7 @@
         <v>43629</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7978,7 +7978,7 @@
         <v>43629</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8035,7 +8035,7 @@
         <v>43633</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8092,7 +8092,7 @@
         <v>43635</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8149,7 +8149,7 @@
         <v>43640</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8206,7 +8206,7 @@
         <v>43641</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8263,7 +8263,7 @@
         <v>43643</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8320,7 +8320,7 @@
         <v>43649</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8377,7 +8377,7 @@
         <v>43649</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8434,7 +8434,7 @@
         <v>43651</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8496,7 +8496,7 @@
         <v>43654</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8553,7 +8553,7 @@
         <v>43656</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8610,7 +8610,7 @@
         <v>43657</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8667,7 +8667,7 @@
         <v>43657</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8729,7 +8729,7 @@
         <v>43664</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8786,7 +8786,7 @@
         <v>43689</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8843,7 +8843,7 @@
         <v>43691</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8905,7 +8905,7 @@
         <v>43698</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8962,7 +8962,7 @@
         <v>43698</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9019,7 +9019,7 @@
         <v>43703</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9076,7 +9076,7 @@
         <v>43704</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9133,7 +9133,7 @@
         <v>43704</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9190,7 +9190,7 @@
         <v>43705</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9252,7 +9252,7 @@
         <v>43706</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9309,7 +9309,7 @@
         <v>43707</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9371,7 +9371,7 @@
         <v>43707</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9433,7 +9433,7 @@
         <v>43710</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9490,7 +9490,7 @@
         <v>43711</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9552,7 +9552,7 @@
         <v>43717</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9609,7 +9609,7 @@
         <v>43718</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9666,7 +9666,7 @@
         <v>43718</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9723,7 +9723,7 @@
         <v>43721</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9785,7 +9785,7 @@
         <v>43726</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9842,7 +9842,7 @@
         <v>43732</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9899,7 +9899,7 @@
         <v>43733</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9961,7 +9961,7 @@
         <v>43733</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10023,7 +10023,7 @@
         <v>43738</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10080,7 +10080,7 @@
         <v>43739</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10137,7 +10137,7 @@
         <v>43740</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10194,7 +10194,7 @@
         <v>43741</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10251,7 +10251,7 @@
         <v>43742</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10308,7 +10308,7 @@
         <v>43742</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10365,7 +10365,7 @@
         <v>43742</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10422,7 +10422,7 @@
         <v>43748</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10479,7 +10479,7 @@
         <v>43753</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10536,7 +10536,7 @@
         <v>43754</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10598,7 +10598,7 @@
         <v>43754</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10655,7 +10655,7 @@
         <v>43755</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10717,7 +10717,7 @@
         <v>43759</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10774,7 +10774,7 @@
         <v>43759</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10831,7 +10831,7 @@
         <v>43760</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10888,7 +10888,7 @@
         <v>43761</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10950,7 +10950,7 @@
         <v>43767</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11012,7 +11012,7 @@
         <v>43769</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11069,7 +11069,7 @@
         <v>43773</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11126,7 +11126,7 @@
         <v>43776</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11183,7 +11183,7 @@
         <v>43777</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11240,7 +11240,7 @@
         <v>43781</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11302,7 +11302,7 @@
         <v>43783</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11359,7 +11359,7 @@
         <v>43783</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11416,7 +11416,7 @@
         <v>43783</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11498,7 +11498,7 @@
         <v>43787</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11555,7 +11555,7 @@
         <v>43789</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11612,7 +11612,7 @@
         <v>43789</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11669,7 +11669,7 @@
         <v>43790</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11726,7 +11726,7 @@
         <v>43794</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11783,7 +11783,7 @@
         <v>43795</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11840,7 +11840,7 @@
         <v>43798</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11897,7 +11897,7 @@
         <v>43800</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11954,7 +11954,7 @@
         <v>43802</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12011,7 +12011,7 @@
         <v>43808</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12073,7 +12073,7 @@
         <v>43809</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12135,7 +12135,7 @@
         <v>43809</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12197,7 +12197,7 @@
         <v>43809</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12254,7 +12254,7 @@
         <v>43812</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12311,7 +12311,7 @@
         <v>43815</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12368,7 +12368,7 @@
         <v>43819</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12425,7 +12425,7 @@
         <v>43819</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12482,7 +12482,7 @@
         <v>43837</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12539,7 +12539,7 @@
         <v>43837</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12596,7 +12596,7 @@
         <v>43840</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12653,7 +12653,7 @@
         <v>43840</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12710,7 +12710,7 @@
         <v>43846</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12767,7 +12767,7 @@
         <v>43850</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12824,7 +12824,7 @@
         <v>43852</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12886,7 +12886,7 @@
         <v>43853</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12948,7 +12948,7 @@
         <v>43858</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13010,7 +13010,7 @@
         <v>43859</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13072,7 +13072,7 @@
         <v>43865</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13129,7 +13129,7 @@
         <v>43867</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13186,7 +13186,7 @@
         <v>43871</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13243,7 +13243,7 @@
         <v>43878</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13300,7 +13300,7 @@
         <v>43878</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13357,7 +13357,7 @@
         <v>43879</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13414,7 +13414,7 @@
         <v>43882</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13471,7 +13471,7 @@
         <v>43886</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13528,7 +13528,7 @@
         <v>43886</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13585,7 +13585,7 @@
         <v>43887</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13642,7 +13642,7 @@
         <v>43888</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13699,7 +13699,7 @@
         <v>43892</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13756,7 +13756,7 @@
         <v>43894</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13813,7 +13813,7 @@
         <v>43894</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13870,7 +13870,7 @@
         <v>43901</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13932,7 +13932,7 @@
         <v>43902</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13989,7 +13989,7 @@
         <v>43913</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14046,7 +14046,7 @@
         <v>43913</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14103,7 +14103,7 @@
         <v>43913</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14165,7 +14165,7 @@
         <v>43916</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14222,7 +14222,7 @@
         <v>43916</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14279,7 +14279,7 @@
         <v>43924</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14336,7 +14336,7 @@
         <v>43927</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14393,7 +14393,7 @@
         <v>43930</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14450,7 +14450,7 @@
         <v>43945</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14507,7 +14507,7 @@
         <v>43949</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14564,7 +14564,7 @@
         <v>43949</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14621,7 +14621,7 @@
         <v>43956</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14678,7 +14678,7 @@
         <v>43987</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14735,7 +14735,7 @@
         <v>43991</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14792,7 +14792,7 @@
         <v>43993</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14854,7 +14854,7 @@
         <v>43993</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14916,7 +14916,7 @@
         <v>43994</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14973,7 +14973,7 @@
         <v>43998</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15030,7 +15030,7 @@
         <v>44000</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15092,7 +15092,7 @@
         <v>44006</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15149,7 +15149,7 @@
         <v>44008</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15206,7 +15206,7 @@
         <v>44012</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15263,7 +15263,7 @@
         <v>44013</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15320,7 +15320,7 @@
         <v>44014</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15377,7 +15377,7 @@
         <v>44014</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15434,7 +15434,7 @@
         <v>44014</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15491,7 +15491,7 @@
         <v>44014</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15548,7 +15548,7 @@
         <v>44014</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15605,7 +15605,7 @@
         <v>44015</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15662,7 +15662,7 @@
         <v>44015</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15719,7 +15719,7 @@
         <v>44035</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15776,7 +15776,7 @@
         <v>44035</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15833,7 +15833,7 @@
         <v>44055</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15890,7 +15890,7 @@
         <v>44057</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15947,7 +15947,7 @@
         <v>44061</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16004,7 +16004,7 @@
         <v>44062</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16061,7 +16061,7 @@
         <v>44064</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16118,7 +16118,7 @@
         <v>44070</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16175,7 +16175,7 @@
         <v>44076</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16232,7 +16232,7 @@
         <v>44076</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16289,7 +16289,7 @@
         <v>44083</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16346,7 +16346,7 @@
         <v>44083</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16403,7 +16403,7 @@
         <v>44083</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16460,7 +16460,7 @@
         <v>44083</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16517,7 +16517,7 @@
         <v>44084</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16574,7 +16574,7 @@
         <v>44088</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16636,7 +16636,7 @@
         <v>44089</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16693,7 +16693,7 @@
         <v>44090</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16755,7 +16755,7 @@
         <v>44095</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16812,7 +16812,7 @@
         <v>44103</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16869,7 +16869,7 @@
         <v>44105</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16926,7 +16926,7 @@
         <v>44105</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16983,7 +16983,7 @@
         <v>44110</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17040,7 +17040,7 @@
         <v>44110</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17097,7 +17097,7 @@
         <v>44116</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17154,7 +17154,7 @@
         <v>44119</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17216,7 +17216,7 @@
         <v>44119</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17278,7 +17278,7 @@
         <v>44119</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17340,7 +17340,7 @@
         <v>44120</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17397,7 +17397,7 @@
         <v>44125</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17454,7 +17454,7 @@
         <v>44125</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17511,7 +17511,7 @@
         <v>44127</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17568,7 +17568,7 @@
         <v>44127</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17625,7 +17625,7 @@
         <v>44127</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17682,7 +17682,7 @@
         <v>44130</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17739,7 +17739,7 @@
         <v>44133</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17796,7 +17796,7 @@
         <v>44133</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17853,7 +17853,7 @@
         <v>44133</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17910,7 +17910,7 @@
         <v>44137</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17967,7 +17967,7 @@
         <v>44140</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18029,7 +18029,7 @@
         <v>44141</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18086,7 +18086,7 @@
         <v>44144</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18143,7 +18143,7 @@
         <v>44144</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18200,7 +18200,7 @@
         <v>44146</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18257,7 +18257,7 @@
         <v>44147</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18314,7 +18314,7 @@
         <v>44147</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18371,7 +18371,7 @@
         <v>44147</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18428,7 +18428,7 @@
         <v>44147</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18485,7 +18485,7 @@
         <v>44148</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18542,7 +18542,7 @@
         <v>44148</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18604,7 +18604,7 @@
         <v>44151</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18661,7 +18661,7 @@
         <v>44151</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18718,7 +18718,7 @@
         <v>44151</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18780,7 +18780,7 @@
         <v>44151</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18837,7 +18837,7 @@
         <v>44151</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18894,7 +18894,7 @@
         <v>44151</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18951,7 +18951,7 @@
         <v>44151</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19008,7 +19008,7 @@
         <v>44152</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19070,7 +19070,7 @@
         <v>44153</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19127,7 +19127,7 @@
         <v>44153</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19189,7 +19189,7 @@
         <v>44153</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19246,7 +19246,7 @@
         <v>44153</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19308,7 +19308,7 @@
         <v>44160</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19365,7 +19365,7 @@
         <v>44161</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19422,7 +19422,7 @@
         <v>44161</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19484,7 +19484,7 @@
         <v>44162</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19541,7 +19541,7 @@
         <v>44165</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19598,7 +19598,7 @@
         <v>44166</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19655,7 +19655,7 @@
         <v>44167</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19712,7 +19712,7 @@
         <v>44169</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19769,7 +19769,7 @@
         <v>44176</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19826,7 +19826,7 @@
         <v>44180</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19883,7 +19883,7 @@
         <v>44180</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19940,7 +19940,7 @@
         <v>44180</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19997,7 +19997,7 @@
         <v>44180</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20059,7 +20059,7 @@
         <v>44186</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20116,7 +20116,7 @@
         <v>44187</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20173,7 +20173,7 @@
         <v>44187</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20230,7 +20230,7 @@
         <v>44187</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20287,7 +20287,7 @@
         <v>44188</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20344,7 +20344,7 @@
         <v>44194</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20401,7 +20401,7 @@
         <v>44195</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20458,7 +20458,7 @@
         <v>44203</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20520,7 +20520,7 @@
         <v>44203</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20582,7 +20582,7 @@
         <v>44203</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20644,7 +20644,7 @@
         <v>44203</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20706,7 +20706,7 @@
         <v>44203</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20768,7 +20768,7 @@
         <v>44204</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20830,7 +20830,7 @@
         <v>44204</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20892,7 +20892,7 @@
         <v>44207</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20954,7 +20954,7 @@
         <v>44207</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21016,7 +21016,7 @@
         <v>44208</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21078,7 +21078,7 @@
         <v>44208</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21140,7 +21140,7 @@
         <v>44208</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21197,7 +21197,7 @@
         <v>44209</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21259,7 +21259,7 @@
         <v>44210</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21321,7 +21321,7 @@
         <v>44211</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21378,7 +21378,7 @@
         <v>44211</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21435,7 +21435,7 @@
         <v>44218</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21492,7 +21492,7 @@
         <v>44224</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21549,7 +21549,7 @@
         <v>44232</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21606,7 +21606,7 @@
         <v>44239</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21663,7 +21663,7 @@
         <v>44239</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21720,7 +21720,7 @@
         <v>44242</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21777,7 +21777,7 @@
         <v>44267</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21834,7 +21834,7 @@
         <v>44270</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21891,7 +21891,7 @@
         <v>44278</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21948,7 +21948,7 @@
         <v>44278</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22005,7 +22005,7 @@
         <v>44279</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22067,7 +22067,7 @@
         <v>44279</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22129,7 +22129,7 @@
         <v>44279</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22191,7 +22191,7 @@
         <v>44295</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22248,7 +22248,7 @@
         <v>44299</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22305,7 +22305,7 @@
         <v>44316</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22362,7 +22362,7 @@
         <v>44326</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22424,7 +22424,7 @@
         <v>44336</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22481,7 +22481,7 @@
         <v>44347</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22538,7 +22538,7 @@
         <v>44347</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22595,7 +22595,7 @@
         <v>44364</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22652,7 +22652,7 @@
         <v>44365</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22714,7 +22714,7 @@
         <v>44369</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22776,7 +22776,7 @@
         <v>44370</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22838,7 +22838,7 @@
         <v>44370</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22895,7 +22895,7 @@
         <v>44370</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22957,7 +22957,7 @@
         <v>44371</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23014,7 +23014,7 @@
         <v>44379</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23076,7 +23076,7 @@
         <v>44381</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23133,7 +23133,7 @@
         <v>44381</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23190,7 +23190,7 @@
         <v>44381</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23247,7 +23247,7 @@
         <v>44382</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23309,7 +23309,7 @@
         <v>44382</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23371,7 +23371,7 @@
         <v>44383</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23433,7 +23433,7 @@
         <v>44384</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23490,7 +23490,7 @@
         <v>44389</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23547,7 +23547,7 @@
         <v>44407</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23604,7 +23604,7 @@
         <v>44424</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23666,7 +23666,7 @@
         <v>44424</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23723,7 +23723,7 @@
         <v>44438</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23785,7 +23785,7 @@
         <v>44452</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23842,7 +23842,7 @@
         <v>44452</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23899,7 +23899,7 @@
         <v>44452</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23956,7 +23956,7 @@
         <v>44454</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24013,7 +24013,7 @@
         <v>44460</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24070,7 +24070,7 @@
         <v>44467</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24132,7 +24132,7 @@
         <v>44480</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24189,7 +24189,7 @@
         <v>44480</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24251,7 +24251,7 @@
         <v>44484</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24308,7 +24308,7 @@
         <v>44488</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24365,7 +24365,7 @@
         <v>44488</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24422,7 +24422,7 @@
         <v>44489</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24479,7 +24479,7 @@
         <v>44496</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24541,7 +24541,7 @@
         <v>44496</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24598,7 +24598,7 @@
         <v>44503</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24660,7 +24660,7 @@
         <v>44505</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24722,7 +24722,7 @@
         <v>44505</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24784,7 +24784,7 @@
         <v>44505</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24846,7 +24846,7 @@
         <v>44505</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24908,7 +24908,7 @@
         <v>44509</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24970,7 +24970,7 @@
         <v>44509</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25032,7 +25032,7 @@
         <v>44509</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25094,7 +25094,7 @@
         <v>44509</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25156,7 +25156,7 @@
         <v>44509</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25213,7 +25213,7 @@
         <v>44509</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25275,7 +25275,7 @@
         <v>44509</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25337,7 +25337,7 @@
         <v>44509</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25399,7 +25399,7 @@
         <v>44511</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25461,7 +25461,7 @@
         <v>44515</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25523,7 +25523,7 @@
         <v>44517</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25580,7 +25580,7 @@
         <v>44517</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25637,7 +25637,7 @@
         <v>44517</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25694,7 +25694,7 @@
         <v>44517</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25751,7 +25751,7 @@
         <v>44517</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25808,7 +25808,7 @@
         <v>44522</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25870,7 +25870,7 @@
         <v>44524</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25932,7 +25932,7 @@
         <v>44526</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25994,7 +25994,7 @@
         <v>44526</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26051,7 +26051,7 @@
         <v>44531</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26108,7 +26108,7 @@
         <v>44532</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26170,7 +26170,7 @@
         <v>44532</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26232,7 +26232,7 @@
         <v>44536</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26289,7 +26289,7 @@
         <v>44572</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26346,7 +26346,7 @@
         <v>44585</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26403,7 +26403,7 @@
         <v>44592</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26460,7 +26460,7 @@
         <v>44594</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26517,7 +26517,7 @@
         <v>44595</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26574,7 +26574,7 @@
         <v>44595</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26631,7 +26631,7 @@
         <v>44595</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26688,7 +26688,7 @@
         <v>44596</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26745,7 +26745,7 @@
         <v>44596</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26802,7 +26802,7 @@
         <v>44601</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26859,7 +26859,7 @@
         <v>44603</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26916,7 +26916,7 @@
         <v>44608</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26973,7 +26973,7 @@
         <v>44616</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27030,7 +27030,7 @@
         <v>44617</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27087,7 +27087,7 @@
         <v>44620</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27144,7 +27144,7 @@
         <v>44620</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27201,7 +27201,7 @@
         <v>44623</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27258,7 +27258,7 @@
         <v>44631</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27315,7 +27315,7 @@
         <v>44636</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27372,7 +27372,7 @@
         <v>44642</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27429,7 +27429,7 @@
         <v>44650</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27486,7 +27486,7 @@
         <v>44650</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27543,7 +27543,7 @@
         <v>44652</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27605,7 +27605,7 @@
         <v>44659</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27662,7 +27662,7 @@
         <v>44662</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27719,7 +27719,7 @@
         <v>44671</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27776,7 +27776,7 @@
         <v>44676</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27833,7 +27833,7 @@
         <v>44691</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27890,7 +27890,7 @@
         <v>44697</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27952,7 +27952,7 @@
         <v>44704</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28014,7 +28014,7 @@
         <v>44704</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28076,7 +28076,7 @@
         <v>44705</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28133,7 +28133,7 @@
         <v>44706</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28190,7 +28190,7 @@
         <v>44712</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28247,7 +28247,7 @@
         <v>44712</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28309,7 +28309,7 @@
         <v>44712</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28371,7 +28371,7 @@
         <v>44714</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28428,7 +28428,7 @@
         <v>44720</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28485,7 +28485,7 @@
         <v>44720</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28542,7 +28542,7 @@
         <v>44722</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28599,7 +28599,7 @@
         <v>44728</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28656,7 +28656,7 @@
         <v>44729</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28718,7 +28718,7 @@
         <v>44729</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28780,7 +28780,7 @@
         <v>44729</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28842,7 +28842,7 @@
         <v>44732</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28899,7 +28899,7 @@
         <v>44732</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28956,7 +28956,7 @@
         <v>44763</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29013,7 +29013,7 @@
         <v>44783</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29075,7 +29075,7 @@
         <v>44785</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29137,7 +29137,7 @@
         <v>44791</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29194,7 +29194,7 @@
         <v>44796</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29251,7 +29251,7 @@
         <v>44796</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29308,7 +29308,7 @@
         <v>44798</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29365,7 +29365,7 @@
         <v>44799</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29422,7 +29422,7 @@
         <v>44799</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29479,7 +29479,7 @@
         <v>44805</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29536,7 +29536,7 @@
         <v>44806</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29593,7 +29593,7 @@
         <v>44806</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29650,7 +29650,7 @@
         <v>44806</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29707,7 +29707,7 @@
         <v>44817</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29764,7 +29764,7 @@
         <v>44818</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29821,7 +29821,7 @@
         <v>44819</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29878,7 +29878,7 @@
         <v>44826</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29940,7 +29940,7 @@
         <v>44827</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30002,7 +30002,7 @@
         <v>44830</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30059,7 +30059,7 @@
         <v>44839</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30116,7 +30116,7 @@
         <v>44839</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30173,7 +30173,7 @@
         <v>44840</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30230,7 +30230,7 @@
         <v>44846</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30287,7 +30287,7 @@
         <v>44846</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30344,7 +30344,7 @@
         <v>44846</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30401,7 +30401,7 @@
         <v>44846</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30458,7 +30458,7 @@
         <v>44854</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30515,7 +30515,7 @@
         <v>44859</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30572,7 +30572,7 @@
         <v>44859</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30629,7 +30629,7 @@
         <v>44861</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30686,7 +30686,7 @@
         <v>44862</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30743,7 +30743,7 @@
         <v>44873</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30800,7 +30800,7 @@
         <v>44875</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30862,7 +30862,7 @@
         <v>44875</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30919,7 +30919,7 @@
         <v>44876</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30981,7 +30981,7 @@
         <v>44878</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31043,7 +31043,7 @@
         <v>44879</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31105,7 +31105,7 @@
         <v>44879</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31167,7 +31167,7 @@
         <v>44879</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31229,7 +31229,7 @@
         <v>44879</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31291,7 +31291,7 @@
         <v>44879</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31353,7 +31353,7 @@
         <v>44879</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31415,7 +31415,7 @@
         <v>44880</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31472,7 +31472,7 @@
         <v>44881</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31534,7 +31534,7 @@
         <v>44881</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31596,7 +31596,7 @@
         <v>44883</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31653,7 +31653,7 @@
         <v>44883</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31715,7 +31715,7 @@
         <v>44886</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31777,7 +31777,7 @@
         <v>44886</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31839,7 +31839,7 @@
         <v>44893</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31896,7 +31896,7 @@
         <v>44894</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31953,7 +31953,7 @@
         <v>44894</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32010,7 +32010,7 @@
         <v>44895</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32067,7 +32067,7 @@
         <v>44897</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32124,7 +32124,7 @@
         <v>44901</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32181,7 +32181,7 @@
         <v>44908</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32238,7 +32238,7 @@
         <v>44909</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32295,7 +32295,7 @@
         <v>44909</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32352,7 +32352,7 @@
         <v>44914</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32409,7 +32409,7 @@
         <v>44915</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32466,7 +32466,7 @@
         <v>44915</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32523,7 +32523,7 @@
         <v>44916</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32580,7 +32580,7 @@
         <v>44929</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32637,7 +32637,7 @@
         <v>44944</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32694,7 +32694,7 @@
         <v>44945</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32751,7 +32751,7 @@
         <v>44946</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32808,7 +32808,7 @@
         <v>44952</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32865,7 +32865,7 @@
         <v>44953</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32927,7 +32927,7 @@
         <v>44966</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -32984,7 +32984,7 @@
         <v>44967</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33041,7 +33041,7 @@
         <v>44967</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33098,7 +33098,7 @@
         <v>44970</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33155,7 +33155,7 @@
         <v>44971</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33212,7 +33212,7 @@
         <v>44993</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33269,7 +33269,7 @@
         <v>44993</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33326,7 +33326,7 @@
         <v>44993</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33383,7 +33383,7 @@
         <v>44993</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33440,7 +33440,7 @@
         <v>45008</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33497,7 +33497,7 @@
         <v>45009</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -33554,7 +33554,7 @@
         <v>45012</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -33611,7 +33611,7 @@
         <v>45014</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33668,7 +33668,7 @@
         <v>45016</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33725,7 +33725,7 @@
         <v>45016</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33782,7 +33782,7 @@
         <v>45016</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33839,7 +33839,7 @@
         <v>45016</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -33896,7 +33896,7 @@
         <v>45016</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -33953,7 +33953,7 @@
         <v>45016</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34010,7 +34010,7 @@
         <v>45016</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34067,7 +34067,7 @@
         <v>45030</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34124,7 +34124,7 @@
         <v>45033</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34181,7 +34181,7 @@
         <v>45033</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34238,7 +34238,7 @@
         <v>45036</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34295,7 +34295,7 @@
         <v>45037</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34357,7 +34357,7 @@
         <v>45038</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -34414,7 +34414,7 @@
         <v>45041</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34471,7 +34471,7 @@
         <v>45041</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -34533,7 +34533,7 @@
         <v>45043</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -34590,7 +34590,7 @@
         <v>45044</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34647,7 +34647,7 @@
         <v>45044</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -34704,7 +34704,7 @@
         <v>45044</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -34761,7 +34761,7 @@
         <v>45058</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -34823,7 +34823,7 @@
         <v>45061</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -34880,7 +34880,7 @@
         <v>45062</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -34942,7 +34942,7 @@
         <v>45062</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -34999,7 +34999,7 @@
         <v>45063</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35061,7 +35061,7 @@
         <v>45070</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -35118,7 +35118,7 @@
         <v>45072</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -35180,7 +35180,7 @@
         <v>45072</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -35237,7 +35237,7 @@
         <v>45076</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35299,7 +35299,7 @@
         <v>45078</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35356,7 +35356,7 @@
         <v>45078</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -35418,7 +35418,7 @@
         <v>45079</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -35475,7 +35475,7 @@
         <v>45082</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -35532,7 +35532,7 @@
         <v>45082</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -35589,7 +35589,7 @@
         <v>45084</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -35651,7 +35651,7 @@
         <v>45084</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -35708,7 +35708,7 @@
         <v>45085</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -35765,7 +35765,7 @@
         <v>45089</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -35822,7 +35822,7 @@
         <v>45090</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -35879,7 +35879,7 @@
         <v>45090</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -35936,7 +35936,7 @@
         <v>45090</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -35993,7 +35993,7 @@
         <v>45090</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -36050,7 +36050,7 @@
         <v>45091</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -36107,7 +36107,7 @@
         <v>45097</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -36164,7 +36164,7 @@
         <v>45097</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -36221,7 +36221,7 @@
         <v>45097</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -36278,7 +36278,7 @@
         <v>45097</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -36335,7 +36335,7 @@
         <v>45098</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -36397,7 +36397,7 @@
         <v>45099</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -36454,7 +36454,7 @@
         <v>45103</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -36511,7 +36511,7 @@
         <v>45104</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -36568,7 +36568,7 @@
         <v>45104</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -36625,7 +36625,7 @@
         <v>45107</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -36687,7 +36687,7 @@
         <v>45107</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -36744,7 +36744,7 @@
         <v>45107</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -36801,7 +36801,7 @@
         <v>45107</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -36858,7 +36858,7 @@
         <v>45107</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -36915,7 +36915,7 @@
         <v>45107</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -36972,7 +36972,7 @@
         <v>45107</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -37034,7 +37034,7 @@
         <v>45107</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -37096,7 +37096,7 @@
         <v>45107</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -37153,7 +37153,7 @@
         <v>45110</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -37210,7 +37210,7 @@
         <v>45110</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -37267,7 +37267,7 @@
         <v>45112</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -37329,7 +37329,7 @@
         <v>45113</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -37391,7 +37391,7 @@
         <v>45113</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -37448,7 +37448,7 @@
         <v>45114</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -37505,7 +37505,7 @@
         <v>45114</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -37562,7 +37562,7 @@
         <v>45117</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -37619,7 +37619,7 @@
         <v>45119</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -37681,7 +37681,7 @@
         <v>45120</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -37738,7 +37738,7 @@
         <v>45121</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -37795,7 +37795,7 @@
         <v>45123</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -37852,7 +37852,7 @@
         <v>45132</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -37909,7 +37909,7 @@
         <v>45138</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -37966,7 +37966,7 @@
         <v>45138</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -38023,7 +38023,7 @@
         <v>45147</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -38080,7 +38080,7 @@
         <v>45149</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -38137,7 +38137,7 @@
         <v>45149</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -38194,7 +38194,7 @@
         <v>45161</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -38256,7 +38256,7 @@
         <v>45161</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -38318,7 +38318,7 @@
         <v>45161</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -38380,7 +38380,7 @@
         <v>45169</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -38437,7 +38437,7 @@
         <v>45173</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -38499,7 +38499,7 @@
         <v>45173</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -38556,7 +38556,7 @@
         <v>45175</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -38603,7 +38603,7 @@
       </c>
       <c r="R643" s="2" t="inlineStr"/>
     </row>
-    <row r="644">
+    <row r="644" ht="15" customHeight="1">
       <c r="A644" t="inlineStr">
         <is>
           <t>A 41730-2023</t>
@@ -38613,7 +38613,7 @@
         <v>45176</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -38659,6 +38659,120 @@
         <v>0</v>
       </c>
       <c r="R644" s="2" t="inlineStr"/>
+    </row>
+    <row r="645" ht="15" customHeight="1">
+      <c r="A645" t="inlineStr">
+        <is>
+          <t>A 42233-2023</t>
+        </is>
+      </c>
+      <c r="B645" s="1" t="n">
+        <v>45180</v>
+      </c>
+      <c r="C645" s="1" t="n">
+        <v>45181</v>
+      </c>
+      <c r="D645" t="inlineStr">
+        <is>
+          <t>GÄVLEBORGS LÄN</t>
+        </is>
+      </c>
+      <c r="E645" t="inlineStr">
+        <is>
+          <t>BOLLNÄS</t>
+        </is>
+      </c>
+      <c r="G645" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="H645" t="n">
+        <v>0</v>
+      </c>
+      <c r="I645" t="n">
+        <v>0</v>
+      </c>
+      <c r="J645" t="n">
+        <v>0</v>
+      </c>
+      <c r="K645" t="n">
+        <v>0</v>
+      </c>
+      <c r="L645" t="n">
+        <v>0</v>
+      </c>
+      <c r="M645" t="n">
+        <v>0</v>
+      </c>
+      <c r="N645" t="n">
+        <v>0</v>
+      </c>
+      <c r="O645" t="n">
+        <v>0</v>
+      </c>
+      <c r="P645" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q645" t="n">
+        <v>0</v>
+      </c>
+      <c r="R645" s="2" t="inlineStr"/>
+    </row>
+    <row r="646">
+      <c r="A646" t="inlineStr">
+        <is>
+          <t>A 42314-2023</t>
+        </is>
+      </c>
+      <c r="B646" s="1" t="n">
+        <v>45180</v>
+      </c>
+      <c r="C646" s="1" t="n">
+        <v>45181</v>
+      </c>
+      <c r="D646" t="inlineStr">
+        <is>
+          <t>GÄVLEBORGS LÄN</t>
+        </is>
+      </c>
+      <c r="E646" t="inlineStr">
+        <is>
+          <t>BOLLNÄS</t>
+        </is>
+      </c>
+      <c r="G646" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="H646" t="n">
+        <v>0</v>
+      </c>
+      <c r="I646" t="n">
+        <v>0</v>
+      </c>
+      <c r="J646" t="n">
+        <v>0</v>
+      </c>
+      <c r="K646" t="n">
+        <v>0</v>
+      </c>
+      <c r="L646" t="n">
+        <v>0</v>
+      </c>
+      <c r="M646" t="n">
+        <v>0</v>
+      </c>
+      <c r="N646" t="n">
+        <v>0</v>
+      </c>
+      <c r="O646" t="n">
+        <v>0</v>
+      </c>
+      <c r="P646" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q646" t="n">
+        <v>0</v>
+      </c>
+      <c r="R646" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt BOLLNÄS.xlsx
+++ b/Översikt BOLLNÄS.xlsx
@@ -572,7 +572,7 @@
         <v>44109</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -675,7 +675,7 @@
         <v>44095</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -776,7 +776,7 @@
         <v>44382</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -868,7 +868,7 @@
         <v>44729</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -960,7 +960,7 @@
         <v>43783</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1055,7 +1055,7 @@
         <v>43783</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1150,7 +1150,7 @@
         <v>43783</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1245,7 +1245,7 @@
         <v>43993</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1331,7 +1331,7 @@
         <v>43999</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1422,7 +1422,7 @@
         <v>44432</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1512,7 +1512,7 @@
         <v>45092</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         <v>43600</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1688,7 +1688,7 @@
         <v>43619</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1777,7 +1777,7 @@
         <v>43794</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1862,7 +1862,7 @@
         <v>43864</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1947,7 +1947,7 @@
         <v>44081</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2037,7 +2037,7 @@
         <v>44515</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2127,7 +2127,7 @@
         <v>44813</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2212,7 +2212,7 @@
         <v>44901</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2297,7 +2297,7 @@
         <v>45058</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         <v>45090</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2471,7 +2471,7 @@
         <v>43360</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2528,7 +2528,7 @@
         <v>43375</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2585,7 +2585,7 @@
         <v>43382</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2642,7 +2642,7 @@
         <v>43389</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2699,7 +2699,7 @@
         <v>43392</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2756,7 +2756,7 @@
         <v>43410</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2813,7 +2813,7 @@
         <v>43413</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2875,7 +2875,7 @@
         <v>43416</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2932,7 +2932,7 @@
         <v>43417</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2989,7 +2989,7 @@
         <v>43417</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3046,7 +3046,7 @@
         <v>43418</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3103,7 +3103,7 @@
         <v>43418</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3160,7 +3160,7 @@
         <v>43418</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3217,7 +3217,7 @@
         <v>43419</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3274,7 +3274,7 @@
         <v>43420</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3331,7 +3331,7 @@
         <v>43424</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3388,7 +3388,7 @@
         <v>43424</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3445,7 +3445,7 @@
         <v>43424</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3502,7 +3502,7 @@
         <v>43424</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3559,7 +3559,7 @@
         <v>43424</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3616,7 +3616,7 @@
         <v>43424</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3673,7 +3673,7 @@
         <v>43424</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3730,7 +3730,7 @@
         <v>43427</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3787,7 +3787,7 @@
         <v>43427</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3844,7 +3844,7 @@
         <v>43427</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3901,7 +3901,7 @@
         <v>43427</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3958,7 +3958,7 @@
         <v>43427</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4015,7 +4015,7 @@
         <v>43430</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4072,7 +4072,7 @@
         <v>43431</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4129,7 +4129,7 @@
         <v>43431</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4186,7 +4186,7 @@
         <v>43434</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4243,7 +4243,7 @@
         <v>43434</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4300,7 +4300,7 @@
         <v>43437</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4357,7 +4357,7 @@
         <v>43441</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4414,7 +4414,7 @@
         <v>43444</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4471,7 +4471,7 @@
         <v>43445</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4533,7 +4533,7 @@
         <v>43445</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4590,7 +4590,7 @@
         <v>43446</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4647,7 +4647,7 @@
         <v>43446</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4704,7 +4704,7 @@
         <v>43447</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4761,7 +4761,7 @@
         <v>43448</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4818,7 +4818,7 @@
         <v>43452</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4875,7 +4875,7 @@
         <v>43452</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4932,7 +4932,7 @@
         <v>43454</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4989,7 +4989,7 @@
         <v>43455</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5046,7 +5046,7 @@
         <v>43455</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5103,7 +5103,7 @@
         <v>43467</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5160,7 +5160,7 @@
         <v>43472</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5217,7 +5217,7 @@
         <v>43472</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5274,7 +5274,7 @@
         <v>43472</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5331,7 +5331,7 @@
         <v>43476</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5388,7 +5388,7 @@
         <v>43476</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5445,7 +5445,7 @@
         <v>43476</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5502,7 +5502,7 @@
         <v>43480</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5559,7 +5559,7 @@
         <v>43482</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5616,7 +5616,7 @@
         <v>43482</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5673,7 +5673,7 @@
         <v>43497</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5730,7 +5730,7 @@
         <v>43509</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5787,7 +5787,7 @@
         <v>43515</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5844,7 +5844,7 @@
         <v>43517</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5901,7 +5901,7 @@
         <v>43518</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5958,7 +5958,7 @@
         <v>43522</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6015,7 +6015,7 @@
         <v>43523</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6072,7 +6072,7 @@
         <v>43528</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6129,7 +6129,7 @@
         <v>43528</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6186,7 +6186,7 @@
         <v>43529</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6243,7 +6243,7 @@
         <v>43532</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6300,7 +6300,7 @@
         <v>43532</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6357,7 +6357,7 @@
         <v>43536</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6414,7 +6414,7 @@
         <v>43537</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6471,7 +6471,7 @@
         <v>43559</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6528,7 +6528,7 @@
         <v>43560</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6585,7 +6585,7 @@
         <v>43563</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6642,7 +6642,7 @@
         <v>43564</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6699,7 +6699,7 @@
         <v>43567</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6756,7 +6756,7 @@
         <v>43571</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6813,7 +6813,7 @@
         <v>43580</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6870,7 +6870,7 @@
         <v>43583</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6927,7 +6927,7 @@
         <v>43587</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6984,7 +6984,7 @@
         <v>43593</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7041,7 +7041,7 @@
         <v>43593</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7098,7 +7098,7 @@
         <v>43594</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7155,7 +7155,7 @@
         <v>43598</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7212,7 +7212,7 @@
         <v>43599</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7269,7 +7269,7 @@
         <v>43599</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7326,7 +7326,7 @@
         <v>43599</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7383,7 +7383,7 @@
         <v>43605</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7445,7 +7445,7 @@
         <v>43607</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7502,7 +7502,7 @@
         <v>43612</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7559,7 +7559,7 @@
         <v>43619</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7621,7 +7621,7 @@
         <v>43619</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7678,7 +7678,7 @@
         <v>43619</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7740,7 +7740,7 @@
         <v>43619</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7802,7 +7802,7 @@
         <v>43620</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7859,7 +7859,7 @@
         <v>43620</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7916,7 +7916,7 @@
         <v>43629</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7978,7 +7978,7 @@
         <v>43629</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8035,7 +8035,7 @@
         <v>43633</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8092,7 +8092,7 @@
         <v>43635</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8149,7 +8149,7 @@
         <v>43640</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8206,7 +8206,7 @@
         <v>43641</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8263,7 +8263,7 @@
         <v>43643</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8320,7 +8320,7 @@
         <v>43649</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8377,7 +8377,7 @@
         <v>43649</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8434,7 +8434,7 @@
         <v>43651</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8496,7 +8496,7 @@
         <v>43654</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8553,7 +8553,7 @@
         <v>43656</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8610,7 +8610,7 @@
         <v>43657</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8667,7 +8667,7 @@
         <v>43657</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8729,7 +8729,7 @@
         <v>43664</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8786,7 +8786,7 @@
         <v>43689</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8843,7 +8843,7 @@
         <v>43691</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8905,7 +8905,7 @@
         <v>43698</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8962,7 +8962,7 @@
         <v>43698</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9019,7 +9019,7 @@
         <v>43703</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9076,7 +9076,7 @@
         <v>43704</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9133,7 +9133,7 @@
         <v>43704</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9190,7 +9190,7 @@
         <v>43705</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9252,7 +9252,7 @@
         <v>43706</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9309,7 +9309,7 @@
         <v>43707</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9371,7 +9371,7 @@
         <v>43707</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9433,7 +9433,7 @@
         <v>43710</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9490,7 +9490,7 @@
         <v>43711</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9552,7 +9552,7 @@
         <v>43717</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9609,7 +9609,7 @@
         <v>43718</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9666,7 +9666,7 @@
         <v>43718</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9723,7 +9723,7 @@
         <v>43721</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9785,7 +9785,7 @@
         <v>43726</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9842,7 +9842,7 @@
         <v>43732</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9899,7 +9899,7 @@
         <v>43733</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9961,7 +9961,7 @@
         <v>43733</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10023,7 +10023,7 @@
         <v>43738</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10080,7 +10080,7 @@
         <v>43739</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10137,7 +10137,7 @@
         <v>43740</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10194,7 +10194,7 @@
         <v>43741</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10251,7 +10251,7 @@
         <v>43742</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10308,7 +10308,7 @@
         <v>43742</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10365,7 +10365,7 @@
         <v>43742</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10422,7 +10422,7 @@
         <v>43748</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10479,7 +10479,7 @@
         <v>43753</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10536,7 +10536,7 @@
         <v>43754</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10598,7 +10598,7 @@
         <v>43754</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10655,7 +10655,7 @@
         <v>43755</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10717,7 +10717,7 @@
         <v>43759</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10774,7 +10774,7 @@
         <v>43759</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10831,7 +10831,7 @@
         <v>43760</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10888,7 +10888,7 @@
         <v>43761</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10950,7 +10950,7 @@
         <v>43767</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11012,7 +11012,7 @@
         <v>43769</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11069,7 +11069,7 @@
         <v>43773</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11126,7 +11126,7 @@
         <v>43776</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11183,7 +11183,7 @@
         <v>43777</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11240,7 +11240,7 @@
         <v>43781</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11302,7 +11302,7 @@
         <v>43783</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11359,7 +11359,7 @@
         <v>43783</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11416,7 +11416,7 @@
         <v>43783</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11498,7 +11498,7 @@
         <v>43787</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11555,7 +11555,7 @@
         <v>43789</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11612,7 +11612,7 @@
         <v>43789</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11669,7 +11669,7 @@
         <v>43790</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11726,7 +11726,7 @@
         <v>43794</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11783,7 +11783,7 @@
         <v>43795</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11840,7 +11840,7 @@
         <v>43798</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11897,7 +11897,7 @@
         <v>43800</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11954,7 +11954,7 @@
         <v>43802</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12011,7 +12011,7 @@
         <v>43808</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12073,7 +12073,7 @@
         <v>43809</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12135,7 +12135,7 @@
         <v>43809</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12197,7 +12197,7 @@
         <v>43809</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12254,7 +12254,7 @@
         <v>43812</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12311,7 +12311,7 @@
         <v>43815</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12368,7 +12368,7 @@
         <v>43819</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12425,7 +12425,7 @@
         <v>43819</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12482,7 +12482,7 @@
         <v>43837</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12539,7 +12539,7 @@
         <v>43837</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12596,7 +12596,7 @@
         <v>43840</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12653,7 +12653,7 @@
         <v>43840</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12710,7 +12710,7 @@
         <v>43846</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12767,7 +12767,7 @@
         <v>43850</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12824,7 +12824,7 @@
         <v>43852</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12886,7 +12886,7 @@
         <v>43853</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12948,7 +12948,7 @@
         <v>43858</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13010,7 +13010,7 @@
         <v>43859</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13072,7 +13072,7 @@
         <v>43865</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13129,7 +13129,7 @@
         <v>43867</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13186,7 +13186,7 @@
         <v>43871</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13243,7 +13243,7 @@
         <v>43878</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13300,7 +13300,7 @@
         <v>43878</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13357,7 +13357,7 @@
         <v>43879</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13414,7 +13414,7 @@
         <v>43882</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13471,7 +13471,7 @@
         <v>43886</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13528,7 +13528,7 @@
         <v>43886</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13585,7 +13585,7 @@
         <v>43887</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13642,7 +13642,7 @@
         <v>43888</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13699,7 +13699,7 @@
         <v>43892</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13756,7 +13756,7 @@
         <v>43894</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13813,7 +13813,7 @@
         <v>43894</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13870,7 +13870,7 @@
         <v>43901</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13932,7 +13932,7 @@
         <v>43902</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13989,7 +13989,7 @@
         <v>43913</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14046,7 +14046,7 @@
         <v>43913</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14103,7 +14103,7 @@
         <v>43913</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14165,7 +14165,7 @@
         <v>43916</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14222,7 +14222,7 @@
         <v>43916</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14279,7 +14279,7 @@
         <v>43924</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14336,7 +14336,7 @@
         <v>43927</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14393,7 +14393,7 @@
         <v>43930</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14450,7 +14450,7 @@
         <v>43945</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14507,7 +14507,7 @@
         <v>43949</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14564,7 +14564,7 @@
         <v>43949</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14621,7 +14621,7 @@
         <v>43956</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14678,7 +14678,7 @@
         <v>43987</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14735,7 +14735,7 @@
         <v>43991</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14792,7 +14792,7 @@
         <v>43993</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14854,7 +14854,7 @@
         <v>43993</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14916,7 +14916,7 @@
         <v>43994</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14973,7 +14973,7 @@
         <v>43998</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15030,7 +15030,7 @@
         <v>44000</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15092,7 +15092,7 @@
         <v>44006</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15149,7 +15149,7 @@
         <v>44008</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15206,7 +15206,7 @@
         <v>44012</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15263,7 +15263,7 @@
         <v>44013</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15320,7 +15320,7 @@
         <v>44014</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15377,7 +15377,7 @@
         <v>44014</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15434,7 +15434,7 @@
         <v>44014</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15491,7 +15491,7 @@
         <v>44014</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15548,7 +15548,7 @@
         <v>44014</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15605,7 +15605,7 @@
         <v>44015</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15662,7 +15662,7 @@
         <v>44015</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15719,7 +15719,7 @@
         <v>44035</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15776,7 +15776,7 @@
         <v>44035</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15833,7 +15833,7 @@
         <v>44055</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15890,7 +15890,7 @@
         <v>44057</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15947,7 +15947,7 @@
         <v>44061</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16004,7 +16004,7 @@
         <v>44062</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16061,7 +16061,7 @@
         <v>44064</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16118,7 +16118,7 @@
         <v>44070</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16175,7 +16175,7 @@
         <v>44076</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16232,7 +16232,7 @@
         <v>44076</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16289,7 +16289,7 @@
         <v>44083</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16346,7 +16346,7 @@
         <v>44083</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16403,7 +16403,7 @@
         <v>44083</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16460,7 +16460,7 @@
         <v>44083</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16517,7 +16517,7 @@
         <v>44084</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16574,7 +16574,7 @@
         <v>44088</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16636,7 +16636,7 @@
         <v>44089</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16693,7 +16693,7 @@
         <v>44090</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16755,7 +16755,7 @@
         <v>44095</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16812,7 +16812,7 @@
         <v>44103</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16869,7 +16869,7 @@
         <v>44105</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16926,7 +16926,7 @@
         <v>44105</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16983,7 +16983,7 @@
         <v>44110</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17040,7 +17040,7 @@
         <v>44110</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17097,7 +17097,7 @@
         <v>44116</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17154,7 +17154,7 @@
         <v>44119</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17216,7 +17216,7 @@
         <v>44119</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17278,7 +17278,7 @@
         <v>44119</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17340,7 +17340,7 @@
         <v>44120</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17397,7 +17397,7 @@
         <v>44125</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17454,7 +17454,7 @@
         <v>44125</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17511,7 +17511,7 @@
         <v>44127</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17568,7 +17568,7 @@
         <v>44127</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17625,7 +17625,7 @@
         <v>44127</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17682,7 +17682,7 @@
         <v>44130</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17739,7 +17739,7 @@
         <v>44133</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17796,7 +17796,7 @@
         <v>44133</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17853,7 +17853,7 @@
         <v>44133</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17910,7 +17910,7 @@
         <v>44137</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17967,7 +17967,7 @@
         <v>44140</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18029,7 +18029,7 @@
         <v>44141</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18086,7 +18086,7 @@
         <v>44144</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18143,7 +18143,7 @@
         <v>44144</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18200,7 +18200,7 @@
         <v>44146</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18257,7 +18257,7 @@
         <v>44147</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18314,7 +18314,7 @@
         <v>44147</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18371,7 +18371,7 @@
         <v>44147</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18428,7 +18428,7 @@
         <v>44147</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18485,7 +18485,7 @@
         <v>44148</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18542,7 +18542,7 @@
         <v>44148</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18604,7 +18604,7 @@
         <v>44151</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18661,7 +18661,7 @@
         <v>44151</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18718,7 +18718,7 @@
         <v>44151</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18780,7 +18780,7 @@
         <v>44151</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18837,7 +18837,7 @@
         <v>44151</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18894,7 +18894,7 @@
         <v>44151</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18951,7 +18951,7 @@
         <v>44151</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19008,7 +19008,7 @@
         <v>44152</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19070,7 +19070,7 @@
         <v>44153</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19127,7 +19127,7 @@
         <v>44153</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19189,7 +19189,7 @@
         <v>44153</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19246,7 +19246,7 @@
         <v>44153</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19308,7 +19308,7 @@
         <v>44160</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19365,7 +19365,7 @@
         <v>44161</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19422,7 +19422,7 @@
         <v>44161</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19484,7 +19484,7 @@
         <v>44162</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19541,7 +19541,7 @@
         <v>44165</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19598,7 +19598,7 @@
         <v>44166</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19655,7 +19655,7 @@
         <v>44167</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19712,7 +19712,7 @@
         <v>44169</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19769,7 +19769,7 @@
         <v>44176</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19826,7 +19826,7 @@
         <v>44180</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19883,7 +19883,7 @@
         <v>44180</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19940,7 +19940,7 @@
         <v>44180</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19997,7 +19997,7 @@
         <v>44180</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20059,7 +20059,7 @@
         <v>44186</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20116,7 +20116,7 @@
         <v>44187</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20173,7 +20173,7 @@
         <v>44187</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20230,7 +20230,7 @@
         <v>44187</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20287,7 +20287,7 @@
         <v>44188</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20344,7 +20344,7 @@
         <v>44194</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20401,7 +20401,7 @@
         <v>44195</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20458,7 +20458,7 @@
         <v>44203</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20520,7 +20520,7 @@
         <v>44203</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20582,7 +20582,7 @@
         <v>44203</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20644,7 +20644,7 @@
         <v>44203</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20706,7 +20706,7 @@
         <v>44203</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20768,7 +20768,7 @@
         <v>44204</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20830,7 +20830,7 @@
         <v>44204</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20892,7 +20892,7 @@
         <v>44207</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20954,7 +20954,7 @@
         <v>44207</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21016,7 +21016,7 @@
         <v>44208</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21078,7 +21078,7 @@
         <v>44208</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21140,7 +21140,7 @@
         <v>44208</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21197,7 +21197,7 @@
         <v>44209</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21259,7 +21259,7 @@
         <v>44210</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21321,7 +21321,7 @@
         <v>44211</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21378,7 +21378,7 @@
         <v>44211</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21435,7 +21435,7 @@
         <v>44218</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21492,7 +21492,7 @@
         <v>44224</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21549,7 +21549,7 @@
         <v>44232</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21606,7 +21606,7 @@
         <v>44239</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21663,7 +21663,7 @@
         <v>44239</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21720,7 +21720,7 @@
         <v>44242</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21777,7 +21777,7 @@
         <v>44267</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21834,7 +21834,7 @@
         <v>44270</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21891,7 +21891,7 @@
         <v>44278</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21948,7 +21948,7 @@
         <v>44278</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22005,7 +22005,7 @@
         <v>44279</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22067,7 +22067,7 @@
         <v>44279</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22129,7 +22129,7 @@
         <v>44279</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22191,7 +22191,7 @@
         <v>44295</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22248,7 +22248,7 @@
         <v>44299</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22305,7 +22305,7 @@
         <v>44316</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22362,7 +22362,7 @@
         <v>44326</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22424,7 +22424,7 @@
         <v>44336</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22481,7 +22481,7 @@
         <v>44347</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22538,7 +22538,7 @@
         <v>44347</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22595,7 +22595,7 @@
         <v>44364</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22652,7 +22652,7 @@
         <v>44365</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22714,7 +22714,7 @@
         <v>44369</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22776,7 +22776,7 @@
         <v>44370</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22838,7 +22838,7 @@
         <v>44370</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22895,7 +22895,7 @@
         <v>44370</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22957,7 +22957,7 @@
         <v>44371</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23014,7 +23014,7 @@
         <v>44379</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23076,7 +23076,7 @@
         <v>44381</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23133,7 +23133,7 @@
         <v>44381</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23190,7 +23190,7 @@
         <v>44381</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23247,7 +23247,7 @@
         <v>44382</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23309,7 +23309,7 @@
         <v>44382</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23371,7 +23371,7 @@
         <v>44383</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23433,7 +23433,7 @@
         <v>44384</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23490,7 +23490,7 @@
         <v>44389</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23547,7 +23547,7 @@
         <v>44407</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23604,7 +23604,7 @@
         <v>44424</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23666,7 +23666,7 @@
         <v>44424</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23723,7 +23723,7 @@
         <v>44438</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23785,7 +23785,7 @@
         <v>44452</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23842,7 +23842,7 @@
         <v>44452</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23899,7 +23899,7 @@
         <v>44452</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23956,7 +23956,7 @@
         <v>44454</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24013,7 +24013,7 @@
         <v>44460</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24070,7 +24070,7 @@
         <v>44467</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24132,7 +24132,7 @@
         <v>44480</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24189,7 +24189,7 @@
         <v>44480</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24251,7 +24251,7 @@
         <v>44484</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24308,7 +24308,7 @@
         <v>44488</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24365,7 +24365,7 @@
         <v>44488</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24422,7 +24422,7 @@
         <v>44489</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24479,7 +24479,7 @@
         <v>44496</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24541,7 +24541,7 @@
         <v>44496</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24598,7 +24598,7 @@
         <v>44503</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24660,7 +24660,7 @@
         <v>44505</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24722,7 +24722,7 @@
         <v>44505</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24784,7 +24784,7 @@
         <v>44505</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24846,7 +24846,7 @@
         <v>44505</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24908,7 +24908,7 @@
         <v>44509</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24970,7 +24970,7 @@
         <v>44509</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25032,7 +25032,7 @@
         <v>44509</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25094,7 +25094,7 @@
         <v>44509</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25156,7 +25156,7 @@
         <v>44509</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25213,7 +25213,7 @@
         <v>44509</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25275,7 +25275,7 @@
         <v>44509</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25337,7 +25337,7 @@
         <v>44509</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25399,7 +25399,7 @@
         <v>44511</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25461,7 +25461,7 @@
         <v>44515</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25523,7 +25523,7 @@
         <v>44517</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25580,7 +25580,7 @@
         <v>44517</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25637,7 +25637,7 @@
         <v>44517</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25694,7 +25694,7 @@
         <v>44517</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25751,7 +25751,7 @@
         <v>44517</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25808,7 +25808,7 @@
         <v>44522</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25870,7 +25870,7 @@
         <v>44524</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25932,7 +25932,7 @@
         <v>44526</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25994,7 +25994,7 @@
         <v>44526</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26051,7 +26051,7 @@
         <v>44531</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26108,7 +26108,7 @@
         <v>44532</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26170,7 +26170,7 @@
         <v>44532</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26232,7 +26232,7 @@
         <v>44536</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26289,7 +26289,7 @@
         <v>44572</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26346,7 +26346,7 @@
         <v>44585</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26403,7 +26403,7 @@
         <v>44592</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26460,7 +26460,7 @@
         <v>44594</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26517,7 +26517,7 @@
         <v>44595</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26574,7 +26574,7 @@
         <v>44595</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26631,7 +26631,7 @@
         <v>44595</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26688,7 +26688,7 @@
         <v>44596</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26745,7 +26745,7 @@
         <v>44596</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26802,7 +26802,7 @@
         <v>44601</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26859,7 +26859,7 @@
         <v>44603</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26916,7 +26916,7 @@
         <v>44608</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26973,7 +26973,7 @@
         <v>44616</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27030,7 +27030,7 @@
         <v>44617</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27087,7 +27087,7 @@
         <v>44620</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27144,7 +27144,7 @@
         <v>44620</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27201,7 +27201,7 @@
         <v>44623</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27258,7 +27258,7 @@
         <v>44631</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27315,7 +27315,7 @@
         <v>44636</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27372,7 +27372,7 @@
         <v>44642</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27429,7 +27429,7 @@
         <v>44650</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27486,7 +27486,7 @@
         <v>44650</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27543,7 +27543,7 @@
         <v>44652</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27605,7 +27605,7 @@
         <v>44659</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27662,7 +27662,7 @@
         <v>44662</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27719,7 +27719,7 @@
         <v>44671</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27776,7 +27776,7 @@
         <v>44676</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27833,7 +27833,7 @@
         <v>44691</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27890,7 +27890,7 @@
         <v>44697</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27952,7 +27952,7 @@
         <v>44704</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28014,7 +28014,7 @@
         <v>44704</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28076,7 +28076,7 @@
         <v>44705</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28133,7 +28133,7 @@
         <v>44706</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28190,7 +28190,7 @@
         <v>44712</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28247,7 +28247,7 @@
         <v>44712</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28309,7 +28309,7 @@
         <v>44712</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28371,7 +28371,7 @@
         <v>44714</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28428,7 +28428,7 @@
         <v>44720</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28485,7 +28485,7 @@
         <v>44720</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28542,7 +28542,7 @@
         <v>44722</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28599,7 +28599,7 @@
         <v>44728</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28656,7 +28656,7 @@
         <v>44729</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28718,7 +28718,7 @@
         <v>44729</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28780,7 +28780,7 @@
         <v>44729</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28842,7 +28842,7 @@
         <v>44732</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28899,7 +28899,7 @@
         <v>44732</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28956,7 +28956,7 @@
         <v>44763</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29013,7 +29013,7 @@
         <v>44783</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29075,7 +29075,7 @@
         <v>44785</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29137,7 +29137,7 @@
         <v>44791</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29194,7 +29194,7 @@
         <v>44796</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29251,7 +29251,7 @@
         <v>44796</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29308,7 +29308,7 @@
         <v>44798</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29365,7 +29365,7 @@
         <v>44799</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29422,7 +29422,7 @@
         <v>44799</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29479,7 +29479,7 @@
         <v>44805</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29536,7 +29536,7 @@
         <v>44806</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29593,7 +29593,7 @@
         <v>44806</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29650,7 +29650,7 @@
         <v>44806</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29707,7 +29707,7 @@
         <v>44817</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29764,7 +29764,7 @@
         <v>44818</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29821,7 +29821,7 @@
         <v>44819</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29878,7 +29878,7 @@
         <v>44826</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29940,7 +29940,7 @@
         <v>44827</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30002,7 +30002,7 @@
         <v>44830</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30059,7 +30059,7 @@
         <v>44839</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30116,7 +30116,7 @@
         <v>44839</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30173,7 +30173,7 @@
         <v>44840</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30230,7 +30230,7 @@
         <v>44846</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30287,7 +30287,7 @@
         <v>44846</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30344,7 +30344,7 @@
         <v>44846</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30401,7 +30401,7 @@
         <v>44846</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30458,7 +30458,7 @@
         <v>44854</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30515,7 +30515,7 @@
         <v>44859</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30572,7 +30572,7 @@
         <v>44859</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30629,7 +30629,7 @@
         <v>44861</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30686,7 +30686,7 @@
         <v>44862</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30743,7 +30743,7 @@
         <v>44873</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30800,7 +30800,7 @@
         <v>44875</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30862,7 +30862,7 @@
         <v>44875</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30919,7 +30919,7 @@
         <v>44876</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30981,7 +30981,7 @@
         <v>44878</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31043,7 +31043,7 @@
         <v>44879</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31105,7 +31105,7 @@
         <v>44879</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31167,7 +31167,7 @@
         <v>44879</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31229,7 +31229,7 @@
         <v>44879</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31291,7 +31291,7 @@
         <v>44879</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31353,7 +31353,7 @@
         <v>44879</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31415,7 +31415,7 @@
         <v>44880</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31472,7 +31472,7 @@
         <v>44881</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31534,7 +31534,7 @@
         <v>44881</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31596,7 +31596,7 @@
         <v>44883</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31653,7 +31653,7 @@
         <v>44883</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31715,7 +31715,7 @@
         <v>44886</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31777,7 +31777,7 @@
         <v>44886</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31839,7 +31839,7 @@
         <v>44893</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31896,7 +31896,7 @@
         <v>44894</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31953,7 +31953,7 @@
         <v>44894</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32010,7 +32010,7 @@
         <v>44895</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32067,7 +32067,7 @@
         <v>44897</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32124,7 +32124,7 @@
         <v>44901</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32181,7 +32181,7 @@
         <v>44908</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32238,7 +32238,7 @@
         <v>44909</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32295,7 +32295,7 @@
         <v>44909</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32352,7 +32352,7 @@
         <v>44914</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32409,7 +32409,7 @@
         <v>44915</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32466,7 +32466,7 @@
         <v>44915</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32523,7 +32523,7 @@
         <v>44916</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32580,7 +32580,7 @@
         <v>44929</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32637,7 +32637,7 @@
         <v>44944</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32694,7 +32694,7 @@
         <v>44945</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32751,7 +32751,7 @@
         <v>44946</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32808,7 +32808,7 @@
         <v>44952</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32865,7 +32865,7 @@
         <v>44953</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32927,7 +32927,7 @@
         <v>44966</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -32984,7 +32984,7 @@
         <v>44967</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33041,7 +33041,7 @@
         <v>44967</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33098,7 +33098,7 @@
         <v>44970</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33155,7 +33155,7 @@
         <v>44971</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33212,7 +33212,7 @@
         <v>44993</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33269,7 +33269,7 @@
         <v>44993</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33326,7 +33326,7 @@
         <v>44993</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33383,7 +33383,7 @@
         <v>44993</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33440,7 +33440,7 @@
         <v>45008</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33497,7 +33497,7 @@
         <v>45009</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -33554,7 +33554,7 @@
         <v>45012</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -33611,7 +33611,7 @@
         <v>45014</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33668,7 +33668,7 @@
         <v>45016</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33725,7 +33725,7 @@
         <v>45016</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33782,7 +33782,7 @@
         <v>45016</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33839,7 +33839,7 @@
         <v>45016</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -33896,7 +33896,7 @@
         <v>45016</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -33953,7 +33953,7 @@
         <v>45016</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34010,7 +34010,7 @@
         <v>45016</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34067,7 +34067,7 @@
         <v>45030</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34124,7 +34124,7 @@
         <v>45033</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34181,7 +34181,7 @@
         <v>45033</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34238,7 +34238,7 @@
         <v>45036</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34295,7 +34295,7 @@
         <v>45037</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34357,7 +34357,7 @@
         <v>45038</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -34414,7 +34414,7 @@
         <v>45041</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34471,7 +34471,7 @@
         <v>45041</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -34533,7 +34533,7 @@
         <v>45043</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -34590,7 +34590,7 @@
         <v>45044</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34647,7 +34647,7 @@
         <v>45044</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -34704,7 +34704,7 @@
         <v>45044</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -34761,7 +34761,7 @@
         <v>45058</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -34823,7 +34823,7 @@
         <v>45061</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -34880,7 +34880,7 @@
         <v>45062</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -34942,7 +34942,7 @@
         <v>45062</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -34999,7 +34999,7 @@
         <v>45063</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35061,7 +35061,7 @@
         <v>45070</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -35118,7 +35118,7 @@
         <v>45072</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -35180,7 +35180,7 @@
         <v>45072</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -35237,7 +35237,7 @@
         <v>45076</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35299,7 +35299,7 @@
         <v>45078</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35356,7 +35356,7 @@
         <v>45078</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -35418,7 +35418,7 @@
         <v>45079</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -35475,7 +35475,7 @@
         <v>45082</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -35532,7 +35532,7 @@
         <v>45082</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -35589,7 +35589,7 @@
         <v>45084</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -35651,7 +35651,7 @@
         <v>45084</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -35708,7 +35708,7 @@
         <v>45085</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -35765,7 +35765,7 @@
         <v>45089</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -35822,7 +35822,7 @@
         <v>45090</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -35879,7 +35879,7 @@
         <v>45090</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -35936,7 +35936,7 @@
         <v>45090</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -35993,7 +35993,7 @@
         <v>45090</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -36050,7 +36050,7 @@
         <v>45091</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -36107,7 +36107,7 @@
         <v>45097</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -36164,7 +36164,7 @@
         <v>45097</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -36221,7 +36221,7 @@
         <v>45097</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -36278,7 +36278,7 @@
         <v>45097</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -36335,7 +36335,7 @@
         <v>45098</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -36397,7 +36397,7 @@
         <v>45099</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -36454,7 +36454,7 @@
         <v>45103</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -36511,7 +36511,7 @@
         <v>45104</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -36568,7 +36568,7 @@
         <v>45104</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -36625,7 +36625,7 @@
         <v>45107</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -36687,7 +36687,7 @@
         <v>45107</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -36744,7 +36744,7 @@
         <v>45107</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -36801,7 +36801,7 @@
         <v>45107</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -36858,7 +36858,7 @@
         <v>45107</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -36915,7 +36915,7 @@
         <v>45107</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -36972,7 +36972,7 @@
         <v>45107</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -37034,7 +37034,7 @@
         <v>45107</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -37096,7 +37096,7 @@
         <v>45107</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -37153,7 +37153,7 @@
         <v>45110</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -37210,7 +37210,7 @@
         <v>45110</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -37267,7 +37267,7 @@
         <v>45112</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -37329,7 +37329,7 @@
         <v>45113</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -37391,7 +37391,7 @@
         <v>45113</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -37448,7 +37448,7 @@
         <v>45114</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -37505,7 +37505,7 @@
         <v>45114</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -37562,7 +37562,7 @@
         <v>45117</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -37619,7 +37619,7 @@
         <v>45119</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -37681,7 +37681,7 @@
         <v>45120</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -37738,7 +37738,7 @@
         <v>45121</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -37795,7 +37795,7 @@
         <v>45123</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -37852,7 +37852,7 @@
         <v>45132</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -37909,7 +37909,7 @@
         <v>45138</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -37966,7 +37966,7 @@
         <v>45138</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -38023,7 +38023,7 @@
         <v>45147</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -38080,7 +38080,7 @@
         <v>45149</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -38137,7 +38137,7 @@
         <v>45149</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -38194,7 +38194,7 @@
         <v>45161</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -38256,7 +38256,7 @@
         <v>45161</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -38318,7 +38318,7 @@
         <v>45161</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -38380,7 +38380,7 @@
         <v>45169</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -38437,7 +38437,7 @@
         <v>45173</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -38499,7 +38499,7 @@
         <v>45173</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -38556,7 +38556,7 @@
         <v>45175</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -38613,7 +38613,7 @@
         <v>45176</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -38663,14 +38663,14 @@
     <row r="645" ht="15" customHeight="1">
       <c r="A645" t="inlineStr">
         <is>
-          <t>A 42233-2023</t>
+          <t>A 42314-2023</t>
         </is>
       </c>
       <c r="B645" s="1" t="n">
         <v>45180</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -38683,7 +38683,7 @@
         </is>
       </c>
       <c r="G645" t="n">
-        <v>2.1</v>
+        <v>11.9</v>
       </c>
       <c r="H645" t="n">
         <v>0</v>
@@ -38720,14 +38720,14 @@
     <row r="646">
       <c r="A646" t="inlineStr">
         <is>
-          <t>A 42314-2023</t>
+          <t>A 42233-2023</t>
         </is>
       </c>
       <c r="B646" s="1" t="n">
         <v>45180</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -38740,7 +38740,7 @@
         </is>
       </c>
       <c r="G646" t="n">
-        <v>11.9</v>
+        <v>2.1</v>
       </c>
       <c r="H646" t="n">
         <v>0</v>

--- a/Översikt BOLLNÄS.xlsx
+++ b/Översikt BOLLNÄS.xlsx
@@ -572,7 +572,7 @@
         <v>44109</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -675,7 +675,7 @@
         <v>44095</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -776,7 +776,7 @@
         <v>44382</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -868,7 +868,7 @@
         <v>44729</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -960,7 +960,7 @@
         <v>43783</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1055,7 +1055,7 @@
         <v>43783</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1150,7 +1150,7 @@
         <v>43783</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1245,7 +1245,7 @@
         <v>43993</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1331,7 +1331,7 @@
         <v>43999</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1422,7 +1422,7 @@
         <v>44432</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1512,7 +1512,7 @@
         <v>45092</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         <v>43600</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1688,7 +1688,7 @@
         <v>43619</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1777,7 +1777,7 @@
         <v>43794</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1862,7 +1862,7 @@
         <v>43864</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1947,7 +1947,7 @@
         <v>44081</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2037,7 +2037,7 @@
         <v>44515</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2127,7 +2127,7 @@
         <v>44813</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2212,7 +2212,7 @@
         <v>44901</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2297,7 +2297,7 @@
         <v>45058</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         <v>45090</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2471,7 +2471,7 @@
         <v>43360</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2528,7 +2528,7 @@
         <v>43375</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2585,7 +2585,7 @@
         <v>43382</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2642,7 +2642,7 @@
         <v>43389</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2699,7 +2699,7 @@
         <v>43392</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2756,7 +2756,7 @@
         <v>43410</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2813,7 +2813,7 @@
         <v>43413</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2875,7 +2875,7 @@
         <v>43416</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2932,7 +2932,7 @@
         <v>43417</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2989,7 +2989,7 @@
         <v>43417</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3046,7 +3046,7 @@
         <v>43418</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3103,7 +3103,7 @@
         <v>43418</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3160,7 +3160,7 @@
         <v>43418</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3217,7 +3217,7 @@
         <v>43419</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3274,7 +3274,7 @@
         <v>43420</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3331,7 +3331,7 @@
         <v>43424</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3388,7 +3388,7 @@
         <v>43424</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3445,7 +3445,7 @@
         <v>43424</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3502,7 +3502,7 @@
         <v>43424</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3559,7 +3559,7 @@
         <v>43424</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3616,7 +3616,7 @@
         <v>43424</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3673,7 +3673,7 @@
         <v>43424</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3730,7 +3730,7 @@
         <v>43427</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3787,7 +3787,7 @@
         <v>43427</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3844,7 +3844,7 @@
         <v>43427</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3901,7 +3901,7 @@
         <v>43427</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3958,7 +3958,7 @@
         <v>43427</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4015,7 +4015,7 @@
         <v>43430</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4072,7 +4072,7 @@
         <v>43431</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4129,7 +4129,7 @@
         <v>43431</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4186,7 +4186,7 @@
         <v>43434</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4243,7 +4243,7 @@
         <v>43434</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4300,7 +4300,7 @@
         <v>43437</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4357,7 +4357,7 @@
         <v>43441</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4414,7 +4414,7 @@
         <v>43444</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4471,7 +4471,7 @@
         <v>43445</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4533,7 +4533,7 @@
         <v>43445</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4590,7 +4590,7 @@
         <v>43446</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4647,7 +4647,7 @@
         <v>43446</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4704,7 +4704,7 @@
         <v>43447</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4761,7 +4761,7 @@
         <v>43448</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4818,7 +4818,7 @@
         <v>43452</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4875,7 +4875,7 @@
         <v>43452</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4932,7 +4932,7 @@
         <v>43454</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4989,7 +4989,7 @@
         <v>43455</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5046,7 +5046,7 @@
         <v>43455</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5103,7 +5103,7 @@
         <v>43467</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5160,7 +5160,7 @@
         <v>43472</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5217,7 +5217,7 @@
         <v>43472</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5274,7 +5274,7 @@
         <v>43472</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5331,7 +5331,7 @@
         <v>43476</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5388,7 +5388,7 @@
         <v>43476</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5445,7 +5445,7 @@
         <v>43476</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5502,7 +5502,7 @@
         <v>43480</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5559,7 +5559,7 @@
         <v>43482</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5616,7 +5616,7 @@
         <v>43482</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5673,7 +5673,7 @@
         <v>43497</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5730,7 +5730,7 @@
         <v>43509</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5787,7 +5787,7 @@
         <v>43515</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5844,7 +5844,7 @@
         <v>43517</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5901,7 +5901,7 @@
         <v>43518</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5958,7 +5958,7 @@
         <v>43522</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6015,7 +6015,7 @@
         <v>43523</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6072,7 +6072,7 @@
         <v>43528</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6129,7 +6129,7 @@
         <v>43528</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6186,7 +6186,7 @@
         <v>43529</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6243,7 +6243,7 @@
         <v>43532</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6300,7 +6300,7 @@
         <v>43532</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6357,7 +6357,7 @@
         <v>43536</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6414,7 +6414,7 @@
         <v>43537</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6471,7 +6471,7 @@
         <v>43559</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6528,7 +6528,7 @@
         <v>43560</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6585,7 +6585,7 @@
         <v>43563</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6642,7 +6642,7 @@
         <v>43564</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6699,7 +6699,7 @@
         <v>43567</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6756,7 +6756,7 @@
         <v>43571</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6813,7 +6813,7 @@
         <v>43580</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6870,7 +6870,7 @@
         <v>43583</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6927,7 +6927,7 @@
         <v>43587</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6984,7 +6984,7 @@
         <v>43593</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7041,7 +7041,7 @@
         <v>43593</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7098,7 +7098,7 @@
         <v>43594</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7155,7 +7155,7 @@
         <v>43598</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7212,7 +7212,7 @@
         <v>43599</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7269,7 +7269,7 @@
         <v>43599</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7326,7 +7326,7 @@
         <v>43599</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7383,7 +7383,7 @@
         <v>43605</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7445,7 +7445,7 @@
         <v>43607</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7502,7 +7502,7 @@
         <v>43612</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7559,7 +7559,7 @@
         <v>43619</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7621,7 +7621,7 @@
         <v>43619</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7678,7 +7678,7 @@
         <v>43619</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7740,7 +7740,7 @@
         <v>43619</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7802,7 +7802,7 @@
         <v>43620</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7859,7 +7859,7 @@
         <v>43620</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7916,7 +7916,7 @@
         <v>43629</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7978,7 +7978,7 @@
         <v>43629</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8035,7 +8035,7 @@
         <v>43633</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8092,7 +8092,7 @@
         <v>43635</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8149,7 +8149,7 @@
         <v>43640</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8206,7 +8206,7 @@
         <v>43641</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8263,7 +8263,7 @@
         <v>43643</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8320,7 +8320,7 @@
         <v>43649</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8377,7 +8377,7 @@
         <v>43649</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8434,7 +8434,7 @@
         <v>43651</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8496,7 +8496,7 @@
         <v>43654</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8553,7 +8553,7 @@
         <v>43656</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8610,7 +8610,7 @@
         <v>43657</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8667,7 +8667,7 @@
         <v>43657</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8729,7 +8729,7 @@
         <v>43664</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8786,7 +8786,7 @@
         <v>43689</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8843,7 +8843,7 @@
         <v>43691</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8905,7 +8905,7 @@
         <v>43698</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8962,7 +8962,7 @@
         <v>43698</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9019,7 +9019,7 @@
         <v>43703</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9076,7 +9076,7 @@
         <v>43704</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9133,7 +9133,7 @@
         <v>43704</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9190,7 +9190,7 @@
         <v>43705</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9252,7 +9252,7 @@
         <v>43706</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9309,7 +9309,7 @@
         <v>43707</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9371,7 +9371,7 @@
         <v>43707</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9433,7 +9433,7 @@
         <v>43710</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9490,7 +9490,7 @@
         <v>43711</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9552,7 +9552,7 @@
         <v>43717</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9609,7 +9609,7 @@
         <v>43718</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9666,7 +9666,7 @@
         <v>43718</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9723,7 +9723,7 @@
         <v>43721</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9785,7 +9785,7 @@
         <v>43726</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9842,7 +9842,7 @@
         <v>43732</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9899,7 +9899,7 @@
         <v>43733</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9961,7 +9961,7 @@
         <v>43733</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10023,7 +10023,7 @@
         <v>43738</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10080,7 +10080,7 @@
         <v>43739</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10137,7 +10137,7 @@
         <v>43740</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10194,7 +10194,7 @@
         <v>43741</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10251,7 +10251,7 @@
         <v>43742</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10308,7 +10308,7 @@
         <v>43742</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10365,7 +10365,7 @@
         <v>43742</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10422,7 +10422,7 @@
         <v>43748</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10479,7 +10479,7 @@
         <v>43753</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10536,7 +10536,7 @@
         <v>43754</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10598,7 +10598,7 @@
         <v>43754</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10655,7 +10655,7 @@
         <v>43755</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10717,7 +10717,7 @@
         <v>43759</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10774,7 +10774,7 @@
         <v>43759</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10831,7 +10831,7 @@
         <v>43760</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10888,7 +10888,7 @@
         <v>43761</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10950,7 +10950,7 @@
         <v>43767</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11012,7 +11012,7 @@
         <v>43769</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11069,7 +11069,7 @@
         <v>43773</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11126,7 +11126,7 @@
         <v>43776</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11183,7 +11183,7 @@
         <v>43777</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11240,7 +11240,7 @@
         <v>43781</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11302,7 +11302,7 @@
         <v>43783</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11359,7 +11359,7 @@
         <v>43783</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11416,7 +11416,7 @@
         <v>43783</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11498,7 +11498,7 @@
         <v>43787</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11555,7 +11555,7 @@
         <v>43789</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11612,7 +11612,7 @@
         <v>43789</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11669,7 +11669,7 @@
         <v>43790</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11726,7 +11726,7 @@
         <v>43794</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11783,7 +11783,7 @@
         <v>43795</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11840,7 +11840,7 @@
         <v>43798</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11897,7 +11897,7 @@
         <v>43800</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11954,7 +11954,7 @@
         <v>43802</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12011,7 +12011,7 @@
         <v>43808</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12073,7 +12073,7 @@
         <v>43809</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12135,7 +12135,7 @@
         <v>43809</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12197,7 +12197,7 @@
         <v>43809</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12254,7 +12254,7 @@
         <v>43812</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12311,7 +12311,7 @@
         <v>43815</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12368,7 +12368,7 @@
         <v>43819</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12425,7 +12425,7 @@
         <v>43819</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12482,7 +12482,7 @@
         <v>43837</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12539,7 +12539,7 @@
         <v>43837</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12596,7 +12596,7 @@
         <v>43840</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12653,7 +12653,7 @@
         <v>43840</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12710,7 +12710,7 @@
         <v>43846</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12767,7 +12767,7 @@
         <v>43850</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12824,7 +12824,7 @@
         <v>43852</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12886,7 +12886,7 @@
         <v>43853</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12948,7 +12948,7 @@
         <v>43858</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13010,7 +13010,7 @@
         <v>43859</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13072,7 +13072,7 @@
         <v>43865</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13129,7 +13129,7 @@
         <v>43867</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13186,7 +13186,7 @@
         <v>43871</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13243,7 +13243,7 @@
         <v>43878</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13300,7 +13300,7 @@
         <v>43878</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13357,7 +13357,7 @@
         <v>43879</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13414,7 +13414,7 @@
         <v>43882</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13471,7 +13471,7 @@
         <v>43886</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13528,7 +13528,7 @@
         <v>43886</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13585,7 +13585,7 @@
         <v>43887</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13642,7 +13642,7 @@
         <v>43888</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13699,7 +13699,7 @@
         <v>43892</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13756,7 +13756,7 @@
         <v>43894</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13813,7 +13813,7 @@
         <v>43894</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13870,7 +13870,7 @@
         <v>43901</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13932,7 +13932,7 @@
         <v>43902</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13989,7 +13989,7 @@
         <v>43913</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14046,7 +14046,7 @@
         <v>43913</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14103,7 +14103,7 @@
         <v>43913</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14165,7 +14165,7 @@
         <v>43916</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14222,7 +14222,7 @@
         <v>43916</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14279,7 +14279,7 @@
         <v>43924</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14336,7 +14336,7 @@
         <v>43927</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14393,7 +14393,7 @@
         <v>43930</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14450,7 +14450,7 @@
         <v>43945</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14507,7 +14507,7 @@
         <v>43949</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14564,7 +14564,7 @@
         <v>43949</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14621,7 +14621,7 @@
         <v>43956</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14678,7 +14678,7 @@
         <v>43987</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14735,7 +14735,7 @@
         <v>43991</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14792,7 +14792,7 @@
         <v>43993</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14854,7 +14854,7 @@
         <v>43993</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14916,7 +14916,7 @@
         <v>43994</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14973,7 +14973,7 @@
         <v>43998</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15030,7 +15030,7 @@
         <v>44000</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15092,7 +15092,7 @@
         <v>44006</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15149,7 +15149,7 @@
         <v>44008</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15206,7 +15206,7 @@
         <v>44012</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15263,7 +15263,7 @@
         <v>44013</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15320,7 +15320,7 @@
         <v>44014</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15377,7 +15377,7 @@
         <v>44014</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15434,7 +15434,7 @@
         <v>44014</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15491,7 +15491,7 @@
         <v>44014</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15548,7 +15548,7 @@
         <v>44014</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15605,7 +15605,7 @@
         <v>44015</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15662,7 +15662,7 @@
         <v>44015</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15719,7 +15719,7 @@
         <v>44035</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15776,7 +15776,7 @@
         <v>44035</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15833,7 +15833,7 @@
         <v>44055</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15890,7 +15890,7 @@
         <v>44057</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15947,7 +15947,7 @@
         <v>44061</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16004,7 +16004,7 @@
         <v>44062</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16061,7 +16061,7 @@
         <v>44064</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16118,7 +16118,7 @@
         <v>44070</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16175,7 +16175,7 @@
         <v>44076</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16232,7 +16232,7 @@
         <v>44076</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16289,7 +16289,7 @@
         <v>44083</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16346,7 +16346,7 @@
         <v>44083</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16403,7 +16403,7 @@
         <v>44083</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16460,7 +16460,7 @@
         <v>44083</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16517,7 +16517,7 @@
         <v>44084</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16574,7 +16574,7 @@
         <v>44088</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16636,7 +16636,7 @@
         <v>44089</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16693,7 +16693,7 @@
         <v>44090</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16755,7 +16755,7 @@
         <v>44095</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16812,7 +16812,7 @@
         <v>44103</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16869,7 +16869,7 @@
         <v>44105</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16926,7 +16926,7 @@
         <v>44105</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16983,7 +16983,7 @@
         <v>44110</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17040,7 +17040,7 @@
         <v>44110</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17097,7 +17097,7 @@
         <v>44116</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17154,7 +17154,7 @@
         <v>44119</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17216,7 +17216,7 @@
         <v>44119</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17278,7 +17278,7 @@
         <v>44119</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17340,7 +17340,7 @@
         <v>44120</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17397,7 +17397,7 @@
         <v>44125</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17454,7 +17454,7 @@
         <v>44125</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17511,7 +17511,7 @@
         <v>44127</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17568,7 +17568,7 @@
         <v>44127</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17625,7 +17625,7 @@
         <v>44127</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17682,7 +17682,7 @@
         <v>44130</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17739,7 +17739,7 @@
         <v>44133</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17796,7 +17796,7 @@
         <v>44133</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17853,7 +17853,7 @@
         <v>44133</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17910,7 +17910,7 @@
         <v>44137</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17967,7 +17967,7 @@
         <v>44140</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18029,7 +18029,7 @@
         <v>44141</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18086,7 +18086,7 @@
         <v>44144</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18143,7 +18143,7 @@
         <v>44144</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18200,7 +18200,7 @@
         <v>44146</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18257,7 +18257,7 @@
         <v>44147</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18314,7 +18314,7 @@
         <v>44147</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18371,7 +18371,7 @@
         <v>44147</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18428,7 +18428,7 @@
         <v>44147</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18485,7 +18485,7 @@
         <v>44148</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18542,7 +18542,7 @@
         <v>44148</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18604,7 +18604,7 @@
         <v>44151</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18661,7 +18661,7 @@
         <v>44151</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18718,7 +18718,7 @@
         <v>44151</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18780,7 +18780,7 @@
         <v>44151</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18837,7 +18837,7 @@
         <v>44151</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18894,7 +18894,7 @@
         <v>44151</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18951,7 +18951,7 @@
         <v>44151</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19008,7 +19008,7 @@
         <v>44152</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19070,7 +19070,7 @@
         <v>44153</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19127,7 +19127,7 @@
         <v>44153</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19189,7 +19189,7 @@
         <v>44153</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19246,7 +19246,7 @@
         <v>44153</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19308,7 +19308,7 @@
         <v>44160</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19365,7 +19365,7 @@
         <v>44161</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19422,7 +19422,7 @@
         <v>44161</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19484,7 +19484,7 @@
         <v>44162</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19541,7 +19541,7 @@
         <v>44165</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19598,7 +19598,7 @@
         <v>44166</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19655,7 +19655,7 @@
         <v>44167</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19712,7 +19712,7 @@
         <v>44169</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19769,7 +19769,7 @@
         <v>44176</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19826,7 +19826,7 @@
         <v>44180</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19883,7 +19883,7 @@
         <v>44180</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19940,7 +19940,7 @@
         <v>44180</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19997,7 +19997,7 @@
         <v>44180</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20059,7 +20059,7 @@
         <v>44186</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20116,7 +20116,7 @@
         <v>44187</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20173,7 +20173,7 @@
         <v>44187</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20230,7 +20230,7 @@
         <v>44187</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20287,7 +20287,7 @@
         <v>44188</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20344,7 +20344,7 @@
         <v>44194</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20401,7 +20401,7 @@
         <v>44195</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20458,7 +20458,7 @@
         <v>44203</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20520,7 +20520,7 @@
         <v>44203</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20582,7 +20582,7 @@
         <v>44203</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20644,7 +20644,7 @@
         <v>44203</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20706,7 +20706,7 @@
         <v>44203</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20768,7 +20768,7 @@
         <v>44204</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20830,7 +20830,7 @@
         <v>44204</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20892,7 +20892,7 @@
         <v>44207</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20954,7 +20954,7 @@
         <v>44207</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21016,7 +21016,7 @@
         <v>44208</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21078,7 +21078,7 @@
         <v>44208</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21140,7 +21140,7 @@
         <v>44208</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21197,7 +21197,7 @@
         <v>44209</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21259,7 +21259,7 @@
         <v>44210</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21321,7 +21321,7 @@
         <v>44211</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21378,7 +21378,7 @@
         <v>44211</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21435,7 +21435,7 @@
         <v>44218</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21492,7 +21492,7 @@
         <v>44224</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21549,7 +21549,7 @@
         <v>44232</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21606,7 +21606,7 @@
         <v>44239</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21663,7 +21663,7 @@
         <v>44239</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21720,7 +21720,7 @@
         <v>44242</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21777,7 +21777,7 @@
         <v>44267</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21834,7 +21834,7 @@
         <v>44270</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21891,7 +21891,7 @@
         <v>44278</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21948,7 +21948,7 @@
         <v>44278</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22005,7 +22005,7 @@
         <v>44279</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22067,7 +22067,7 @@
         <v>44279</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22129,7 +22129,7 @@
         <v>44279</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22191,7 +22191,7 @@
         <v>44295</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22248,7 +22248,7 @@
         <v>44299</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22305,7 +22305,7 @@
         <v>44316</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22362,7 +22362,7 @@
         <v>44326</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22424,7 +22424,7 @@
         <v>44336</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22481,7 +22481,7 @@
         <v>44347</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22538,7 +22538,7 @@
         <v>44347</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22595,7 +22595,7 @@
         <v>44364</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22652,7 +22652,7 @@
         <v>44365</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22714,7 +22714,7 @@
         <v>44369</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22776,7 +22776,7 @@
         <v>44370</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22838,7 +22838,7 @@
         <v>44370</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22895,7 +22895,7 @@
         <v>44370</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22957,7 +22957,7 @@
         <v>44371</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23014,7 +23014,7 @@
         <v>44379</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23076,7 +23076,7 @@
         <v>44381</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23133,7 +23133,7 @@
         <v>44381</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23190,7 +23190,7 @@
         <v>44381</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23247,7 +23247,7 @@
         <v>44382</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23309,7 +23309,7 @@
         <v>44382</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23371,7 +23371,7 @@
         <v>44383</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23433,7 +23433,7 @@
         <v>44384</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23490,7 +23490,7 @@
         <v>44389</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23547,7 +23547,7 @@
         <v>44407</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23604,7 +23604,7 @@
         <v>44424</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23666,7 +23666,7 @@
         <v>44424</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23723,7 +23723,7 @@
         <v>44438</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23785,7 +23785,7 @@
         <v>44452</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23842,7 +23842,7 @@
         <v>44452</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23899,7 +23899,7 @@
         <v>44452</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23956,7 +23956,7 @@
         <v>44454</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24013,7 +24013,7 @@
         <v>44460</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24070,7 +24070,7 @@
         <v>44467</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24132,7 +24132,7 @@
         <v>44480</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24189,7 +24189,7 @@
         <v>44480</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24251,7 +24251,7 @@
         <v>44484</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24308,7 +24308,7 @@
         <v>44488</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24365,7 +24365,7 @@
         <v>44488</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24422,7 +24422,7 @@
         <v>44489</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24479,7 +24479,7 @@
         <v>44496</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24541,7 +24541,7 @@
         <v>44496</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24598,7 +24598,7 @@
         <v>44503</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24660,7 +24660,7 @@
         <v>44505</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24722,7 +24722,7 @@
         <v>44505</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24784,7 +24784,7 @@
         <v>44505</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24846,7 +24846,7 @@
         <v>44505</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24908,7 +24908,7 @@
         <v>44509</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24970,7 +24970,7 @@
         <v>44509</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25032,7 +25032,7 @@
         <v>44509</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25094,7 +25094,7 @@
         <v>44509</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25156,7 +25156,7 @@
         <v>44509</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25213,7 +25213,7 @@
         <v>44509</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25275,7 +25275,7 @@
         <v>44509</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25337,7 +25337,7 @@
         <v>44509</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25399,7 +25399,7 @@
         <v>44511</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25461,7 +25461,7 @@
         <v>44515</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25523,7 +25523,7 @@
         <v>44517</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25580,7 +25580,7 @@
         <v>44517</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25637,7 +25637,7 @@
         <v>44517</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25694,7 +25694,7 @@
         <v>44517</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25751,7 +25751,7 @@
         <v>44517</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25808,7 +25808,7 @@
         <v>44522</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25870,7 +25870,7 @@
         <v>44524</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25932,7 +25932,7 @@
         <v>44526</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25994,7 +25994,7 @@
         <v>44526</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26051,7 +26051,7 @@
         <v>44531</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26108,7 +26108,7 @@
         <v>44532</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26170,7 +26170,7 @@
         <v>44532</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26232,7 +26232,7 @@
         <v>44536</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26289,7 +26289,7 @@
         <v>44572</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26346,7 +26346,7 @@
         <v>44585</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26403,7 +26403,7 @@
         <v>44592</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26460,7 +26460,7 @@
         <v>44594</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26517,7 +26517,7 @@
         <v>44595</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26574,7 +26574,7 @@
         <v>44595</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26631,7 +26631,7 @@
         <v>44595</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26688,7 +26688,7 @@
         <v>44596</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26745,7 +26745,7 @@
         <v>44596</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26802,7 +26802,7 @@
         <v>44601</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26859,7 +26859,7 @@
         <v>44603</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26916,7 +26916,7 @@
         <v>44608</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26973,7 +26973,7 @@
         <v>44616</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27030,7 +27030,7 @@
         <v>44617</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27087,7 +27087,7 @@
         <v>44620</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27144,7 +27144,7 @@
         <v>44620</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27201,7 +27201,7 @@
         <v>44623</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27258,7 +27258,7 @@
         <v>44631</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27315,7 +27315,7 @@
         <v>44636</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27372,7 +27372,7 @@
         <v>44642</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27429,7 +27429,7 @@
         <v>44650</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27486,7 +27486,7 @@
         <v>44650</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27543,7 +27543,7 @@
         <v>44652</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27605,7 +27605,7 @@
         <v>44659</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27662,7 +27662,7 @@
         <v>44662</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27719,7 +27719,7 @@
         <v>44671</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27776,7 +27776,7 @@
         <v>44676</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27833,7 +27833,7 @@
         <v>44691</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27890,7 +27890,7 @@
         <v>44697</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27952,7 +27952,7 @@
         <v>44704</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28014,7 +28014,7 @@
         <v>44704</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28076,7 +28076,7 @@
         <v>44705</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28133,7 +28133,7 @@
         <v>44706</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28190,7 +28190,7 @@
         <v>44712</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28247,7 +28247,7 @@
         <v>44712</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28309,7 +28309,7 @@
         <v>44712</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28371,7 +28371,7 @@
         <v>44714</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28428,7 +28428,7 @@
         <v>44720</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28485,7 +28485,7 @@
         <v>44720</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28542,7 +28542,7 @@
         <v>44722</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28599,7 +28599,7 @@
         <v>44728</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28656,7 +28656,7 @@
         <v>44729</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28718,7 +28718,7 @@
         <v>44729</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28780,7 +28780,7 @@
         <v>44729</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28842,7 +28842,7 @@
         <v>44732</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28899,7 +28899,7 @@
         <v>44732</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28956,7 +28956,7 @@
         <v>44763</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29013,7 +29013,7 @@
         <v>44783</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29075,7 +29075,7 @@
         <v>44785</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29137,7 +29137,7 @@
         <v>44791</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29194,7 +29194,7 @@
         <v>44796</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29251,7 +29251,7 @@
         <v>44796</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29308,7 +29308,7 @@
         <v>44798</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29365,7 +29365,7 @@
         <v>44799</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29422,7 +29422,7 @@
         <v>44799</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29479,7 +29479,7 @@
         <v>44805</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29536,7 +29536,7 @@
         <v>44806</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29593,7 +29593,7 @@
         <v>44806</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29650,7 +29650,7 @@
         <v>44806</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29707,7 +29707,7 @@
         <v>44817</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29764,7 +29764,7 @@
         <v>44818</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29821,7 +29821,7 @@
         <v>44819</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29878,7 +29878,7 @@
         <v>44826</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29940,7 +29940,7 @@
         <v>44827</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30002,7 +30002,7 @@
         <v>44830</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30059,7 +30059,7 @@
         <v>44839</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30116,7 +30116,7 @@
         <v>44839</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30173,7 +30173,7 @@
         <v>44840</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30230,7 +30230,7 @@
         <v>44846</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30287,7 +30287,7 @@
         <v>44846</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30344,7 +30344,7 @@
         <v>44846</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30401,7 +30401,7 @@
         <v>44846</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30458,7 +30458,7 @@
         <v>44854</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30515,7 +30515,7 @@
         <v>44859</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30572,7 +30572,7 @@
         <v>44859</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30629,7 +30629,7 @@
         <v>44861</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30686,7 +30686,7 @@
         <v>44862</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30743,7 +30743,7 @@
         <v>44873</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30800,7 +30800,7 @@
         <v>44875</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30862,7 +30862,7 @@
         <v>44875</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30919,7 +30919,7 @@
         <v>44876</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30981,7 +30981,7 @@
         <v>44878</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31043,7 +31043,7 @@
         <v>44879</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31105,7 +31105,7 @@
         <v>44879</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31167,7 +31167,7 @@
         <v>44879</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31229,7 +31229,7 @@
         <v>44879</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31291,7 +31291,7 @@
         <v>44879</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31353,7 +31353,7 @@
         <v>44879</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31415,7 +31415,7 @@
         <v>44880</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31472,7 +31472,7 @@
         <v>44881</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31534,7 +31534,7 @@
         <v>44881</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31596,7 +31596,7 @@
         <v>44883</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31653,7 +31653,7 @@
         <v>44883</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31715,7 +31715,7 @@
         <v>44886</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31777,7 +31777,7 @@
         <v>44886</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31839,7 +31839,7 @@
         <v>44893</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31896,7 +31896,7 @@
         <v>44894</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31953,7 +31953,7 @@
         <v>44894</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32010,7 +32010,7 @@
         <v>44895</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32067,7 +32067,7 @@
         <v>44897</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32124,7 +32124,7 @@
         <v>44901</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32181,7 +32181,7 @@
         <v>44908</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32238,7 +32238,7 @@
         <v>44909</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32295,7 +32295,7 @@
         <v>44909</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32352,7 +32352,7 @@
         <v>44914</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32409,7 +32409,7 @@
         <v>44915</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32466,7 +32466,7 @@
         <v>44915</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32523,7 +32523,7 @@
         <v>44916</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32580,7 +32580,7 @@
         <v>44929</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32637,7 +32637,7 @@
         <v>44944</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32694,7 +32694,7 @@
         <v>44945</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32751,7 +32751,7 @@
         <v>44946</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32808,7 +32808,7 @@
         <v>44952</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32865,7 +32865,7 @@
         <v>44953</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32927,7 +32927,7 @@
         <v>44966</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -32984,7 +32984,7 @@
         <v>44967</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33041,7 +33041,7 @@
         <v>44967</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33098,7 +33098,7 @@
         <v>44970</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33155,7 +33155,7 @@
         <v>44971</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33212,7 +33212,7 @@
         <v>44993</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33269,7 +33269,7 @@
         <v>44993</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33326,7 +33326,7 @@
         <v>44993</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33383,7 +33383,7 @@
         <v>44993</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33440,7 +33440,7 @@
         <v>45008</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33497,7 +33497,7 @@
         <v>45009</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -33554,7 +33554,7 @@
         <v>45012</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -33611,7 +33611,7 @@
         <v>45014</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33668,7 +33668,7 @@
         <v>45016</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33725,7 +33725,7 @@
         <v>45016</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33782,7 +33782,7 @@
         <v>45016</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33839,7 +33839,7 @@
         <v>45016</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -33896,7 +33896,7 @@
         <v>45016</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -33953,7 +33953,7 @@
         <v>45016</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34010,7 +34010,7 @@
         <v>45016</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34067,7 +34067,7 @@
         <v>45030</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34124,7 +34124,7 @@
         <v>45033</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34181,7 +34181,7 @@
         <v>45033</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34238,7 +34238,7 @@
         <v>45036</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34295,7 +34295,7 @@
         <v>45037</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34357,7 +34357,7 @@
         <v>45038</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -34414,7 +34414,7 @@
         <v>45041</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34471,7 +34471,7 @@
         <v>45041</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -34533,7 +34533,7 @@
         <v>45043</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -34590,7 +34590,7 @@
         <v>45044</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34647,7 +34647,7 @@
         <v>45044</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -34704,7 +34704,7 @@
         <v>45044</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -34761,7 +34761,7 @@
         <v>45058</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -34823,7 +34823,7 @@
         <v>45061</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -34880,7 +34880,7 @@
         <v>45062</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -34942,7 +34942,7 @@
         <v>45062</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -34999,7 +34999,7 @@
         <v>45063</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35061,7 +35061,7 @@
         <v>45070</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -35118,7 +35118,7 @@
         <v>45072</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -35180,7 +35180,7 @@
         <v>45072</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -35237,7 +35237,7 @@
         <v>45076</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35299,7 +35299,7 @@
         <v>45078</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35356,7 +35356,7 @@
         <v>45078</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -35418,7 +35418,7 @@
         <v>45079</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -35475,7 +35475,7 @@
         <v>45082</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -35532,7 +35532,7 @@
         <v>45082</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -35589,7 +35589,7 @@
         <v>45084</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -35651,7 +35651,7 @@
         <v>45084</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -35708,7 +35708,7 @@
         <v>45085</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -35765,7 +35765,7 @@
         <v>45089</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -35822,7 +35822,7 @@
         <v>45090</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -35879,7 +35879,7 @@
         <v>45090</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -35936,7 +35936,7 @@
         <v>45090</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -35993,7 +35993,7 @@
         <v>45090</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -36050,7 +36050,7 @@
         <v>45091</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -36107,7 +36107,7 @@
         <v>45097</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -36164,7 +36164,7 @@
         <v>45097</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -36221,7 +36221,7 @@
         <v>45097</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -36278,7 +36278,7 @@
         <v>45097</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -36335,7 +36335,7 @@
         <v>45098</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -36397,7 +36397,7 @@
         <v>45099</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -36454,7 +36454,7 @@
         <v>45103</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -36511,7 +36511,7 @@
         <v>45104</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -36568,7 +36568,7 @@
         <v>45104</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -36625,7 +36625,7 @@
         <v>45107</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -36687,7 +36687,7 @@
         <v>45107</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -36744,7 +36744,7 @@
         <v>45107</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -36801,7 +36801,7 @@
         <v>45107</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -36858,7 +36858,7 @@
         <v>45107</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -36915,7 +36915,7 @@
         <v>45107</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -36972,7 +36972,7 @@
         <v>45107</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -37034,7 +37034,7 @@
         <v>45107</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -37096,7 +37096,7 @@
         <v>45107</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -37153,7 +37153,7 @@
         <v>45110</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -37210,7 +37210,7 @@
         <v>45110</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -37267,7 +37267,7 @@
         <v>45112</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -37329,7 +37329,7 @@
         <v>45113</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -37391,7 +37391,7 @@
         <v>45113</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -37448,7 +37448,7 @@
         <v>45114</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -37505,7 +37505,7 @@
         <v>45114</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -37562,7 +37562,7 @@
         <v>45117</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -37619,7 +37619,7 @@
         <v>45119</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -37681,7 +37681,7 @@
         <v>45120</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -37738,7 +37738,7 @@
         <v>45121</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -37795,7 +37795,7 @@
         <v>45123</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -37852,7 +37852,7 @@
         <v>45132</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -37909,7 +37909,7 @@
         <v>45138</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -37966,7 +37966,7 @@
         <v>45138</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -38023,7 +38023,7 @@
         <v>45147</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -38080,7 +38080,7 @@
         <v>45149</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -38137,7 +38137,7 @@
         <v>45149</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -38194,7 +38194,7 @@
         <v>45161</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -38256,7 +38256,7 @@
         <v>45161</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -38318,7 +38318,7 @@
         <v>45161</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -38380,7 +38380,7 @@
         <v>45169</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -38437,7 +38437,7 @@
         <v>45173</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -38499,7 +38499,7 @@
         <v>45173</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -38556,7 +38556,7 @@
         <v>45175</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -38613,7 +38613,7 @@
         <v>45176</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -38670,7 +38670,7 @@
         <v>45180</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -38727,7 +38727,7 @@
         <v>45180</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>

--- a/Översikt BOLLNÄS.xlsx
+++ b/Översikt BOLLNÄS.xlsx
@@ -572,7 +572,7 @@
         <v>44109</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -637,31 +637,31 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLNAS/artfynd/A 50174-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLNAS/artfynd/A 50174-2020.xlsx", "A 50174-2020")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLNAS/kartor/A 50174-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLNAS/kartor/A 50174-2020.png", "A 50174-2020")</f>
         <v/>
       </c>
       <c r="U2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLNAS/knärot/A 50174-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLNAS/knärot/A 50174-2020.png", "A 50174-2020")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLNAS/klagomål/A 50174-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLNAS/klagomål/A 50174-2020.docx", "A 50174-2020")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLNAS/klagomålsmail/A 50174-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLNAS/klagomålsmail/A 50174-2020.docx", "A 50174-2020")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLNAS/tillsyn/A 50174-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLNAS/tillsyn/A 50174-2020.docx", "A 50174-2020")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLNAS/tillsynsmail/A 50174-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLNAS/tillsynsmail/A 50174-2020.docx", "A 50174-2020")</f>
         <v/>
       </c>
     </row>
@@ -675,7 +675,7 @@
         <v>44095</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -738,31 +738,31 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLNAS/artfynd/A 46692-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLNAS/artfynd/A 46692-2020.xlsx", "A 46692-2020")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLNAS/kartor/A 46692-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLNAS/kartor/A 46692-2020.png", "A 46692-2020")</f>
         <v/>
       </c>
       <c r="U3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLNAS/knärot/A 46692-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLNAS/knärot/A 46692-2020.png", "A 46692-2020")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLNAS/klagomål/A 46692-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLNAS/klagomål/A 46692-2020.docx", "A 46692-2020")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLNAS/klagomålsmail/A 46692-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLNAS/klagomålsmail/A 46692-2020.docx", "A 46692-2020")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLNAS/tillsyn/A 46692-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLNAS/tillsyn/A 46692-2020.docx", "A 46692-2020")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLNAS/tillsynsmail/A 46692-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLNAS/tillsynsmail/A 46692-2020.docx", "A 46692-2020")</f>
         <v/>
       </c>
     </row>
@@ -776,7 +776,7 @@
         <v>44382</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -834,27 +834,27 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLNAS/artfynd/A 34590-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLNAS/artfynd/A 34590-2021.xlsx", "A 34590-2021")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLNAS/kartor/A 34590-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLNAS/kartor/A 34590-2021.png", "A 34590-2021")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLNAS/klagomål/A 34590-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLNAS/klagomål/A 34590-2021.docx", "A 34590-2021")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLNAS/klagomålsmail/A 34590-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLNAS/klagomålsmail/A 34590-2021.docx", "A 34590-2021")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLNAS/tillsyn/A 34590-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLNAS/tillsyn/A 34590-2021.docx", "A 34590-2021")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLNAS/tillsynsmail/A 34590-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLNAS/tillsynsmail/A 34590-2021.docx", "A 34590-2021")</f>
         <v/>
       </c>
     </row>
@@ -868,7 +868,7 @@
         <v>44729</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -926,27 +926,27 @@
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLNAS/artfynd/A 25129-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLNAS/artfynd/A 25129-2022.xlsx", "A 25129-2022")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLNAS/kartor/A 25129-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLNAS/kartor/A 25129-2022.png", "A 25129-2022")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLNAS/klagomål/A 25129-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLNAS/klagomål/A 25129-2022.docx", "A 25129-2022")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLNAS/klagomålsmail/A 25129-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLNAS/klagomålsmail/A 25129-2022.docx", "A 25129-2022")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLNAS/tillsyn/A 25129-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLNAS/tillsyn/A 25129-2022.docx", "A 25129-2022")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLNAS/tillsynsmail/A 25129-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLNAS/tillsynsmail/A 25129-2022.docx", "A 25129-2022")</f>
         <v/>
       </c>
     </row>
@@ -960,7 +960,7 @@
         <v>43783</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1017,31 +1017,31 @@
         </is>
       </c>
       <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLNAS/artfynd/A 61372-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLNAS/artfynd/A 61372-2019.xlsx", "A 61372-2019")</f>
         <v/>
       </c>
       <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLNAS/kartor/A 61372-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLNAS/kartor/A 61372-2019.png", "A 61372-2019")</f>
         <v/>
       </c>
       <c r="U6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLNAS/knärot/A 61372-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLNAS/knärot/A 61372-2019.png", "A 61372-2019")</f>
         <v/>
       </c>
       <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLNAS/klagomål/A 61372-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLNAS/klagomål/A 61372-2019.docx", "A 61372-2019")</f>
         <v/>
       </c>
       <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLNAS/klagomålsmail/A 61372-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLNAS/klagomålsmail/A 61372-2019.docx", "A 61372-2019")</f>
         <v/>
       </c>
       <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLNAS/tillsyn/A 61372-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLNAS/tillsyn/A 61372-2019.docx", "A 61372-2019")</f>
         <v/>
       </c>
       <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLNAS/tillsynsmail/A 61372-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLNAS/tillsynsmail/A 61372-2019.docx", "A 61372-2019")</f>
         <v/>
       </c>
     </row>
@@ -1055,7 +1055,7 @@
         <v>43783</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1112,31 +1112,31 @@
         </is>
       </c>
       <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLNAS/artfynd/A 61380-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLNAS/artfynd/A 61380-2019.xlsx", "A 61380-2019")</f>
         <v/>
       </c>
       <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLNAS/kartor/A 61380-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLNAS/kartor/A 61380-2019.png", "A 61380-2019")</f>
         <v/>
       </c>
       <c r="U7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLNAS/knärot/A 61380-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLNAS/knärot/A 61380-2019.png", "A 61380-2019")</f>
         <v/>
       </c>
       <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLNAS/klagomål/A 61380-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLNAS/klagomål/A 61380-2019.docx", "A 61380-2019")</f>
         <v/>
       </c>
       <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLNAS/klagomålsmail/A 61380-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLNAS/klagomålsmail/A 61380-2019.docx", "A 61380-2019")</f>
         <v/>
       </c>
       <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLNAS/tillsyn/A 61380-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLNAS/tillsyn/A 61380-2019.docx", "A 61380-2019")</f>
         <v/>
       </c>
       <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLNAS/tillsynsmail/A 61380-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLNAS/tillsynsmail/A 61380-2019.docx", "A 61380-2019")</f>
         <v/>
       </c>
     </row>
@@ -1150,7 +1150,7 @@
         <v>43783</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1207,31 +1207,31 @@
         </is>
       </c>
       <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLNAS/artfynd/A 61384-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLNAS/artfynd/A 61384-2019.xlsx", "A 61384-2019")</f>
         <v/>
       </c>
       <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLNAS/kartor/A 61384-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLNAS/kartor/A 61384-2019.png", "A 61384-2019")</f>
         <v/>
       </c>
       <c r="U8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLNAS/knärot/A 61384-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLNAS/knärot/A 61384-2019.png", "A 61384-2019")</f>
         <v/>
       </c>
       <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLNAS/klagomål/A 61384-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLNAS/klagomål/A 61384-2019.docx", "A 61384-2019")</f>
         <v/>
       </c>
       <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLNAS/klagomålsmail/A 61384-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLNAS/klagomålsmail/A 61384-2019.docx", "A 61384-2019")</f>
         <v/>
       </c>
       <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLNAS/tillsyn/A 61384-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLNAS/tillsyn/A 61384-2019.docx", "A 61384-2019")</f>
         <v/>
       </c>
       <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLNAS/tillsynsmail/A 61384-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLNAS/tillsynsmail/A 61384-2019.docx", "A 61384-2019")</f>
         <v/>
       </c>
     </row>
@@ -1245,7 +1245,7 @@
         <v>43993</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1297,27 +1297,27 @@
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLNAS/artfynd/A 27617-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLNAS/artfynd/A 27617-2020.xlsx", "A 27617-2020")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLNAS/kartor/A 27617-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLNAS/kartor/A 27617-2020.png", "A 27617-2020")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLNAS/klagomål/A 27617-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLNAS/klagomål/A 27617-2020.docx", "A 27617-2020")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLNAS/klagomålsmail/A 27617-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLNAS/klagomålsmail/A 27617-2020.docx", "A 27617-2020")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLNAS/tillsyn/A 27617-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLNAS/tillsyn/A 27617-2020.docx", "A 27617-2020")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLNAS/tillsynsmail/A 27617-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLNAS/tillsynsmail/A 27617-2020.docx", "A 27617-2020")</f>
         <v/>
       </c>
     </row>
@@ -1331,7 +1331,7 @@
         <v>43999</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1388,27 +1388,27 @@
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLNAS/artfynd/A 28704-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLNAS/artfynd/A 28704-2020.xlsx", "A 28704-2020")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLNAS/kartor/A 28704-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLNAS/kartor/A 28704-2020.png", "A 28704-2020")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLNAS/klagomål/A 28704-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLNAS/klagomål/A 28704-2020.docx", "A 28704-2020")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLNAS/klagomålsmail/A 28704-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLNAS/klagomålsmail/A 28704-2020.docx", "A 28704-2020")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLNAS/tillsyn/A 28704-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLNAS/tillsyn/A 28704-2020.docx", "A 28704-2020")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLNAS/tillsynsmail/A 28704-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLNAS/tillsynsmail/A 28704-2020.docx", "A 28704-2020")</f>
         <v/>
       </c>
     </row>
@@ -1422,7 +1422,7 @@
         <v>44432</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1474,31 +1474,31 @@
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLNAS/artfynd/A 43259-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLNAS/artfynd/A 43259-2021.xlsx", "A 43259-2021")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLNAS/kartor/A 43259-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLNAS/kartor/A 43259-2021.png", "A 43259-2021")</f>
         <v/>
       </c>
       <c r="U11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLNAS/knärot/A 43259-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLNAS/knärot/A 43259-2021.png", "A 43259-2021")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLNAS/klagomål/A 43259-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLNAS/klagomål/A 43259-2021.docx", "A 43259-2021")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLNAS/klagomålsmail/A 43259-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLNAS/klagomålsmail/A 43259-2021.docx", "A 43259-2021")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLNAS/tillsyn/A 43259-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLNAS/tillsyn/A 43259-2021.docx", "A 43259-2021")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLNAS/tillsynsmail/A 43259-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLNAS/tillsynsmail/A 43259-2021.docx", "A 43259-2021")</f>
         <v/>
       </c>
     </row>
@@ -1512,7 +1512,7 @@
         <v>45092</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1569,27 +1569,27 @@
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLNAS/artfynd/A 26522-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLNAS/artfynd/A 26522-2023.xlsx", "A 26522-2023")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLNAS/kartor/A 26522-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLNAS/kartor/A 26522-2023.png", "A 26522-2023")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLNAS/klagomål/A 26522-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLNAS/klagomål/A 26522-2023.docx", "A 26522-2023")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLNAS/klagomålsmail/A 26522-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLNAS/klagomålsmail/A 26522-2023.docx", "A 26522-2023")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLNAS/tillsyn/A 26522-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLNAS/tillsyn/A 26522-2023.docx", "A 26522-2023")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLNAS/tillsynsmail/A 26522-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLNAS/tillsynsmail/A 26522-2023.docx", "A 26522-2023")</f>
         <v/>
       </c>
     </row>
@@ -1603,7 +1603,7 @@
         <v>43600</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1654,27 +1654,27 @@
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLNAS/artfynd/A 24535-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLNAS/artfynd/A 24535-2019.xlsx", "A 24535-2019")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLNAS/kartor/A 24535-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLNAS/kartor/A 24535-2019.png", "A 24535-2019")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLNAS/klagomål/A 24535-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLNAS/klagomål/A 24535-2019.docx", "A 24535-2019")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLNAS/klagomålsmail/A 24535-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLNAS/klagomålsmail/A 24535-2019.docx", "A 24535-2019")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLNAS/tillsyn/A 24535-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLNAS/tillsyn/A 24535-2019.docx", "A 24535-2019")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLNAS/tillsynsmail/A 24535-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLNAS/tillsynsmail/A 24535-2019.docx", "A 24535-2019")</f>
         <v/>
       </c>
     </row>
@@ -1688,7 +1688,7 @@
         <v>43619</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1739,31 +1739,31 @@
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLNAS/artfynd/A 27515-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLNAS/artfynd/A 27515-2019.xlsx", "A 27515-2019")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLNAS/kartor/A 27515-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLNAS/kartor/A 27515-2019.png", "A 27515-2019")</f>
         <v/>
       </c>
       <c r="U14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLNAS/knärot/A 27515-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLNAS/knärot/A 27515-2019.png", "A 27515-2019")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLNAS/klagomål/A 27515-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLNAS/klagomål/A 27515-2019.docx", "A 27515-2019")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLNAS/klagomålsmail/A 27515-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLNAS/klagomålsmail/A 27515-2019.docx", "A 27515-2019")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLNAS/tillsyn/A 27515-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLNAS/tillsyn/A 27515-2019.docx", "A 27515-2019")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLNAS/tillsynsmail/A 27515-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLNAS/tillsynsmail/A 27515-2019.docx", "A 27515-2019")</f>
         <v/>
       </c>
     </row>
@@ -1777,7 +1777,7 @@
         <v>43794</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1828,27 +1828,27 @@
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLNAS/artfynd/A 63545-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLNAS/artfynd/A 63545-2019.xlsx", "A 63545-2019")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLNAS/kartor/A 63545-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLNAS/kartor/A 63545-2019.png", "A 63545-2019")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLNAS/klagomål/A 63545-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLNAS/klagomål/A 63545-2019.docx", "A 63545-2019")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLNAS/klagomålsmail/A 63545-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLNAS/klagomålsmail/A 63545-2019.docx", "A 63545-2019")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLNAS/tillsyn/A 63545-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLNAS/tillsyn/A 63545-2019.docx", "A 63545-2019")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLNAS/tillsynsmail/A 63545-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLNAS/tillsynsmail/A 63545-2019.docx", "A 63545-2019")</f>
         <v/>
       </c>
     </row>
@@ -1862,7 +1862,7 @@
         <v>43864</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1913,27 +1913,27 @@
         </is>
       </c>
       <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLNAS/artfynd/A 5923-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLNAS/artfynd/A 5923-2020.xlsx", "A 5923-2020")</f>
         <v/>
       </c>
       <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLNAS/kartor/A 5923-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLNAS/kartor/A 5923-2020.png", "A 5923-2020")</f>
         <v/>
       </c>
       <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLNAS/klagomål/A 5923-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLNAS/klagomål/A 5923-2020.docx", "A 5923-2020")</f>
         <v/>
       </c>
       <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLNAS/klagomålsmail/A 5923-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLNAS/klagomålsmail/A 5923-2020.docx", "A 5923-2020")</f>
         <v/>
       </c>
       <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLNAS/tillsyn/A 5923-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLNAS/tillsyn/A 5923-2020.docx", "A 5923-2020")</f>
         <v/>
       </c>
       <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLNAS/tillsynsmail/A 5923-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLNAS/tillsynsmail/A 5923-2020.docx", "A 5923-2020")</f>
         <v/>
       </c>
     </row>
@@ -1947,7 +1947,7 @@
         <v>44081</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2003,27 +2003,27 @@
         </is>
       </c>
       <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLNAS/artfynd/A 43381-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLNAS/artfynd/A 43381-2020.xlsx", "A 43381-2020")</f>
         <v/>
       </c>
       <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLNAS/kartor/A 43381-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLNAS/kartor/A 43381-2020.png", "A 43381-2020")</f>
         <v/>
       </c>
       <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLNAS/klagomål/A 43381-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLNAS/klagomål/A 43381-2020.docx", "A 43381-2020")</f>
         <v/>
       </c>
       <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLNAS/klagomålsmail/A 43381-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLNAS/klagomålsmail/A 43381-2020.docx", "A 43381-2020")</f>
         <v/>
       </c>
       <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLNAS/tillsyn/A 43381-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLNAS/tillsyn/A 43381-2020.docx", "A 43381-2020")</f>
         <v/>
       </c>
       <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLNAS/tillsynsmail/A 43381-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLNAS/tillsynsmail/A 43381-2020.docx", "A 43381-2020")</f>
         <v/>
       </c>
     </row>
@@ -2037,7 +2037,7 @@
         <v>44515</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2093,27 +2093,27 @@
         </is>
       </c>
       <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLNAS/artfynd/A 65446-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLNAS/artfynd/A 65446-2021.xlsx", "A 65446-2021")</f>
         <v/>
       </c>
       <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLNAS/kartor/A 65446-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLNAS/kartor/A 65446-2021.png", "A 65446-2021")</f>
         <v/>
       </c>
       <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLNAS/klagomål/A 65446-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLNAS/klagomål/A 65446-2021.docx", "A 65446-2021")</f>
         <v/>
       </c>
       <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLNAS/klagomålsmail/A 65446-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLNAS/klagomålsmail/A 65446-2021.docx", "A 65446-2021")</f>
         <v/>
       </c>
       <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLNAS/tillsyn/A 65446-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLNAS/tillsyn/A 65446-2021.docx", "A 65446-2021")</f>
         <v/>
       </c>
       <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLNAS/tillsynsmail/A 65446-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLNAS/tillsynsmail/A 65446-2021.docx", "A 65446-2021")</f>
         <v/>
       </c>
     </row>
@@ -2127,7 +2127,7 @@
         <v>44813</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2178,27 +2178,27 @@
         </is>
       </c>
       <c r="S19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLNAS/artfynd/A 38529-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLNAS/artfynd/A 38529-2022.xlsx", "A 38529-2022")</f>
         <v/>
       </c>
       <c r="T19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLNAS/kartor/A 38529-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLNAS/kartor/A 38529-2022.png", "A 38529-2022")</f>
         <v/>
       </c>
       <c r="V19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLNAS/klagomål/A 38529-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLNAS/klagomål/A 38529-2022.docx", "A 38529-2022")</f>
         <v/>
       </c>
       <c r="W19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLNAS/klagomålsmail/A 38529-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLNAS/klagomålsmail/A 38529-2022.docx", "A 38529-2022")</f>
         <v/>
       </c>
       <c r="X19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLNAS/tillsyn/A 38529-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLNAS/tillsyn/A 38529-2022.docx", "A 38529-2022")</f>
         <v/>
       </c>
       <c r="Y19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLNAS/tillsynsmail/A 38529-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLNAS/tillsynsmail/A 38529-2022.docx", "A 38529-2022")</f>
         <v/>
       </c>
     </row>
@@ -2212,7 +2212,7 @@
         <v>44901</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2263,27 +2263,27 @@
         </is>
       </c>
       <c r="S20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLNAS/artfynd/A 58333-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLNAS/artfynd/A 58333-2022.xlsx", "A 58333-2022")</f>
         <v/>
       </c>
       <c r="T20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLNAS/kartor/A 58333-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLNAS/kartor/A 58333-2022.png", "A 58333-2022")</f>
         <v/>
       </c>
       <c r="V20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLNAS/klagomål/A 58333-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLNAS/klagomål/A 58333-2022.docx", "A 58333-2022")</f>
         <v/>
       </c>
       <c r="W20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLNAS/klagomålsmail/A 58333-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLNAS/klagomålsmail/A 58333-2022.docx", "A 58333-2022")</f>
         <v/>
       </c>
       <c r="X20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLNAS/tillsyn/A 58333-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLNAS/tillsyn/A 58333-2022.docx", "A 58333-2022")</f>
         <v/>
       </c>
       <c r="Y20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLNAS/tillsynsmail/A 58333-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLNAS/tillsynsmail/A 58333-2022.docx", "A 58333-2022")</f>
         <v/>
       </c>
     </row>
@@ -2297,7 +2297,7 @@
         <v>45058</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2348,31 +2348,31 @@
         </is>
       </c>
       <c r="S21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLNAS/artfynd/A 20710-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLNAS/artfynd/A 20710-2023.xlsx", "A 20710-2023")</f>
         <v/>
       </c>
       <c r="T21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLNAS/kartor/A 20710-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLNAS/kartor/A 20710-2023.png", "A 20710-2023")</f>
         <v/>
       </c>
       <c r="U21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLNAS/knärot/A 20710-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLNAS/knärot/A 20710-2023.png", "A 20710-2023")</f>
         <v/>
       </c>
       <c r="V21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLNAS/klagomål/A 20710-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLNAS/klagomål/A 20710-2023.docx", "A 20710-2023")</f>
         <v/>
       </c>
       <c r="W21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLNAS/klagomålsmail/A 20710-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLNAS/klagomålsmail/A 20710-2023.docx", "A 20710-2023")</f>
         <v/>
       </c>
       <c r="X21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLNAS/tillsyn/A 20710-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLNAS/tillsyn/A 20710-2023.docx", "A 20710-2023")</f>
         <v/>
       </c>
       <c r="Y21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLNAS/tillsynsmail/A 20710-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLNAS/tillsynsmail/A 20710-2023.docx", "A 20710-2023")</f>
         <v/>
       </c>
     </row>
@@ -2386,7 +2386,7 @@
         <v>45090</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2437,27 +2437,27 @@
         </is>
       </c>
       <c r="S22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLNAS/artfynd/A 25802-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLNAS/artfynd/A 25802-2023.xlsx", "A 25802-2023")</f>
         <v/>
       </c>
       <c r="T22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLNAS/kartor/A 25802-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLNAS/kartor/A 25802-2023.png", "A 25802-2023")</f>
         <v/>
       </c>
       <c r="V22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLNAS/klagomål/A 25802-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLNAS/klagomål/A 25802-2023.docx", "A 25802-2023")</f>
         <v/>
       </c>
       <c r="W22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLNAS/klagomålsmail/A 25802-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLNAS/klagomålsmail/A 25802-2023.docx", "A 25802-2023")</f>
         <v/>
       </c>
       <c r="X22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLNAS/tillsyn/A 25802-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLNAS/tillsyn/A 25802-2023.docx", "A 25802-2023")</f>
         <v/>
       </c>
       <c r="Y22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLNAS/tillsynsmail/A 25802-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLNAS/tillsynsmail/A 25802-2023.docx", "A 25802-2023")</f>
         <v/>
       </c>
     </row>
@@ -2471,7 +2471,7 @@
         <v>43360</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2528,7 +2528,7 @@
         <v>43375</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2585,7 +2585,7 @@
         <v>43382</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2642,7 +2642,7 @@
         <v>43389</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2699,7 +2699,7 @@
         <v>43392</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2756,7 +2756,7 @@
         <v>43410</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2813,7 +2813,7 @@
         <v>43413</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2875,7 +2875,7 @@
         <v>43416</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2932,7 +2932,7 @@
         <v>43417</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2989,7 +2989,7 @@
         <v>43417</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3046,7 +3046,7 @@
         <v>43418</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3103,7 +3103,7 @@
         <v>43418</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3160,7 +3160,7 @@
         <v>43418</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3217,7 +3217,7 @@
         <v>43419</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3274,7 +3274,7 @@
         <v>43420</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3331,7 +3331,7 @@
         <v>43424</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3388,7 +3388,7 @@
         <v>43424</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3445,7 +3445,7 @@
         <v>43424</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3502,7 +3502,7 @@
         <v>43424</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3559,7 +3559,7 @@
         <v>43424</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3616,7 +3616,7 @@
         <v>43424</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3673,7 +3673,7 @@
         <v>43424</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3730,7 +3730,7 @@
         <v>43427</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3787,7 +3787,7 @@
         <v>43427</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3844,7 +3844,7 @@
         <v>43427</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3901,7 +3901,7 @@
         <v>43427</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3958,7 +3958,7 @@
         <v>43427</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4015,7 +4015,7 @@
         <v>43430</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4072,7 +4072,7 @@
         <v>43431</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4129,7 +4129,7 @@
         <v>43431</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4186,7 +4186,7 @@
         <v>43434</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4243,7 +4243,7 @@
         <v>43434</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4300,7 +4300,7 @@
         <v>43437</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4357,7 +4357,7 @@
         <v>43441</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4414,7 +4414,7 @@
         <v>43444</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4471,7 +4471,7 @@
         <v>43445</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4533,7 +4533,7 @@
         <v>43445</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4590,7 +4590,7 @@
         <v>43446</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4647,7 +4647,7 @@
         <v>43446</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4704,7 +4704,7 @@
         <v>43447</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4761,7 +4761,7 @@
         <v>43448</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4818,7 +4818,7 @@
         <v>43452</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4875,7 +4875,7 @@
         <v>43452</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4932,7 +4932,7 @@
         <v>43454</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4989,7 +4989,7 @@
         <v>43455</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5046,7 +5046,7 @@
         <v>43455</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5103,7 +5103,7 @@
         <v>43467</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5160,7 +5160,7 @@
         <v>43472</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5217,7 +5217,7 @@
         <v>43472</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5274,7 +5274,7 @@
         <v>43472</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5331,7 +5331,7 @@
         <v>43476</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5388,7 +5388,7 @@
         <v>43476</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5445,7 +5445,7 @@
         <v>43476</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5502,7 +5502,7 @@
         <v>43480</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5559,7 +5559,7 @@
         <v>43482</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5616,7 +5616,7 @@
         <v>43482</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5673,7 +5673,7 @@
         <v>43497</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5730,7 +5730,7 @@
         <v>43509</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5787,7 +5787,7 @@
         <v>43515</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5844,7 +5844,7 @@
         <v>43517</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5901,7 +5901,7 @@
         <v>43518</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5958,7 +5958,7 @@
         <v>43522</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6015,7 +6015,7 @@
         <v>43523</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6072,7 +6072,7 @@
         <v>43528</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6129,7 +6129,7 @@
         <v>43528</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6186,7 +6186,7 @@
         <v>43529</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6243,7 +6243,7 @@
         <v>43532</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6300,7 +6300,7 @@
         <v>43532</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6357,7 +6357,7 @@
         <v>43536</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6414,7 +6414,7 @@
         <v>43537</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6471,7 +6471,7 @@
         <v>43559</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6528,7 +6528,7 @@
         <v>43560</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6585,7 +6585,7 @@
         <v>43563</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6642,7 +6642,7 @@
         <v>43564</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6699,7 +6699,7 @@
         <v>43567</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6756,7 +6756,7 @@
         <v>43571</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6813,7 +6813,7 @@
         <v>43580</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6870,7 +6870,7 @@
         <v>43583</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6927,7 +6927,7 @@
         <v>43587</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6984,7 +6984,7 @@
         <v>43593</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7041,7 +7041,7 @@
         <v>43593</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7098,7 +7098,7 @@
         <v>43594</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7155,7 +7155,7 @@
         <v>43598</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7212,7 +7212,7 @@
         <v>43599</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7269,7 +7269,7 @@
         <v>43599</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7326,7 +7326,7 @@
         <v>43599</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7383,7 +7383,7 @@
         <v>43605</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7445,7 +7445,7 @@
         <v>43607</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7502,7 +7502,7 @@
         <v>43612</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7559,7 +7559,7 @@
         <v>43619</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7621,7 +7621,7 @@
         <v>43619</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7678,7 +7678,7 @@
         <v>43619</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7740,7 +7740,7 @@
         <v>43619</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7802,7 +7802,7 @@
         <v>43620</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7859,7 +7859,7 @@
         <v>43620</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7916,7 +7916,7 @@
         <v>43629</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7978,7 +7978,7 @@
         <v>43629</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8035,7 +8035,7 @@
         <v>43633</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8092,7 +8092,7 @@
         <v>43635</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8149,7 +8149,7 @@
         <v>43640</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8206,7 +8206,7 @@
         <v>43641</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8263,7 +8263,7 @@
         <v>43643</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8320,7 +8320,7 @@
         <v>43649</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8377,7 +8377,7 @@
         <v>43649</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8434,7 +8434,7 @@
         <v>43651</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8496,7 +8496,7 @@
         <v>43654</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8553,7 +8553,7 @@
         <v>43656</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8610,7 +8610,7 @@
         <v>43657</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8667,7 +8667,7 @@
         <v>43657</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8729,7 +8729,7 @@
         <v>43664</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8786,7 +8786,7 @@
         <v>43689</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8843,7 +8843,7 @@
         <v>43691</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8905,7 +8905,7 @@
         <v>43698</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8962,7 +8962,7 @@
         <v>43698</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9019,7 +9019,7 @@
         <v>43703</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9076,7 +9076,7 @@
         <v>43704</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9133,7 +9133,7 @@
         <v>43704</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9190,7 +9190,7 @@
         <v>43705</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9252,7 +9252,7 @@
         <v>43706</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9309,7 +9309,7 @@
         <v>43707</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9371,7 +9371,7 @@
         <v>43707</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9433,7 +9433,7 @@
         <v>43710</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9490,7 +9490,7 @@
         <v>43711</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9552,7 +9552,7 @@
         <v>43717</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9609,7 +9609,7 @@
         <v>43718</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9666,7 +9666,7 @@
         <v>43718</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9723,7 +9723,7 @@
         <v>43721</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9785,7 +9785,7 @@
         <v>43726</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9842,7 +9842,7 @@
         <v>43732</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9899,7 +9899,7 @@
         <v>43733</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9961,7 +9961,7 @@
         <v>43733</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10023,7 +10023,7 @@
         <v>43738</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10080,7 +10080,7 @@
         <v>43739</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10137,7 +10137,7 @@
         <v>43740</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10194,7 +10194,7 @@
         <v>43741</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10251,7 +10251,7 @@
         <v>43742</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10308,7 +10308,7 @@
         <v>43742</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10365,7 +10365,7 @@
         <v>43742</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10422,7 +10422,7 @@
         <v>43748</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10479,7 +10479,7 @@
         <v>43753</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10536,7 +10536,7 @@
         <v>43754</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10598,7 +10598,7 @@
         <v>43754</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10655,7 +10655,7 @@
         <v>43755</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10717,7 +10717,7 @@
         <v>43759</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10774,7 +10774,7 @@
         <v>43759</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10831,7 +10831,7 @@
         <v>43760</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10888,7 +10888,7 @@
         <v>43761</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10950,7 +10950,7 @@
         <v>43767</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11012,7 +11012,7 @@
         <v>43769</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11069,7 +11069,7 @@
         <v>43773</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11126,7 +11126,7 @@
         <v>43776</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11183,7 +11183,7 @@
         <v>43777</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11240,7 +11240,7 @@
         <v>43781</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11302,7 +11302,7 @@
         <v>43783</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11359,7 +11359,7 @@
         <v>43783</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11416,7 +11416,7 @@
         <v>43783</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11468,23 +11468,23 @@
       </c>
       <c r="R178" s="2" t="inlineStr"/>
       <c r="U178">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLNAS/knärot/A 61374-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLNAS/knärot/A 61374-2019.png", "A 61374-2019")</f>
         <v/>
       </c>
       <c r="V178">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLNAS/klagomål/A 61374-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLNAS/klagomål/A 61374-2019.docx", "A 61374-2019")</f>
         <v/>
       </c>
       <c r="W178">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLNAS/klagomålsmail/A 61374-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLNAS/klagomålsmail/A 61374-2019.docx", "A 61374-2019")</f>
         <v/>
       </c>
       <c r="X178">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLNAS/tillsyn/A 61374-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLNAS/tillsyn/A 61374-2019.docx", "A 61374-2019")</f>
         <v/>
       </c>
       <c r="Y178">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLNAS/tillsynsmail/A 61374-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLNAS/tillsynsmail/A 61374-2019.docx", "A 61374-2019")</f>
         <v/>
       </c>
     </row>
@@ -11498,7 +11498,7 @@
         <v>43787</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11555,7 +11555,7 @@
         <v>43789</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11612,7 +11612,7 @@
         <v>43789</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11669,7 +11669,7 @@
         <v>43790</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11726,7 +11726,7 @@
         <v>43794</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11783,7 +11783,7 @@
         <v>43795</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11840,7 +11840,7 @@
         <v>43798</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11897,7 +11897,7 @@
         <v>43800</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11954,7 +11954,7 @@
         <v>43802</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12011,7 +12011,7 @@
         <v>43808</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12073,7 +12073,7 @@
         <v>43809</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12135,7 +12135,7 @@
         <v>43809</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12197,7 +12197,7 @@
         <v>43809</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12254,7 +12254,7 @@
         <v>43812</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12311,7 +12311,7 @@
         <v>43815</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12368,7 +12368,7 @@
         <v>43819</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12425,7 +12425,7 @@
         <v>43819</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12482,7 +12482,7 @@
         <v>43837</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12539,7 +12539,7 @@
         <v>43837</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12596,7 +12596,7 @@
         <v>43840</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12653,7 +12653,7 @@
         <v>43840</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12710,7 +12710,7 @@
         <v>43846</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12767,7 +12767,7 @@
         <v>43850</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12824,7 +12824,7 @@
         <v>43852</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12886,7 +12886,7 @@
         <v>43853</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12948,7 +12948,7 @@
         <v>43858</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13010,7 +13010,7 @@
         <v>43859</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13072,7 +13072,7 @@
         <v>43865</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13129,7 +13129,7 @@
         <v>43867</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13186,7 +13186,7 @@
         <v>43871</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13243,7 +13243,7 @@
         <v>43878</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13300,7 +13300,7 @@
         <v>43878</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13357,7 +13357,7 @@
         <v>43879</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13414,7 +13414,7 @@
         <v>43882</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13471,7 +13471,7 @@
         <v>43886</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13528,7 +13528,7 @@
         <v>43886</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13585,7 +13585,7 @@
         <v>43887</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13642,7 +13642,7 @@
         <v>43888</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13699,7 +13699,7 @@
         <v>43892</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13756,7 +13756,7 @@
         <v>43894</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13813,7 +13813,7 @@
         <v>43894</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13870,7 +13870,7 @@
         <v>43901</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13932,7 +13932,7 @@
         <v>43902</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13989,7 +13989,7 @@
         <v>43913</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14046,7 +14046,7 @@
         <v>43913</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14103,7 +14103,7 @@
         <v>43913</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14165,7 +14165,7 @@
         <v>43916</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14222,7 +14222,7 @@
         <v>43916</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14279,7 +14279,7 @@
         <v>43924</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14336,7 +14336,7 @@
         <v>43927</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14393,7 +14393,7 @@
         <v>43930</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14450,7 +14450,7 @@
         <v>43945</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14507,7 +14507,7 @@
         <v>43949</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14564,7 +14564,7 @@
         <v>43949</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14621,7 +14621,7 @@
         <v>43956</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14678,7 +14678,7 @@
         <v>43987</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14735,7 +14735,7 @@
         <v>43991</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14792,7 +14792,7 @@
         <v>43993</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14854,7 +14854,7 @@
         <v>43993</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14916,7 +14916,7 @@
         <v>43994</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14973,7 +14973,7 @@
         <v>43998</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15030,7 +15030,7 @@
         <v>44000</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15092,7 +15092,7 @@
         <v>44006</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15149,7 +15149,7 @@
         <v>44008</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15206,7 +15206,7 @@
         <v>44012</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15263,7 +15263,7 @@
         <v>44013</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15320,7 +15320,7 @@
         <v>44014</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15377,7 +15377,7 @@
         <v>44014</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15434,7 +15434,7 @@
         <v>44014</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15491,7 +15491,7 @@
         <v>44014</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15548,7 +15548,7 @@
         <v>44014</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15605,7 +15605,7 @@
         <v>44015</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15662,7 +15662,7 @@
         <v>44015</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15719,7 +15719,7 @@
         <v>44035</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15776,7 +15776,7 @@
         <v>44035</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15833,7 +15833,7 @@
         <v>44055</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15890,7 +15890,7 @@
         <v>44057</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15947,7 +15947,7 @@
         <v>44061</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16004,7 +16004,7 @@
         <v>44062</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16061,7 +16061,7 @@
         <v>44064</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16118,7 +16118,7 @@
         <v>44070</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16175,7 +16175,7 @@
         <v>44076</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16232,7 +16232,7 @@
         <v>44076</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16289,7 +16289,7 @@
         <v>44083</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16346,7 +16346,7 @@
         <v>44083</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16403,7 +16403,7 @@
         <v>44083</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16460,7 +16460,7 @@
         <v>44083</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16517,7 +16517,7 @@
         <v>44084</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16574,7 +16574,7 @@
         <v>44088</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16636,7 +16636,7 @@
         <v>44089</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16693,7 +16693,7 @@
         <v>44090</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16755,7 +16755,7 @@
         <v>44095</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16812,7 +16812,7 @@
         <v>44103</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16869,7 +16869,7 @@
         <v>44105</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16926,7 +16926,7 @@
         <v>44105</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16983,7 +16983,7 @@
         <v>44110</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17040,7 +17040,7 @@
         <v>44110</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17097,7 +17097,7 @@
         <v>44116</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17154,7 +17154,7 @@
         <v>44119</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17216,7 +17216,7 @@
         <v>44119</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17278,7 +17278,7 @@
         <v>44119</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17340,7 +17340,7 @@
         <v>44120</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17397,7 +17397,7 @@
         <v>44125</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17454,7 +17454,7 @@
         <v>44125</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17511,7 +17511,7 @@
         <v>44127</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17568,7 +17568,7 @@
         <v>44127</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17625,7 +17625,7 @@
         <v>44127</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17682,7 +17682,7 @@
         <v>44130</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17739,7 +17739,7 @@
         <v>44133</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17796,7 +17796,7 @@
         <v>44133</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17853,7 +17853,7 @@
         <v>44133</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17910,7 +17910,7 @@
         <v>44137</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17967,7 +17967,7 @@
         <v>44140</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18029,7 +18029,7 @@
         <v>44141</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18086,7 +18086,7 @@
         <v>44144</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18143,7 +18143,7 @@
         <v>44144</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18200,7 +18200,7 @@
         <v>44146</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18257,7 +18257,7 @@
         <v>44147</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18314,7 +18314,7 @@
         <v>44147</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18371,7 +18371,7 @@
         <v>44147</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18428,7 +18428,7 @@
         <v>44147</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18485,7 +18485,7 @@
         <v>44148</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18542,7 +18542,7 @@
         <v>44148</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18604,7 +18604,7 @@
         <v>44151</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18661,7 +18661,7 @@
         <v>44151</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18718,7 +18718,7 @@
         <v>44151</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18780,7 +18780,7 @@
         <v>44151</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18837,7 +18837,7 @@
         <v>44151</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18894,7 +18894,7 @@
         <v>44151</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18951,7 +18951,7 @@
         <v>44151</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19008,7 +19008,7 @@
         <v>44152</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19070,7 +19070,7 @@
         <v>44153</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19127,7 +19127,7 @@
         <v>44153</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19189,7 +19189,7 @@
         <v>44153</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19246,7 +19246,7 @@
         <v>44153</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19308,7 +19308,7 @@
         <v>44160</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19365,7 +19365,7 @@
         <v>44161</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19422,7 +19422,7 @@
         <v>44161</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19484,7 +19484,7 @@
         <v>44162</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19541,7 +19541,7 @@
         <v>44165</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19598,7 +19598,7 @@
         <v>44166</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19655,7 +19655,7 @@
         <v>44167</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19712,7 +19712,7 @@
         <v>44169</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19769,7 +19769,7 @@
         <v>44176</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19826,7 +19826,7 @@
         <v>44180</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19883,7 +19883,7 @@
         <v>44180</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19940,7 +19940,7 @@
         <v>44180</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19997,7 +19997,7 @@
         <v>44180</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20059,7 +20059,7 @@
         <v>44186</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20116,7 +20116,7 @@
         <v>44187</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20173,7 +20173,7 @@
         <v>44187</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20230,7 +20230,7 @@
         <v>44187</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20287,7 +20287,7 @@
         <v>44188</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20344,7 +20344,7 @@
         <v>44194</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20401,7 +20401,7 @@
         <v>44195</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20458,7 +20458,7 @@
         <v>44203</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20520,7 +20520,7 @@
         <v>44203</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20582,7 +20582,7 @@
         <v>44203</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20644,7 +20644,7 @@
         <v>44203</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20706,7 +20706,7 @@
         <v>44203</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20768,7 +20768,7 @@
         <v>44204</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20830,7 +20830,7 @@
         <v>44204</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20892,7 +20892,7 @@
         <v>44207</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20954,7 +20954,7 @@
         <v>44207</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21016,7 +21016,7 @@
         <v>44208</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21078,7 +21078,7 @@
         <v>44208</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21140,7 +21140,7 @@
         <v>44208</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21197,7 +21197,7 @@
         <v>44209</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21259,7 +21259,7 @@
         <v>44210</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21321,7 +21321,7 @@
         <v>44211</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21378,7 +21378,7 @@
         <v>44211</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21435,7 +21435,7 @@
         <v>44218</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21492,7 +21492,7 @@
         <v>44224</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21549,7 +21549,7 @@
         <v>44232</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21606,7 +21606,7 @@
         <v>44239</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21663,7 +21663,7 @@
         <v>44239</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21720,7 +21720,7 @@
         <v>44242</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21777,7 +21777,7 @@
         <v>44267</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21834,7 +21834,7 @@
         <v>44270</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21891,7 +21891,7 @@
         <v>44278</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21948,7 +21948,7 @@
         <v>44278</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22005,7 +22005,7 @@
         <v>44279</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22067,7 +22067,7 @@
         <v>44279</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22129,7 +22129,7 @@
         <v>44279</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22191,7 +22191,7 @@
         <v>44295</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22248,7 +22248,7 @@
         <v>44299</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22305,7 +22305,7 @@
         <v>44316</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22362,7 +22362,7 @@
         <v>44326</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22424,7 +22424,7 @@
         <v>44336</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22481,7 +22481,7 @@
         <v>44347</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22538,7 +22538,7 @@
         <v>44347</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22595,7 +22595,7 @@
         <v>44364</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22652,7 +22652,7 @@
         <v>44365</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22714,7 +22714,7 @@
         <v>44369</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22776,7 +22776,7 @@
         <v>44370</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22838,7 +22838,7 @@
         <v>44370</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22895,7 +22895,7 @@
         <v>44370</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22957,7 +22957,7 @@
         <v>44371</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23014,7 +23014,7 @@
         <v>44379</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23076,7 +23076,7 @@
         <v>44381</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23133,7 +23133,7 @@
         <v>44381</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23190,7 +23190,7 @@
         <v>44381</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23247,7 +23247,7 @@
         <v>44382</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23309,7 +23309,7 @@
         <v>44382</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23371,7 +23371,7 @@
         <v>44383</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23433,7 +23433,7 @@
         <v>44384</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23490,7 +23490,7 @@
         <v>44389</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23547,7 +23547,7 @@
         <v>44407</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23604,7 +23604,7 @@
         <v>44424</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23666,7 +23666,7 @@
         <v>44424</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23723,7 +23723,7 @@
         <v>44438</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23785,7 +23785,7 @@
         <v>44452</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23842,7 +23842,7 @@
         <v>44452</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23899,7 +23899,7 @@
         <v>44452</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23956,7 +23956,7 @@
         <v>44454</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24013,7 +24013,7 @@
         <v>44460</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24070,7 +24070,7 @@
         <v>44467</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24132,7 +24132,7 @@
         <v>44480</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24189,7 +24189,7 @@
         <v>44480</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24251,7 +24251,7 @@
         <v>44484</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24308,7 +24308,7 @@
         <v>44488</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24365,7 +24365,7 @@
         <v>44488</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24422,7 +24422,7 @@
         <v>44489</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24479,7 +24479,7 @@
         <v>44496</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24541,7 +24541,7 @@
         <v>44496</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24598,7 +24598,7 @@
         <v>44503</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24660,7 +24660,7 @@
         <v>44505</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24722,7 +24722,7 @@
         <v>44505</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24784,7 +24784,7 @@
         <v>44505</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24846,7 +24846,7 @@
         <v>44505</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24908,7 +24908,7 @@
         <v>44509</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24970,7 +24970,7 @@
         <v>44509</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25032,7 +25032,7 @@
         <v>44509</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25094,7 +25094,7 @@
         <v>44509</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25156,7 +25156,7 @@
         <v>44509</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25213,7 +25213,7 @@
         <v>44509</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25275,7 +25275,7 @@
         <v>44509</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25337,7 +25337,7 @@
         <v>44509</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25399,7 +25399,7 @@
         <v>44511</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25461,7 +25461,7 @@
         <v>44515</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25523,7 +25523,7 @@
         <v>44517</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25580,7 +25580,7 @@
         <v>44517</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25637,7 +25637,7 @@
         <v>44517</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25694,7 +25694,7 @@
         <v>44517</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25751,7 +25751,7 @@
         <v>44517</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25808,7 +25808,7 @@
         <v>44522</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25870,7 +25870,7 @@
         <v>44524</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25932,7 +25932,7 @@
         <v>44526</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25994,7 +25994,7 @@
         <v>44526</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26051,7 +26051,7 @@
         <v>44531</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26108,7 +26108,7 @@
         <v>44532</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26170,7 +26170,7 @@
         <v>44532</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26232,7 +26232,7 @@
         <v>44536</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26289,7 +26289,7 @@
         <v>44572</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26346,7 +26346,7 @@
         <v>44585</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26403,7 +26403,7 @@
         <v>44592</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26460,7 +26460,7 @@
         <v>44594</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26517,7 +26517,7 @@
         <v>44595</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26574,7 +26574,7 @@
         <v>44595</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26631,7 +26631,7 @@
         <v>44595</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26688,7 +26688,7 @@
         <v>44596</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26745,7 +26745,7 @@
         <v>44596</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26802,7 +26802,7 @@
         <v>44601</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26859,7 +26859,7 @@
         <v>44603</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26916,7 +26916,7 @@
         <v>44608</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26973,7 +26973,7 @@
         <v>44616</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27030,7 +27030,7 @@
         <v>44617</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27087,7 +27087,7 @@
         <v>44620</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27144,7 +27144,7 @@
         <v>44620</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27201,7 +27201,7 @@
         <v>44623</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27258,7 +27258,7 @@
         <v>44631</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27315,7 +27315,7 @@
         <v>44636</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27372,7 +27372,7 @@
         <v>44642</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27429,7 +27429,7 @@
         <v>44650</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27486,7 +27486,7 @@
         <v>44650</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27543,7 +27543,7 @@
         <v>44652</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27605,7 +27605,7 @@
         <v>44659</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27662,7 +27662,7 @@
         <v>44662</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27719,7 +27719,7 @@
         <v>44671</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27776,7 +27776,7 @@
         <v>44676</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27833,7 +27833,7 @@
         <v>44691</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27890,7 +27890,7 @@
         <v>44697</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27952,7 +27952,7 @@
         <v>44704</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28014,7 +28014,7 @@
         <v>44704</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28076,7 +28076,7 @@
         <v>44705</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28133,7 +28133,7 @@
         <v>44706</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28190,7 +28190,7 @@
         <v>44712</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28247,7 +28247,7 @@
         <v>44712</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28309,7 +28309,7 @@
         <v>44712</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28371,7 +28371,7 @@
         <v>44714</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28428,7 +28428,7 @@
         <v>44720</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28485,7 +28485,7 @@
         <v>44720</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28542,7 +28542,7 @@
         <v>44722</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28599,7 +28599,7 @@
         <v>44728</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28656,7 +28656,7 @@
         <v>44729</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28718,7 +28718,7 @@
         <v>44729</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28780,7 +28780,7 @@
         <v>44729</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28842,7 +28842,7 @@
         <v>44732</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28899,7 +28899,7 @@
         <v>44732</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28956,7 +28956,7 @@
         <v>44763</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29013,7 +29013,7 @@
         <v>44783</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29075,7 +29075,7 @@
         <v>44785</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29137,7 +29137,7 @@
         <v>44791</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29194,7 +29194,7 @@
         <v>44796</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29251,7 +29251,7 @@
         <v>44796</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29308,7 +29308,7 @@
         <v>44798</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29365,7 +29365,7 @@
         <v>44799</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29422,7 +29422,7 @@
         <v>44799</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29479,7 +29479,7 @@
         <v>44805</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29536,7 +29536,7 @@
         <v>44806</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29593,7 +29593,7 @@
         <v>44806</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29650,7 +29650,7 @@
         <v>44806</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29707,7 +29707,7 @@
         <v>44817</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29764,7 +29764,7 @@
         <v>44818</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29821,7 +29821,7 @@
         <v>44819</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29878,7 +29878,7 @@
         <v>44826</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29940,7 +29940,7 @@
         <v>44827</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30002,7 +30002,7 @@
         <v>44830</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30059,7 +30059,7 @@
         <v>44839</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30116,7 +30116,7 @@
         <v>44839</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30173,7 +30173,7 @@
         <v>44840</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30230,7 +30230,7 @@
         <v>44846</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30287,7 +30287,7 @@
         <v>44846</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30344,7 +30344,7 @@
         <v>44846</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30401,7 +30401,7 @@
         <v>44846</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30458,7 +30458,7 @@
         <v>44854</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30515,7 +30515,7 @@
         <v>44859</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30572,7 +30572,7 @@
         <v>44859</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30629,7 +30629,7 @@
         <v>44861</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30686,7 +30686,7 @@
         <v>44862</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30743,7 +30743,7 @@
         <v>44873</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30800,7 +30800,7 @@
         <v>44875</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30862,7 +30862,7 @@
         <v>44875</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30919,7 +30919,7 @@
         <v>44876</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30981,7 +30981,7 @@
         <v>44878</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31043,7 +31043,7 @@
         <v>44879</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31105,7 +31105,7 @@
         <v>44879</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31167,7 +31167,7 @@
         <v>44879</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31229,7 +31229,7 @@
         <v>44879</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31291,7 +31291,7 @@
         <v>44879</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31353,7 +31353,7 @@
         <v>44879</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31415,7 +31415,7 @@
         <v>44880</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31472,7 +31472,7 @@
         <v>44881</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31534,7 +31534,7 @@
         <v>44881</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31596,7 +31596,7 @@
         <v>44883</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31653,7 +31653,7 @@
         <v>44883</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31715,7 +31715,7 @@
         <v>44886</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31777,7 +31777,7 @@
         <v>44886</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31839,7 +31839,7 @@
         <v>44893</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31896,7 +31896,7 @@
         <v>44894</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31953,7 +31953,7 @@
         <v>44894</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32010,7 +32010,7 @@
         <v>44895</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32067,7 +32067,7 @@
         <v>44897</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32124,7 +32124,7 @@
         <v>44901</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32181,7 +32181,7 @@
         <v>44908</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32238,7 +32238,7 @@
         <v>44909</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32295,7 +32295,7 @@
         <v>44909</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32352,7 +32352,7 @@
         <v>44914</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32409,7 +32409,7 @@
         <v>44915</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32466,7 +32466,7 @@
         <v>44915</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32523,7 +32523,7 @@
         <v>44916</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32580,7 +32580,7 @@
         <v>44929</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32637,7 +32637,7 @@
         <v>44944</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32694,7 +32694,7 @@
         <v>44945</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32751,7 +32751,7 @@
         <v>44946</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32808,7 +32808,7 @@
         <v>44952</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32865,7 +32865,7 @@
         <v>44953</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32927,7 +32927,7 @@
         <v>44966</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -32984,7 +32984,7 @@
         <v>44967</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33041,7 +33041,7 @@
         <v>44967</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33098,7 +33098,7 @@
         <v>44970</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33155,7 +33155,7 @@
         <v>44971</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33212,7 +33212,7 @@
         <v>44993</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33269,7 +33269,7 @@
         <v>44993</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33326,7 +33326,7 @@
         <v>44993</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33383,7 +33383,7 @@
         <v>44993</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33440,7 +33440,7 @@
         <v>45008</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33497,7 +33497,7 @@
         <v>45009</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -33554,7 +33554,7 @@
         <v>45012</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -33611,7 +33611,7 @@
         <v>45014</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33668,7 +33668,7 @@
         <v>45016</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33725,7 +33725,7 @@
         <v>45016</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33782,7 +33782,7 @@
         <v>45016</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33839,7 +33839,7 @@
         <v>45016</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -33896,7 +33896,7 @@
         <v>45016</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -33953,7 +33953,7 @@
         <v>45016</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34010,7 +34010,7 @@
         <v>45016</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34067,7 +34067,7 @@
         <v>45030</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34124,7 +34124,7 @@
         <v>45033</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34181,7 +34181,7 @@
         <v>45033</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34238,7 +34238,7 @@
         <v>45036</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34295,7 +34295,7 @@
         <v>45037</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34357,7 +34357,7 @@
         <v>45038</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -34414,7 +34414,7 @@
         <v>45041</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34471,7 +34471,7 @@
         <v>45041</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -34533,7 +34533,7 @@
         <v>45043</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -34590,7 +34590,7 @@
         <v>45044</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34647,7 +34647,7 @@
         <v>45044</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -34704,7 +34704,7 @@
         <v>45044</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -34761,7 +34761,7 @@
         <v>45058</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -34823,7 +34823,7 @@
         <v>45061</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -34880,7 +34880,7 @@
         <v>45062</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -34942,7 +34942,7 @@
         <v>45062</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -34999,7 +34999,7 @@
         <v>45063</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35061,7 +35061,7 @@
         <v>45070</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -35118,7 +35118,7 @@
         <v>45072</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -35180,7 +35180,7 @@
         <v>45072</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -35237,7 +35237,7 @@
         <v>45076</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35299,7 +35299,7 @@
         <v>45078</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35356,7 +35356,7 @@
         <v>45078</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -35418,7 +35418,7 @@
         <v>45079</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -35475,7 +35475,7 @@
         <v>45082</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -35532,7 +35532,7 @@
         <v>45082</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -35589,7 +35589,7 @@
         <v>45084</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -35651,7 +35651,7 @@
         <v>45084</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -35708,7 +35708,7 @@
         <v>45085</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -35765,7 +35765,7 @@
         <v>45089</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -35822,7 +35822,7 @@
         <v>45090</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -35879,7 +35879,7 @@
         <v>45090</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -35936,7 +35936,7 @@
         <v>45090</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -35993,7 +35993,7 @@
         <v>45090</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -36050,7 +36050,7 @@
         <v>45091</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -36107,7 +36107,7 @@
         <v>45097</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -36164,7 +36164,7 @@
         <v>45097</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -36221,7 +36221,7 @@
         <v>45097</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -36278,7 +36278,7 @@
         <v>45097</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -36335,7 +36335,7 @@
         <v>45098</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -36397,7 +36397,7 @@
         <v>45099</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -36454,7 +36454,7 @@
         <v>45103</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -36511,7 +36511,7 @@
         <v>45104</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -36568,7 +36568,7 @@
         <v>45104</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -36625,7 +36625,7 @@
         <v>45107</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -36687,7 +36687,7 @@
         <v>45107</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -36744,7 +36744,7 @@
         <v>45107</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -36801,7 +36801,7 @@
         <v>45107</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -36858,7 +36858,7 @@
         <v>45107</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -36915,7 +36915,7 @@
         <v>45107</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -36972,7 +36972,7 @@
         <v>45107</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -37034,7 +37034,7 @@
         <v>45107</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -37096,7 +37096,7 @@
         <v>45107</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -37153,7 +37153,7 @@
         <v>45110</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -37210,7 +37210,7 @@
         <v>45110</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -37267,7 +37267,7 @@
         <v>45112</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -37329,7 +37329,7 @@
         <v>45113</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -37391,7 +37391,7 @@
         <v>45113</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -37448,7 +37448,7 @@
         <v>45114</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -37505,7 +37505,7 @@
         <v>45114</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -37562,7 +37562,7 @@
         <v>45117</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -37619,7 +37619,7 @@
         <v>45119</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -37681,7 +37681,7 @@
         <v>45120</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -37738,7 +37738,7 @@
         <v>45121</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -37795,7 +37795,7 @@
         <v>45123</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -37852,7 +37852,7 @@
         <v>45132</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -37909,7 +37909,7 @@
         <v>45138</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -37966,7 +37966,7 @@
         <v>45138</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -38023,7 +38023,7 @@
         <v>45147</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -38080,7 +38080,7 @@
         <v>45149</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -38137,7 +38137,7 @@
         <v>45149</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -38194,7 +38194,7 @@
         <v>45161</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -38256,7 +38256,7 @@
         <v>45161</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -38318,7 +38318,7 @@
         <v>45161</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -38380,7 +38380,7 @@
         <v>45169</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -38437,7 +38437,7 @@
         <v>45173</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -38499,7 +38499,7 @@
         <v>45173</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -38556,7 +38556,7 @@
         <v>45175</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -38613,7 +38613,7 @@
         <v>45176</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -38670,7 +38670,7 @@
         <v>45180</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -38727,7 +38727,7 @@
         <v>45180</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>

--- a/Översikt BOLLNÄS.xlsx
+++ b/Översikt BOLLNÄS.xlsx
@@ -572,7 +572,7 @@
         <v>44109</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -675,7 +675,7 @@
         <v>44095</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -776,7 +776,7 @@
         <v>44382</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -868,7 +868,7 @@
         <v>44729</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -960,7 +960,7 @@
         <v>43783</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1055,7 +1055,7 @@
         <v>43783</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1150,7 +1150,7 @@
         <v>43783</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1245,7 +1245,7 @@
         <v>43993</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1331,7 +1331,7 @@
         <v>43999</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1422,7 +1422,7 @@
         <v>44432</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1512,7 +1512,7 @@
         <v>45092</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         <v>43600</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1688,7 +1688,7 @@
         <v>43619</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1777,7 +1777,7 @@
         <v>43794</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1862,7 +1862,7 @@
         <v>43864</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1947,7 +1947,7 @@
         <v>44081</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2037,7 +2037,7 @@
         <v>44515</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2127,7 +2127,7 @@
         <v>44813</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2212,7 +2212,7 @@
         <v>44901</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2297,7 +2297,7 @@
         <v>45058</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         <v>45090</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2471,7 +2471,7 @@
         <v>43360</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2528,7 +2528,7 @@
         <v>43375</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2585,7 +2585,7 @@
         <v>43382</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2642,7 +2642,7 @@
         <v>43389</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2699,7 +2699,7 @@
         <v>43392</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2756,7 +2756,7 @@
         <v>43410</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2813,7 +2813,7 @@
         <v>43413</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2875,7 +2875,7 @@
         <v>43416</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2932,7 +2932,7 @@
         <v>43417</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2989,7 +2989,7 @@
         <v>43417</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3046,7 +3046,7 @@
         <v>43418</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3103,7 +3103,7 @@
         <v>43418</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3160,7 +3160,7 @@
         <v>43418</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3217,7 +3217,7 @@
         <v>43419</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3274,7 +3274,7 @@
         <v>43420</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3331,7 +3331,7 @@
         <v>43424</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3388,7 +3388,7 @@
         <v>43424</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3445,7 +3445,7 @@
         <v>43424</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3502,7 +3502,7 @@
         <v>43424</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3559,7 +3559,7 @@
         <v>43424</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3616,7 +3616,7 @@
         <v>43424</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3673,7 +3673,7 @@
         <v>43424</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3730,7 +3730,7 @@
         <v>43427</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3787,7 +3787,7 @@
         <v>43427</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3844,7 +3844,7 @@
         <v>43427</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3901,7 +3901,7 @@
         <v>43427</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3958,7 +3958,7 @@
         <v>43427</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4015,7 +4015,7 @@
         <v>43430</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4072,7 +4072,7 @@
         <v>43431</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4129,7 +4129,7 @@
         <v>43431</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4186,7 +4186,7 @@
         <v>43434</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4243,7 +4243,7 @@
         <v>43434</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4300,7 +4300,7 @@
         <v>43437</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4357,7 +4357,7 @@
         <v>43441</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4414,7 +4414,7 @@
         <v>43444</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4471,7 +4471,7 @@
         <v>43445</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4533,7 +4533,7 @@
         <v>43445</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4590,7 +4590,7 @@
         <v>43446</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4647,7 +4647,7 @@
         <v>43446</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4704,7 +4704,7 @@
         <v>43447</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4761,7 +4761,7 @@
         <v>43448</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4818,7 +4818,7 @@
         <v>43452</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4875,7 +4875,7 @@
         <v>43452</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4932,7 +4932,7 @@
         <v>43454</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4989,7 +4989,7 @@
         <v>43455</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5046,7 +5046,7 @@
         <v>43455</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5103,7 +5103,7 @@
         <v>43467</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5160,7 +5160,7 @@
         <v>43472</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5217,7 +5217,7 @@
         <v>43472</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5274,7 +5274,7 @@
         <v>43472</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5331,7 +5331,7 @@
         <v>43476</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5388,7 +5388,7 @@
         <v>43476</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5445,7 +5445,7 @@
         <v>43476</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5502,7 +5502,7 @@
         <v>43480</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5559,7 +5559,7 @@
         <v>43482</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5616,7 +5616,7 @@
         <v>43482</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5673,7 +5673,7 @@
         <v>43497</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5730,7 +5730,7 @@
         <v>43509</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5787,7 +5787,7 @@
         <v>43515</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5844,7 +5844,7 @@
         <v>43517</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5901,7 +5901,7 @@
         <v>43518</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5958,7 +5958,7 @@
         <v>43522</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6015,7 +6015,7 @@
         <v>43523</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6072,7 +6072,7 @@
         <v>43528</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6129,7 +6129,7 @@
         <v>43528</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6186,7 +6186,7 @@
         <v>43529</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6243,7 +6243,7 @@
         <v>43532</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6300,7 +6300,7 @@
         <v>43532</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6357,7 +6357,7 @@
         <v>43536</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6414,7 +6414,7 @@
         <v>43537</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6471,7 +6471,7 @@
         <v>43559</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6528,7 +6528,7 @@
         <v>43560</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6585,7 +6585,7 @@
         <v>43563</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6642,7 +6642,7 @@
         <v>43564</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6699,7 +6699,7 @@
         <v>43567</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6756,7 +6756,7 @@
         <v>43571</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6813,7 +6813,7 @@
         <v>43580</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6870,7 +6870,7 @@
         <v>43583</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6927,7 +6927,7 @@
         <v>43587</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6984,7 +6984,7 @@
         <v>43593</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7041,7 +7041,7 @@
         <v>43593</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7098,7 +7098,7 @@
         <v>43594</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7155,7 +7155,7 @@
         <v>43598</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7212,7 +7212,7 @@
         <v>43599</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7269,7 +7269,7 @@
         <v>43599</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7326,7 +7326,7 @@
         <v>43599</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7383,7 +7383,7 @@
         <v>43605</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7445,7 +7445,7 @@
         <v>43607</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7502,7 +7502,7 @@
         <v>43612</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7559,7 +7559,7 @@
         <v>43619</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7621,7 +7621,7 @@
         <v>43619</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7678,7 +7678,7 @@
         <v>43619</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7740,7 +7740,7 @@
         <v>43619</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7802,7 +7802,7 @@
         <v>43620</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7859,7 +7859,7 @@
         <v>43620</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7916,7 +7916,7 @@
         <v>43629</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7978,7 +7978,7 @@
         <v>43629</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8035,7 +8035,7 @@
         <v>43633</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8092,7 +8092,7 @@
         <v>43635</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8149,7 +8149,7 @@
         <v>43640</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8206,7 +8206,7 @@
         <v>43641</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8263,7 +8263,7 @@
         <v>43643</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8320,7 +8320,7 @@
         <v>43649</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8377,7 +8377,7 @@
         <v>43649</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8434,7 +8434,7 @@
         <v>43651</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8496,7 +8496,7 @@
         <v>43654</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8553,7 +8553,7 @@
         <v>43656</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8610,7 +8610,7 @@
         <v>43657</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8667,7 +8667,7 @@
         <v>43657</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8729,7 +8729,7 @@
         <v>43664</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8786,7 +8786,7 @@
         <v>43689</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8843,7 +8843,7 @@
         <v>43691</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8905,7 +8905,7 @@
         <v>43698</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8962,7 +8962,7 @@
         <v>43698</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9019,7 +9019,7 @@
         <v>43703</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9076,7 +9076,7 @@
         <v>43704</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9133,7 +9133,7 @@
         <v>43704</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9190,7 +9190,7 @@
         <v>43705</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9252,7 +9252,7 @@
         <v>43706</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9309,7 +9309,7 @@
         <v>43707</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9371,7 +9371,7 @@
         <v>43707</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9433,7 +9433,7 @@
         <v>43710</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9490,7 +9490,7 @@
         <v>43711</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9552,7 +9552,7 @@
         <v>43717</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9609,7 +9609,7 @@
         <v>43718</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9666,7 +9666,7 @@
         <v>43718</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9723,7 +9723,7 @@
         <v>43721</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9785,7 +9785,7 @@
         <v>43726</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9842,7 +9842,7 @@
         <v>43732</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9899,7 +9899,7 @@
         <v>43733</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9961,7 +9961,7 @@
         <v>43733</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10023,7 +10023,7 @@
         <v>43738</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10080,7 +10080,7 @@
         <v>43739</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10137,7 +10137,7 @@
         <v>43740</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10194,7 +10194,7 @@
         <v>43741</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10251,7 +10251,7 @@
         <v>43742</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10308,7 +10308,7 @@
         <v>43742</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10365,7 +10365,7 @@
         <v>43742</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10422,7 +10422,7 @@
         <v>43748</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10479,7 +10479,7 @@
         <v>43753</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10536,7 +10536,7 @@
         <v>43754</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10598,7 +10598,7 @@
         <v>43754</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10655,7 +10655,7 @@
         <v>43755</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10717,7 +10717,7 @@
         <v>43759</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10774,7 +10774,7 @@
         <v>43759</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10831,7 +10831,7 @@
         <v>43760</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10888,7 +10888,7 @@
         <v>43761</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10950,7 +10950,7 @@
         <v>43767</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11012,7 +11012,7 @@
         <v>43769</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11069,7 +11069,7 @@
         <v>43773</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11126,7 +11126,7 @@
         <v>43776</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11183,7 +11183,7 @@
         <v>43777</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11240,7 +11240,7 @@
         <v>43781</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11302,7 +11302,7 @@
         <v>43783</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11359,7 +11359,7 @@
         <v>43783</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11416,7 +11416,7 @@
         <v>43783</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11498,7 +11498,7 @@
         <v>43787</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11555,7 +11555,7 @@
         <v>43789</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11612,7 +11612,7 @@
         <v>43789</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11669,7 +11669,7 @@
         <v>43790</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11726,7 +11726,7 @@
         <v>43794</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11783,7 +11783,7 @@
         <v>43795</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11840,7 +11840,7 @@
         <v>43798</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11897,7 +11897,7 @@
         <v>43800</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11954,7 +11954,7 @@
         <v>43802</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12011,7 +12011,7 @@
         <v>43808</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12073,7 +12073,7 @@
         <v>43809</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12135,7 +12135,7 @@
         <v>43809</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12197,7 +12197,7 @@
         <v>43809</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12254,7 +12254,7 @@
         <v>43812</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12311,7 +12311,7 @@
         <v>43815</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12368,7 +12368,7 @@
         <v>43819</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12425,7 +12425,7 @@
         <v>43819</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12482,7 +12482,7 @@
         <v>43837</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12539,7 +12539,7 @@
         <v>43837</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12596,7 +12596,7 @@
         <v>43840</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12653,7 +12653,7 @@
         <v>43840</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12710,7 +12710,7 @@
         <v>43846</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12767,7 +12767,7 @@
         <v>43850</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12824,7 +12824,7 @@
         <v>43852</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12886,7 +12886,7 @@
         <v>43853</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12948,7 +12948,7 @@
         <v>43858</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13010,7 +13010,7 @@
         <v>43859</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13072,7 +13072,7 @@
         <v>43865</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13129,7 +13129,7 @@
         <v>43867</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13186,7 +13186,7 @@
         <v>43871</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13243,7 +13243,7 @@
         <v>43878</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13300,7 +13300,7 @@
         <v>43878</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13357,7 +13357,7 @@
         <v>43879</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13414,7 +13414,7 @@
         <v>43882</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13471,7 +13471,7 @@
         <v>43886</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13528,7 +13528,7 @@
         <v>43886</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13585,7 +13585,7 @@
         <v>43887</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13642,7 +13642,7 @@
         <v>43888</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13699,7 +13699,7 @@
         <v>43892</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13756,7 +13756,7 @@
         <v>43894</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13813,7 +13813,7 @@
         <v>43894</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13870,7 +13870,7 @@
         <v>43901</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13932,7 +13932,7 @@
         <v>43902</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13989,7 +13989,7 @@
         <v>43913</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14046,7 +14046,7 @@
         <v>43913</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14103,7 +14103,7 @@
         <v>43913</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14165,7 +14165,7 @@
         <v>43916</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14222,7 +14222,7 @@
         <v>43916</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14279,7 +14279,7 @@
         <v>43924</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14336,7 +14336,7 @@
         <v>43927</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14393,7 +14393,7 @@
         <v>43930</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14450,7 +14450,7 @@
         <v>43945</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14507,7 +14507,7 @@
         <v>43949</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14564,7 +14564,7 @@
         <v>43949</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14621,7 +14621,7 @@
         <v>43956</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14678,7 +14678,7 @@
         <v>43987</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14735,7 +14735,7 @@
         <v>43991</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14792,7 +14792,7 @@
         <v>43993</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14854,7 +14854,7 @@
         <v>43993</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14916,7 +14916,7 @@
         <v>43994</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14973,7 +14973,7 @@
         <v>43998</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15030,7 +15030,7 @@
         <v>44000</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15092,7 +15092,7 @@
         <v>44006</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15149,7 +15149,7 @@
         <v>44008</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15206,7 +15206,7 @@
         <v>44012</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15263,7 +15263,7 @@
         <v>44013</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15320,7 +15320,7 @@
         <v>44014</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15377,7 +15377,7 @@
         <v>44014</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15434,7 +15434,7 @@
         <v>44014</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15491,7 +15491,7 @@
         <v>44014</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15548,7 +15548,7 @@
         <v>44014</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15605,7 +15605,7 @@
         <v>44015</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15662,7 +15662,7 @@
         <v>44015</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15719,7 +15719,7 @@
         <v>44035</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15776,7 +15776,7 @@
         <v>44035</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15833,7 +15833,7 @@
         <v>44055</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15890,7 +15890,7 @@
         <v>44057</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15947,7 +15947,7 @@
         <v>44061</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16004,7 +16004,7 @@
         <v>44062</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16061,7 +16061,7 @@
         <v>44064</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16118,7 +16118,7 @@
         <v>44070</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16175,7 +16175,7 @@
         <v>44076</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16232,7 +16232,7 @@
         <v>44076</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16289,7 +16289,7 @@
         <v>44083</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16346,7 +16346,7 @@
         <v>44083</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16403,7 +16403,7 @@
         <v>44083</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16460,7 +16460,7 @@
         <v>44083</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16517,7 +16517,7 @@
         <v>44084</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16574,7 +16574,7 @@
         <v>44088</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16636,7 +16636,7 @@
         <v>44089</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16693,7 +16693,7 @@
         <v>44090</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16755,7 +16755,7 @@
         <v>44095</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16812,7 +16812,7 @@
         <v>44103</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16869,7 +16869,7 @@
         <v>44105</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16926,7 +16926,7 @@
         <v>44105</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16983,7 +16983,7 @@
         <v>44110</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17040,7 +17040,7 @@
         <v>44110</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17097,7 +17097,7 @@
         <v>44116</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17154,7 +17154,7 @@
         <v>44119</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17216,7 +17216,7 @@
         <v>44119</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17278,7 +17278,7 @@
         <v>44119</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17340,7 +17340,7 @@
         <v>44120</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17397,7 +17397,7 @@
         <v>44125</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17454,7 +17454,7 @@
         <v>44125</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17511,7 +17511,7 @@
         <v>44127</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17568,7 +17568,7 @@
         <v>44127</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17625,7 +17625,7 @@
         <v>44127</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17682,7 +17682,7 @@
         <v>44130</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17739,7 +17739,7 @@
         <v>44133</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17796,7 +17796,7 @@
         <v>44133</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17853,7 +17853,7 @@
         <v>44133</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17910,7 +17910,7 @@
         <v>44137</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17967,7 +17967,7 @@
         <v>44140</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18029,7 +18029,7 @@
         <v>44141</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18086,7 +18086,7 @@
         <v>44144</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18143,7 +18143,7 @@
         <v>44144</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18200,7 +18200,7 @@
         <v>44146</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18257,7 +18257,7 @@
         <v>44147</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18314,7 +18314,7 @@
         <v>44147</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18371,7 +18371,7 @@
         <v>44147</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18428,7 +18428,7 @@
         <v>44147</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18485,7 +18485,7 @@
         <v>44148</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18542,7 +18542,7 @@
         <v>44148</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18604,7 +18604,7 @@
         <v>44151</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18661,7 +18661,7 @@
         <v>44151</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18718,7 +18718,7 @@
         <v>44151</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18780,7 +18780,7 @@
         <v>44151</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18837,7 +18837,7 @@
         <v>44151</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18894,7 +18894,7 @@
         <v>44151</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18951,7 +18951,7 @@
         <v>44151</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19008,7 +19008,7 @@
         <v>44152</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19070,7 +19070,7 @@
         <v>44153</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19127,7 +19127,7 @@
         <v>44153</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19189,7 +19189,7 @@
         <v>44153</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19246,7 +19246,7 @@
         <v>44153</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19308,7 +19308,7 @@
         <v>44160</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19365,7 +19365,7 @@
         <v>44161</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19422,7 +19422,7 @@
         <v>44161</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19484,7 +19484,7 @@
         <v>44162</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19541,7 +19541,7 @@
         <v>44165</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19598,7 +19598,7 @@
         <v>44166</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19655,7 +19655,7 @@
         <v>44167</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19712,7 +19712,7 @@
         <v>44169</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19769,7 +19769,7 @@
         <v>44176</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19826,7 +19826,7 @@
         <v>44180</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19883,7 +19883,7 @@
         <v>44180</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19940,7 +19940,7 @@
         <v>44180</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19997,7 +19997,7 @@
         <v>44180</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20059,7 +20059,7 @@
         <v>44186</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20116,7 +20116,7 @@
         <v>44187</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20173,7 +20173,7 @@
         <v>44187</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20230,7 +20230,7 @@
         <v>44187</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20287,7 +20287,7 @@
         <v>44188</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20344,7 +20344,7 @@
         <v>44194</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20401,7 +20401,7 @@
         <v>44195</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20458,7 +20458,7 @@
         <v>44203</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20520,7 +20520,7 @@
         <v>44203</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20582,7 +20582,7 @@
         <v>44203</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20644,7 +20644,7 @@
         <v>44203</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20706,7 +20706,7 @@
         <v>44203</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20768,7 +20768,7 @@
         <v>44204</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20830,7 +20830,7 @@
         <v>44204</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20892,7 +20892,7 @@
         <v>44207</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20954,7 +20954,7 @@
         <v>44207</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21016,7 +21016,7 @@
         <v>44208</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21078,7 +21078,7 @@
         <v>44208</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21140,7 +21140,7 @@
         <v>44208</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21197,7 +21197,7 @@
         <v>44209</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21259,7 +21259,7 @@
         <v>44210</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21321,7 +21321,7 @@
         <v>44211</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21378,7 +21378,7 @@
         <v>44211</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21435,7 +21435,7 @@
         <v>44218</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21492,7 +21492,7 @@
         <v>44224</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21549,7 +21549,7 @@
         <v>44232</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21606,7 +21606,7 @@
         <v>44239</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21663,7 +21663,7 @@
         <v>44239</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21720,7 +21720,7 @@
         <v>44242</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21777,7 +21777,7 @@
         <v>44267</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21834,7 +21834,7 @@
         <v>44270</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21891,7 +21891,7 @@
         <v>44278</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21948,7 +21948,7 @@
         <v>44278</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22005,7 +22005,7 @@
         <v>44279</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22067,7 +22067,7 @@
         <v>44279</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22129,7 +22129,7 @@
         <v>44279</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22191,7 +22191,7 @@
         <v>44295</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22248,7 +22248,7 @@
         <v>44299</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22305,7 +22305,7 @@
         <v>44316</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22362,7 +22362,7 @@
         <v>44326</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22424,7 +22424,7 @@
         <v>44336</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22481,7 +22481,7 @@
         <v>44347</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22538,7 +22538,7 @@
         <v>44347</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22595,7 +22595,7 @@
         <v>44364</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22652,7 +22652,7 @@
         <v>44365</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22714,7 +22714,7 @@
         <v>44369</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22776,7 +22776,7 @@
         <v>44370</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22838,7 +22838,7 @@
         <v>44370</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22895,7 +22895,7 @@
         <v>44370</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22957,7 +22957,7 @@
         <v>44371</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23014,7 +23014,7 @@
         <v>44379</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23076,7 +23076,7 @@
         <v>44381</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23133,7 +23133,7 @@
         <v>44381</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23190,7 +23190,7 @@
         <v>44381</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23247,7 +23247,7 @@
         <v>44382</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23309,7 +23309,7 @@
         <v>44382</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23371,7 +23371,7 @@
         <v>44383</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23433,7 +23433,7 @@
         <v>44384</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23490,7 +23490,7 @@
         <v>44389</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23547,7 +23547,7 @@
         <v>44407</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23604,7 +23604,7 @@
         <v>44424</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23666,7 +23666,7 @@
         <v>44424</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23723,7 +23723,7 @@
         <v>44438</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23785,7 +23785,7 @@
         <v>44452</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23842,7 +23842,7 @@
         <v>44452</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23899,7 +23899,7 @@
         <v>44452</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23956,7 +23956,7 @@
         <v>44454</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24013,7 +24013,7 @@
         <v>44460</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24070,7 +24070,7 @@
         <v>44467</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24132,7 +24132,7 @@
         <v>44480</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24189,7 +24189,7 @@
         <v>44480</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24251,7 +24251,7 @@
         <v>44484</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24308,7 +24308,7 @@
         <v>44488</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24365,7 +24365,7 @@
         <v>44488</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24422,7 +24422,7 @@
         <v>44489</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24479,7 +24479,7 @@
         <v>44496</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24541,7 +24541,7 @@
         <v>44496</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24598,7 +24598,7 @@
         <v>44503</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24660,7 +24660,7 @@
         <v>44505</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24722,7 +24722,7 @@
         <v>44505</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24784,7 +24784,7 @@
         <v>44505</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24846,7 +24846,7 @@
         <v>44505</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24908,7 +24908,7 @@
         <v>44509</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24970,7 +24970,7 @@
         <v>44509</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25032,7 +25032,7 @@
         <v>44509</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25094,7 +25094,7 @@
         <v>44509</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25156,7 +25156,7 @@
         <v>44509</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25213,7 +25213,7 @@
         <v>44509</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25275,7 +25275,7 @@
         <v>44509</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25337,7 +25337,7 @@
         <v>44509</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25399,7 +25399,7 @@
         <v>44511</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25461,7 +25461,7 @@
         <v>44515</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25523,7 +25523,7 @@
         <v>44517</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25580,7 +25580,7 @@
         <v>44517</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25637,7 +25637,7 @@
         <v>44517</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25694,7 +25694,7 @@
         <v>44517</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25751,7 +25751,7 @@
         <v>44517</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25808,7 +25808,7 @@
         <v>44522</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25870,7 +25870,7 @@
         <v>44524</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25932,7 +25932,7 @@
         <v>44526</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25994,7 +25994,7 @@
         <v>44526</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26051,7 +26051,7 @@
         <v>44531</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26108,7 +26108,7 @@
         <v>44532</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26170,7 +26170,7 @@
         <v>44532</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26232,7 +26232,7 @@
         <v>44536</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26289,7 +26289,7 @@
         <v>44572</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26346,7 +26346,7 @@
         <v>44585</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26403,7 +26403,7 @@
         <v>44592</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26460,7 +26460,7 @@
         <v>44594</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26517,7 +26517,7 @@
         <v>44595</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26574,7 +26574,7 @@
         <v>44595</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26631,7 +26631,7 @@
         <v>44595</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26688,7 +26688,7 @@
         <v>44596</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26745,7 +26745,7 @@
         <v>44596</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26802,7 +26802,7 @@
         <v>44601</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26859,7 +26859,7 @@
         <v>44603</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26916,7 +26916,7 @@
         <v>44608</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26973,7 +26973,7 @@
         <v>44616</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27030,7 +27030,7 @@
         <v>44617</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27087,7 +27087,7 @@
         <v>44620</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27144,7 +27144,7 @@
         <v>44620</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27201,7 +27201,7 @@
         <v>44623</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27258,7 +27258,7 @@
         <v>44631</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27315,7 +27315,7 @@
         <v>44636</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27372,7 +27372,7 @@
         <v>44642</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27429,7 +27429,7 @@
         <v>44650</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27486,7 +27486,7 @@
         <v>44650</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27543,7 +27543,7 @@
         <v>44652</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27605,7 +27605,7 @@
         <v>44659</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27662,7 +27662,7 @@
         <v>44662</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27719,7 +27719,7 @@
         <v>44671</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27776,7 +27776,7 @@
         <v>44676</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27833,7 +27833,7 @@
         <v>44691</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27890,7 +27890,7 @@
         <v>44697</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27952,7 +27952,7 @@
         <v>44704</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28014,7 +28014,7 @@
         <v>44704</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28076,7 +28076,7 @@
         <v>44705</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28133,7 +28133,7 @@
         <v>44706</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28190,7 +28190,7 @@
         <v>44712</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28247,7 +28247,7 @@
         <v>44712</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28309,7 +28309,7 @@
         <v>44712</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28371,7 +28371,7 @@
         <v>44714</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28428,7 +28428,7 @@
         <v>44720</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28485,7 +28485,7 @@
         <v>44720</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28542,7 +28542,7 @@
         <v>44722</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28599,7 +28599,7 @@
         <v>44728</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28656,7 +28656,7 @@
         <v>44729</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28718,7 +28718,7 @@
         <v>44729</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28780,7 +28780,7 @@
         <v>44729</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28842,7 +28842,7 @@
         <v>44732</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28899,7 +28899,7 @@
         <v>44732</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28956,7 +28956,7 @@
         <v>44763</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29013,7 +29013,7 @@
         <v>44783</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29075,7 +29075,7 @@
         <v>44785</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29137,7 +29137,7 @@
         <v>44791</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29194,7 +29194,7 @@
         <v>44796</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29251,7 +29251,7 @@
         <v>44796</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29308,7 +29308,7 @@
         <v>44798</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29365,7 +29365,7 @@
         <v>44799</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29422,7 +29422,7 @@
         <v>44799</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29479,7 +29479,7 @@
         <v>44805</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29536,7 +29536,7 @@
         <v>44806</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29593,7 +29593,7 @@
         <v>44806</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29650,7 +29650,7 @@
         <v>44806</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29707,7 +29707,7 @@
         <v>44817</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29764,7 +29764,7 @@
         <v>44818</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29821,7 +29821,7 @@
         <v>44819</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29878,7 +29878,7 @@
         <v>44826</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29940,7 +29940,7 @@
         <v>44827</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30002,7 +30002,7 @@
         <v>44830</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30059,7 +30059,7 @@
         <v>44839</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30116,7 +30116,7 @@
         <v>44839</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30173,7 +30173,7 @@
         <v>44840</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30230,7 +30230,7 @@
         <v>44846</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30287,7 +30287,7 @@
         <v>44846</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30344,7 +30344,7 @@
         <v>44846</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30401,7 +30401,7 @@
         <v>44846</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30458,7 +30458,7 @@
         <v>44854</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30515,7 +30515,7 @@
         <v>44859</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30572,7 +30572,7 @@
         <v>44859</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30629,7 +30629,7 @@
         <v>44861</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30686,7 +30686,7 @@
         <v>44862</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30743,7 +30743,7 @@
         <v>44873</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30800,7 +30800,7 @@
         <v>44875</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30862,7 +30862,7 @@
         <v>44875</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30919,7 +30919,7 @@
         <v>44876</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30981,7 +30981,7 @@
         <v>44878</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31043,7 +31043,7 @@
         <v>44879</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31105,7 +31105,7 @@
         <v>44879</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31167,7 +31167,7 @@
         <v>44879</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31229,7 +31229,7 @@
         <v>44879</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31291,7 +31291,7 @@
         <v>44879</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31353,7 +31353,7 @@
         <v>44879</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31415,7 +31415,7 @@
         <v>44880</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31472,7 +31472,7 @@
         <v>44881</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31534,7 +31534,7 @@
         <v>44881</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31596,7 +31596,7 @@
         <v>44883</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31653,7 +31653,7 @@
         <v>44883</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31715,7 +31715,7 @@
         <v>44886</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31777,7 +31777,7 @@
         <v>44886</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31839,7 +31839,7 @@
         <v>44893</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31896,7 +31896,7 @@
         <v>44894</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31953,7 +31953,7 @@
         <v>44894</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32010,7 +32010,7 @@
         <v>44895</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32067,7 +32067,7 @@
         <v>44897</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32124,7 +32124,7 @@
         <v>44901</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32181,7 +32181,7 @@
         <v>44908</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32238,7 +32238,7 @@
         <v>44909</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32295,7 +32295,7 @@
         <v>44909</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32352,7 +32352,7 @@
         <v>44914</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32409,7 +32409,7 @@
         <v>44915</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32466,7 +32466,7 @@
         <v>44915</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32523,7 +32523,7 @@
         <v>44916</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32580,7 +32580,7 @@
         <v>44929</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32637,7 +32637,7 @@
         <v>44944</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32694,7 +32694,7 @@
         <v>44945</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32751,7 +32751,7 @@
         <v>44946</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32808,7 +32808,7 @@
         <v>44952</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32865,7 +32865,7 @@
         <v>44953</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32927,7 +32927,7 @@
         <v>44966</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -32984,7 +32984,7 @@
         <v>44967</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33041,7 +33041,7 @@
         <v>44967</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33098,7 +33098,7 @@
         <v>44970</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33155,7 +33155,7 @@
         <v>44971</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33212,7 +33212,7 @@
         <v>44993</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33269,7 +33269,7 @@
         <v>44993</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33326,7 +33326,7 @@
         <v>44993</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33383,7 +33383,7 @@
         <v>44993</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33440,7 +33440,7 @@
         <v>45008</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33497,7 +33497,7 @@
         <v>45009</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -33554,7 +33554,7 @@
         <v>45012</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -33611,7 +33611,7 @@
         <v>45014</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33668,7 +33668,7 @@
         <v>45016</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33725,7 +33725,7 @@
         <v>45016</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33782,7 +33782,7 @@
         <v>45016</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33839,7 +33839,7 @@
         <v>45016</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -33896,7 +33896,7 @@
         <v>45016</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -33953,7 +33953,7 @@
         <v>45016</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34010,7 +34010,7 @@
         <v>45016</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34067,7 +34067,7 @@
         <v>45030</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34124,7 +34124,7 @@
         <v>45033</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34181,7 +34181,7 @@
         <v>45033</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34238,7 +34238,7 @@
         <v>45036</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34295,7 +34295,7 @@
         <v>45037</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34357,7 +34357,7 @@
         <v>45038</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -34414,7 +34414,7 @@
         <v>45041</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34471,7 +34471,7 @@
         <v>45041</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -34533,7 +34533,7 @@
         <v>45043</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -34590,7 +34590,7 @@
         <v>45044</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34647,7 +34647,7 @@
         <v>45044</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -34704,7 +34704,7 @@
         <v>45044</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -34761,7 +34761,7 @@
         <v>45058</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -34823,7 +34823,7 @@
         <v>45061</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -34880,7 +34880,7 @@
         <v>45062</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -34942,7 +34942,7 @@
         <v>45062</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -34999,7 +34999,7 @@
         <v>45063</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35061,7 +35061,7 @@
         <v>45070</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -35118,7 +35118,7 @@
         <v>45072</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -35180,7 +35180,7 @@
         <v>45072</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -35237,7 +35237,7 @@
         <v>45076</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35299,7 +35299,7 @@
         <v>45078</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35356,7 +35356,7 @@
         <v>45078</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -35418,7 +35418,7 @@
         <v>45079</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -35475,7 +35475,7 @@
         <v>45082</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -35532,7 +35532,7 @@
         <v>45082</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -35589,7 +35589,7 @@
         <v>45084</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -35651,7 +35651,7 @@
         <v>45084</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -35708,7 +35708,7 @@
         <v>45085</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -35765,7 +35765,7 @@
         <v>45089</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -35822,7 +35822,7 @@
         <v>45090</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -35879,7 +35879,7 @@
         <v>45090</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -35936,7 +35936,7 @@
         <v>45090</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -35993,7 +35993,7 @@
         <v>45090</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -36050,7 +36050,7 @@
         <v>45091</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -36107,7 +36107,7 @@
         <v>45097</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -36164,7 +36164,7 @@
         <v>45097</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -36221,7 +36221,7 @@
         <v>45097</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -36278,7 +36278,7 @@
         <v>45097</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -36335,7 +36335,7 @@
         <v>45098</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -36397,7 +36397,7 @@
         <v>45099</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -36454,7 +36454,7 @@
         <v>45103</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -36511,7 +36511,7 @@
         <v>45104</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -36568,7 +36568,7 @@
         <v>45104</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -36625,7 +36625,7 @@
         <v>45107</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -36687,7 +36687,7 @@
         <v>45107</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -36744,7 +36744,7 @@
         <v>45107</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -36801,7 +36801,7 @@
         <v>45107</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -36858,7 +36858,7 @@
         <v>45107</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -36915,7 +36915,7 @@
         <v>45107</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -36972,7 +36972,7 @@
         <v>45107</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -37034,7 +37034,7 @@
         <v>45107</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -37096,7 +37096,7 @@
         <v>45107</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -37153,7 +37153,7 @@
         <v>45110</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -37210,7 +37210,7 @@
         <v>45110</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -37267,7 +37267,7 @@
         <v>45112</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -37329,7 +37329,7 @@
         <v>45113</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -37391,7 +37391,7 @@
         <v>45113</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -37448,7 +37448,7 @@
         <v>45114</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -37505,7 +37505,7 @@
         <v>45114</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -37562,7 +37562,7 @@
         <v>45117</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -37619,7 +37619,7 @@
         <v>45119</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -37681,7 +37681,7 @@
         <v>45120</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -37738,7 +37738,7 @@
         <v>45121</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -37795,7 +37795,7 @@
         <v>45123</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -37852,7 +37852,7 @@
         <v>45132</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -37909,7 +37909,7 @@
         <v>45138</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -37966,7 +37966,7 @@
         <v>45138</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -38023,7 +38023,7 @@
         <v>45147</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -38080,7 +38080,7 @@
         <v>45149</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -38137,7 +38137,7 @@
         <v>45149</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -38194,7 +38194,7 @@
         <v>45161</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -38256,7 +38256,7 @@
         <v>45161</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -38318,7 +38318,7 @@
         <v>45161</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -38380,7 +38380,7 @@
         <v>45169</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -38437,7 +38437,7 @@
         <v>45173</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -38499,7 +38499,7 @@
         <v>45173</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -38556,7 +38556,7 @@
         <v>45175</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -38613,7 +38613,7 @@
         <v>45176</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -38670,7 +38670,7 @@
         <v>45180</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -38727,7 +38727,7 @@
         <v>45180</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>

--- a/Översikt BOLLNÄS.xlsx
+++ b/Översikt BOLLNÄS.xlsx
@@ -572,7 +572,7 @@
         <v>44109</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -675,7 +675,7 @@
         <v>44095</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -776,7 +776,7 @@
         <v>44382</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -868,7 +868,7 @@
         <v>44729</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -960,7 +960,7 @@
         <v>43783</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1055,7 +1055,7 @@
         <v>43783</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1150,7 +1150,7 @@
         <v>43783</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1245,7 +1245,7 @@
         <v>43993</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1331,7 +1331,7 @@
         <v>43999</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1422,7 +1422,7 @@
         <v>44432</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1512,7 +1512,7 @@
         <v>45092</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         <v>43600</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1688,7 +1688,7 @@
         <v>43619</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1777,7 +1777,7 @@
         <v>43794</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1862,7 +1862,7 @@
         <v>43864</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1947,7 +1947,7 @@
         <v>44081</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2037,7 +2037,7 @@
         <v>44515</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2127,7 +2127,7 @@
         <v>44813</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2212,7 +2212,7 @@
         <v>44901</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2297,7 +2297,7 @@
         <v>45058</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         <v>45076</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2476,7 +2476,7 @@
         <v>45090</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2561,7 +2561,7 @@
         <v>43360</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2618,7 +2618,7 @@
         <v>43375</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2675,7 +2675,7 @@
         <v>43382</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2732,7 +2732,7 @@
         <v>43389</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2789,7 +2789,7 @@
         <v>43392</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2846,7 +2846,7 @@
         <v>43410</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2903,7 +2903,7 @@
         <v>43413</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2965,7 +2965,7 @@
         <v>43416</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3022,7 +3022,7 @@
         <v>43417</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3079,7 +3079,7 @@
         <v>43417</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3136,7 +3136,7 @@
         <v>43418</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3193,7 +3193,7 @@
         <v>43418</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3250,7 +3250,7 @@
         <v>43418</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3307,7 +3307,7 @@
         <v>43419</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3364,7 +3364,7 @@
         <v>43420</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3421,7 +3421,7 @@
         <v>43424</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3478,7 +3478,7 @@
         <v>43424</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3535,7 +3535,7 @@
         <v>43424</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3592,7 +3592,7 @@
         <v>43424</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3649,7 +3649,7 @@
         <v>43424</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3706,7 +3706,7 @@
         <v>43424</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3763,7 +3763,7 @@
         <v>43424</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3820,7 +3820,7 @@
         <v>43427</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3877,7 +3877,7 @@
         <v>43427</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3934,7 +3934,7 @@
         <v>43427</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3991,7 +3991,7 @@
         <v>43427</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4048,7 +4048,7 @@
         <v>43427</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4105,7 +4105,7 @@
         <v>43430</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4162,7 +4162,7 @@
         <v>43431</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4219,7 +4219,7 @@
         <v>43431</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4276,7 +4276,7 @@
         <v>43434</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4333,7 +4333,7 @@
         <v>43434</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4390,7 +4390,7 @@
         <v>43437</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4447,7 +4447,7 @@
         <v>43441</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4504,7 +4504,7 @@
         <v>43444</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4561,7 +4561,7 @@
         <v>43445</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4623,7 +4623,7 @@
         <v>43445</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4680,7 +4680,7 @@
         <v>43446</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4737,7 +4737,7 @@
         <v>43446</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4794,7 +4794,7 @@
         <v>43447</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4851,7 +4851,7 @@
         <v>43448</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4908,7 +4908,7 @@
         <v>43452</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4965,7 +4965,7 @@
         <v>43452</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5022,7 +5022,7 @@
         <v>43454</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5079,7 +5079,7 @@
         <v>43455</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5136,7 +5136,7 @@
         <v>43455</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5193,7 +5193,7 @@
         <v>43467</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5250,7 +5250,7 @@
         <v>43472</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5307,7 +5307,7 @@
         <v>43472</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5364,7 +5364,7 @@
         <v>43472</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5421,7 +5421,7 @@
         <v>43476</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5478,7 +5478,7 @@
         <v>43476</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5535,7 +5535,7 @@
         <v>43476</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5592,7 +5592,7 @@
         <v>43480</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5649,7 +5649,7 @@
         <v>43482</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5706,7 +5706,7 @@
         <v>43482</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5763,7 +5763,7 @@
         <v>43497</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5820,7 +5820,7 @@
         <v>43509</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5877,7 +5877,7 @@
         <v>43515</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5934,7 +5934,7 @@
         <v>43517</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5991,7 +5991,7 @@
         <v>43518</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6048,7 +6048,7 @@
         <v>43522</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6105,7 +6105,7 @@
         <v>43523</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6162,7 +6162,7 @@
         <v>43528</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6219,7 +6219,7 @@
         <v>43528</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6276,7 +6276,7 @@
         <v>43529</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6333,7 +6333,7 @@
         <v>43532</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6390,7 +6390,7 @@
         <v>43532</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6447,7 +6447,7 @@
         <v>43536</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6504,7 +6504,7 @@
         <v>43537</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6561,7 +6561,7 @@
         <v>43559</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6618,7 +6618,7 @@
         <v>43560</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6675,7 +6675,7 @@
         <v>43563</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6732,7 +6732,7 @@
         <v>43564</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6789,7 +6789,7 @@
         <v>43567</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6846,7 +6846,7 @@
         <v>43571</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6903,7 +6903,7 @@
         <v>43580</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6960,7 +6960,7 @@
         <v>43583</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7017,7 +7017,7 @@
         <v>43587</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7074,7 +7074,7 @@
         <v>43593</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7131,7 +7131,7 @@
         <v>43593</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7188,7 +7188,7 @@
         <v>43594</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7245,7 +7245,7 @@
         <v>43598</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7302,7 +7302,7 @@
         <v>43599</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7359,7 +7359,7 @@
         <v>43599</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7416,7 +7416,7 @@
         <v>43599</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7473,7 +7473,7 @@
         <v>43605</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7535,7 +7535,7 @@
         <v>43607</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7592,7 +7592,7 @@
         <v>43612</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7649,7 +7649,7 @@
         <v>43619</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7711,7 +7711,7 @@
         <v>43619</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7768,7 +7768,7 @@
         <v>43619</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7830,7 +7830,7 @@
         <v>43619</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7892,7 +7892,7 @@
         <v>43620</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7949,7 +7949,7 @@
         <v>43620</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8006,7 +8006,7 @@
         <v>43629</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8068,7 +8068,7 @@
         <v>43629</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8125,7 +8125,7 @@
         <v>43633</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8182,7 +8182,7 @@
         <v>43635</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8239,7 +8239,7 @@
         <v>43640</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8296,7 +8296,7 @@
         <v>43641</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8353,7 +8353,7 @@
         <v>43643</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8410,7 +8410,7 @@
         <v>43649</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8467,7 +8467,7 @@
         <v>43649</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8524,7 +8524,7 @@
         <v>43651</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8586,7 +8586,7 @@
         <v>43654</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8643,7 +8643,7 @@
         <v>43656</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8700,7 +8700,7 @@
         <v>43657</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8757,7 +8757,7 @@
         <v>43657</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8819,7 +8819,7 @@
         <v>43664</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8876,7 +8876,7 @@
         <v>43689</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8933,7 +8933,7 @@
         <v>43691</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8995,7 +8995,7 @@
         <v>43698</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9052,7 +9052,7 @@
         <v>43698</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9109,7 +9109,7 @@
         <v>43703</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9166,7 +9166,7 @@
         <v>43704</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9223,7 +9223,7 @@
         <v>43704</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9280,7 +9280,7 @@
         <v>43705</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9342,7 +9342,7 @@
         <v>43706</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9399,7 +9399,7 @@
         <v>43707</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9461,7 +9461,7 @@
         <v>43707</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9523,7 +9523,7 @@
         <v>43710</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9580,7 +9580,7 @@
         <v>43711</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9642,7 +9642,7 @@
         <v>43717</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9699,7 +9699,7 @@
         <v>43718</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9756,7 +9756,7 @@
         <v>43718</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9813,7 +9813,7 @@
         <v>43721</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9875,7 +9875,7 @@
         <v>43726</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9932,7 +9932,7 @@
         <v>43732</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9989,7 +9989,7 @@
         <v>43733</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10051,7 +10051,7 @@
         <v>43733</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10113,7 +10113,7 @@
         <v>43738</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10170,7 +10170,7 @@
         <v>43739</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10227,7 +10227,7 @@
         <v>43740</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10284,7 +10284,7 @@
         <v>43741</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10341,7 +10341,7 @@
         <v>43742</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10398,7 +10398,7 @@
         <v>43742</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10455,7 +10455,7 @@
         <v>43742</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10512,7 +10512,7 @@
         <v>43748</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10569,7 +10569,7 @@
         <v>43753</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10626,7 +10626,7 @@
         <v>43754</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10688,7 +10688,7 @@
         <v>43754</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10745,7 +10745,7 @@
         <v>43755</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10807,7 +10807,7 @@
         <v>43759</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10864,7 +10864,7 @@
         <v>43759</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10921,7 +10921,7 @@
         <v>43760</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10978,7 +10978,7 @@
         <v>43761</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11040,7 +11040,7 @@
         <v>43767</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11102,7 +11102,7 @@
         <v>43769</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11159,7 +11159,7 @@
         <v>43773</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11216,7 +11216,7 @@
         <v>43776</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11273,7 +11273,7 @@
         <v>43777</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11330,7 +11330,7 @@
         <v>43781</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11392,7 +11392,7 @@
         <v>43783</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11449,7 +11449,7 @@
         <v>43783</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11506,7 +11506,7 @@
         <v>43783</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11588,7 +11588,7 @@
         <v>43787</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11645,7 +11645,7 @@
         <v>43789</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11702,7 +11702,7 @@
         <v>43789</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11759,7 +11759,7 @@
         <v>43790</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11816,7 +11816,7 @@
         <v>43794</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11873,7 +11873,7 @@
         <v>43795</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11930,7 +11930,7 @@
         <v>43798</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11987,7 +11987,7 @@
         <v>43800</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12044,7 +12044,7 @@
         <v>43802</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12101,7 +12101,7 @@
         <v>43808</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12163,7 +12163,7 @@
         <v>43809</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12225,7 +12225,7 @@
         <v>43809</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12287,7 +12287,7 @@
         <v>43809</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12344,7 +12344,7 @@
         <v>43812</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12401,7 +12401,7 @@
         <v>43815</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12458,7 +12458,7 @@
         <v>43819</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12515,7 +12515,7 @@
         <v>43819</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12572,7 +12572,7 @@
         <v>43837</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12629,7 +12629,7 @@
         <v>43837</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12686,7 +12686,7 @@
         <v>43840</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12743,7 +12743,7 @@
         <v>43840</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12800,7 +12800,7 @@
         <v>43846</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12857,7 +12857,7 @@
         <v>43850</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12914,7 +12914,7 @@
         <v>43852</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12976,7 +12976,7 @@
         <v>43853</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13038,7 +13038,7 @@
         <v>43858</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13100,7 +13100,7 @@
         <v>43859</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13162,7 +13162,7 @@
         <v>43865</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13219,7 +13219,7 @@
         <v>43867</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13276,7 +13276,7 @@
         <v>43871</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13333,7 +13333,7 @@
         <v>43878</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13390,7 +13390,7 @@
         <v>43878</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13447,7 +13447,7 @@
         <v>43879</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13504,7 +13504,7 @@
         <v>43882</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13561,7 +13561,7 @@
         <v>43886</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13618,7 +13618,7 @@
         <v>43886</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13675,7 +13675,7 @@
         <v>43887</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13732,7 +13732,7 @@
         <v>43888</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13789,7 +13789,7 @@
         <v>43892</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13846,7 +13846,7 @@
         <v>43894</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13903,7 +13903,7 @@
         <v>43894</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13960,7 +13960,7 @@
         <v>43901</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14022,7 +14022,7 @@
         <v>43902</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14079,7 +14079,7 @@
         <v>43913</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14136,7 +14136,7 @@
         <v>43913</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14193,7 +14193,7 @@
         <v>43913</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14255,7 +14255,7 @@
         <v>43916</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14312,7 +14312,7 @@
         <v>43916</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14369,7 +14369,7 @@
         <v>43924</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14426,7 +14426,7 @@
         <v>43927</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14483,7 +14483,7 @@
         <v>43930</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14540,7 +14540,7 @@
         <v>43945</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14597,7 +14597,7 @@
         <v>43949</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14654,7 +14654,7 @@
         <v>43949</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14711,7 +14711,7 @@
         <v>43956</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14768,7 +14768,7 @@
         <v>43987</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14825,7 +14825,7 @@
         <v>43991</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14882,7 +14882,7 @@
         <v>43993</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14944,7 +14944,7 @@
         <v>43993</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15006,7 +15006,7 @@
         <v>43994</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15063,7 +15063,7 @@
         <v>43998</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15120,7 +15120,7 @@
         <v>44000</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15182,7 +15182,7 @@
         <v>44006</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15239,7 +15239,7 @@
         <v>44008</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15296,7 +15296,7 @@
         <v>44012</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15353,7 +15353,7 @@
         <v>44013</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15410,7 +15410,7 @@
         <v>44014</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15467,7 +15467,7 @@
         <v>44014</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15524,7 +15524,7 @@
         <v>44014</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15581,7 +15581,7 @@
         <v>44014</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15638,7 +15638,7 @@
         <v>44014</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15695,7 +15695,7 @@
         <v>44015</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15752,7 +15752,7 @@
         <v>44015</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15809,7 +15809,7 @@
         <v>44035</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15866,7 +15866,7 @@
         <v>44035</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15923,7 +15923,7 @@
         <v>44055</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15980,7 +15980,7 @@
         <v>44057</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16037,7 +16037,7 @@
         <v>44061</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16094,7 +16094,7 @@
         <v>44062</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16151,7 +16151,7 @@
         <v>44064</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16208,7 +16208,7 @@
         <v>44070</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16265,7 +16265,7 @@
         <v>44076</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16322,7 +16322,7 @@
         <v>44076</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16379,7 +16379,7 @@
         <v>44083</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16436,7 +16436,7 @@
         <v>44083</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16493,7 +16493,7 @@
         <v>44083</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16550,7 +16550,7 @@
         <v>44083</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16607,7 +16607,7 @@
         <v>44084</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16664,7 +16664,7 @@
         <v>44088</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16726,7 +16726,7 @@
         <v>44089</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16783,7 +16783,7 @@
         <v>44090</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16845,7 +16845,7 @@
         <v>44095</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16902,7 +16902,7 @@
         <v>44103</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16959,7 +16959,7 @@
         <v>44105</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17016,7 +17016,7 @@
         <v>44105</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17073,7 +17073,7 @@
         <v>44110</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17130,7 +17130,7 @@
         <v>44110</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17187,7 +17187,7 @@
         <v>44116</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17244,7 +17244,7 @@
         <v>44119</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17306,7 +17306,7 @@
         <v>44119</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17368,7 +17368,7 @@
         <v>44119</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17430,7 +17430,7 @@
         <v>44120</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17487,7 +17487,7 @@
         <v>44125</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17544,7 +17544,7 @@
         <v>44125</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17601,7 +17601,7 @@
         <v>44127</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17658,7 +17658,7 @@
         <v>44127</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17715,7 +17715,7 @@
         <v>44127</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17772,7 +17772,7 @@
         <v>44130</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17829,7 +17829,7 @@
         <v>44133</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17886,7 +17886,7 @@
         <v>44133</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17943,7 +17943,7 @@
         <v>44133</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18000,7 +18000,7 @@
         <v>44137</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18057,7 +18057,7 @@
         <v>44140</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18119,7 +18119,7 @@
         <v>44141</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18176,7 +18176,7 @@
         <v>44144</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18233,7 +18233,7 @@
         <v>44144</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18290,7 +18290,7 @@
         <v>44146</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18347,7 +18347,7 @@
         <v>44147</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18404,7 +18404,7 @@
         <v>44147</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18461,7 +18461,7 @@
         <v>44147</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18518,7 +18518,7 @@
         <v>44147</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18575,7 +18575,7 @@
         <v>44148</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18632,7 +18632,7 @@
         <v>44148</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18694,7 +18694,7 @@
         <v>44151</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18751,7 +18751,7 @@
         <v>44151</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18808,7 +18808,7 @@
         <v>44151</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18870,7 +18870,7 @@
         <v>44151</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18927,7 +18927,7 @@
         <v>44151</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18984,7 +18984,7 @@
         <v>44151</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19041,7 +19041,7 @@
         <v>44151</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19098,7 +19098,7 @@
         <v>44152</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19160,7 +19160,7 @@
         <v>44153</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19217,7 +19217,7 @@
         <v>44153</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19279,7 +19279,7 @@
         <v>44153</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19336,7 +19336,7 @@
         <v>44153</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19398,7 +19398,7 @@
         <v>44160</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19455,7 +19455,7 @@
         <v>44161</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19512,7 +19512,7 @@
         <v>44161</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19574,7 +19574,7 @@
         <v>44162</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19631,7 +19631,7 @@
         <v>44165</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19688,7 +19688,7 @@
         <v>44166</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19745,7 +19745,7 @@
         <v>44167</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19802,7 +19802,7 @@
         <v>44169</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19859,7 +19859,7 @@
         <v>44176</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19916,7 +19916,7 @@
         <v>44180</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19973,7 +19973,7 @@
         <v>44180</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20030,7 +20030,7 @@
         <v>44180</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20087,7 +20087,7 @@
         <v>44180</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20149,7 +20149,7 @@
         <v>44186</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20206,7 +20206,7 @@
         <v>44187</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20263,7 +20263,7 @@
         <v>44187</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20320,7 +20320,7 @@
         <v>44187</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20377,7 +20377,7 @@
         <v>44188</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20434,7 +20434,7 @@
         <v>44194</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20491,7 +20491,7 @@
         <v>44195</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20548,7 +20548,7 @@
         <v>44203</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20610,7 +20610,7 @@
         <v>44203</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20672,7 +20672,7 @@
         <v>44203</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20734,7 +20734,7 @@
         <v>44203</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20796,7 +20796,7 @@
         <v>44203</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20858,7 +20858,7 @@
         <v>44204</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20920,7 +20920,7 @@
         <v>44204</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20982,7 +20982,7 @@
         <v>44207</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21044,7 +21044,7 @@
         <v>44207</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21106,7 +21106,7 @@
         <v>44208</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21168,7 +21168,7 @@
         <v>44208</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21230,7 +21230,7 @@
         <v>44208</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21287,7 +21287,7 @@
         <v>44209</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21349,7 +21349,7 @@
         <v>44210</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21411,7 +21411,7 @@
         <v>44211</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21468,7 +21468,7 @@
         <v>44211</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21525,7 +21525,7 @@
         <v>44218</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21582,7 +21582,7 @@
         <v>44224</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21639,7 +21639,7 @@
         <v>44232</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21696,7 +21696,7 @@
         <v>44239</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21753,7 +21753,7 @@
         <v>44239</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21810,7 +21810,7 @@
         <v>44242</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21867,7 +21867,7 @@
         <v>44267</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21924,7 +21924,7 @@
         <v>44270</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21981,7 +21981,7 @@
         <v>44278</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22038,7 +22038,7 @@
         <v>44278</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22095,7 +22095,7 @@
         <v>44279</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22157,7 +22157,7 @@
         <v>44279</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22219,7 +22219,7 @@
         <v>44279</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22281,7 +22281,7 @@
         <v>44295</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22338,7 +22338,7 @@
         <v>44299</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22395,7 +22395,7 @@
         <v>44316</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22452,7 +22452,7 @@
         <v>44326</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22514,7 +22514,7 @@
         <v>44336</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22571,7 +22571,7 @@
         <v>44347</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22628,7 +22628,7 @@
         <v>44347</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22685,7 +22685,7 @@
         <v>44364</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22742,7 +22742,7 @@
         <v>44365</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22804,7 +22804,7 @@
         <v>44369</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22866,7 +22866,7 @@
         <v>44370</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22928,7 +22928,7 @@
         <v>44370</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22985,7 +22985,7 @@
         <v>44370</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23047,7 +23047,7 @@
         <v>44371</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23104,7 +23104,7 @@
         <v>44379</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23166,7 +23166,7 @@
         <v>44381</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23223,7 +23223,7 @@
         <v>44381</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23280,7 +23280,7 @@
         <v>44381</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23337,7 +23337,7 @@
         <v>44382</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23399,7 +23399,7 @@
         <v>44382</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23461,7 +23461,7 @@
         <v>44383</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23523,7 +23523,7 @@
         <v>44384</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23580,7 +23580,7 @@
         <v>44389</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23637,7 +23637,7 @@
         <v>44407</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23694,7 +23694,7 @@
         <v>44424</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23756,7 +23756,7 @@
         <v>44424</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23813,7 +23813,7 @@
         <v>44438</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23875,7 +23875,7 @@
         <v>44452</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23932,7 +23932,7 @@
         <v>44452</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23989,7 +23989,7 @@
         <v>44452</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24046,7 +24046,7 @@
         <v>44454</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24103,7 +24103,7 @@
         <v>44460</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24160,7 +24160,7 @@
         <v>44467</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24222,7 +24222,7 @@
         <v>44480</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24279,7 +24279,7 @@
         <v>44480</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24341,7 +24341,7 @@
         <v>44484</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24398,7 +24398,7 @@
         <v>44488</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24455,7 +24455,7 @@
         <v>44488</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24512,7 +24512,7 @@
         <v>44489</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24569,7 +24569,7 @@
         <v>44496</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24631,7 +24631,7 @@
         <v>44496</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24688,7 +24688,7 @@
         <v>44503</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24750,7 +24750,7 @@
         <v>44505</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24812,7 +24812,7 @@
         <v>44505</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24874,7 +24874,7 @@
         <v>44505</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24936,7 +24936,7 @@
         <v>44505</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24998,7 +24998,7 @@
         <v>44509</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25060,7 +25060,7 @@
         <v>44509</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25122,7 +25122,7 @@
         <v>44509</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25184,7 +25184,7 @@
         <v>44509</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25246,7 +25246,7 @@
         <v>44509</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25303,7 +25303,7 @@
         <v>44509</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25365,7 +25365,7 @@
         <v>44509</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25427,7 +25427,7 @@
         <v>44509</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25489,7 +25489,7 @@
         <v>44511</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25551,7 +25551,7 @@
         <v>44515</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25613,7 +25613,7 @@
         <v>44517</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25670,7 +25670,7 @@
         <v>44517</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25727,7 +25727,7 @@
         <v>44517</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25784,7 +25784,7 @@
         <v>44517</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25841,7 +25841,7 @@
         <v>44517</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25898,7 +25898,7 @@
         <v>44522</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25960,7 +25960,7 @@
         <v>44524</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26022,7 +26022,7 @@
         <v>44526</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26084,7 +26084,7 @@
         <v>44526</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26141,7 +26141,7 @@
         <v>44531</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26198,7 +26198,7 @@
         <v>44532</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26260,7 +26260,7 @@
         <v>44532</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26322,7 +26322,7 @@
         <v>44536</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26379,7 +26379,7 @@
         <v>44572</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26436,7 +26436,7 @@
         <v>44585</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26493,7 +26493,7 @@
         <v>44592</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26550,7 +26550,7 @@
         <v>44594</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26607,7 +26607,7 @@
         <v>44595</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26664,7 +26664,7 @@
         <v>44595</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26721,7 +26721,7 @@
         <v>44595</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26778,7 +26778,7 @@
         <v>44596</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26835,7 +26835,7 @@
         <v>44596</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26892,7 +26892,7 @@
         <v>44601</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26949,7 +26949,7 @@
         <v>44603</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27006,7 +27006,7 @@
         <v>44608</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27063,7 +27063,7 @@
         <v>44616</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27120,7 +27120,7 @@
         <v>44617</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27177,7 +27177,7 @@
         <v>44620</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27234,7 +27234,7 @@
         <v>44620</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27291,7 +27291,7 @@
         <v>44623</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27348,7 +27348,7 @@
         <v>44631</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27405,7 +27405,7 @@
         <v>44636</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27462,7 +27462,7 @@
         <v>44642</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27519,7 +27519,7 @@
         <v>44650</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27576,7 +27576,7 @@
         <v>44650</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27633,7 +27633,7 @@
         <v>44652</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27695,7 +27695,7 @@
         <v>44659</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27752,7 +27752,7 @@
         <v>44662</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27809,7 +27809,7 @@
         <v>44671</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27866,7 +27866,7 @@
         <v>44676</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27923,7 +27923,7 @@
         <v>44691</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27980,7 +27980,7 @@
         <v>44697</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28042,7 +28042,7 @@
         <v>44704</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28104,7 +28104,7 @@
         <v>44704</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28166,7 +28166,7 @@
         <v>44705</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28223,7 +28223,7 @@
         <v>44706</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28280,7 +28280,7 @@
         <v>44712</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28337,7 +28337,7 @@
         <v>44712</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28399,7 +28399,7 @@
         <v>44712</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28461,7 +28461,7 @@
         <v>44714</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28518,7 +28518,7 @@
         <v>44720</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28575,7 +28575,7 @@
         <v>44720</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28632,7 +28632,7 @@
         <v>44722</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28689,7 +28689,7 @@
         <v>44728</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28746,7 +28746,7 @@
         <v>44729</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28808,7 +28808,7 @@
         <v>44729</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28870,7 +28870,7 @@
         <v>44729</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28932,7 +28932,7 @@
         <v>44732</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28989,7 +28989,7 @@
         <v>44732</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29046,7 +29046,7 @@
         <v>44763</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29103,7 +29103,7 @@
         <v>44783</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29165,7 +29165,7 @@
         <v>44785</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29227,7 +29227,7 @@
         <v>44791</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29284,7 +29284,7 @@
         <v>44796</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29341,7 +29341,7 @@
         <v>44796</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29398,7 +29398,7 @@
         <v>44798</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29455,7 +29455,7 @@
         <v>44799</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29512,7 +29512,7 @@
         <v>44799</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29569,7 +29569,7 @@
         <v>44805</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29626,7 +29626,7 @@
         <v>44806</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29683,7 +29683,7 @@
         <v>44806</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29740,7 +29740,7 @@
         <v>44806</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29797,7 +29797,7 @@
         <v>44817</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29854,7 +29854,7 @@
         <v>44818</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29911,7 +29911,7 @@
         <v>44819</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29968,7 +29968,7 @@
         <v>44826</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30030,7 +30030,7 @@
         <v>44827</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30092,7 +30092,7 @@
         <v>44830</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30149,7 +30149,7 @@
         <v>44839</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30206,7 +30206,7 @@
         <v>44839</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30263,7 +30263,7 @@
         <v>44840</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30320,7 +30320,7 @@
         <v>44846</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30377,7 +30377,7 @@
         <v>44846</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30434,7 +30434,7 @@
         <v>44846</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30491,7 +30491,7 @@
         <v>44846</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30548,7 +30548,7 @@
         <v>44854</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30605,7 +30605,7 @@
         <v>44859</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30662,7 +30662,7 @@
         <v>44859</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30719,7 +30719,7 @@
         <v>44861</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30776,7 +30776,7 @@
         <v>44862</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30833,7 +30833,7 @@
         <v>44873</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30890,7 +30890,7 @@
         <v>44875</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30952,7 +30952,7 @@
         <v>44875</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31009,7 +31009,7 @@
         <v>44876</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31071,7 +31071,7 @@
         <v>44878</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31133,7 +31133,7 @@
         <v>44879</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31195,7 +31195,7 @@
         <v>44879</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31257,7 +31257,7 @@
         <v>44879</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31319,7 +31319,7 @@
         <v>44879</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31381,7 +31381,7 @@
         <v>44879</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31443,7 +31443,7 @@
         <v>44879</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31505,7 +31505,7 @@
         <v>44880</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31562,7 +31562,7 @@
         <v>44881</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31624,7 +31624,7 @@
         <v>44881</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31686,7 +31686,7 @@
         <v>44883</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31743,7 +31743,7 @@
         <v>44883</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31805,7 +31805,7 @@
         <v>44886</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31867,7 +31867,7 @@
         <v>44886</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31929,7 +31929,7 @@
         <v>44893</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31986,7 +31986,7 @@
         <v>44894</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32043,7 +32043,7 @@
         <v>44894</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32100,7 +32100,7 @@
         <v>44895</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32157,7 +32157,7 @@
         <v>44897</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32214,7 +32214,7 @@
         <v>44901</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32271,7 +32271,7 @@
         <v>44908</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32328,7 +32328,7 @@
         <v>44909</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32385,7 +32385,7 @@
         <v>44909</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32442,7 +32442,7 @@
         <v>44914</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32499,7 +32499,7 @@
         <v>44915</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32556,7 +32556,7 @@
         <v>44915</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32613,7 +32613,7 @@
         <v>44916</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32670,7 +32670,7 @@
         <v>44929</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32727,7 +32727,7 @@
         <v>44944</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32784,7 +32784,7 @@
         <v>44945</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32841,7 +32841,7 @@
         <v>44946</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32898,7 +32898,7 @@
         <v>44952</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32955,7 +32955,7 @@
         <v>44953</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33017,7 +33017,7 @@
         <v>44966</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33074,7 +33074,7 @@
         <v>44967</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33131,7 +33131,7 @@
         <v>44967</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33188,7 +33188,7 @@
         <v>44970</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33245,7 +33245,7 @@
         <v>44971</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33302,7 +33302,7 @@
         <v>44993</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33359,7 +33359,7 @@
         <v>44993</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33416,7 +33416,7 @@
         <v>44993</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33473,7 +33473,7 @@
         <v>44993</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33530,7 +33530,7 @@
         <v>45008</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -33587,7 +33587,7 @@
         <v>45009</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -33644,7 +33644,7 @@
         <v>45012</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33701,7 +33701,7 @@
         <v>45014</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33758,7 +33758,7 @@
         <v>45016</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33815,7 +33815,7 @@
         <v>45016</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33872,7 +33872,7 @@
         <v>45016</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -33929,7 +33929,7 @@
         <v>45016</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -33986,7 +33986,7 @@
         <v>45016</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34043,7 +34043,7 @@
         <v>45016</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34100,7 +34100,7 @@
         <v>45016</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34157,7 +34157,7 @@
         <v>45030</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34214,7 +34214,7 @@
         <v>45033</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34271,7 +34271,7 @@
         <v>45033</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34328,7 +34328,7 @@
         <v>45036</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34385,7 +34385,7 @@
         <v>45037</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -34447,7 +34447,7 @@
         <v>45038</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34504,7 +34504,7 @@
         <v>45041</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -34561,7 +34561,7 @@
         <v>45041</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -34623,7 +34623,7 @@
         <v>45043</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34680,7 +34680,7 @@
         <v>45044</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -34737,7 +34737,7 @@
         <v>45044</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -34794,7 +34794,7 @@
         <v>45044</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -34851,7 +34851,7 @@
         <v>45058</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -34913,7 +34913,7 @@
         <v>45061</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -34970,7 +34970,7 @@
         <v>45062</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -35032,7 +35032,7 @@
         <v>45062</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35089,7 +35089,7 @@
         <v>45063</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -35151,7 +35151,7 @@
         <v>45070</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -35208,7 +35208,7 @@
         <v>45072</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -35270,7 +35270,7 @@
         <v>45072</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35327,7 +35327,7 @@
         <v>45078</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35384,7 +35384,7 @@
         <v>45078</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -35446,7 +35446,7 @@
         <v>45079</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -35503,7 +35503,7 @@
         <v>45082</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -35560,7 +35560,7 @@
         <v>45082</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -35617,7 +35617,7 @@
         <v>45084</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -35679,7 +35679,7 @@
         <v>45084</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -35736,7 +35736,7 @@
         <v>45085</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -35793,7 +35793,7 @@
         <v>45089</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -35850,7 +35850,7 @@
         <v>45090</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -35907,7 +35907,7 @@
         <v>45090</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -35964,7 +35964,7 @@
         <v>45090</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -36021,7 +36021,7 @@
         <v>45090</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -36078,7 +36078,7 @@
         <v>45091</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -36135,7 +36135,7 @@
         <v>45097</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -36192,7 +36192,7 @@
         <v>45097</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -36249,7 +36249,7 @@
         <v>45097</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -36306,7 +36306,7 @@
         <v>45097</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -36363,7 +36363,7 @@
         <v>45098</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -36425,7 +36425,7 @@
         <v>45099</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -36482,7 +36482,7 @@
         <v>45103</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -36539,7 +36539,7 @@
         <v>45104</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -36596,7 +36596,7 @@
         <v>45104</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -36653,7 +36653,7 @@
         <v>45107</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -36715,7 +36715,7 @@
         <v>45107</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -36772,7 +36772,7 @@
         <v>45107</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -36829,7 +36829,7 @@
         <v>45107</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -36886,7 +36886,7 @@
         <v>45107</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -36943,7 +36943,7 @@
         <v>45107</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -37000,7 +37000,7 @@
         <v>45107</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -37062,7 +37062,7 @@
         <v>45107</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -37124,7 +37124,7 @@
         <v>45107</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -37181,7 +37181,7 @@
         <v>45110</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -37238,7 +37238,7 @@
         <v>45110</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -37295,7 +37295,7 @@
         <v>45112</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -37357,7 +37357,7 @@
         <v>45113</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -37419,7 +37419,7 @@
         <v>45113</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -37476,7 +37476,7 @@
         <v>45114</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -37533,7 +37533,7 @@
         <v>45114</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -37590,7 +37590,7 @@
         <v>45117</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -37647,7 +37647,7 @@
         <v>45119</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -37709,7 +37709,7 @@
         <v>45120</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -37766,7 +37766,7 @@
         <v>45121</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -37823,7 +37823,7 @@
         <v>45123</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -37880,7 +37880,7 @@
         <v>45132</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -37937,7 +37937,7 @@
         <v>45138</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -37994,7 +37994,7 @@
         <v>45138</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -38051,7 +38051,7 @@
         <v>45147</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -38108,7 +38108,7 @@
         <v>45149</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -38165,7 +38165,7 @@
         <v>45149</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -38222,7 +38222,7 @@
         <v>45161</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -38284,7 +38284,7 @@
         <v>45161</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -38346,7 +38346,7 @@
         <v>45161</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -38408,7 +38408,7 @@
         <v>45169</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -38465,7 +38465,7 @@
         <v>45173</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -38527,7 +38527,7 @@
         <v>45173</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -38584,7 +38584,7 @@
         <v>45175</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -38641,7 +38641,7 @@
         <v>45176</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -38698,7 +38698,7 @@
         <v>45180</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -38755,7 +38755,7 @@
         <v>45180</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>

--- a/Översikt BOLLNÄS.xlsx
+++ b/Översikt BOLLNÄS.xlsx
@@ -572,7 +572,7 @@
         <v>44109</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -675,7 +675,7 @@
         <v>44095</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -776,7 +776,7 @@
         <v>44382</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -868,7 +868,7 @@
         <v>44729</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -960,7 +960,7 @@
         <v>43783</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1055,7 +1055,7 @@
         <v>43783</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1150,7 +1150,7 @@
         <v>43783</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1245,7 +1245,7 @@
         <v>43993</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1331,7 +1331,7 @@
         <v>43999</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1422,7 +1422,7 @@
         <v>44432</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1512,7 +1512,7 @@
         <v>45092</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         <v>43600</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1688,7 +1688,7 @@
         <v>43619</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1777,7 +1777,7 @@
         <v>43794</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1862,7 +1862,7 @@
         <v>43864</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1947,7 +1947,7 @@
         <v>44081</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2037,7 +2037,7 @@
         <v>44515</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2127,7 +2127,7 @@
         <v>44813</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2212,7 +2212,7 @@
         <v>44901</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2297,7 +2297,7 @@
         <v>45058</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         <v>45076</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2476,7 +2476,7 @@
         <v>45090</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2561,7 +2561,7 @@
         <v>43360</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2618,7 +2618,7 @@
         <v>43375</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2675,7 +2675,7 @@
         <v>43382</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2732,7 +2732,7 @@
         <v>43389</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2789,7 +2789,7 @@
         <v>43392</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2846,7 +2846,7 @@
         <v>43410</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2903,7 +2903,7 @@
         <v>43413</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2965,7 +2965,7 @@
         <v>43416</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3022,7 +3022,7 @@
         <v>43417</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3079,7 +3079,7 @@
         <v>43417</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3136,7 +3136,7 @@
         <v>43418</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3193,7 +3193,7 @@
         <v>43418</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3250,7 +3250,7 @@
         <v>43418</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3307,7 +3307,7 @@
         <v>43419</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3364,7 +3364,7 @@
         <v>43420</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3421,7 +3421,7 @@
         <v>43424</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3478,7 +3478,7 @@
         <v>43424</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3535,7 +3535,7 @@
         <v>43424</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3592,7 +3592,7 @@
         <v>43424</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3649,7 +3649,7 @@
         <v>43424</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3706,7 +3706,7 @@
         <v>43424</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3763,7 +3763,7 @@
         <v>43424</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3820,7 +3820,7 @@
         <v>43427</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3877,7 +3877,7 @@
         <v>43427</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3934,7 +3934,7 @@
         <v>43427</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3991,7 +3991,7 @@
         <v>43427</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4048,7 +4048,7 @@
         <v>43427</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4105,7 +4105,7 @@
         <v>43430</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4162,7 +4162,7 @@
         <v>43431</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4219,7 +4219,7 @@
         <v>43431</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4276,7 +4276,7 @@
         <v>43434</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4333,7 +4333,7 @@
         <v>43434</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4390,7 +4390,7 @@
         <v>43437</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4447,7 +4447,7 @@
         <v>43441</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4504,7 +4504,7 @@
         <v>43444</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4561,7 +4561,7 @@
         <v>43445</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4623,7 +4623,7 @@
         <v>43445</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4680,7 +4680,7 @@
         <v>43446</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4737,7 +4737,7 @@
         <v>43446</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4794,7 +4794,7 @@
         <v>43447</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4851,7 +4851,7 @@
         <v>43448</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4908,7 +4908,7 @@
         <v>43452</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4965,7 +4965,7 @@
         <v>43452</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5022,7 +5022,7 @@
         <v>43454</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5079,7 +5079,7 @@
         <v>43455</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5136,7 +5136,7 @@
         <v>43455</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5193,7 +5193,7 @@
         <v>43467</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5250,7 +5250,7 @@
         <v>43472</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5307,7 +5307,7 @@
         <v>43472</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5364,7 +5364,7 @@
         <v>43472</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5421,7 +5421,7 @@
         <v>43476</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5478,7 +5478,7 @@
         <v>43476</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5535,7 +5535,7 @@
         <v>43476</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5592,7 +5592,7 @@
         <v>43480</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5649,7 +5649,7 @@
         <v>43482</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5706,7 +5706,7 @@
         <v>43482</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5763,7 +5763,7 @@
         <v>43497</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5820,7 +5820,7 @@
         <v>43509</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5877,7 +5877,7 @@
         <v>43515</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5934,7 +5934,7 @@
         <v>43517</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5991,7 +5991,7 @@
         <v>43518</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6048,7 +6048,7 @@
         <v>43522</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6105,7 +6105,7 @@
         <v>43523</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6162,7 +6162,7 @@
         <v>43528</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6219,7 +6219,7 @@
         <v>43528</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6276,7 +6276,7 @@
         <v>43529</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6333,7 +6333,7 @@
         <v>43532</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6390,7 +6390,7 @@
         <v>43532</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6447,7 +6447,7 @@
         <v>43536</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6504,7 +6504,7 @@
         <v>43537</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6561,7 +6561,7 @@
         <v>43559</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6618,7 +6618,7 @@
         <v>43560</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6675,7 +6675,7 @@
         <v>43563</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6732,7 +6732,7 @@
         <v>43564</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6789,7 +6789,7 @@
         <v>43567</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6846,7 +6846,7 @@
         <v>43571</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6903,7 +6903,7 @@
         <v>43580</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6960,7 +6960,7 @@
         <v>43583</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7017,7 +7017,7 @@
         <v>43587</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7074,7 +7074,7 @@
         <v>43593</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7131,7 +7131,7 @@
         <v>43593</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7188,7 +7188,7 @@
         <v>43594</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7245,7 +7245,7 @@
         <v>43598</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7302,7 +7302,7 @@
         <v>43599</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7359,7 +7359,7 @@
         <v>43599</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7416,7 +7416,7 @@
         <v>43599</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7473,7 +7473,7 @@
         <v>43605</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7535,7 +7535,7 @@
         <v>43607</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7592,7 +7592,7 @@
         <v>43612</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7649,7 +7649,7 @@
         <v>43619</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7711,7 +7711,7 @@
         <v>43619</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7768,7 +7768,7 @@
         <v>43619</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7830,7 +7830,7 @@
         <v>43619</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7892,7 +7892,7 @@
         <v>43620</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7949,7 +7949,7 @@
         <v>43620</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8006,7 +8006,7 @@
         <v>43629</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8068,7 +8068,7 @@
         <v>43629</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8125,7 +8125,7 @@
         <v>43633</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8182,7 +8182,7 @@
         <v>43635</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8239,7 +8239,7 @@
         <v>43640</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8296,7 +8296,7 @@
         <v>43641</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8353,7 +8353,7 @@
         <v>43643</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8410,7 +8410,7 @@
         <v>43649</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8467,7 +8467,7 @@
         <v>43649</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8524,7 +8524,7 @@
         <v>43651</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8586,7 +8586,7 @@
         <v>43654</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8643,7 +8643,7 @@
         <v>43656</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8700,7 +8700,7 @@
         <v>43657</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8757,7 +8757,7 @@
         <v>43657</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8819,7 +8819,7 @@
         <v>43664</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8876,7 +8876,7 @@
         <v>43689</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8933,7 +8933,7 @@
         <v>43691</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8995,7 +8995,7 @@
         <v>43698</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9052,7 +9052,7 @@
         <v>43698</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9109,7 +9109,7 @@
         <v>43703</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9166,7 +9166,7 @@
         <v>43704</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9223,7 +9223,7 @@
         <v>43704</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9280,7 +9280,7 @@
         <v>43705</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9342,7 +9342,7 @@
         <v>43706</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9399,7 +9399,7 @@
         <v>43707</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9461,7 +9461,7 @@
         <v>43707</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9523,7 +9523,7 @@
         <v>43710</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9580,7 +9580,7 @@
         <v>43711</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9642,7 +9642,7 @@
         <v>43717</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9699,7 +9699,7 @@
         <v>43718</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9756,7 +9756,7 @@
         <v>43718</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9813,7 +9813,7 @@
         <v>43721</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9875,7 +9875,7 @@
         <v>43726</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9932,7 +9932,7 @@
         <v>43732</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9989,7 +9989,7 @@
         <v>43733</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10051,7 +10051,7 @@
         <v>43733</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10113,7 +10113,7 @@
         <v>43738</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10170,7 +10170,7 @@
         <v>43739</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10227,7 +10227,7 @@
         <v>43740</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10284,7 +10284,7 @@
         <v>43741</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10341,7 +10341,7 @@
         <v>43742</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10398,7 +10398,7 @@
         <v>43742</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10455,7 +10455,7 @@
         <v>43742</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10512,7 +10512,7 @@
         <v>43748</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10569,7 +10569,7 @@
         <v>43753</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10626,7 +10626,7 @@
         <v>43754</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10688,7 +10688,7 @@
         <v>43754</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10745,7 +10745,7 @@
         <v>43755</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10807,7 +10807,7 @@
         <v>43759</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10864,7 +10864,7 @@
         <v>43759</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10921,7 +10921,7 @@
         <v>43760</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10978,7 +10978,7 @@
         <v>43761</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11040,7 +11040,7 @@
         <v>43767</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11102,7 +11102,7 @@
         <v>43769</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11159,7 +11159,7 @@
         <v>43773</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11216,7 +11216,7 @@
         <v>43776</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11273,7 +11273,7 @@
         <v>43777</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11330,7 +11330,7 @@
         <v>43781</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11392,7 +11392,7 @@
         <v>43783</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11449,7 +11449,7 @@
         <v>43783</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11506,7 +11506,7 @@
         <v>43783</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11588,7 +11588,7 @@
         <v>43787</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11645,7 +11645,7 @@
         <v>43789</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11702,7 +11702,7 @@
         <v>43789</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11759,7 +11759,7 @@
         <v>43790</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11816,7 +11816,7 @@
         <v>43794</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11873,7 +11873,7 @@
         <v>43795</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11930,7 +11930,7 @@
         <v>43798</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11987,7 +11987,7 @@
         <v>43800</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12044,7 +12044,7 @@
         <v>43802</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12101,7 +12101,7 @@
         <v>43808</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12163,7 +12163,7 @@
         <v>43809</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12225,7 +12225,7 @@
         <v>43809</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12287,7 +12287,7 @@
         <v>43809</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12344,7 +12344,7 @@
         <v>43812</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12401,7 +12401,7 @@
         <v>43815</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12458,7 +12458,7 @@
         <v>43819</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12515,7 +12515,7 @@
         <v>43819</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12572,7 +12572,7 @@
         <v>43837</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12629,7 +12629,7 @@
         <v>43837</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12686,7 +12686,7 @@
         <v>43840</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12743,7 +12743,7 @@
         <v>43840</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12800,7 +12800,7 @@
         <v>43846</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12857,7 +12857,7 @@
         <v>43850</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12914,7 +12914,7 @@
         <v>43852</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12976,7 +12976,7 @@
         <v>43853</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13038,7 +13038,7 @@
         <v>43858</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13100,7 +13100,7 @@
         <v>43859</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13162,7 +13162,7 @@
         <v>43865</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13219,7 +13219,7 @@
         <v>43867</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13276,7 +13276,7 @@
         <v>43871</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13333,7 +13333,7 @@
         <v>43878</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13390,7 +13390,7 @@
         <v>43878</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13447,7 +13447,7 @@
         <v>43879</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13504,7 +13504,7 @@
         <v>43882</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13561,7 +13561,7 @@
         <v>43886</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13618,7 +13618,7 @@
         <v>43886</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13675,7 +13675,7 @@
         <v>43887</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13732,7 +13732,7 @@
         <v>43888</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13789,7 +13789,7 @@
         <v>43892</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13846,7 +13846,7 @@
         <v>43894</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13903,7 +13903,7 @@
         <v>43894</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13960,7 +13960,7 @@
         <v>43901</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14022,7 +14022,7 @@
         <v>43902</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14079,7 +14079,7 @@
         <v>43913</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14136,7 +14136,7 @@
         <v>43913</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14193,7 +14193,7 @@
         <v>43913</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14255,7 +14255,7 @@
         <v>43916</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14312,7 +14312,7 @@
         <v>43916</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14369,7 +14369,7 @@
         <v>43924</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14426,7 +14426,7 @@
         <v>43927</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14483,7 +14483,7 @@
         <v>43930</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14540,7 +14540,7 @@
         <v>43945</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14597,7 +14597,7 @@
         <v>43949</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14654,7 +14654,7 @@
         <v>43949</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14711,7 +14711,7 @@
         <v>43956</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14768,7 +14768,7 @@
         <v>43987</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14825,7 +14825,7 @@
         <v>43991</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14882,7 +14882,7 @@
         <v>43993</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14944,7 +14944,7 @@
         <v>43993</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15006,7 +15006,7 @@
         <v>43994</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15063,7 +15063,7 @@
         <v>43998</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15120,7 +15120,7 @@
         <v>44000</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15182,7 +15182,7 @@
         <v>44006</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15239,7 +15239,7 @@
         <v>44008</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15296,7 +15296,7 @@
         <v>44012</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15353,7 +15353,7 @@
         <v>44013</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15410,7 +15410,7 @@
         <v>44014</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15467,7 +15467,7 @@
         <v>44014</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15524,7 +15524,7 @@
         <v>44014</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15581,7 +15581,7 @@
         <v>44014</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15638,7 +15638,7 @@
         <v>44014</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15695,7 +15695,7 @@
         <v>44015</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15752,7 +15752,7 @@
         <v>44015</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15809,7 +15809,7 @@
         <v>44035</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15866,7 +15866,7 @@
         <v>44035</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15923,7 +15923,7 @@
         <v>44055</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15980,7 +15980,7 @@
         <v>44057</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16037,7 +16037,7 @@
         <v>44061</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16094,7 +16094,7 @@
         <v>44062</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16151,7 +16151,7 @@
         <v>44064</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16208,7 +16208,7 @@
         <v>44070</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16265,7 +16265,7 @@
         <v>44076</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16322,7 +16322,7 @@
         <v>44076</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16379,7 +16379,7 @@
         <v>44083</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16436,7 +16436,7 @@
         <v>44083</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16493,7 +16493,7 @@
         <v>44083</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16550,7 +16550,7 @@
         <v>44083</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16607,7 +16607,7 @@
         <v>44084</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16664,7 +16664,7 @@
         <v>44088</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16726,7 +16726,7 @@
         <v>44089</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16783,7 +16783,7 @@
         <v>44090</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16845,7 +16845,7 @@
         <v>44095</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16902,7 +16902,7 @@
         <v>44103</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16959,7 +16959,7 @@
         <v>44105</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17016,7 +17016,7 @@
         <v>44105</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17073,7 +17073,7 @@
         <v>44110</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17130,7 +17130,7 @@
         <v>44110</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17187,7 +17187,7 @@
         <v>44116</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17244,7 +17244,7 @@
         <v>44119</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17306,7 +17306,7 @@
         <v>44119</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17368,7 +17368,7 @@
         <v>44119</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17430,7 +17430,7 @@
         <v>44120</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17487,7 +17487,7 @@
         <v>44125</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17544,7 +17544,7 @@
         <v>44125</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17601,7 +17601,7 @@
         <v>44127</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17658,7 +17658,7 @@
         <v>44127</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17715,7 +17715,7 @@
         <v>44127</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17772,7 +17772,7 @@
         <v>44130</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17829,7 +17829,7 @@
         <v>44133</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17886,7 +17886,7 @@
         <v>44133</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17943,7 +17943,7 @@
         <v>44133</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18000,7 +18000,7 @@
         <v>44137</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18057,7 +18057,7 @@
         <v>44140</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18119,7 +18119,7 @@
         <v>44141</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18176,7 +18176,7 @@
         <v>44144</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18233,7 +18233,7 @@
         <v>44144</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18290,7 +18290,7 @@
         <v>44146</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18347,7 +18347,7 @@
         <v>44147</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18404,7 +18404,7 @@
         <v>44147</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18461,7 +18461,7 @@
         <v>44147</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18518,7 +18518,7 @@
         <v>44147</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18575,7 +18575,7 @@
         <v>44148</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18632,7 +18632,7 @@
         <v>44148</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18694,7 +18694,7 @@
         <v>44151</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18751,7 +18751,7 @@
         <v>44151</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18808,7 +18808,7 @@
         <v>44151</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18870,7 +18870,7 @@
         <v>44151</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18927,7 +18927,7 @@
         <v>44151</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18984,7 +18984,7 @@
         <v>44151</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19041,7 +19041,7 @@
         <v>44151</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19098,7 +19098,7 @@
         <v>44152</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19160,7 +19160,7 @@
         <v>44153</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19217,7 +19217,7 @@
         <v>44153</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19279,7 +19279,7 @@
         <v>44153</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19336,7 +19336,7 @@
         <v>44153</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19398,7 +19398,7 @@
         <v>44160</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19455,7 +19455,7 @@
         <v>44161</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19512,7 +19512,7 @@
         <v>44161</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19574,7 +19574,7 @@
         <v>44162</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19631,7 +19631,7 @@
         <v>44165</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19688,7 +19688,7 @@
         <v>44166</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19745,7 +19745,7 @@
         <v>44167</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19802,7 +19802,7 @@
         <v>44169</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19859,7 +19859,7 @@
         <v>44176</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19916,7 +19916,7 @@
         <v>44180</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19973,7 +19973,7 @@
         <v>44180</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20030,7 +20030,7 @@
         <v>44180</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20087,7 +20087,7 @@
         <v>44180</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20149,7 +20149,7 @@
         <v>44186</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20206,7 +20206,7 @@
         <v>44187</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20263,7 +20263,7 @@
         <v>44187</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20320,7 +20320,7 @@
         <v>44187</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20377,7 +20377,7 @@
         <v>44188</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20434,7 +20434,7 @@
         <v>44194</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20491,7 +20491,7 @@
         <v>44195</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20548,7 +20548,7 @@
         <v>44203</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20610,7 +20610,7 @@
         <v>44203</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20672,7 +20672,7 @@
         <v>44203</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20734,7 +20734,7 @@
         <v>44203</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20796,7 +20796,7 @@
         <v>44203</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20858,7 +20858,7 @@
         <v>44204</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20920,7 +20920,7 @@
         <v>44204</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20982,7 +20982,7 @@
         <v>44207</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21044,7 +21044,7 @@
         <v>44207</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21106,7 +21106,7 @@
         <v>44208</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21168,7 +21168,7 @@
         <v>44208</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21230,7 +21230,7 @@
         <v>44208</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21287,7 +21287,7 @@
         <v>44209</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21349,7 +21349,7 @@
         <v>44210</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21411,7 +21411,7 @@
         <v>44211</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21468,7 +21468,7 @@
         <v>44211</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21525,7 +21525,7 @@
         <v>44218</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21582,7 +21582,7 @@
         <v>44224</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21639,7 +21639,7 @@
         <v>44232</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21696,7 +21696,7 @@
         <v>44239</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21753,7 +21753,7 @@
         <v>44239</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21810,7 +21810,7 @@
         <v>44242</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21867,7 +21867,7 @@
         <v>44267</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21924,7 +21924,7 @@
         <v>44270</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21981,7 +21981,7 @@
         <v>44278</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22038,7 +22038,7 @@
         <v>44278</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22095,7 +22095,7 @@
         <v>44279</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22157,7 +22157,7 @@
         <v>44279</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22219,7 +22219,7 @@
         <v>44279</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22281,7 +22281,7 @@
         <v>44295</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22338,7 +22338,7 @@
         <v>44299</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22395,7 +22395,7 @@
         <v>44316</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22452,7 +22452,7 @@
         <v>44326</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22514,7 +22514,7 @@
         <v>44336</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22571,7 +22571,7 @@
         <v>44347</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22628,7 +22628,7 @@
         <v>44347</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22685,7 +22685,7 @@
         <v>44364</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22742,7 +22742,7 @@
         <v>44365</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22804,7 +22804,7 @@
         <v>44369</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22866,7 +22866,7 @@
         <v>44370</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22928,7 +22928,7 @@
         <v>44370</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22985,7 +22985,7 @@
         <v>44370</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23047,7 +23047,7 @@
         <v>44371</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23104,7 +23104,7 @@
         <v>44379</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23166,7 +23166,7 @@
         <v>44381</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23223,7 +23223,7 @@
         <v>44381</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23280,7 +23280,7 @@
         <v>44381</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23337,7 +23337,7 @@
         <v>44382</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23399,7 +23399,7 @@
         <v>44382</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23461,7 +23461,7 @@
         <v>44383</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23523,7 +23523,7 @@
         <v>44384</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23580,7 +23580,7 @@
         <v>44389</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23637,7 +23637,7 @@
         <v>44407</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23694,7 +23694,7 @@
         <v>44424</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23756,7 +23756,7 @@
         <v>44424</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23813,7 +23813,7 @@
         <v>44438</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23875,7 +23875,7 @@
         <v>44452</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23932,7 +23932,7 @@
         <v>44452</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23989,7 +23989,7 @@
         <v>44452</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24046,7 +24046,7 @@
         <v>44454</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24103,7 +24103,7 @@
         <v>44460</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24160,7 +24160,7 @@
         <v>44467</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24222,7 +24222,7 @@
         <v>44480</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24279,7 +24279,7 @@
         <v>44480</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24341,7 +24341,7 @@
         <v>44484</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24398,7 +24398,7 @@
         <v>44488</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24455,7 +24455,7 @@
         <v>44488</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24512,7 +24512,7 @@
         <v>44489</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24569,7 +24569,7 @@
         <v>44496</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24631,7 +24631,7 @@
         <v>44496</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24688,7 +24688,7 @@
         <v>44503</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24750,7 +24750,7 @@
         <v>44505</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24812,7 +24812,7 @@
         <v>44505</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24874,7 +24874,7 @@
         <v>44505</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24936,7 +24936,7 @@
         <v>44505</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24998,7 +24998,7 @@
         <v>44509</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25060,7 +25060,7 @@
         <v>44509</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25122,7 +25122,7 @@
         <v>44509</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25184,7 +25184,7 @@
         <v>44509</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25246,7 +25246,7 @@
         <v>44509</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25303,7 +25303,7 @@
         <v>44509</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25365,7 +25365,7 @@
         <v>44509</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25427,7 +25427,7 @@
         <v>44509</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25489,7 +25489,7 @@
         <v>44511</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25551,7 +25551,7 @@
         <v>44515</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25613,7 +25613,7 @@
         <v>44517</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25670,7 +25670,7 @@
         <v>44517</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25727,7 +25727,7 @@
         <v>44517</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25784,7 +25784,7 @@
         <v>44517</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25841,7 +25841,7 @@
         <v>44517</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25898,7 +25898,7 @@
         <v>44522</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25960,7 +25960,7 @@
         <v>44524</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26022,7 +26022,7 @@
         <v>44526</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26084,7 +26084,7 @@
         <v>44526</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26141,7 +26141,7 @@
         <v>44531</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26198,7 +26198,7 @@
         <v>44532</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26260,7 +26260,7 @@
         <v>44532</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26322,7 +26322,7 @@
         <v>44536</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26379,7 +26379,7 @@
         <v>44572</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26436,7 +26436,7 @@
         <v>44585</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26493,7 +26493,7 @@
         <v>44592</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26550,7 +26550,7 @@
         <v>44594</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26607,7 +26607,7 @@
         <v>44595</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26664,7 +26664,7 @@
         <v>44595</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26721,7 +26721,7 @@
         <v>44595</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26778,7 +26778,7 @@
         <v>44596</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26835,7 +26835,7 @@
         <v>44596</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26892,7 +26892,7 @@
         <v>44601</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26949,7 +26949,7 @@
         <v>44603</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27006,7 +27006,7 @@
         <v>44608</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27063,7 +27063,7 @@
         <v>44616</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27120,7 +27120,7 @@
         <v>44617</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27177,7 +27177,7 @@
         <v>44620</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27234,7 +27234,7 @@
         <v>44620</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27291,7 +27291,7 @@
         <v>44623</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27348,7 +27348,7 @@
         <v>44631</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27405,7 +27405,7 @@
         <v>44636</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27462,7 +27462,7 @@
         <v>44642</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27519,7 +27519,7 @@
         <v>44650</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27576,7 +27576,7 @@
         <v>44650</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27633,7 +27633,7 @@
         <v>44652</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27695,7 +27695,7 @@
         <v>44659</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27752,7 +27752,7 @@
         <v>44662</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27809,7 +27809,7 @@
         <v>44671</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27866,7 +27866,7 @@
         <v>44676</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27923,7 +27923,7 @@
         <v>44691</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27980,7 +27980,7 @@
         <v>44697</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28042,7 +28042,7 @@
         <v>44704</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28104,7 +28104,7 @@
         <v>44704</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28166,7 +28166,7 @@
         <v>44705</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28223,7 +28223,7 @@
         <v>44706</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28280,7 +28280,7 @@
         <v>44712</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28337,7 +28337,7 @@
         <v>44712</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28399,7 +28399,7 @@
         <v>44712</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28461,7 +28461,7 @@
         <v>44714</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28518,7 +28518,7 @@
         <v>44720</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28575,7 +28575,7 @@
         <v>44720</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28632,7 +28632,7 @@
         <v>44722</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28689,7 +28689,7 @@
         <v>44728</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28746,7 +28746,7 @@
         <v>44729</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28808,7 +28808,7 @@
         <v>44729</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28870,7 +28870,7 @@
         <v>44729</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28932,7 +28932,7 @@
         <v>44732</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28989,7 +28989,7 @@
         <v>44732</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29046,7 +29046,7 @@
         <v>44763</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29103,7 +29103,7 @@
         <v>44783</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29165,7 +29165,7 @@
         <v>44785</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29227,7 +29227,7 @@
         <v>44791</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29284,7 +29284,7 @@
         <v>44796</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29341,7 +29341,7 @@
         <v>44796</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29398,7 +29398,7 @@
         <v>44798</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29455,7 +29455,7 @@
         <v>44799</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29512,7 +29512,7 @@
         <v>44799</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29569,7 +29569,7 @@
         <v>44805</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29626,7 +29626,7 @@
         <v>44806</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29683,7 +29683,7 @@
         <v>44806</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29740,7 +29740,7 @@
         <v>44806</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29797,7 +29797,7 @@
         <v>44817</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29854,7 +29854,7 @@
         <v>44818</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29911,7 +29911,7 @@
         <v>44819</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29968,7 +29968,7 @@
         <v>44826</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30030,7 +30030,7 @@
         <v>44827</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30092,7 +30092,7 @@
         <v>44830</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30149,7 +30149,7 @@
         <v>44839</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30206,7 +30206,7 @@
         <v>44839</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30263,7 +30263,7 @@
         <v>44840</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30320,7 +30320,7 @@
         <v>44846</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30377,7 +30377,7 @@
         <v>44846</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30434,7 +30434,7 @@
         <v>44846</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30491,7 +30491,7 @@
         <v>44846</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30548,7 +30548,7 @@
         <v>44854</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30605,7 +30605,7 @@
         <v>44859</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30662,7 +30662,7 @@
         <v>44859</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30719,7 +30719,7 @@
         <v>44861</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30776,7 +30776,7 @@
         <v>44862</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30833,7 +30833,7 @@
         <v>44873</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30890,7 +30890,7 @@
         <v>44875</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30952,7 +30952,7 @@
         <v>44875</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31009,7 +31009,7 @@
         <v>44876</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31071,7 +31071,7 @@
         <v>44878</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31133,7 +31133,7 @@
         <v>44879</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31195,7 +31195,7 @@
         <v>44879</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31257,7 +31257,7 @@
         <v>44879</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31319,7 +31319,7 @@
         <v>44879</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31381,7 +31381,7 @@
         <v>44879</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31443,7 +31443,7 @@
         <v>44879</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31505,7 +31505,7 @@
         <v>44880</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31562,7 +31562,7 @@
         <v>44881</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31624,7 +31624,7 @@
         <v>44881</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31686,7 +31686,7 @@
         <v>44883</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31743,7 +31743,7 @@
         <v>44883</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31805,7 +31805,7 @@
         <v>44886</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31867,7 +31867,7 @@
         <v>44886</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31929,7 +31929,7 @@
         <v>44893</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31986,7 +31986,7 @@
         <v>44894</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32043,7 +32043,7 @@
         <v>44894</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32100,7 +32100,7 @@
         <v>44895</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32157,7 +32157,7 @@
         <v>44897</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32214,7 +32214,7 @@
         <v>44901</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32271,7 +32271,7 @@
         <v>44908</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32328,7 +32328,7 @@
         <v>44909</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32385,7 +32385,7 @@
         <v>44909</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32442,7 +32442,7 @@
         <v>44914</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32499,7 +32499,7 @@
         <v>44915</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32556,7 +32556,7 @@
         <v>44915</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32613,7 +32613,7 @@
         <v>44916</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32670,7 +32670,7 @@
         <v>44929</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32727,7 +32727,7 @@
         <v>44944</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32784,7 +32784,7 @@
         <v>44945</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32841,7 +32841,7 @@
         <v>44946</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32898,7 +32898,7 @@
         <v>44952</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32955,7 +32955,7 @@
         <v>44953</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33017,7 +33017,7 @@
         <v>44966</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33074,7 +33074,7 @@
         <v>44967</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33131,7 +33131,7 @@
         <v>44967</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33188,7 +33188,7 @@
         <v>44970</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33245,7 +33245,7 @@
         <v>44971</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33302,7 +33302,7 @@
         <v>44993</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33359,7 +33359,7 @@
         <v>44993</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33416,7 +33416,7 @@
         <v>44993</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33473,7 +33473,7 @@
         <v>44993</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33530,7 +33530,7 @@
         <v>45008</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -33587,7 +33587,7 @@
         <v>45009</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -33644,7 +33644,7 @@
         <v>45012</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33701,7 +33701,7 @@
         <v>45014</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33758,7 +33758,7 @@
         <v>45016</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33815,7 +33815,7 @@
         <v>45016</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33872,7 +33872,7 @@
         <v>45016</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -33929,7 +33929,7 @@
         <v>45016</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -33986,7 +33986,7 @@
         <v>45016</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34043,7 +34043,7 @@
         <v>45016</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34100,7 +34100,7 @@
         <v>45016</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34157,7 +34157,7 @@
         <v>45030</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34214,7 +34214,7 @@
         <v>45033</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34271,7 +34271,7 @@
         <v>45033</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34328,7 +34328,7 @@
         <v>45036</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34385,7 +34385,7 @@
         <v>45037</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -34447,7 +34447,7 @@
         <v>45038</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34504,7 +34504,7 @@
         <v>45041</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -34561,7 +34561,7 @@
         <v>45041</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -34623,7 +34623,7 @@
         <v>45043</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34680,7 +34680,7 @@
         <v>45044</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -34737,7 +34737,7 @@
         <v>45044</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -34794,7 +34794,7 @@
         <v>45044</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -34851,7 +34851,7 @@
         <v>45058</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -34913,7 +34913,7 @@
         <v>45061</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -34970,7 +34970,7 @@
         <v>45062</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -35032,7 +35032,7 @@
         <v>45062</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35089,7 +35089,7 @@
         <v>45063</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -35151,7 +35151,7 @@
         <v>45070</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -35208,7 +35208,7 @@
         <v>45072</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -35270,7 +35270,7 @@
         <v>45072</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35327,7 +35327,7 @@
         <v>45078</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35384,7 +35384,7 @@
         <v>45078</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -35446,7 +35446,7 @@
         <v>45079</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -35503,7 +35503,7 @@
         <v>45082</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -35560,7 +35560,7 @@
         <v>45082</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -35617,7 +35617,7 @@
         <v>45084</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -35679,7 +35679,7 @@
         <v>45084</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -35736,7 +35736,7 @@
         <v>45085</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -35793,7 +35793,7 @@
         <v>45089</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -35850,7 +35850,7 @@
         <v>45090</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -35907,7 +35907,7 @@
         <v>45090</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -35964,7 +35964,7 @@
         <v>45090</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -36021,7 +36021,7 @@
         <v>45090</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -36078,7 +36078,7 @@
         <v>45091</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -36135,7 +36135,7 @@
         <v>45097</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -36192,7 +36192,7 @@
         <v>45097</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -36249,7 +36249,7 @@
         <v>45097</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -36306,7 +36306,7 @@
         <v>45097</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -36363,7 +36363,7 @@
         <v>45098</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -36425,7 +36425,7 @@
         <v>45099</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -36482,7 +36482,7 @@
         <v>45103</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -36539,7 +36539,7 @@
         <v>45104</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -36596,7 +36596,7 @@
         <v>45104</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -36653,7 +36653,7 @@
         <v>45107</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -36715,7 +36715,7 @@
         <v>45107</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -36772,7 +36772,7 @@
         <v>45107</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -36829,7 +36829,7 @@
         <v>45107</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -36886,7 +36886,7 @@
         <v>45107</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -36943,7 +36943,7 @@
         <v>45107</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -37000,7 +37000,7 @@
         <v>45107</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -37062,7 +37062,7 @@
         <v>45107</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -37124,7 +37124,7 @@
         <v>45107</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -37181,7 +37181,7 @@
         <v>45110</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -37238,7 +37238,7 @@
         <v>45110</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -37295,7 +37295,7 @@
         <v>45112</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -37357,7 +37357,7 @@
         <v>45113</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -37419,7 +37419,7 @@
         <v>45113</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -37476,7 +37476,7 @@
         <v>45114</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -37533,7 +37533,7 @@
         <v>45114</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -37590,7 +37590,7 @@
         <v>45117</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -37647,7 +37647,7 @@
         <v>45119</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -37709,7 +37709,7 @@
         <v>45120</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -37766,7 +37766,7 @@
         <v>45121</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -37823,7 +37823,7 @@
         <v>45123</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -37880,7 +37880,7 @@
         <v>45132</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -37937,7 +37937,7 @@
         <v>45138</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -37994,7 +37994,7 @@
         <v>45138</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -38051,7 +38051,7 @@
         <v>45147</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -38108,7 +38108,7 @@
         <v>45149</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -38165,7 +38165,7 @@
         <v>45149</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -38222,7 +38222,7 @@
         <v>45161</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -38284,7 +38284,7 @@
         <v>45161</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -38346,7 +38346,7 @@
         <v>45161</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -38408,7 +38408,7 @@
         <v>45169</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -38465,7 +38465,7 @@
         <v>45173</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -38527,7 +38527,7 @@
         <v>45173</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -38584,7 +38584,7 @@
         <v>45175</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -38641,7 +38641,7 @@
         <v>45176</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -38698,7 +38698,7 @@
         <v>45180</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -38755,7 +38755,7 @@
         <v>45180</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>

--- a/Översikt BOLLNÄS.xlsx
+++ b/Översikt BOLLNÄS.xlsx
@@ -572,7 +572,7 @@
         <v>44109</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -675,7 +675,7 @@
         <v>44095</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -776,7 +776,7 @@
         <v>44382</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -868,7 +868,7 @@
         <v>44729</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -960,7 +960,7 @@
         <v>43783</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1055,7 +1055,7 @@
         <v>43783</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1150,7 +1150,7 @@
         <v>43783</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1245,7 +1245,7 @@
         <v>43993</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1331,7 +1331,7 @@
         <v>43999</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1422,7 +1422,7 @@
         <v>44432</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1512,7 +1512,7 @@
         <v>45092</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         <v>43600</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1688,7 +1688,7 @@
         <v>43619</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1777,7 +1777,7 @@
         <v>43794</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1862,7 +1862,7 @@
         <v>43864</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1947,7 +1947,7 @@
         <v>44081</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2037,7 +2037,7 @@
         <v>44515</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2127,7 +2127,7 @@
         <v>44813</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2212,7 +2212,7 @@
         <v>44901</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2297,7 +2297,7 @@
         <v>45058</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         <v>45076</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2476,7 +2476,7 @@
         <v>45090</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2561,7 +2561,7 @@
         <v>43360</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2618,7 +2618,7 @@
         <v>43375</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2675,7 +2675,7 @@
         <v>43382</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2732,7 +2732,7 @@
         <v>43389</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2789,7 +2789,7 @@
         <v>43392</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2846,7 +2846,7 @@
         <v>43410</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2903,7 +2903,7 @@
         <v>43413</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2965,7 +2965,7 @@
         <v>43416</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3022,7 +3022,7 @@
         <v>43417</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3079,7 +3079,7 @@
         <v>43417</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3136,7 +3136,7 @@
         <v>43418</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3193,7 +3193,7 @@
         <v>43418</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3250,7 +3250,7 @@
         <v>43418</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3307,7 +3307,7 @@
         <v>43419</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3364,7 +3364,7 @@
         <v>43420</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3421,7 +3421,7 @@
         <v>43424</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3478,7 +3478,7 @@
         <v>43424</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3535,7 +3535,7 @@
         <v>43424</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3592,7 +3592,7 @@
         <v>43424</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3649,7 +3649,7 @@
         <v>43424</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3706,7 +3706,7 @@
         <v>43424</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3763,7 +3763,7 @@
         <v>43424</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3820,7 +3820,7 @@
         <v>43427</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3877,7 +3877,7 @@
         <v>43427</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3934,7 +3934,7 @@
         <v>43427</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3991,7 +3991,7 @@
         <v>43427</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4048,7 +4048,7 @@
         <v>43427</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4105,7 +4105,7 @@
         <v>43430</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4162,7 +4162,7 @@
         <v>43431</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4219,7 +4219,7 @@
         <v>43431</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4276,7 +4276,7 @@
         <v>43434</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4333,7 +4333,7 @@
         <v>43434</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4390,7 +4390,7 @@
         <v>43437</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4447,7 +4447,7 @@
         <v>43441</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4504,7 +4504,7 @@
         <v>43444</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4561,7 +4561,7 @@
         <v>43445</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4623,7 +4623,7 @@
         <v>43445</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4680,7 +4680,7 @@
         <v>43446</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4737,7 +4737,7 @@
         <v>43446</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4794,7 +4794,7 @@
         <v>43447</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4851,7 +4851,7 @@
         <v>43448</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4908,7 +4908,7 @@
         <v>43452</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4965,7 +4965,7 @@
         <v>43452</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5022,7 +5022,7 @@
         <v>43454</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5079,7 +5079,7 @@
         <v>43455</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5136,7 +5136,7 @@
         <v>43455</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5193,7 +5193,7 @@
         <v>43467</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5250,7 +5250,7 @@
         <v>43472</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5307,7 +5307,7 @@
         <v>43472</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5364,7 +5364,7 @@
         <v>43472</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5421,7 +5421,7 @@
         <v>43476</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5478,7 +5478,7 @@
         <v>43476</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5535,7 +5535,7 @@
         <v>43476</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5592,7 +5592,7 @@
         <v>43480</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5649,7 +5649,7 @@
         <v>43482</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5706,7 +5706,7 @@
         <v>43482</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5763,7 +5763,7 @@
         <v>43497</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5820,7 +5820,7 @@
         <v>43509</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5877,7 +5877,7 @@
         <v>43515</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5934,7 +5934,7 @@
         <v>43517</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5991,7 +5991,7 @@
         <v>43518</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6048,7 +6048,7 @@
         <v>43522</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6105,7 +6105,7 @@
         <v>43523</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6162,7 +6162,7 @@
         <v>43528</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6219,7 +6219,7 @@
         <v>43528</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6276,7 +6276,7 @@
         <v>43529</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6333,7 +6333,7 @@
         <v>43532</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6390,7 +6390,7 @@
         <v>43532</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6447,7 +6447,7 @@
         <v>43536</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6504,7 +6504,7 @@
         <v>43537</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6561,7 +6561,7 @@
         <v>43559</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6618,7 +6618,7 @@
         <v>43560</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6675,7 +6675,7 @@
         <v>43563</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6732,7 +6732,7 @@
         <v>43564</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6789,7 +6789,7 @@
         <v>43567</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6846,7 +6846,7 @@
         <v>43571</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6903,7 +6903,7 @@
         <v>43580</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6960,7 +6960,7 @@
         <v>43583</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7017,7 +7017,7 @@
         <v>43587</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7074,7 +7074,7 @@
         <v>43593</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7131,7 +7131,7 @@
         <v>43593</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7188,7 +7188,7 @@
         <v>43594</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7245,7 +7245,7 @@
         <v>43598</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7302,7 +7302,7 @@
         <v>43599</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7359,7 +7359,7 @@
         <v>43599</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7416,7 +7416,7 @@
         <v>43599</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7473,7 +7473,7 @@
         <v>43605</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7535,7 +7535,7 @@
         <v>43607</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7592,7 +7592,7 @@
         <v>43612</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7649,7 +7649,7 @@
         <v>43619</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7711,7 +7711,7 @@
         <v>43619</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7768,7 +7768,7 @@
         <v>43619</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7830,7 +7830,7 @@
         <v>43619</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7892,7 +7892,7 @@
         <v>43620</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7949,7 +7949,7 @@
         <v>43620</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8006,7 +8006,7 @@
         <v>43629</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8068,7 +8068,7 @@
         <v>43629</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8125,7 +8125,7 @@
         <v>43633</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8182,7 +8182,7 @@
         <v>43635</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8239,7 +8239,7 @@
         <v>43640</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8296,7 +8296,7 @@
         <v>43641</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8353,7 +8353,7 @@
         <v>43643</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8410,7 +8410,7 @@
         <v>43649</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8467,7 +8467,7 @@
         <v>43649</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8524,7 +8524,7 @@
         <v>43651</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8586,7 +8586,7 @@
         <v>43654</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8643,7 +8643,7 @@
         <v>43656</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8700,7 +8700,7 @@
         <v>43657</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8757,7 +8757,7 @@
         <v>43657</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8819,7 +8819,7 @@
         <v>43664</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8876,7 +8876,7 @@
         <v>43689</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8933,7 +8933,7 @@
         <v>43691</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8995,7 +8995,7 @@
         <v>43698</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9052,7 +9052,7 @@
         <v>43698</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9109,7 +9109,7 @@
         <v>43703</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9166,7 +9166,7 @@
         <v>43704</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9223,7 +9223,7 @@
         <v>43704</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9280,7 +9280,7 @@
         <v>43705</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9342,7 +9342,7 @@
         <v>43706</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9399,7 +9399,7 @@
         <v>43707</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9461,7 +9461,7 @@
         <v>43707</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9523,7 +9523,7 @@
         <v>43710</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9580,7 +9580,7 @@
         <v>43711</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9642,7 +9642,7 @@
         <v>43717</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9699,7 +9699,7 @@
         <v>43718</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9756,7 +9756,7 @@
         <v>43718</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9813,7 +9813,7 @@
         <v>43721</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9875,7 +9875,7 @@
         <v>43726</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9932,7 +9932,7 @@
         <v>43732</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9989,7 +9989,7 @@
         <v>43733</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10051,7 +10051,7 @@
         <v>43733</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10113,7 +10113,7 @@
         <v>43738</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10170,7 +10170,7 @@
         <v>43739</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10227,7 +10227,7 @@
         <v>43740</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10284,7 +10284,7 @@
         <v>43741</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10341,7 +10341,7 @@
         <v>43742</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10398,7 +10398,7 @@
         <v>43742</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10455,7 +10455,7 @@
         <v>43742</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10512,7 +10512,7 @@
         <v>43748</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10569,7 +10569,7 @@
         <v>43753</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10626,7 +10626,7 @@
         <v>43754</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10688,7 +10688,7 @@
         <v>43754</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10745,7 +10745,7 @@
         <v>43755</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10807,7 +10807,7 @@
         <v>43759</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10864,7 +10864,7 @@
         <v>43759</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10921,7 +10921,7 @@
         <v>43760</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10978,7 +10978,7 @@
         <v>43761</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11040,7 +11040,7 @@
         <v>43767</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11102,7 +11102,7 @@
         <v>43769</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11159,7 +11159,7 @@
         <v>43773</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11216,7 +11216,7 @@
         <v>43776</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11273,7 +11273,7 @@
         <v>43777</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11330,7 +11330,7 @@
         <v>43781</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11392,7 +11392,7 @@
         <v>43783</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11449,7 +11449,7 @@
         <v>43783</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11506,7 +11506,7 @@
         <v>43783</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11588,7 +11588,7 @@
         <v>43787</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11645,7 +11645,7 @@
         <v>43789</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11702,7 +11702,7 @@
         <v>43789</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11759,7 +11759,7 @@
         <v>43790</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11816,7 +11816,7 @@
         <v>43794</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11873,7 +11873,7 @@
         <v>43795</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11930,7 +11930,7 @@
         <v>43798</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11987,7 +11987,7 @@
         <v>43800</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12044,7 +12044,7 @@
         <v>43802</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12101,7 +12101,7 @@
         <v>43808</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12163,7 +12163,7 @@
         <v>43809</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12225,7 +12225,7 @@
         <v>43809</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12287,7 +12287,7 @@
         <v>43809</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12344,7 +12344,7 @@
         <v>43812</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12401,7 +12401,7 @@
         <v>43815</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12458,7 +12458,7 @@
         <v>43819</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12515,7 +12515,7 @@
         <v>43819</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12572,7 +12572,7 @@
         <v>43837</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12629,7 +12629,7 @@
         <v>43837</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12686,7 +12686,7 @@
         <v>43840</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12743,7 +12743,7 @@
         <v>43840</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12800,7 +12800,7 @@
         <v>43846</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12857,7 +12857,7 @@
         <v>43850</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12914,7 +12914,7 @@
         <v>43852</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12976,7 +12976,7 @@
         <v>43853</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13038,7 +13038,7 @@
         <v>43858</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13100,7 +13100,7 @@
         <v>43859</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13162,7 +13162,7 @@
         <v>43865</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13219,7 +13219,7 @@
         <v>43867</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13276,7 +13276,7 @@
         <v>43871</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13333,7 +13333,7 @@
         <v>43878</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13390,7 +13390,7 @@
         <v>43878</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13447,7 +13447,7 @@
         <v>43879</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13504,7 +13504,7 @@
         <v>43882</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13561,7 +13561,7 @@
         <v>43886</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13618,7 +13618,7 @@
         <v>43886</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13675,7 +13675,7 @@
         <v>43887</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13732,7 +13732,7 @@
         <v>43888</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13789,7 +13789,7 @@
         <v>43892</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13846,7 +13846,7 @@
         <v>43894</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13903,7 +13903,7 @@
         <v>43894</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13960,7 +13960,7 @@
         <v>43901</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14022,7 +14022,7 @@
         <v>43902</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14079,7 +14079,7 @@
         <v>43913</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14136,7 +14136,7 @@
         <v>43913</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14193,7 +14193,7 @@
         <v>43913</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14255,7 +14255,7 @@
         <v>43916</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14312,7 +14312,7 @@
         <v>43916</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14369,7 +14369,7 @@
         <v>43924</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14426,7 +14426,7 @@
         <v>43927</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14483,7 +14483,7 @@
         <v>43930</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14540,7 +14540,7 @@
         <v>43945</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14597,7 +14597,7 @@
         <v>43949</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14654,7 +14654,7 @@
         <v>43949</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14711,7 +14711,7 @@
         <v>43956</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14768,7 +14768,7 @@
         <v>43987</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14825,7 +14825,7 @@
         <v>43991</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14882,7 +14882,7 @@
         <v>43993</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14944,7 +14944,7 @@
         <v>43993</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15006,7 +15006,7 @@
         <v>43994</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15063,7 +15063,7 @@
         <v>43998</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15120,7 +15120,7 @@
         <v>44000</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15182,7 +15182,7 @@
         <v>44006</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15239,7 +15239,7 @@
         <v>44008</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15296,7 +15296,7 @@
         <v>44012</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15353,7 +15353,7 @@
         <v>44013</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15410,7 +15410,7 @@
         <v>44014</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15467,7 +15467,7 @@
         <v>44014</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15524,7 +15524,7 @@
         <v>44014</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15581,7 +15581,7 @@
         <v>44014</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15638,7 +15638,7 @@
         <v>44014</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15695,7 +15695,7 @@
         <v>44015</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15752,7 +15752,7 @@
         <v>44015</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15809,7 +15809,7 @@
         <v>44035</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15866,7 +15866,7 @@
         <v>44035</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15923,7 +15923,7 @@
         <v>44055</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15980,7 +15980,7 @@
         <v>44057</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16037,7 +16037,7 @@
         <v>44061</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16094,7 +16094,7 @@
         <v>44062</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16151,7 +16151,7 @@
         <v>44064</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16208,7 +16208,7 @@
         <v>44070</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16265,7 +16265,7 @@
         <v>44076</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16322,7 +16322,7 @@
         <v>44076</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16379,7 +16379,7 @@
         <v>44083</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16436,7 +16436,7 @@
         <v>44083</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16493,7 +16493,7 @@
         <v>44083</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16550,7 +16550,7 @@
         <v>44083</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16607,7 +16607,7 @@
         <v>44084</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16664,7 +16664,7 @@
         <v>44088</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16726,7 +16726,7 @@
         <v>44089</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16783,7 +16783,7 @@
         <v>44090</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16845,7 +16845,7 @@
         <v>44095</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16902,7 +16902,7 @@
         <v>44103</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16959,7 +16959,7 @@
         <v>44105</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17016,7 +17016,7 @@
         <v>44105</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17073,7 +17073,7 @@
         <v>44110</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17130,7 +17130,7 @@
         <v>44110</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17187,7 +17187,7 @@
         <v>44116</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17244,7 +17244,7 @@
         <v>44119</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17306,7 +17306,7 @@
         <v>44119</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17368,7 +17368,7 @@
         <v>44119</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17430,7 +17430,7 @@
         <v>44120</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17487,7 +17487,7 @@
         <v>44125</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17544,7 +17544,7 @@
         <v>44125</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17601,7 +17601,7 @@
         <v>44127</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17658,7 +17658,7 @@
         <v>44127</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17715,7 +17715,7 @@
         <v>44127</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17772,7 +17772,7 @@
         <v>44130</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17829,7 +17829,7 @@
         <v>44133</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17886,7 +17886,7 @@
         <v>44133</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17943,7 +17943,7 @@
         <v>44133</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18000,7 +18000,7 @@
         <v>44137</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18057,7 +18057,7 @@
         <v>44140</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18119,7 +18119,7 @@
         <v>44141</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18176,7 +18176,7 @@
         <v>44144</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18233,7 +18233,7 @@
         <v>44144</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18290,7 +18290,7 @@
         <v>44146</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18347,7 +18347,7 @@
         <v>44147</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18404,7 +18404,7 @@
         <v>44147</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18461,7 +18461,7 @@
         <v>44147</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18518,7 +18518,7 @@
         <v>44147</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18575,7 +18575,7 @@
         <v>44148</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18632,7 +18632,7 @@
         <v>44148</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18694,7 +18694,7 @@
         <v>44151</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18751,7 +18751,7 @@
         <v>44151</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18808,7 +18808,7 @@
         <v>44151</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18870,7 +18870,7 @@
         <v>44151</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18927,7 +18927,7 @@
         <v>44151</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18984,7 +18984,7 @@
         <v>44151</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19041,7 +19041,7 @@
         <v>44151</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19098,7 +19098,7 @@
         <v>44152</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19160,7 +19160,7 @@
         <v>44153</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19217,7 +19217,7 @@
         <v>44153</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19279,7 +19279,7 @@
         <v>44153</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19336,7 +19336,7 @@
         <v>44153</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19398,7 +19398,7 @@
         <v>44160</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19455,7 +19455,7 @@
         <v>44161</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19512,7 +19512,7 @@
         <v>44161</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19574,7 +19574,7 @@
         <v>44162</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19631,7 +19631,7 @@
         <v>44165</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19688,7 +19688,7 @@
         <v>44166</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19745,7 +19745,7 @@
         <v>44167</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19802,7 +19802,7 @@
         <v>44169</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19859,7 +19859,7 @@
         <v>44176</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19916,7 +19916,7 @@
         <v>44180</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19973,7 +19973,7 @@
         <v>44180</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20030,7 +20030,7 @@
         <v>44180</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20087,7 +20087,7 @@
         <v>44180</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20149,7 +20149,7 @@
         <v>44186</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20206,7 +20206,7 @@
         <v>44187</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20263,7 +20263,7 @@
         <v>44187</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20320,7 +20320,7 @@
         <v>44187</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20377,7 +20377,7 @@
         <v>44188</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20434,7 +20434,7 @@
         <v>44194</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20491,7 +20491,7 @@
         <v>44195</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20548,7 +20548,7 @@
         <v>44203</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20610,7 +20610,7 @@
         <v>44203</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20672,7 +20672,7 @@
         <v>44203</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20734,7 +20734,7 @@
         <v>44203</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20796,7 +20796,7 @@
         <v>44203</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20858,7 +20858,7 @@
         <v>44204</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20920,7 +20920,7 @@
         <v>44204</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20982,7 +20982,7 @@
         <v>44207</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21044,7 +21044,7 @@
         <v>44207</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21106,7 +21106,7 @@
         <v>44208</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21168,7 +21168,7 @@
         <v>44208</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21230,7 +21230,7 @@
         <v>44208</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21287,7 +21287,7 @@
         <v>44209</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21349,7 +21349,7 @@
         <v>44210</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21411,7 +21411,7 @@
         <v>44211</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21468,7 +21468,7 @@
         <v>44211</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21525,7 +21525,7 @@
         <v>44218</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21582,7 +21582,7 @@
         <v>44224</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21639,7 +21639,7 @@
         <v>44232</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21696,7 +21696,7 @@
         <v>44239</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21753,7 +21753,7 @@
         <v>44239</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21810,7 +21810,7 @@
         <v>44242</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21867,7 +21867,7 @@
         <v>44267</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21924,7 +21924,7 @@
         <v>44270</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21981,7 +21981,7 @@
         <v>44278</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22038,7 +22038,7 @@
         <v>44278</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22095,7 +22095,7 @@
         <v>44279</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22157,7 +22157,7 @@
         <v>44279</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22219,7 +22219,7 @@
         <v>44279</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22281,7 +22281,7 @@
         <v>44295</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22338,7 +22338,7 @@
         <v>44299</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22395,7 +22395,7 @@
         <v>44316</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22452,7 +22452,7 @@
         <v>44326</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22514,7 +22514,7 @@
         <v>44336</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22571,7 +22571,7 @@
         <v>44347</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22628,7 +22628,7 @@
         <v>44347</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22685,7 +22685,7 @@
         <v>44364</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22742,7 +22742,7 @@
         <v>44365</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22804,7 +22804,7 @@
         <v>44369</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22866,7 +22866,7 @@
         <v>44370</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22928,7 +22928,7 @@
         <v>44370</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22985,7 +22985,7 @@
         <v>44370</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23047,7 +23047,7 @@
         <v>44371</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23104,7 +23104,7 @@
         <v>44379</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23166,7 +23166,7 @@
         <v>44381</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23223,7 +23223,7 @@
         <v>44381</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23280,7 +23280,7 @@
         <v>44381</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23337,7 +23337,7 @@
         <v>44382</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23399,7 +23399,7 @@
         <v>44382</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23461,7 +23461,7 @@
         <v>44383</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23523,7 +23523,7 @@
         <v>44384</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23580,7 +23580,7 @@
         <v>44389</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23637,7 +23637,7 @@
         <v>44407</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23694,7 +23694,7 @@
         <v>44424</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23756,7 +23756,7 @@
         <v>44424</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23813,7 +23813,7 @@
         <v>44438</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23875,7 +23875,7 @@
         <v>44452</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23932,7 +23932,7 @@
         <v>44452</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23989,7 +23989,7 @@
         <v>44452</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24046,7 +24046,7 @@
         <v>44454</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24103,7 +24103,7 @@
         <v>44460</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24160,7 +24160,7 @@
         <v>44467</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24222,7 +24222,7 @@
         <v>44480</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24279,7 +24279,7 @@
         <v>44480</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24341,7 +24341,7 @@
         <v>44484</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24398,7 +24398,7 @@
         <v>44488</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24455,7 +24455,7 @@
         <v>44488</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24512,7 +24512,7 @@
         <v>44489</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24569,7 +24569,7 @@
         <v>44496</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24631,7 +24631,7 @@
         <v>44496</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24688,7 +24688,7 @@
         <v>44503</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24750,7 +24750,7 @@
         <v>44505</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24812,7 +24812,7 @@
         <v>44505</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24874,7 +24874,7 @@
         <v>44505</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24936,7 +24936,7 @@
         <v>44505</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24998,7 +24998,7 @@
         <v>44509</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25060,7 +25060,7 @@
         <v>44509</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25122,7 +25122,7 @@
         <v>44509</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25184,7 +25184,7 @@
         <v>44509</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25246,7 +25246,7 @@
         <v>44509</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25303,7 +25303,7 @@
         <v>44509</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25365,7 +25365,7 @@
         <v>44509</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25427,7 +25427,7 @@
         <v>44509</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25489,7 +25489,7 @@
         <v>44511</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25551,7 +25551,7 @@
         <v>44515</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25613,7 +25613,7 @@
         <v>44517</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25670,7 +25670,7 @@
         <v>44517</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25727,7 +25727,7 @@
         <v>44517</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25784,7 +25784,7 @@
         <v>44517</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25841,7 +25841,7 @@
         <v>44517</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25898,7 +25898,7 @@
         <v>44522</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25960,7 +25960,7 @@
         <v>44524</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26022,7 +26022,7 @@
         <v>44526</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26084,7 +26084,7 @@
         <v>44526</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26141,7 +26141,7 @@
         <v>44531</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26198,7 +26198,7 @@
         <v>44532</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26260,7 +26260,7 @@
         <v>44532</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26322,7 +26322,7 @@
         <v>44536</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26379,7 +26379,7 @@
         <v>44572</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26436,7 +26436,7 @@
         <v>44585</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26493,7 +26493,7 @@
         <v>44592</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26550,7 +26550,7 @@
         <v>44594</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26607,7 +26607,7 @@
         <v>44595</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26664,7 +26664,7 @@
         <v>44595</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26721,7 +26721,7 @@
         <v>44595</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26778,7 +26778,7 @@
         <v>44596</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26835,7 +26835,7 @@
         <v>44596</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26892,7 +26892,7 @@
         <v>44601</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26949,7 +26949,7 @@
         <v>44603</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27006,7 +27006,7 @@
         <v>44608</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27063,7 +27063,7 @@
         <v>44616</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27120,7 +27120,7 @@
         <v>44617</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27177,7 +27177,7 @@
         <v>44620</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27234,7 +27234,7 @@
         <v>44620</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27291,7 +27291,7 @@
         <v>44623</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27348,7 +27348,7 @@
         <v>44631</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27405,7 +27405,7 @@
         <v>44636</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27462,7 +27462,7 @@
         <v>44642</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27519,7 +27519,7 @@
         <v>44650</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27576,7 +27576,7 @@
         <v>44650</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27633,7 +27633,7 @@
         <v>44652</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27695,7 +27695,7 @@
         <v>44659</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27752,7 +27752,7 @@
         <v>44662</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27809,7 +27809,7 @@
         <v>44671</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27866,7 +27866,7 @@
         <v>44676</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27923,7 +27923,7 @@
         <v>44691</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27980,7 +27980,7 @@
         <v>44697</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28042,7 +28042,7 @@
         <v>44704</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28104,7 +28104,7 @@
         <v>44704</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28166,7 +28166,7 @@
         <v>44705</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28223,7 +28223,7 @@
         <v>44706</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28280,7 +28280,7 @@
         <v>44712</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28337,7 +28337,7 @@
         <v>44712</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28399,7 +28399,7 @@
         <v>44712</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28461,7 +28461,7 @@
         <v>44714</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28518,7 +28518,7 @@
         <v>44720</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28575,7 +28575,7 @@
         <v>44720</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28632,7 +28632,7 @@
         <v>44722</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28689,7 +28689,7 @@
         <v>44728</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28746,7 +28746,7 @@
         <v>44729</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28808,7 +28808,7 @@
         <v>44729</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28870,7 +28870,7 @@
         <v>44729</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28932,7 +28932,7 @@
         <v>44732</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28989,7 +28989,7 @@
         <v>44732</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29046,7 +29046,7 @@
         <v>44763</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29103,7 +29103,7 @@
         <v>44783</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29165,7 +29165,7 @@
         <v>44785</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29227,7 +29227,7 @@
         <v>44791</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29284,7 +29284,7 @@
         <v>44796</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29341,7 +29341,7 @@
         <v>44796</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29398,7 +29398,7 @@
         <v>44798</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29455,7 +29455,7 @@
         <v>44799</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29512,7 +29512,7 @@
         <v>44799</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29569,7 +29569,7 @@
         <v>44805</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29626,7 +29626,7 @@
         <v>44806</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29683,7 +29683,7 @@
         <v>44806</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29740,7 +29740,7 @@
         <v>44806</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29797,7 +29797,7 @@
         <v>44817</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29854,7 +29854,7 @@
         <v>44818</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29911,7 +29911,7 @@
         <v>44819</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29968,7 +29968,7 @@
         <v>44826</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30030,7 +30030,7 @@
         <v>44827</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30092,7 +30092,7 @@
         <v>44830</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30149,7 +30149,7 @@
         <v>44839</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30206,7 +30206,7 @@
         <v>44839</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30263,7 +30263,7 @@
         <v>44840</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30320,7 +30320,7 @@
         <v>44846</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30377,7 +30377,7 @@
         <v>44846</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30434,7 +30434,7 @@
         <v>44846</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30491,7 +30491,7 @@
         <v>44846</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30548,7 +30548,7 @@
         <v>44854</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30605,7 +30605,7 @@
         <v>44859</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30662,7 +30662,7 @@
         <v>44859</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30719,7 +30719,7 @@
         <v>44861</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30776,7 +30776,7 @@
         <v>44862</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30833,7 +30833,7 @@
         <v>44873</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30890,7 +30890,7 @@
         <v>44875</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30952,7 +30952,7 @@
         <v>44875</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31009,7 +31009,7 @@
         <v>44876</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31071,7 +31071,7 @@
         <v>44878</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31133,7 +31133,7 @@
         <v>44879</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31195,7 +31195,7 @@
         <v>44879</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31257,7 +31257,7 @@
         <v>44879</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31319,7 +31319,7 @@
         <v>44879</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31381,7 +31381,7 @@
         <v>44879</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31443,7 +31443,7 @@
         <v>44879</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31505,7 +31505,7 @@
         <v>44880</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31562,7 +31562,7 @@
         <v>44881</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31624,7 +31624,7 @@
         <v>44881</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31686,7 +31686,7 @@
         <v>44883</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31743,7 +31743,7 @@
         <v>44883</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31805,7 +31805,7 @@
         <v>44886</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31867,7 +31867,7 @@
         <v>44886</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31929,7 +31929,7 @@
         <v>44893</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31986,7 +31986,7 @@
         <v>44894</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32043,7 +32043,7 @@
         <v>44894</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32100,7 +32100,7 @@
         <v>44895</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32157,7 +32157,7 @@
         <v>44897</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32214,7 +32214,7 @@
         <v>44901</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32271,7 +32271,7 @@
         <v>44908</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32328,7 +32328,7 @@
         <v>44909</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32385,7 +32385,7 @@
         <v>44909</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32442,7 +32442,7 @@
         <v>44914</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32499,7 +32499,7 @@
         <v>44915</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32556,7 +32556,7 @@
         <v>44915</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32613,7 +32613,7 @@
         <v>44916</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32670,7 +32670,7 @@
         <v>44929</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32727,7 +32727,7 @@
         <v>44944</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32784,7 +32784,7 @@
         <v>44945</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32841,7 +32841,7 @@
         <v>44946</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32898,7 +32898,7 @@
         <v>44952</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32955,7 +32955,7 @@
         <v>44953</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33017,7 +33017,7 @@
         <v>44966</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33074,7 +33074,7 @@
         <v>44967</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33131,7 +33131,7 @@
         <v>44967</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33188,7 +33188,7 @@
         <v>44970</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33245,7 +33245,7 @@
         <v>44971</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33302,7 +33302,7 @@
         <v>44993</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33359,7 +33359,7 @@
         <v>44993</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33416,7 +33416,7 @@
         <v>44993</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33473,7 +33473,7 @@
         <v>44993</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33530,7 +33530,7 @@
         <v>45008</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -33587,7 +33587,7 @@
         <v>45009</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -33644,7 +33644,7 @@
         <v>45012</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33701,7 +33701,7 @@
         <v>45014</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33758,7 +33758,7 @@
         <v>45016</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33815,7 +33815,7 @@
         <v>45016</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33872,7 +33872,7 @@
         <v>45016</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -33929,7 +33929,7 @@
         <v>45016</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -33986,7 +33986,7 @@
         <v>45016</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34043,7 +34043,7 @@
         <v>45016</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34100,7 +34100,7 @@
         <v>45016</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34157,7 +34157,7 @@
         <v>45030</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34214,7 +34214,7 @@
         <v>45033</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34271,7 +34271,7 @@
         <v>45033</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34328,7 +34328,7 @@
         <v>45036</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34385,7 +34385,7 @@
         <v>45037</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -34447,7 +34447,7 @@
         <v>45038</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34504,7 +34504,7 @@
         <v>45041</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -34561,7 +34561,7 @@
         <v>45041</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -34623,7 +34623,7 @@
         <v>45043</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34680,7 +34680,7 @@
         <v>45044</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -34737,7 +34737,7 @@
         <v>45044</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -34794,7 +34794,7 @@
         <v>45044</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -34851,7 +34851,7 @@
         <v>45058</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -34913,7 +34913,7 @@
         <v>45061</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -34970,7 +34970,7 @@
         <v>45062</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -35032,7 +35032,7 @@
         <v>45062</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35089,7 +35089,7 @@
         <v>45063</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -35151,7 +35151,7 @@
         <v>45070</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -35208,7 +35208,7 @@
         <v>45072</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -35270,7 +35270,7 @@
         <v>45072</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35327,7 +35327,7 @@
         <v>45078</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35384,7 +35384,7 @@
         <v>45078</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -35446,7 +35446,7 @@
         <v>45079</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -35503,7 +35503,7 @@
         <v>45082</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -35560,7 +35560,7 @@
         <v>45082</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -35617,7 +35617,7 @@
         <v>45084</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -35679,7 +35679,7 @@
         <v>45084</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -35736,7 +35736,7 @@
         <v>45085</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -35793,7 +35793,7 @@
         <v>45089</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -35850,7 +35850,7 @@
         <v>45090</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -35907,7 +35907,7 @@
         <v>45090</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -35964,7 +35964,7 @@
         <v>45090</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -36021,7 +36021,7 @@
         <v>45090</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -36078,7 +36078,7 @@
         <v>45091</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -36135,7 +36135,7 @@
         <v>45097</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -36192,7 +36192,7 @@
         <v>45097</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -36249,7 +36249,7 @@
         <v>45097</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -36306,7 +36306,7 @@
         <v>45097</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -36363,7 +36363,7 @@
         <v>45098</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -36425,7 +36425,7 @@
         <v>45099</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -36482,7 +36482,7 @@
         <v>45103</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -36539,7 +36539,7 @@
         <v>45104</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -36596,7 +36596,7 @@
         <v>45104</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -36653,7 +36653,7 @@
         <v>45107</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -36715,7 +36715,7 @@
         <v>45107</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -36772,7 +36772,7 @@
         <v>45107</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -36829,7 +36829,7 @@
         <v>45107</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -36886,7 +36886,7 @@
         <v>45107</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -36943,7 +36943,7 @@
         <v>45107</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -37000,7 +37000,7 @@
         <v>45107</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -37062,7 +37062,7 @@
         <v>45107</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -37124,7 +37124,7 @@
         <v>45107</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -37181,7 +37181,7 @@
         <v>45110</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -37238,7 +37238,7 @@
         <v>45110</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -37295,7 +37295,7 @@
         <v>45112</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -37357,7 +37357,7 @@
         <v>45113</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -37419,7 +37419,7 @@
         <v>45113</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -37476,7 +37476,7 @@
         <v>45114</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -37533,7 +37533,7 @@
         <v>45114</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -37590,7 +37590,7 @@
         <v>45117</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -37647,7 +37647,7 @@
         <v>45119</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -37709,7 +37709,7 @@
         <v>45120</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -37766,7 +37766,7 @@
         <v>45121</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -37823,7 +37823,7 @@
         <v>45123</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -37880,7 +37880,7 @@
         <v>45132</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -37937,7 +37937,7 @@
         <v>45138</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -37994,7 +37994,7 @@
         <v>45138</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -38051,7 +38051,7 @@
         <v>45147</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -38108,7 +38108,7 @@
         <v>45149</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -38165,7 +38165,7 @@
         <v>45149</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -38222,7 +38222,7 @@
         <v>45161</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -38284,7 +38284,7 @@
         <v>45161</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -38346,7 +38346,7 @@
         <v>45161</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -38408,7 +38408,7 @@
         <v>45169</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -38465,7 +38465,7 @@
         <v>45173</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -38527,7 +38527,7 @@
         <v>45173</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -38584,7 +38584,7 @@
         <v>45175</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -38641,7 +38641,7 @@
         <v>45176</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -38698,7 +38698,7 @@
         <v>45180</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -38755,7 +38755,7 @@
         <v>45180</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>

--- a/Översikt BOLLNÄS.xlsx
+++ b/Översikt BOLLNÄS.xlsx
@@ -572,7 +572,7 @@
         <v>44109</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -675,7 +675,7 @@
         <v>44095</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -776,7 +776,7 @@
         <v>44382</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -868,7 +868,7 @@
         <v>44729</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -960,7 +960,7 @@
         <v>43783</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1055,7 +1055,7 @@
         <v>43783</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1150,7 +1150,7 @@
         <v>43783</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1245,7 +1245,7 @@
         <v>43993</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1331,7 +1331,7 @@
         <v>43999</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1422,7 +1422,7 @@
         <v>44432</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1512,7 +1512,7 @@
         <v>45092</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         <v>43600</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1688,7 +1688,7 @@
         <v>43619</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1777,7 +1777,7 @@
         <v>43794</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1862,7 +1862,7 @@
         <v>43864</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1947,7 +1947,7 @@
         <v>44081</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2037,7 +2037,7 @@
         <v>44515</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2127,7 +2127,7 @@
         <v>44813</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2212,7 +2212,7 @@
         <v>44901</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2297,7 +2297,7 @@
         <v>45058</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         <v>45076</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2476,7 +2476,7 @@
         <v>45090</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2561,7 +2561,7 @@
         <v>43360</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2618,7 +2618,7 @@
         <v>43375</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2675,7 +2675,7 @@
         <v>43382</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2732,7 +2732,7 @@
         <v>43389</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2789,7 +2789,7 @@
         <v>43392</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2846,7 +2846,7 @@
         <v>43410</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2903,7 +2903,7 @@
         <v>43413</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2965,7 +2965,7 @@
         <v>43416</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3022,7 +3022,7 @@
         <v>43417</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3079,7 +3079,7 @@
         <v>43417</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3136,7 +3136,7 @@
         <v>43418</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3193,7 +3193,7 @@
         <v>43418</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3250,7 +3250,7 @@
         <v>43418</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3307,7 +3307,7 @@
         <v>43419</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3364,7 +3364,7 @@
         <v>43420</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3421,7 +3421,7 @@
         <v>43424</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3478,7 +3478,7 @@
         <v>43424</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3535,7 +3535,7 @@
         <v>43424</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3592,7 +3592,7 @@
         <v>43424</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3649,7 +3649,7 @@
         <v>43424</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3706,7 +3706,7 @@
         <v>43424</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3763,7 +3763,7 @@
         <v>43424</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3820,7 +3820,7 @@
         <v>43427</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3877,7 +3877,7 @@
         <v>43427</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3934,7 +3934,7 @@
         <v>43427</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3991,7 +3991,7 @@
         <v>43427</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4048,7 +4048,7 @@
         <v>43427</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4105,7 +4105,7 @@
         <v>43430</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4162,7 +4162,7 @@
         <v>43431</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4219,7 +4219,7 @@
         <v>43431</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4276,7 +4276,7 @@
         <v>43434</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4333,7 +4333,7 @@
         <v>43434</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4390,7 +4390,7 @@
         <v>43437</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4447,7 +4447,7 @@
         <v>43441</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4504,7 +4504,7 @@
         <v>43444</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4561,7 +4561,7 @@
         <v>43445</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4623,7 +4623,7 @@
         <v>43445</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4680,7 +4680,7 @@
         <v>43446</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4737,7 +4737,7 @@
         <v>43446</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4794,7 +4794,7 @@
         <v>43447</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4851,7 +4851,7 @@
         <v>43448</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4908,7 +4908,7 @@
         <v>43452</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4965,7 +4965,7 @@
         <v>43452</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5022,7 +5022,7 @@
         <v>43454</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5079,7 +5079,7 @@
         <v>43455</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5136,7 +5136,7 @@
         <v>43455</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5193,7 +5193,7 @@
         <v>43467</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5250,7 +5250,7 @@
         <v>43472</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5307,7 +5307,7 @@
         <v>43472</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5364,7 +5364,7 @@
         <v>43472</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5421,7 +5421,7 @@
         <v>43476</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5478,7 +5478,7 @@
         <v>43476</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5535,7 +5535,7 @@
         <v>43476</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5592,7 +5592,7 @@
         <v>43480</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5649,7 +5649,7 @@
         <v>43482</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5706,7 +5706,7 @@
         <v>43482</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5763,7 +5763,7 @@
         <v>43497</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5820,7 +5820,7 @@
         <v>43509</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5877,7 +5877,7 @@
         <v>43515</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5934,7 +5934,7 @@
         <v>43517</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5991,7 +5991,7 @@
         <v>43518</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6048,7 +6048,7 @@
         <v>43522</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6105,7 +6105,7 @@
         <v>43523</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6162,7 +6162,7 @@
         <v>43528</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6219,7 +6219,7 @@
         <v>43528</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6276,7 +6276,7 @@
         <v>43529</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6333,7 +6333,7 @@
         <v>43532</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6390,7 +6390,7 @@
         <v>43532</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6447,7 +6447,7 @@
         <v>43536</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6504,7 +6504,7 @@
         <v>43537</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6561,7 +6561,7 @@
         <v>43559</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6618,7 +6618,7 @@
         <v>43560</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6675,7 +6675,7 @@
         <v>43563</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6732,7 +6732,7 @@
         <v>43564</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6789,7 +6789,7 @@
         <v>43567</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6846,7 +6846,7 @@
         <v>43571</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6903,7 +6903,7 @@
         <v>43580</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6960,7 +6960,7 @@
         <v>43583</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7017,7 +7017,7 @@
         <v>43587</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7074,7 +7074,7 @@
         <v>43593</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7131,7 +7131,7 @@
         <v>43593</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7188,7 +7188,7 @@
         <v>43594</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7245,7 +7245,7 @@
         <v>43598</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7302,7 +7302,7 @@
         <v>43599</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7359,7 +7359,7 @@
         <v>43599</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7416,7 +7416,7 @@
         <v>43599</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7473,7 +7473,7 @@
         <v>43605</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7535,7 +7535,7 @@
         <v>43607</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7592,7 +7592,7 @@
         <v>43612</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7649,7 +7649,7 @@
         <v>43619</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7711,7 +7711,7 @@
         <v>43619</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7768,7 +7768,7 @@
         <v>43619</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7830,7 +7830,7 @@
         <v>43619</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7892,7 +7892,7 @@
         <v>43620</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7949,7 +7949,7 @@
         <v>43620</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8006,7 +8006,7 @@
         <v>43629</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8068,7 +8068,7 @@
         <v>43629</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8125,7 +8125,7 @@
         <v>43633</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8182,7 +8182,7 @@
         <v>43635</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8239,7 +8239,7 @@
         <v>43640</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8296,7 +8296,7 @@
         <v>43641</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8353,7 +8353,7 @@
         <v>43643</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8410,7 +8410,7 @@
         <v>43649</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8467,7 +8467,7 @@
         <v>43649</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8524,7 +8524,7 @@
         <v>43651</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8586,7 +8586,7 @@
         <v>43654</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8643,7 +8643,7 @@
         <v>43656</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8700,7 +8700,7 @@
         <v>43657</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8757,7 +8757,7 @@
         <v>43657</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8819,7 +8819,7 @@
         <v>43664</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8876,7 +8876,7 @@
         <v>43689</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8933,7 +8933,7 @@
         <v>43691</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8995,7 +8995,7 @@
         <v>43698</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9052,7 +9052,7 @@
         <v>43698</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9109,7 +9109,7 @@
         <v>43703</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9166,7 +9166,7 @@
         <v>43704</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9223,7 +9223,7 @@
         <v>43704</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9280,7 +9280,7 @@
         <v>43705</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9342,7 +9342,7 @@
         <v>43706</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9399,7 +9399,7 @@
         <v>43707</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9461,7 +9461,7 @@
         <v>43707</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9523,7 +9523,7 @@
         <v>43710</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9580,7 +9580,7 @@
         <v>43711</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9642,7 +9642,7 @@
         <v>43717</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9699,7 +9699,7 @@
         <v>43718</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9756,7 +9756,7 @@
         <v>43718</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9813,7 +9813,7 @@
         <v>43721</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9875,7 +9875,7 @@
         <v>43726</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9932,7 +9932,7 @@
         <v>43732</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9989,7 +9989,7 @@
         <v>43733</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10051,7 +10051,7 @@
         <v>43733</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10113,7 +10113,7 @@
         <v>43738</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10170,7 +10170,7 @@
         <v>43739</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10227,7 +10227,7 @@
         <v>43740</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10284,7 +10284,7 @@
         <v>43741</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10341,7 +10341,7 @@
         <v>43742</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10398,7 +10398,7 @@
         <v>43742</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10455,7 +10455,7 @@
         <v>43742</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10512,7 +10512,7 @@
         <v>43748</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10569,7 +10569,7 @@
         <v>43753</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10626,7 +10626,7 @@
         <v>43754</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10688,7 +10688,7 @@
         <v>43754</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10745,7 +10745,7 @@
         <v>43755</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10807,7 +10807,7 @@
         <v>43759</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10864,7 +10864,7 @@
         <v>43759</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10921,7 +10921,7 @@
         <v>43760</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10978,7 +10978,7 @@
         <v>43761</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11040,7 +11040,7 @@
         <v>43767</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11102,7 +11102,7 @@
         <v>43769</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11159,7 +11159,7 @@
         <v>43773</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11216,7 +11216,7 @@
         <v>43776</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11273,7 +11273,7 @@
         <v>43777</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11330,7 +11330,7 @@
         <v>43781</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11392,7 +11392,7 @@
         <v>43783</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11449,7 +11449,7 @@
         <v>43783</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11506,7 +11506,7 @@
         <v>43783</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11588,7 +11588,7 @@
         <v>43787</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11645,7 +11645,7 @@
         <v>43789</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11702,7 +11702,7 @@
         <v>43789</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11759,7 +11759,7 @@
         <v>43790</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11816,7 +11816,7 @@
         <v>43794</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11873,7 +11873,7 @@
         <v>43795</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11930,7 +11930,7 @@
         <v>43798</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11987,7 +11987,7 @@
         <v>43800</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12044,7 +12044,7 @@
         <v>43802</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12101,7 +12101,7 @@
         <v>43808</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12163,7 +12163,7 @@
         <v>43809</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12225,7 +12225,7 @@
         <v>43809</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12287,7 +12287,7 @@
         <v>43809</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12344,7 +12344,7 @@
         <v>43812</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12401,7 +12401,7 @@
         <v>43815</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12458,7 +12458,7 @@
         <v>43819</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12515,7 +12515,7 @@
         <v>43819</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12572,7 +12572,7 @@
         <v>43837</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12629,7 +12629,7 @@
         <v>43837</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12686,7 +12686,7 @@
         <v>43840</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12743,7 +12743,7 @@
         <v>43840</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12800,7 +12800,7 @@
         <v>43846</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12857,7 +12857,7 @@
         <v>43850</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12914,7 +12914,7 @@
         <v>43852</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12976,7 +12976,7 @@
         <v>43853</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13038,7 +13038,7 @@
         <v>43858</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13100,7 +13100,7 @@
         <v>43859</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13162,7 +13162,7 @@
         <v>43865</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13219,7 +13219,7 @@
         <v>43867</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13276,7 +13276,7 @@
         <v>43871</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13333,7 +13333,7 @@
         <v>43878</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13390,7 +13390,7 @@
         <v>43878</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13447,7 +13447,7 @@
         <v>43879</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13504,7 +13504,7 @@
         <v>43882</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13561,7 +13561,7 @@
         <v>43886</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13618,7 +13618,7 @@
         <v>43886</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13675,7 +13675,7 @@
         <v>43887</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13732,7 +13732,7 @@
         <v>43888</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13789,7 +13789,7 @@
         <v>43892</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13846,7 +13846,7 @@
         <v>43894</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13903,7 +13903,7 @@
         <v>43894</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13960,7 +13960,7 @@
         <v>43901</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14022,7 +14022,7 @@
         <v>43902</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14079,7 +14079,7 @@
         <v>43913</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14136,7 +14136,7 @@
         <v>43913</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14193,7 +14193,7 @@
         <v>43913</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14255,7 +14255,7 @@
         <v>43916</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14312,7 +14312,7 @@
         <v>43916</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14369,7 +14369,7 @@
         <v>43924</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14426,7 +14426,7 @@
         <v>43927</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14483,7 +14483,7 @@
         <v>43930</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14540,7 +14540,7 @@
         <v>43945</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14597,7 +14597,7 @@
         <v>43949</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14654,7 +14654,7 @@
         <v>43949</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14711,7 +14711,7 @@
         <v>43956</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14768,7 +14768,7 @@
         <v>43987</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14825,7 +14825,7 @@
         <v>43991</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14882,7 +14882,7 @@
         <v>43993</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14944,7 +14944,7 @@
         <v>43993</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15006,7 +15006,7 @@
         <v>43994</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15063,7 +15063,7 @@
         <v>43998</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15120,7 +15120,7 @@
         <v>44000</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15182,7 +15182,7 @@
         <v>44006</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15239,7 +15239,7 @@
         <v>44008</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15296,7 +15296,7 @@
         <v>44012</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15353,7 +15353,7 @@
         <v>44013</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15410,7 +15410,7 @@
         <v>44014</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15467,7 +15467,7 @@
         <v>44014</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15524,7 +15524,7 @@
         <v>44014</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15581,7 +15581,7 @@
         <v>44014</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15638,7 +15638,7 @@
         <v>44014</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15695,7 +15695,7 @@
         <v>44015</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15752,7 +15752,7 @@
         <v>44015</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15809,7 +15809,7 @@
         <v>44035</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15866,7 +15866,7 @@
         <v>44035</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15923,7 +15923,7 @@
         <v>44055</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15980,7 +15980,7 @@
         <v>44057</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16037,7 +16037,7 @@
         <v>44061</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16094,7 +16094,7 @@
         <v>44062</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16151,7 +16151,7 @@
         <v>44064</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16208,7 +16208,7 @@
         <v>44070</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16265,7 +16265,7 @@
         <v>44076</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16322,7 +16322,7 @@
         <v>44076</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16379,7 +16379,7 @@
         <v>44083</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16436,7 +16436,7 @@
         <v>44083</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16493,7 +16493,7 @@
         <v>44083</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16550,7 +16550,7 @@
         <v>44083</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16607,7 +16607,7 @@
         <v>44084</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16664,7 +16664,7 @@
         <v>44088</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16726,7 +16726,7 @@
         <v>44089</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16783,7 +16783,7 @@
         <v>44090</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16845,7 +16845,7 @@
         <v>44095</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16902,7 +16902,7 @@
         <v>44103</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16959,7 +16959,7 @@
         <v>44105</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17016,7 +17016,7 @@
         <v>44105</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17073,7 +17073,7 @@
         <v>44110</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17130,7 +17130,7 @@
         <v>44110</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17187,7 +17187,7 @@
         <v>44116</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17244,7 +17244,7 @@
         <v>44119</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17306,7 +17306,7 @@
         <v>44119</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17368,7 +17368,7 @@
         <v>44119</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17430,7 +17430,7 @@
         <v>44120</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17487,7 +17487,7 @@
         <v>44125</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17544,7 +17544,7 @@
         <v>44125</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17601,7 +17601,7 @@
         <v>44127</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17658,7 +17658,7 @@
         <v>44127</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17715,7 +17715,7 @@
         <v>44127</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17772,7 +17772,7 @@
         <v>44130</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17829,7 +17829,7 @@
         <v>44133</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17886,7 +17886,7 @@
         <v>44133</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17943,7 +17943,7 @@
         <v>44133</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18000,7 +18000,7 @@
         <v>44137</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18057,7 +18057,7 @@
         <v>44140</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18119,7 +18119,7 @@
         <v>44141</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18176,7 +18176,7 @@
         <v>44144</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18233,7 +18233,7 @@
         <v>44144</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18290,7 +18290,7 @@
         <v>44146</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18347,7 +18347,7 @@
         <v>44147</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18404,7 +18404,7 @@
         <v>44147</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18461,7 +18461,7 @@
         <v>44147</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18518,7 +18518,7 @@
         <v>44147</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18575,7 +18575,7 @@
         <v>44148</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18632,7 +18632,7 @@
         <v>44148</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18694,7 +18694,7 @@
         <v>44151</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18751,7 +18751,7 @@
         <v>44151</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18808,7 +18808,7 @@
         <v>44151</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18870,7 +18870,7 @@
         <v>44151</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18927,7 +18927,7 @@
         <v>44151</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18984,7 +18984,7 @@
         <v>44151</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19041,7 +19041,7 @@
         <v>44151</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19098,7 +19098,7 @@
         <v>44152</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19160,7 +19160,7 @@
         <v>44153</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19217,7 +19217,7 @@
         <v>44153</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19279,7 +19279,7 @@
         <v>44153</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19336,7 +19336,7 @@
         <v>44153</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19398,7 +19398,7 @@
         <v>44160</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19455,7 +19455,7 @@
         <v>44161</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19512,7 +19512,7 @@
         <v>44161</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19574,7 +19574,7 @@
         <v>44162</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19631,7 +19631,7 @@
         <v>44165</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19688,7 +19688,7 @@
         <v>44166</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19745,7 +19745,7 @@
         <v>44167</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19802,7 +19802,7 @@
         <v>44169</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19859,7 +19859,7 @@
         <v>44176</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19916,7 +19916,7 @@
         <v>44180</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19973,7 +19973,7 @@
         <v>44180</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20030,7 +20030,7 @@
         <v>44180</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20087,7 +20087,7 @@
         <v>44180</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20149,7 +20149,7 @@
         <v>44186</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20206,7 +20206,7 @@
         <v>44187</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20263,7 +20263,7 @@
         <v>44187</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20320,7 +20320,7 @@
         <v>44187</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20377,7 +20377,7 @@
         <v>44188</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20434,7 +20434,7 @@
         <v>44194</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20491,7 +20491,7 @@
         <v>44195</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20548,7 +20548,7 @@
         <v>44203</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20610,7 +20610,7 @@
         <v>44203</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20672,7 +20672,7 @@
         <v>44203</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20734,7 +20734,7 @@
         <v>44203</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20796,7 +20796,7 @@
         <v>44203</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20858,7 +20858,7 @@
         <v>44204</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20920,7 +20920,7 @@
         <v>44204</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20982,7 +20982,7 @@
         <v>44207</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21044,7 +21044,7 @@
         <v>44207</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21106,7 +21106,7 @@
         <v>44208</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21168,7 +21168,7 @@
         <v>44208</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21230,7 +21230,7 @@
         <v>44208</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21287,7 +21287,7 @@
         <v>44209</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21349,7 +21349,7 @@
         <v>44210</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21411,7 +21411,7 @@
         <v>44211</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21468,7 +21468,7 @@
         <v>44211</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21525,7 +21525,7 @@
         <v>44218</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21582,7 +21582,7 @@
         <v>44224</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21639,7 +21639,7 @@
         <v>44232</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21696,7 +21696,7 @@
         <v>44239</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21753,7 +21753,7 @@
         <v>44239</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21810,7 +21810,7 @@
         <v>44242</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21867,7 +21867,7 @@
         <v>44267</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21924,7 +21924,7 @@
         <v>44270</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21981,7 +21981,7 @@
         <v>44278</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22038,7 +22038,7 @@
         <v>44278</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22095,7 +22095,7 @@
         <v>44279</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22157,7 +22157,7 @@
         <v>44279</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22219,7 +22219,7 @@
         <v>44279</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22281,7 +22281,7 @@
         <v>44295</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22338,7 +22338,7 @@
         <v>44299</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22395,7 +22395,7 @@
         <v>44316</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22452,7 +22452,7 @@
         <v>44326</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22514,7 +22514,7 @@
         <v>44336</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22571,7 +22571,7 @@
         <v>44347</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22628,7 +22628,7 @@
         <v>44347</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22685,7 +22685,7 @@
         <v>44364</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22742,7 +22742,7 @@
         <v>44365</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22804,7 +22804,7 @@
         <v>44369</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22866,7 +22866,7 @@
         <v>44370</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22928,7 +22928,7 @@
         <v>44370</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22985,7 +22985,7 @@
         <v>44370</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23047,7 +23047,7 @@
         <v>44371</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23104,7 +23104,7 @@
         <v>44379</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23166,7 +23166,7 @@
         <v>44381</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23223,7 +23223,7 @@
         <v>44381</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23280,7 +23280,7 @@
         <v>44381</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23337,7 +23337,7 @@
         <v>44382</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23399,7 +23399,7 @@
         <v>44382</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23461,7 +23461,7 @@
         <v>44383</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23523,7 +23523,7 @@
         <v>44384</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23580,7 +23580,7 @@
         <v>44389</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23637,7 +23637,7 @@
         <v>44407</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23694,7 +23694,7 @@
         <v>44424</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23756,7 +23756,7 @@
         <v>44424</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23813,7 +23813,7 @@
         <v>44438</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23875,7 +23875,7 @@
         <v>44452</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23932,7 +23932,7 @@
         <v>44452</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23989,7 +23989,7 @@
         <v>44452</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24046,7 +24046,7 @@
         <v>44454</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24103,7 +24103,7 @@
         <v>44460</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24160,7 +24160,7 @@
         <v>44467</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24222,7 +24222,7 @@
         <v>44480</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24279,7 +24279,7 @@
         <v>44480</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24341,7 +24341,7 @@
         <v>44484</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24398,7 +24398,7 @@
         <v>44488</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24455,7 +24455,7 @@
         <v>44488</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24512,7 +24512,7 @@
         <v>44489</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24569,7 +24569,7 @@
         <v>44496</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24631,7 +24631,7 @@
         <v>44496</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24688,7 +24688,7 @@
         <v>44503</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24750,7 +24750,7 @@
         <v>44505</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24812,7 +24812,7 @@
         <v>44505</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24874,7 +24874,7 @@
         <v>44505</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24936,7 +24936,7 @@
         <v>44505</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24998,7 +24998,7 @@
         <v>44509</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25060,7 +25060,7 @@
         <v>44509</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25122,7 +25122,7 @@
         <v>44509</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25184,7 +25184,7 @@
         <v>44509</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25246,7 +25246,7 @@
         <v>44509</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25303,7 +25303,7 @@
         <v>44509</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25365,7 +25365,7 @@
         <v>44509</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25427,7 +25427,7 @@
         <v>44509</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25489,7 +25489,7 @@
         <v>44511</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25551,7 +25551,7 @@
         <v>44515</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25613,7 +25613,7 @@
         <v>44517</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25670,7 +25670,7 @@
         <v>44517</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25727,7 +25727,7 @@
         <v>44517</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25784,7 +25784,7 @@
         <v>44517</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25841,7 +25841,7 @@
         <v>44517</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25898,7 +25898,7 @@
         <v>44522</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25960,7 +25960,7 @@
         <v>44524</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26022,7 +26022,7 @@
         <v>44526</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26084,7 +26084,7 @@
         <v>44526</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26141,7 +26141,7 @@
         <v>44531</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26198,7 +26198,7 @@
         <v>44532</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26260,7 +26260,7 @@
         <v>44532</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26322,7 +26322,7 @@
         <v>44536</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26379,7 +26379,7 @@
         <v>44572</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26436,7 +26436,7 @@
         <v>44585</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26493,7 +26493,7 @@
         <v>44592</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26550,7 +26550,7 @@
         <v>44594</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26607,7 +26607,7 @@
         <v>44595</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26664,7 +26664,7 @@
         <v>44595</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26721,7 +26721,7 @@
         <v>44595</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26778,7 +26778,7 @@
         <v>44596</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26835,7 +26835,7 @@
         <v>44596</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26892,7 +26892,7 @@
         <v>44601</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26949,7 +26949,7 @@
         <v>44603</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27006,7 +27006,7 @@
         <v>44608</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27063,7 +27063,7 @@
         <v>44616</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27120,7 +27120,7 @@
         <v>44617</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27177,7 +27177,7 @@
         <v>44620</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27234,7 +27234,7 @@
         <v>44620</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27291,7 +27291,7 @@
         <v>44623</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27348,7 +27348,7 @@
         <v>44631</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27405,7 +27405,7 @@
         <v>44636</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27462,7 +27462,7 @@
         <v>44642</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27519,7 +27519,7 @@
         <v>44650</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27576,7 +27576,7 @@
         <v>44650</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27633,7 +27633,7 @@
         <v>44652</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27695,7 +27695,7 @@
         <v>44659</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27752,7 +27752,7 @@
         <v>44662</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27809,7 +27809,7 @@
         <v>44671</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27866,7 +27866,7 @@
         <v>44676</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27923,7 +27923,7 @@
         <v>44691</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27980,7 +27980,7 @@
         <v>44697</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28042,7 +28042,7 @@
         <v>44704</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28104,7 +28104,7 @@
         <v>44704</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28166,7 +28166,7 @@
         <v>44705</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28223,7 +28223,7 @@
         <v>44706</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28280,7 +28280,7 @@
         <v>44712</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28337,7 +28337,7 @@
         <v>44712</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28399,7 +28399,7 @@
         <v>44712</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28461,7 +28461,7 @@
         <v>44714</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28518,7 +28518,7 @@
         <v>44720</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28575,7 +28575,7 @@
         <v>44720</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28632,7 +28632,7 @@
         <v>44722</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28689,7 +28689,7 @@
         <v>44728</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28746,7 +28746,7 @@
         <v>44729</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28808,7 +28808,7 @@
         <v>44729</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28870,7 +28870,7 @@
         <v>44729</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28932,7 +28932,7 @@
         <v>44732</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28989,7 +28989,7 @@
         <v>44732</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29046,7 +29046,7 @@
         <v>44763</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29103,7 +29103,7 @@
         <v>44783</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29165,7 +29165,7 @@
         <v>44785</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29227,7 +29227,7 @@
         <v>44791</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29284,7 +29284,7 @@
         <v>44796</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29341,7 +29341,7 @@
         <v>44796</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29398,7 +29398,7 @@
         <v>44798</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29455,7 +29455,7 @@
         <v>44799</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29512,7 +29512,7 @@
         <v>44799</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29569,7 +29569,7 @@
         <v>44805</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29626,7 +29626,7 @@
         <v>44806</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29683,7 +29683,7 @@
         <v>44806</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29740,7 +29740,7 @@
         <v>44806</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29797,7 +29797,7 @@
         <v>44817</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29854,7 +29854,7 @@
         <v>44818</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29911,7 +29911,7 @@
         <v>44819</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29968,7 +29968,7 @@
         <v>44826</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30030,7 +30030,7 @@
         <v>44827</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30092,7 +30092,7 @@
         <v>44830</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30149,7 +30149,7 @@
         <v>44839</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30206,7 +30206,7 @@
         <v>44839</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30263,7 +30263,7 @@
         <v>44840</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30320,7 +30320,7 @@
         <v>44846</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30377,7 +30377,7 @@
         <v>44846</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30434,7 +30434,7 @@
         <v>44846</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30491,7 +30491,7 @@
         <v>44846</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30548,7 +30548,7 @@
         <v>44854</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30605,7 +30605,7 @@
         <v>44859</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30662,7 +30662,7 @@
         <v>44859</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30719,7 +30719,7 @@
         <v>44861</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30776,7 +30776,7 @@
         <v>44862</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30833,7 +30833,7 @@
         <v>44873</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30890,7 +30890,7 @@
         <v>44875</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30952,7 +30952,7 @@
         <v>44875</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31009,7 +31009,7 @@
         <v>44876</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31071,7 +31071,7 @@
         <v>44878</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31133,7 +31133,7 @@
         <v>44879</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31195,7 +31195,7 @@
         <v>44879</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31257,7 +31257,7 @@
         <v>44879</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31319,7 +31319,7 @@
         <v>44879</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31381,7 +31381,7 @@
         <v>44879</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31443,7 +31443,7 @@
         <v>44879</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31505,7 +31505,7 @@
         <v>44880</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31562,7 +31562,7 @@
         <v>44881</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31624,7 +31624,7 @@
         <v>44881</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31686,7 +31686,7 @@
         <v>44883</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31743,7 +31743,7 @@
         <v>44883</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31805,7 +31805,7 @@
         <v>44886</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31867,7 +31867,7 @@
         <v>44886</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31929,7 +31929,7 @@
         <v>44893</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31986,7 +31986,7 @@
         <v>44894</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32043,7 +32043,7 @@
         <v>44894</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32100,7 +32100,7 @@
         <v>44895</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32157,7 +32157,7 @@
         <v>44897</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32214,7 +32214,7 @@
         <v>44901</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32271,7 +32271,7 @@
         <v>44908</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32328,7 +32328,7 @@
         <v>44909</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32385,7 +32385,7 @@
         <v>44909</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32442,7 +32442,7 @@
         <v>44914</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32499,7 +32499,7 @@
         <v>44915</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32556,7 +32556,7 @@
         <v>44915</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32613,7 +32613,7 @@
         <v>44916</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32670,7 +32670,7 @@
         <v>44929</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32727,7 +32727,7 @@
         <v>44944</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32784,7 +32784,7 @@
         <v>44945</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32841,7 +32841,7 @@
         <v>44946</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32898,7 +32898,7 @@
         <v>44952</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32955,7 +32955,7 @@
         <v>44953</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33017,7 +33017,7 @@
         <v>44966</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33074,7 +33074,7 @@
         <v>44967</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33131,7 +33131,7 @@
         <v>44967</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33188,7 +33188,7 @@
         <v>44970</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33245,7 +33245,7 @@
         <v>44971</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33302,7 +33302,7 @@
         <v>44993</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33359,7 +33359,7 @@
         <v>44993</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33416,7 +33416,7 @@
         <v>44993</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33473,7 +33473,7 @@
         <v>44993</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33530,7 +33530,7 @@
         <v>45008</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -33587,7 +33587,7 @@
         <v>45009</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -33644,7 +33644,7 @@
         <v>45012</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33701,7 +33701,7 @@
         <v>45014</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33758,7 +33758,7 @@
         <v>45016</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33815,7 +33815,7 @@
         <v>45016</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33872,7 +33872,7 @@
         <v>45016</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -33929,7 +33929,7 @@
         <v>45016</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -33986,7 +33986,7 @@
         <v>45016</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34043,7 +34043,7 @@
         <v>45016</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34100,7 +34100,7 @@
         <v>45016</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34157,7 +34157,7 @@
         <v>45030</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34214,7 +34214,7 @@
         <v>45033</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34271,7 +34271,7 @@
         <v>45033</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34328,7 +34328,7 @@
         <v>45036</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34385,7 +34385,7 @@
         <v>45037</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -34447,7 +34447,7 @@
         <v>45038</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34504,7 +34504,7 @@
         <v>45041</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -34561,7 +34561,7 @@
         <v>45041</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -34623,7 +34623,7 @@
         <v>45043</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34680,7 +34680,7 @@
         <v>45044</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -34737,7 +34737,7 @@
         <v>45044</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -34794,7 +34794,7 @@
         <v>45044</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -34851,7 +34851,7 @@
         <v>45058</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -34913,7 +34913,7 @@
         <v>45061</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -34970,7 +34970,7 @@
         <v>45062</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -35032,7 +35032,7 @@
         <v>45062</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35089,7 +35089,7 @@
         <v>45063</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -35151,7 +35151,7 @@
         <v>45070</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -35208,7 +35208,7 @@
         <v>45072</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -35270,7 +35270,7 @@
         <v>45072</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35327,7 +35327,7 @@
         <v>45078</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35384,7 +35384,7 @@
         <v>45078</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -35446,7 +35446,7 @@
         <v>45079</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -35503,7 +35503,7 @@
         <v>45082</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -35560,7 +35560,7 @@
         <v>45082</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -35617,7 +35617,7 @@
         <v>45084</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -35679,7 +35679,7 @@
         <v>45084</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -35736,7 +35736,7 @@
         <v>45085</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -35793,7 +35793,7 @@
         <v>45089</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -35850,7 +35850,7 @@
         <v>45090</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -35907,7 +35907,7 @@
         <v>45090</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -35964,7 +35964,7 @@
         <v>45090</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -36021,7 +36021,7 @@
         <v>45090</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -36078,7 +36078,7 @@
         <v>45091</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -36135,7 +36135,7 @@
         <v>45097</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -36192,7 +36192,7 @@
         <v>45097</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -36249,7 +36249,7 @@
         <v>45097</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -36306,7 +36306,7 @@
         <v>45097</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -36363,7 +36363,7 @@
         <v>45098</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -36425,7 +36425,7 @@
         <v>45099</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -36482,7 +36482,7 @@
         <v>45103</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -36539,7 +36539,7 @@
         <v>45104</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -36596,7 +36596,7 @@
         <v>45104</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -36653,7 +36653,7 @@
         <v>45107</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -36715,7 +36715,7 @@
         <v>45107</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -36772,7 +36772,7 @@
         <v>45107</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -36829,7 +36829,7 @@
         <v>45107</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -36886,7 +36886,7 @@
         <v>45107</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -36943,7 +36943,7 @@
         <v>45107</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -37000,7 +37000,7 @@
         <v>45107</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -37062,7 +37062,7 @@
         <v>45107</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -37124,7 +37124,7 @@
         <v>45107</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -37181,7 +37181,7 @@
         <v>45110</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -37238,7 +37238,7 @@
         <v>45110</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -37295,7 +37295,7 @@
         <v>45112</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -37357,7 +37357,7 @@
         <v>45113</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -37419,7 +37419,7 @@
         <v>45113</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -37476,7 +37476,7 @@
         <v>45114</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -37533,7 +37533,7 @@
         <v>45114</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -37590,7 +37590,7 @@
         <v>45117</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -37647,7 +37647,7 @@
         <v>45119</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -37709,7 +37709,7 @@
         <v>45120</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -37766,7 +37766,7 @@
         <v>45121</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -37823,7 +37823,7 @@
         <v>45123</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -37880,7 +37880,7 @@
         <v>45132</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -37937,7 +37937,7 @@
         <v>45138</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -37994,7 +37994,7 @@
         <v>45138</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -38051,7 +38051,7 @@
         <v>45147</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -38108,7 +38108,7 @@
         <v>45149</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -38165,7 +38165,7 @@
         <v>45149</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -38222,7 +38222,7 @@
         <v>45161</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -38284,7 +38284,7 @@
         <v>45161</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -38346,7 +38346,7 @@
         <v>45161</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -38408,7 +38408,7 @@
         <v>45169</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -38465,7 +38465,7 @@
         <v>45173</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -38527,7 +38527,7 @@
         <v>45173</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -38584,7 +38584,7 @@
         <v>45175</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -38641,7 +38641,7 @@
         <v>45176</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -38698,7 +38698,7 @@
         <v>45180</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -38755,7 +38755,7 @@
         <v>45180</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>

--- a/Översikt BOLLNÄS.xlsx
+++ b/Översikt BOLLNÄS.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y646"/>
+  <dimension ref="A1:Y647"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>44109</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -675,7 +675,7 @@
         <v>44095</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -776,7 +776,7 @@
         <v>44382</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -868,7 +868,7 @@
         <v>44729</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -960,7 +960,7 @@
         <v>43783</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1055,7 +1055,7 @@
         <v>43783</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1150,7 +1150,7 @@
         <v>43783</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1245,7 +1245,7 @@
         <v>43993</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1331,7 +1331,7 @@
         <v>43999</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1422,7 +1422,7 @@
         <v>44432</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1512,7 +1512,7 @@
         <v>45092</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         <v>43600</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1688,7 +1688,7 @@
         <v>43619</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1777,7 +1777,7 @@
         <v>43794</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1862,7 +1862,7 @@
         <v>43864</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1947,7 +1947,7 @@
         <v>44081</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2037,7 +2037,7 @@
         <v>44515</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2127,7 +2127,7 @@
         <v>44813</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2212,7 +2212,7 @@
         <v>44901</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2297,7 +2297,7 @@
         <v>45058</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         <v>45076</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2476,7 +2476,7 @@
         <v>45090</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2561,7 +2561,7 @@
         <v>43360</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2618,7 +2618,7 @@
         <v>43375</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2675,7 +2675,7 @@
         <v>43382</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2732,7 +2732,7 @@
         <v>43389</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2789,7 +2789,7 @@
         <v>43392</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2846,7 +2846,7 @@
         <v>43410</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2903,7 +2903,7 @@
         <v>43413</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2965,7 +2965,7 @@
         <v>43416</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3022,7 +3022,7 @@
         <v>43417</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3079,7 +3079,7 @@
         <v>43417</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3136,7 +3136,7 @@
         <v>43418</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3193,7 +3193,7 @@
         <v>43418</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3250,7 +3250,7 @@
         <v>43418</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3307,7 +3307,7 @@
         <v>43419</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3364,7 +3364,7 @@
         <v>43420</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3421,7 +3421,7 @@
         <v>43424</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3478,7 +3478,7 @@
         <v>43424</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3535,7 +3535,7 @@
         <v>43424</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3592,7 +3592,7 @@
         <v>43424</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3649,7 +3649,7 @@
         <v>43424</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3706,7 +3706,7 @@
         <v>43424</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3763,7 +3763,7 @@
         <v>43424</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3820,7 +3820,7 @@
         <v>43427</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3877,7 +3877,7 @@
         <v>43427</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3934,7 +3934,7 @@
         <v>43427</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3991,7 +3991,7 @@
         <v>43427</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4048,7 +4048,7 @@
         <v>43427</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4105,7 +4105,7 @@
         <v>43430</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4162,7 +4162,7 @@
         <v>43431</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4219,7 +4219,7 @@
         <v>43431</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4276,7 +4276,7 @@
         <v>43434</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4333,7 +4333,7 @@
         <v>43434</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4390,7 +4390,7 @@
         <v>43437</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4447,7 +4447,7 @@
         <v>43441</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4504,7 +4504,7 @@
         <v>43444</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4561,7 +4561,7 @@
         <v>43445</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4623,7 +4623,7 @@
         <v>43445</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4680,7 +4680,7 @@
         <v>43446</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4737,7 +4737,7 @@
         <v>43446</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4794,7 +4794,7 @@
         <v>43447</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4851,7 +4851,7 @@
         <v>43448</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4908,7 +4908,7 @@
         <v>43452</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4965,7 +4965,7 @@
         <v>43452</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5022,7 +5022,7 @@
         <v>43454</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5079,7 +5079,7 @@
         <v>43455</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5136,7 +5136,7 @@
         <v>43455</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5193,7 +5193,7 @@
         <v>43467</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5250,7 +5250,7 @@
         <v>43472</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5307,7 +5307,7 @@
         <v>43472</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5364,7 +5364,7 @@
         <v>43472</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5421,7 +5421,7 @@
         <v>43476</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5478,7 +5478,7 @@
         <v>43476</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5535,7 +5535,7 @@
         <v>43476</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5592,7 +5592,7 @@
         <v>43480</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5649,7 +5649,7 @@
         <v>43482</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5706,7 +5706,7 @@
         <v>43482</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5763,7 +5763,7 @@
         <v>43497</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5820,7 +5820,7 @@
         <v>43509</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5877,7 +5877,7 @@
         <v>43515</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5934,7 +5934,7 @@
         <v>43517</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5991,7 +5991,7 @@
         <v>43518</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6048,7 +6048,7 @@
         <v>43522</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6105,7 +6105,7 @@
         <v>43523</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6162,7 +6162,7 @@
         <v>43528</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6219,7 +6219,7 @@
         <v>43528</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6276,7 +6276,7 @@
         <v>43529</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6333,7 +6333,7 @@
         <v>43532</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6390,7 +6390,7 @@
         <v>43532</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6447,7 +6447,7 @@
         <v>43536</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6504,7 +6504,7 @@
         <v>43537</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6561,7 +6561,7 @@
         <v>43559</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6618,7 +6618,7 @@
         <v>43560</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6675,7 +6675,7 @@
         <v>43563</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6732,7 +6732,7 @@
         <v>43564</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6789,7 +6789,7 @@
         <v>43567</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6846,7 +6846,7 @@
         <v>43571</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6903,7 +6903,7 @@
         <v>43580</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6960,7 +6960,7 @@
         <v>43583</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7017,7 +7017,7 @@
         <v>43587</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7074,7 +7074,7 @@
         <v>43593</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7131,7 +7131,7 @@
         <v>43593</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7188,7 +7188,7 @@
         <v>43594</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7245,7 +7245,7 @@
         <v>43598</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7302,7 +7302,7 @@
         <v>43599</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7359,7 +7359,7 @@
         <v>43599</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7416,7 +7416,7 @@
         <v>43599</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7473,7 +7473,7 @@
         <v>43605</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7535,7 +7535,7 @@
         <v>43607</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7592,7 +7592,7 @@
         <v>43612</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7649,7 +7649,7 @@
         <v>43619</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7711,7 +7711,7 @@
         <v>43619</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7768,7 +7768,7 @@
         <v>43619</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7830,7 +7830,7 @@
         <v>43619</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7892,7 +7892,7 @@
         <v>43620</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7949,7 +7949,7 @@
         <v>43620</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8006,7 +8006,7 @@
         <v>43629</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8068,7 +8068,7 @@
         <v>43629</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8125,7 +8125,7 @@
         <v>43633</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8182,7 +8182,7 @@
         <v>43635</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8239,7 +8239,7 @@
         <v>43640</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8296,7 +8296,7 @@
         <v>43641</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8353,7 +8353,7 @@
         <v>43643</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8410,7 +8410,7 @@
         <v>43649</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8467,7 +8467,7 @@
         <v>43649</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8524,7 +8524,7 @@
         <v>43651</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8586,7 +8586,7 @@
         <v>43654</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8643,7 +8643,7 @@
         <v>43656</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8700,7 +8700,7 @@
         <v>43657</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8757,7 +8757,7 @@
         <v>43657</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8819,7 +8819,7 @@
         <v>43664</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8876,7 +8876,7 @@
         <v>43689</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8933,7 +8933,7 @@
         <v>43691</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8995,7 +8995,7 @@
         <v>43698</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9052,7 +9052,7 @@
         <v>43698</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9109,7 +9109,7 @@
         <v>43703</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9166,7 +9166,7 @@
         <v>43704</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9223,7 +9223,7 @@
         <v>43704</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9280,7 +9280,7 @@
         <v>43705</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9342,7 +9342,7 @@
         <v>43706</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9399,7 +9399,7 @@
         <v>43707</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9461,7 +9461,7 @@
         <v>43707</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9523,7 +9523,7 @@
         <v>43710</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9580,7 +9580,7 @@
         <v>43711</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9642,7 +9642,7 @@
         <v>43717</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9699,7 +9699,7 @@
         <v>43718</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9756,7 +9756,7 @@
         <v>43718</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9813,7 +9813,7 @@
         <v>43721</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9875,7 +9875,7 @@
         <v>43726</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9932,7 +9932,7 @@
         <v>43732</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9989,7 +9989,7 @@
         <v>43733</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10051,7 +10051,7 @@
         <v>43733</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10113,7 +10113,7 @@
         <v>43738</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10170,7 +10170,7 @@
         <v>43739</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10227,7 +10227,7 @@
         <v>43740</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10284,7 +10284,7 @@
         <v>43741</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10341,7 +10341,7 @@
         <v>43742</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10398,7 +10398,7 @@
         <v>43742</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10455,7 +10455,7 @@
         <v>43742</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10512,7 +10512,7 @@
         <v>43748</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10569,7 +10569,7 @@
         <v>43753</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10626,7 +10626,7 @@
         <v>43754</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10688,7 +10688,7 @@
         <v>43754</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10745,7 +10745,7 @@
         <v>43755</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10807,7 +10807,7 @@
         <v>43759</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10864,7 +10864,7 @@
         <v>43759</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10921,7 +10921,7 @@
         <v>43760</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10978,7 +10978,7 @@
         <v>43761</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11040,7 +11040,7 @@
         <v>43767</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11102,7 +11102,7 @@
         <v>43769</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11159,7 +11159,7 @@
         <v>43773</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11216,7 +11216,7 @@
         <v>43776</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11273,7 +11273,7 @@
         <v>43777</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11330,7 +11330,7 @@
         <v>43781</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11392,7 +11392,7 @@
         <v>43783</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11449,7 +11449,7 @@
         <v>43783</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11506,7 +11506,7 @@
         <v>43783</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11588,7 +11588,7 @@
         <v>43787</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11645,7 +11645,7 @@
         <v>43789</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11702,7 +11702,7 @@
         <v>43789</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11759,7 +11759,7 @@
         <v>43790</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11816,7 +11816,7 @@
         <v>43794</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11873,7 +11873,7 @@
         <v>43795</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11930,7 +11930,7 @@
         <v>43798</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11987,7 +11987,7 @@
         <v>43800</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12044,7 +12044,7 @@
         <v>43802</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12101,7 +12101,7 @@
         <v>43808</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12163,7 +12163,7 @@
         <v>43809</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12225,7 +12225,7 @@
         <v>43809</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12287,7 +12287,7 @@
         <v>43809</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12344,7 +12344,7 @@
         <v>43812</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12401,7 +12401,7 @@
         <v>43815</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12458,7 +12458,7 @@
         <v>43819</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12515,7 +12515,7 @@
         <v>43819</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12572,7 +12572,7 @@
         <v>43837</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12629,7 +12629,7 @@
         <v>43837</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12686,7 +12686,7 @@
         <v>43840</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12743,7 +12743,7 @@
         <v>43840</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12800,7 +12800,7 @@
         <v>43846</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12857,7 +12857,7 @@
         <v>43850</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12914,7 +12914,7 @@
         <v>43852</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12976,7 +12976,7 @@
         <v>43853</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13038,7 +13038,7 @@
         <v>43858</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13100,7 +13100,7 @@
         <v>43859</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13162,7 +13162,7 @@
         <v>43865</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13219,7 +13219,7 @@
         <v>43867</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13276,7 +13276,7 @@
         <v>43871</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13333,7 +13333,7 @@
         <v>43878</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13390,7 +13390,7 @@
         <v>43878</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13447,7 +13447,7 @@
         <v>43879</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13504,7 +13504,7 @@
         <v>43882</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13561,7 +13561,7 @@
         <v>43886</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13618,7 +13618,7 @@
         <v>43886</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13675,7 +13675,7 @@
         <v>43887</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13732,7 +13732,7 @@
         <v>43888</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13789,7 +13789,7 @@
         <v>43892</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13846,7 +13846,7 @@
         <v>43894</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13903,7 +13903,7 @@
         <v>43894</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13960,7 +13960,7 @@
         <v>43901</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14022,7 +14022,7 @@
         <v>43902</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14079,7 +14079,7 @@
         <v>43913</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14136,7 +14136,7 @@
         <v>43913</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14193,7 +14193,7 @@
         <v>43913</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14255,7 +14255,7 @@
         <v>43916</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14312,7 +14312,7 @@
         <v>43916</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14369,7 +14369,7 @@
         <v>43924</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14426,7 +14426,7 @@
         <v>43927</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14483,7 +14483,7 @@
         <v>43930</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14540,7 +14540,7 @@
         <v>43945</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14597,7 +14597,7 @@
         <v>43949</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14654,7 +14654,7 @@
         <v>43949</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14711,7 +14711,7 @@
         <v>43956</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14768,7 +14768,7 @@
         <v>43987</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14825,7 +14825,7 @@
         <v>43991</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14882,7 +14882,7 @@
         <v>43993</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14944,7 +14944,7 @@
         <v>43993</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15006,7 +15006,7 @@
         <v>43994</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15063,7 +15063,7 @@
         <v>43998</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15120,7 +15120,7 @@
         <v>44000</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15182,7 +15182,7 @@
         <v>44006</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15239,7 +15239,7 @@
         <v>44008</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15296,7 +15296,7 @@
         <v>44012</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15353,7 +15353,7 @@
         <v>44013</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15410,7 +15410,7 @@
         <v>44014</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15467,7 +15467,7 @@
         <v>44014</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15524,7 +15524,7 @@
         <v>44014</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15581,7 +15581,7 @@
         <v>44014</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15638,7 +15638,7 @@
         <v>44014</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15695,7 +15695,7 @@
         <v>44015</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15752,7 +15752,7 @@
         <v>44015</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15809,7 +15809,7 @@
         <v>44035</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15866,7 +15866,7 @@
         <v>44035</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15923,7 +15923,7 @@
         <v>44055</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15980,7 +15980,7 @@
         <v>44057</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16037,7 +16037,7 @@
         <v>44061</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16094,7 +16094,7 @@
         <v>44062</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16151,7 +16151,7 @@
         <v>44064</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16208,7 +16208,7 @@
         <v>44070</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16265,7 +16265,7 @@
         <v>44076</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16322,7 +16322,7 @@
         <v>44076</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16379,7 +16379,7 @@
         <v>44083</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16436,7 +16436,7 @@
         <v>44083</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16493,7 +16493,7 @@
         <v>44083</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16550,7 +16550,7 @@
         <v>44083</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16607,7 +16607,7 @@
         <v>44084</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16664,7 +16664,7 @@
         <v>44088</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16726,7 +16726,7 @@
         <v>44089</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16783,7 +16783,7 @@
         <v>44090</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16845,7 +16845,7 @@
         <v>44095</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16902,7 +16902,7 @@
         <v>44103</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16959,7 +16959,7 @@
         <v>44105</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17016,7 +17016,7 @@
         <v>44105</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17073,7 +17073,7 @@
         <v>44110</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17130,7 +17130,7 @@
         <v>44110</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17187,7 +17187,7 @@
         <v>44116</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17244,7 +17244,7 @@
         <v>44119</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17306,7 +17306,7 @@
         <v>44119</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17368,7 +17368,7 @@
         <v>44119</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17430,7 +17430,7 @@
         <v>44120</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17487,7 +17487,7 @@
         <v>44125</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17544,7 +17544,7 @@
         <v>44125</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17601,7 +17601,7 @@
         <v>44127</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17658,7 +17658,7 @@
         <v>44127</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17715,7 +17715,7 @@
         <v>44127</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17772,7 +17772,7 @@
         <v>44130</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17829,7 +17829,7 @@
         <v>44133</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17886,7 +17886,7 @@
         <v>44133</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17943,7 +17943,7 @@
         <v>44133</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18000,7 +18000,7 @@
         <v>44137</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18057,7 +18057,7 @@
         <v>44140</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18119,7 +18119,7 @@
         <v>44141</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18176,7 +18176,7 @@
         <v>44144</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18233,7 +18233,7 @@
         <v>44144</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18290,7 +18290,7 @@
         <v>44146</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18347,7 +18347,7 @@
         <v>44147</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18404,7 +18404,7 @@
         <v>44147</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18461,7 +18461,7 @@
         <v>44147</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18518,7 +18518,7 @@
         <v>44147</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18575,7 +18575,7 @@
         <v>44148</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18632,7 +18632,7 @@
         <v>44148</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18694,7 +18694,7 @@
         <v>44151</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18751,7 +18751,7 @@
         <v>44151</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18808,7 +18808,7 @@
         <v>44151</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18870,7 +18870,7 @@
         <v>44151</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18927,7 +18927,7 @@
         <v>44151</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18984,7 +18984,7 @@
         <v>44151</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19041,7 +19041,7 @@
         <v>44151</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19098,7 +19098,7 @@
         <v>44152</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19160,7 +19160,7 @@
         <v>44153</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19217,7 +19217,7 @@
         <v>44153</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19279,7 +19279,7 @@
         <v>44153</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19336,7 +19336,7 @@
         <v>44153</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19398,7 +19398,7 @@
         <v>44160</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19455,7 +19455,7 @@
         <v>44161</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19512,7 +19512,7 @@
         <v>44161</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19574,7 +19574,7 @@
         <v>44162</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19631,7 +19631,7 @@
         <v>44165</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19688,7 +19688,7 @@
         <v>44166</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19745,7 +19745,7 @@
         <v>44167</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19802,7 +19802,7 @@
         <v>44169</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19859,7 +19859,7 @@
         <v>44176</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19916,7 +19916,7 @@
         <v>44180</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19973,7 +19973,7 @@
         <v>44180</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20030,7 +20030,7 @@
         <v>44180</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20087,7 +20087,7 @@
         <v>44180</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20149,7 +20149,7 @@
         <v>44186</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20206,7 +20206,7 @@
         <v>44187</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20263,7 +20263,7 @@
         <v>44187</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20320,7 +20320,7 @@
         <v>44187</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20377,7 +20377,7 @@
         <v>44188</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20434,7 +20434,7 @@
         <v>44194</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20491,7 +20491,7 @@
         <v>44195</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20548,7 +20548,7 @@
         <v>44203</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20610,7 +20610,7 @@
         <v>44203</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20672,7 +20672,7 @@
         <v>44203</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20734,7 +20734,7 @@
         <v>44203</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20796,7 +20796,7 @@
         <v>44203</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20858,7 +20858,7 @@
         <v>44204</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20920,7 +20920,7 @@
         <v>44204</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20982,7 +20982,7 @@
         <v>44207</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21044,7 +21044,7 @@
         <v>44207</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21106,7 +21106,7 @@
         <v>44208</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21168,7 +21168,7 @@
         <v>44208</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21230,7 +21230,7 @@
         <v>44208</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21287,7 +21287,7 @@
         <v>44209</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21349,7 +21349,7 @@
         <v>44210</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21411,7 +21411,7 @@
         <v>44211</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21468,7 +21468,7 @@
         <v>44211</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21525,7 +21525,7 @@
         <v>44218</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21582,7 +21582,7 @@
         <v>44224</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21639,7 +21639,7 @@
         <v>44232</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21696,7 +21696,7 @@
         <v>44239</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21753,7 +21753,7 @@
         <v>44239</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21810,7 +21810,7 @@
         <v>44242</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21867,7 +21867,7 @@
         <v>44267</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21924,7 +21924,7 @@
         <v>44270</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21981,7 +21981,7 @@
         <v>44278</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22038,7 +22038,7 @@
         <v>44278</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22095,7 +22095,7 @@
         <v>44279</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22157,7 +22157,7 @@
         <v>44279</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22219,7 +22219,7 @@
         <v>44279</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22281,7 +22281,7 @@
         <v>44295</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22338,7 +22338,7 @@
         <v>44299</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22395,7 +22395,7 @@
         <v>44316</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22452,7 +22452,7 @@
         <v>44326</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22514,7 +22514,7 @@
         <v>44336</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22571,7 +22571,7 @@
         <v>44347</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22628,7 +22628,7 @@
         <v>44347</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22685,7 +22685,7 @@
         <v>44364</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22742,7 +22742,7 @@
         <v>44365</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22804,7 +22804,7 @@
         <v>44369</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22866,7 +22866,7 @@
         <v>44370</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22928,7 +22928,7 @@
         <v>44370</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22985,7 +22985,7 @@
         <v>44370</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23047,7 +23047,7 @@
         <v>44371</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23104,7 +23104,7 @@
         <v>44379</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23166,7 +23166,7 @@
         <v>44381</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23223,7 +23223,7 @@
         <v>44381</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23280,7 +23280,7 @@
         <v>44381</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23337,7 +23337,7 @@
         <v>44382</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23399,7 +23399,7 @@
         <v>44382</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23461,7 +23461,7 @@
         <v>44383</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23523,7 +23523,7 @@
         <v>44384</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23580,7 +23580,7 @@
         <v>44389</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23637,7 +23637,7 @@
         <v>44407</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23694,7 +23694,7 @@
         <v>44424</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23756,7 +23756,7 @@
         <v>44424</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23813,7 +23813,7 @@
         <v>44438</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23875,7 +23875,7 @@
         <v>44452</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23932,7 +23932,7 @@
         <v>44452</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23989,7 +23989,7 @@
         <v>44452</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24046,7 +24046,7 @@
         <v>44454</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24103,7 +24103,7 @@
         <v>44460</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24160,7 +24160,7 @@
         <v>44467</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24222,7 +24222,7 @@
         <v>44480</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24279,7 +24279,7 @@
         <v>44480</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24341,7 +24341,7 @@
         <v>44484</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24398,7 +24398,7 @@
         <v>44488</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24455,7 +24455,7 @@
         <v>44488</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24512,7 +24512,7 @@
         <v>44489</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24569,7 +24569,7 @@
         <v>44496</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24631,7 +24631,7 @@
         <v>44496</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24688,7 +24688,7 @@
         <v>44503</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24750,7 +24750,7 @@
         <v>44505</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24812,7 +24812,7 @@
         <v>44505</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24874,7 +24874,7 @@
         <v>44505</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24936,7 +24936,7 @@
         <v>44505</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24998,7 +24998,7 @@
         <v>44509</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25060,7 +25060,7 @@
         <v>44509</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25122,7 +25122,7 @@
         <v>44509</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25184,7 +25184,7 @@
         <v>44509</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25246,7 +25246,7 @@
         <v>44509</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25303,7 +25303,7 @@
         <v>44509</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25365,7 +25365,7 @@
         <v>44509</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25427,7 +25427,7 @@
         <v>44509</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25489,7 +25489,7 @@
         <v>44511</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25551,7 +25551,7 @@
         <v>44515</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25613,7 +25613,7 @@
         <v>44517</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25670,7 +25670,7 @@
         <v>44517</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25727,7 +25727,7 @@
         <v>44517</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25784,7 +25784,7 @@
         <v>44517</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25841,7 +25841,7 @@
         <v>44517</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25898,7 +25898,7 @@
         <v>44522</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25960,7 +25960,7 @@
         <v>44524</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26022,7 +26022,7 @@
         <v>44526</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26084,7 +26084,7 @@
         <v>44526</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26141,7 +26141,7 @@
         <v>44531</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26198,7 +26198,7 @@
         <v>44532</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26260,7 +26260,7 @@
         <v>44532</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26322,7 +26322,7 @@
         <v>44536</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26379,7 +26379,7 @@
         <v>44572</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26436,7 +26436,7 @@
         <v>44585</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26493,7 +26493,7 @@
         <v>44592</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26550,7 +26550,7 @@
         <v>44594</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26607,7 +26607,7 @@
         <v>44595</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26664,7 +26664,7 @@
         <v>44595</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26721,7 +26721,7 @@
         <v>44595</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26778,7 +26778,7 @@
         <v>44596</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26835,7 +26835,7 @@
         <v>44596</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26892,7 +26892,7 @@
         <v>44601</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26949,7 +26949,7 @@
         <v>44603</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27006,7 +27006,7 @@
         <v>44608</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27063,7 +27063,7 @@
         <v>44616</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27120,7 +27120,7 @@
         <v>44617</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27177,7 +27177,7 @@
         <v>44620</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27234,7 +27234,7 @@
         <v>44620</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27291,7 +27291,7 @@
         <v>44623</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27348,7 +27348,7 @@
         <v>44631</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27405,7 +27405,7 @@
         <v>44636</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27462,7 +27462,7 @@
         <v>44642</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27519,7 +27519,7 @@
         <v>44650</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27576,7 +27576,7 @@
         <v>44650</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27633,7 +27633,7 @@
         <v>44652</v>
       </